--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
@@ -1087,13 +1087,13 @@
     <t>['88']</t>
   </si>
   <si>
-    <t>['38', '76']</t>
+    <t>['21', '33', '90+2']</t>
   </si>
   <si>
     <t>['45+7', '68', '90+4']</t>
   </si>
   <si>
-    <t>['21', '33', '90+2']</t>
+    <t>['38', '76']</t>
   </si>
   <si>
     <t>['52', '63']</t>
@@ -50500,7 +50500,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>7453914</v>
+        <v>7453917</v>
       </c>
       <c r="C239" t="s">
         <v>68</v>
@@ -50515,190 +50515,190 @@
         <v>30</v>
       </c>
       <c r="G239" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H239" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I239">
         <v>0</v>
       </c>
       <c r="J239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M239">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N239">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O239" t="s">
-        <v>87</v>
+        <v>226</v>
       </c>
       <c r="P239" t="s">
         <v>357</v>
       </c>
       <c r="Q239">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R239">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="S239">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="T239">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="U239">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="V239">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="W239">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="X239">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="Y239">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="Z239">
-        <v>1.9</v>
+        <v>7.1</v>
       </c>
       <c r="AA239">
-        <v>3.29</v>
+        <v>3.99</v>
       </c>
       <c r="AB239">
-        <v>4.2</v>
+        <v>1.47</v>
       </c>
       <c r="AC239">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AD239">
-        <v>7.7</v>
+        <v>0</v>
       </c>
       <c r="AE239">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AF239">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="AG239">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="AH239">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="AI239">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AJ239">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AK239">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AL239">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AM239">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AN239">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AO239">
-        <v>1</v>
+        <v>1.64</v>
       </c>
       <c r="AP239">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="AQ239">
-        <v>1.13</v>
+        <v>1.73</v>
       </c>
       <c r="AR239">
-        <v>1.63</v>
+        <v>1.14</v>
       </c>
       <c r="AS239">
-        <v>1.51</v>
+        <v>1.74</v>
       </c>
       <c r="AT239">
-        <v>3.14</v>
+        <v>2.88</v>
       </c>
       <c r="AU239">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV239">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AW239">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX239">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AY239">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ239">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="BA239">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB239">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BC239">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BD239">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="BE239">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BF239">
-        <v>2.67</v>
+        <v>0</v>
       </c>
       <c r="BG239">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="BH239">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="BI239">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="BJ239">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="BK239">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="BL239">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="BM239">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="BN239">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="BO239">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="BP239">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:68">
@@ -50912,7 +50912,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>7453917</v>
+        <v>7453914</v>
       </c>
       <c r="C241" t="s">
         <v>68</v>
@@ -50927,190 +50927,190 @@
         <v>30</v>
       </c>
       <c r="G241" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H241" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I241">
         <v>0</v>
       </c>
       <c r="J241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M241">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N241">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O241" t="s">
-        <v>226</v>
+        <v>87</v>
       </c>
       <c r="P241" t="s">
         <v>359</v>
       </c>
       <c r="Q241">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R241">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S241">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T241">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="U241">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="V241">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="W241">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X241">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Y241">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="Z241">
-        <v>7.1</v>
+        <v>1.9</v>
       </c>
       <c r="AA241">
-        <v>3.99</v>
+        <v>3.29</v>
       </c>
       <c r="AB241">
-        <v>1.47</v>
+        <v>4.2</v>
       </c>
       <c r="AC241">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AD241">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AE241">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF241">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AG241">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="AH241">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="AI241">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AJ241">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AK241">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AL241">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AM241">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AN241">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AO241">
+        <v>1</v>
+      </c>
+      <c r="AP241">
+        <v>1.25</v>
+      </c>
+      <c r="AQ241">
+        <v>1.13</v>
+      </c>
+      <c r="AR241">
+        <v>1.63</v>
+      </c>
+      <c r="AS241">
+        <v>1.51</v>
+      </c>
+      <c r="AT241">
+        <v>3.14</v>
+      </c>
+      <c r="AU241">
+        <v>3</v>
+      </c>
+      <c r="AV241">
+        <v>6</v>
+      </c>
+      <c r="AW241">
+        <v>8</v>
+      </c>
+      <c r="AX241">
+        <v>4</v>
+      </c>
+      <c r="AY241">
+        <v>15</v>
+      </c>
+      <c r="AZ241">
+        <v>12</v>
+      </c>
+      <c r="BA241">
+        <v>6</v>
+      </c>
+      <c r="BB241">
+        <v>4</v>
+      </c>
+      <c r="BC241">
+        <v>10</v>
+      </c>
+      <c r="BD241">
         <v>1.64</v>
       </c>
-      <c r="AP241">
-        <v>1.4</v>
-      </c>
-      <c r="AQ241">
-        <v>1.73</v>
-      </c>
-      <c r="AR241">
-        <v>1.14</v>
-      </c>
-      <c r="AS241">
-        <v>1.74</v>
-      </c>
-      <c r="AT241">
+      <c r="BE241">
+        <v>8</v>
+      </c>
+      <c r="BF241">
+        <v>2.67</v>
+      </c>
+      <c r="BG241">
+        <v>1.36</v>
+      </c>
+      <c r="BH241">
+        <v>2.7</v>
+      </c>
+      <c r="BI241">
+        <v>1.68</v>
+      </c>
+      <c r="BJ241">
+        <v>2.01</v>
+      </c>
+      <c r="BK241">
+        <v>2.14</v>
+      </c>
+      <c r="BL241">
+        <v>1.57</v>
+      </c>
+      <c r="BM241">
         <v>2.88</v>
       </c>
-      <c r="AU241">
-        <v>5</v>
-      </c>
-      <c r="AV241">
-        <v>9</v>
-      </c>
-      <c r="AW241">
-        <v>7</v>
-      </c>
-      <c r="AX241">
-        <v>16</v>
-      </c>
-      <c r="AY241">
-        <v>12</v>
-      </c>
-      <c r="AZ241">
-        <v>25</v>
-      </c>
-      <c r="BA241">
-        <v>7</v>
-      </c>
-      <c r="BB241">
-        <v>9</v>
-      </c>
-      <c r="BC241">
-        <v>16</v>
-      </c>
-      <c r="BD241">
-        <v>0</v>
-      </c>
-      <c r="BE241">
-        <v>0</v>
-      </c>
-      <c r="BF241">
-        <v>0</v>
-      </c>
-      <c r="BG241">
-        <v>0</v>
-      </c>
-      <c r="BH241">
-        <v>0</v>
-      </c>
-      <c r="BI241">
-        <v>0</v>
-      </c>
-      <c r="BJ241">
-        <v>0</v>
-      </c>
-      <c r="BK241">
-        <v>0</v>
-      </c>
-      <c r="BL241">
-        <v>0</v>
-      </c>
-      <c r="BM241">
-        <v>0</v>
-      </c>
       <c r="BN241">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="BO241">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="BP241">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="242" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="363">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -760,6 +760,9 @@
     <t>['7', '36', '78']</t>
   </si>
   <si>
+    <t>['31']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -1461,7 +1464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP249"/>
+  <dimension ref="A1:BP251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1720,7 +1723,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1801,7 +1804,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ2">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2338,7 +2341,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2750,7 +2753,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2956,7 +2959,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -3034,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ8">
         <v>1.73</v>
@@ -3368,7 +3371,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3574,7 +3577,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3780,7 +3783,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -4064,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ13">
         <v>1.27</v>
@@ -5222,7 +5225,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5300,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ19">
         <v>3</v>
@@ -5921,7 +5924,7 @@
         <v>2</v>
       </c>
       <c r="AQ22">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -6252,7 +6255,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6536,7 +6539,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ25">
         <v>0.93</v>
@@ -7076,7 +7079,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -7363,7 +7366,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ29">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR29">
         <v>0.53</v>
@@ -7694,7 +7697,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7900,7 +7903,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -8312,7 +8315,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8596,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ35">
         <v>0.25</v>
@@ -9136,7 +9139,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9548,7 +9551,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9626,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ40">
         <v>1.19</v>
@@ -9832,10 +9835,10 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ41">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR41">
         <v>1.91</v>
@@ -9960,7 +9963,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10166,7 +10169,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10372,7 +10375,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10578,7 +10581,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -11402,7 +11405,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11608,7 +11611,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11814,7 +11817,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -12513,7 +12516,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ54">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR54">
         <v>1.46</v>
@@ -13050,7 +13053,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -13256,7 +13259,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -13334,7 +13337,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ58">
         <v>1.27</v>
@@ -13462,7 +13465,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13668,7 +13671,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13874,7 +13877,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -14286,7 +14289,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14492,7 +14495,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14698,7 +14701,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14904,7 +14907,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14982,7 +14985,7 @@
         <v>0.25</v>
       </c>
       <c r="AP66">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -15522,7 +15525,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15809,7 +15812,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ70">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR70">
         <v>2.49</v>
@@ -15934,7 +15937,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -16346,7 +16349,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16552,7 +16555,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16836,7 +16839,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ75">
         <v>0.93</v>
@@ -16964,7 +16967,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -17376,7 +17379,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17582,7 +17585,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17660,7 +17663,7 @@
         <v>2.6</v>
       </c>
       <c r="AP79">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ79">
         <v>1.6</v>
@@ -17994,7 +17997,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -18200,7 +18203,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -18406,7 +18409,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18612,7 +18615,7 @@
         <v>87</v>
       </c>
       <c r="P84" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18818,7 +18821,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -19230,7 +19233,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -19642,7 +19645,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -20054,7 +20057,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -20132,10 +20135,10 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ91">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR91">
         <v>1.18</v>
@@ -20672,7 +20675,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -21496,7 +21499,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q98">
         <v>13</v>
@@ -21908,7 +21911,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -22114,7 +22117,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -22320,7 +22323,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22398,7 +22401,7 @@
         <v>2.6</v>
       </c>
       <c r="AP102">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ102">
         <v>1.31</v>
@@ -22526,7 +22529,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22604,7 +22607,7 @@
         <v>0.67</v>
       </c>
       <c r="AP103">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ103">
         <v>0.75</v>
@@ -23350,7 +23353,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23762,7 +23765,7 @@
         <v>87</v>
       </c>
       <c r="P109" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -24049,7 +24052,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ110">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR110">
         <v>1.53</v>
@@ -24174,7 +24177,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -24252,7 +24255,7 @@
         <v>1</v>
       </c>
       <c r="AP111">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ111">
         <v>1.19</v>
@@ -24380,7 +24383,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -25204,7 +25207,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -25410,7 +25413,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25616,7 +25619,7 @@
         <v>87</v>
       </c>
       <c r="P118" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -25822,7 +25825,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25900,7 +25903,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ119">
         <v>1.33</v>
@@ -26028,7 +26031,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q120">
         <v>3.15</v>
@@ -26852,7 +26855,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27058,7 +27061,7 @@
         <v>87</v>
       </c>
       <c r="P125" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q125">
         <v>3.85</v>
@@ -27264,7 +27267,7 @@
         <v>110</v>
       </c>
       <c r="P126" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q126">
         <v>1.77</v>
@@ -27548,7 +27551,7 @@
         <v>2.13</v>
       </c>
       <c r="AP127">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ127">
         <v>1.6</v>
@@ -27676,7 +27679,7 @@
         <v>119</v>
       </c>
       <c r="P128" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27757,7 +27760,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ128">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR128">
         <v>1.28</v>
@@ -27882,7 +27885,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -28294,7 +28297,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -29324,7 +29327,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -29942,7 +29945,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q139">
         <v>5.5</v>
@@ -30354,7 +30357,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30560,7 +30563,7 @@
         <v>148</v>
       </c>
       <c r="P142" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30638,7 +30641,7 @@
         <v>1.38</v>
       </c>
       <c r="AP142">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ142">
         <v>1.19</v>
@@ -30766,7 +30769,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -31050,7 +31053,7 @@
         <v>2.11</v>
       </c>
       <c r="AP144">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ144">
         <v>1.31</v>
@@ -31384,7 +31387,7 @@
         <v>188</v>
       </c>
       <c r="P146" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31590,7 +31593,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31796,7 +31799,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q148">
         <v>8.5</v>
@@ -32002,7 +32005,7 @@
         <v>190</v>
       </c>
       <c r="P149" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32414,7 +32417,7 @@
         <v>192</v>
       </c>
       <c r="P151" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q151">
         <v>1.83</v>
@@ -32620,7 +32623,7 @@
         <v>87</v>
       </c>
       <c r="P152" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q152">
         <v>13</v>
@@ -32826,7 +32829,7 @@
         <v>92</v>
       </c>
       <c r="P153" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -33113,7 +33116,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ154">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR154">
         <v>1.27</v>
@@ -33238,7 +33241,7 @@
         <v>194</v>
       </c>
       <c r="P155" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q155">
         <v>2.38</v>
@@ -33522,7 +33525,7 @@
         <v>2.11</v>
       </c>
       <c r="AP156">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ156">
         <v>2.06</v>
@@ -33856,7 +33859,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q158">
         <v>1.53</v>
@@ -34062,7 +34065,7 @@
         <v>87</v>
       </c>
       <c r="P159" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34268,7 +34271,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q160">
         <v>3.25</v>
@@ -34474,7 +34477,7 @@
         <v>87</v>
       </c>
       <c r="P161" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -35092,7 +35095,7 @@
         <v>199</v>
       </c>
       <c r="P164" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q164">
         <v>2.1</v>
@@ -35298,7 +35301,7 @@
         <v>200</v>
       </c>
       <c r="P165" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q165">
         <v>1.8</v>
@@ -35710,7 +35713,7 @@
         <v>97</v>
       </c>
       <c r="P167" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q167">
         <v>6.5</v>
@@ -36328,7 +36331,7 @@
         <v>87</v>
       </c>
       <c r="P170" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -36406,7 +36409,7 @@
         <v>1.1</v>
       </c>
       <c r="AP170">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ170">
         <v>1.33</v>
@@ -37152,7 +37155,7 @@
         <v>87</v>
       </c>
       <c r="P174" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37358,7 +37361,7 @@
         <v>87</v>
       </c>
       <c r="P175" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q175">
         <v>2.38</v>
@@ -37642,7 +37645,7 @@
         <v>0.8</v>
       </c>
       <c r="AP176">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ176">
         <v>1.13</v>
@@ -37851,7 +37854,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ177">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR177">
         <v>1.08</v>
@@ -37976,7 +37979,7 @@
         <v>206</v>
       </c>
       <c r="P178" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38388,7 +38391,7 @@
         <v>87</v>
       </c>
       <c r="P180" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q180">
         <v>13</v>
@@ -38800,7 +38803,7 @@
         <v>89</v>
       </c>
       <c r="P182" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q182">
         <v>1.83</v>
@@ -38878,7 +38881,7 @@
         <v>0.09</v>
       </c>
       <c r="AP182">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ182">
         <v>0.25</v>
@@ -39006,7 +39009,7 @@
         <v>107</v>
       </c>
       <c r="P183" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q183">
         <v>1.91</v>
@@ -39212,7 +39215,7 @@
         <v>189</v>
       </c>
       <c r="P184" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q184">
         <v>2.3</v>
@@ -39624,7 +39627,7 @@
         <v>208</v>
       </c>
       <c r="P186" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q186">
         <v>2.88</v>
@@ -39830,7 +39833,7 @@
         <v>87</v>
       </c>
       <c r="P187" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q187">
         <v>4.75</v>
@@ -39908,7 +39911,7 @@
         <v>1.27</v>
       </c>
       <c r="AP187">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ187">
         <v>1.19</v>
@@ -40036,7 +40039,7 @@
         <v>87</v>
       </c>
       <c r="P188" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q188">
         <v>2</v>
@@ -40242,7 +40245,7 @@
         <v>209</v>
       </c>
       <c r="P189" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q189">
         <v>1.73</v>
@@ -41272,7 +41275,7 @@
         <v>212</v>
       </c>
       <c r="P194" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q194">
         <v>9.4</v>
@@ -41684,7 +41687,7 @@
         <v>214</v>
       </c>
       <c r="P196" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q196">
         <v>3.85</v>
@@ -41762,7 +41765,7 @@
         <v>1.67</v>
       </c>
       <c r="AP196">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ196">
         <v>1.73</v>
@@ -41890,7 +41893,7 @@
         <v>173</v>
       </c>
       <c r="P197" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q197">
         <v>3.25</v>
@@ -42920,7 +42923,7 @@
         <v>119</v>
       </c>
       <c r="P202" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q202">
         <v>7</v>
@@ -42998,7 +43001,7 @@
         <v>2</v>
       </c>
       <c r="AP202">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ202">
         <v>2.06</v>
@@ -43332,7 +43335,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q204">
         <v>1.85</v>
@@ -43538,7 +43541,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q205">
         <v>5.5</v>
@@ -43950,7 +43953,7 @@
         <v>152</v>
       </c>
       <c r="P207" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -44031,7 +44034,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ207">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR207">
         <v>1.13</v>
@@ -44980,7 +44983,7 @@
         <v>87</v>
       </c>
       <c r="P212" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q212">
         <v>9.5</v>
@@ -45058,7 +45061,7 @@
         <v>3</v>
       </c>
       <c r="AP212">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ212">
         <v>3</v>
@@ -45186,7 +45189,7 @@
         <v>225</v>
       </c>
       <c r="P213" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q213">
         <v>1.8</v>
@@ -45392,7 +45395,7 @@
         <v>226</v>
       </c>
       <c r="P214" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q214">
         <v>2.63</v>
@@ -46010,7 +46013,7 @@
         <v>189</v>
       </c>
       <c r="P217" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -46091,7 +46094,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ217">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR217">
         <v>1.61</v>
@@ -46216,7 +46219,7 @@
         <v>229</v>
       </c>
       <c r="P218" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q218">
         <v>4.33</v>
@@ -46422,7 +46425,7 @@
         <v>230</v>
       </c>
       <c r="P219" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q219">
         <v>6</v>
@@ -46500,7 +46503,7 @@
         <v>0.85</v>
       </c>
       <c r="AP219">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ219">
         <v>1.13</v>
@@ -46628,7 +46631,7 @@
         <v>231</v>
       </c>
       <c r="P220" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q220">
         <v>2.1</v>
@@ -47040,7 +47043,7 @@
         <v>233</v>
       </c>
       <c r="P222" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q222">
         <v>4.5</v>
@@ -47246,7 +47249,7 @@
         <v>87</v>
       </c>
       <c r="P223" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q223">
         <v>3.5</v>
@@ -47658,7 +47661,7 @@
         <v>234</v>
       </c>
       <c r="P225" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q225">
         <v>2.6</v>
@@ -47739,7 +47742,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ225">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR225">
         <v>1.67</v>
@@ -48070,7 +48073,7 @@
         <v>235</v>
       </c>
       <c r="P227" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q227">
         <v>2.6</v>
@@ -48148,7 +48151,7 @@
         <v>0.79</v>
       </c>
       <c r="AP227">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ227">
         <v>1.06</v>
@@ -48482,7 +48485,7 @@
         <v>236</v>
       </c>
       <c r="P229" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q229">
         <v>8</v>
@@ -49306,7 +49309,7 @@
         <v>182</v>
       </c>
       <c r="P233" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49590,7 +49593,7 @@
         <v>0.93</v>
       </c>
       <c r="AP234">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ234">
         <v>1</v>
@@ -49718,7 +49721,7 @@
         <v>87</v>
       </c>
       <c r="P235" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q235">
         <v>3.24</v>
@@ -49924,7 +49927,7 @@
         <v>239</v>
       </c>
       <c r="P236" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q236">
         <v>1.43</v>
@@ -50417,7 +50420,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ238">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR238">
         <v>1.92</v>
@@ -50542,7 +50545,7 @@
         <v>226</v>
       </c>
       <c r="P239" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -50748,7 +50751,7 @@
         <v>241</v>
       </c>
       <c r="P240" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q240">
         <v>2.6</v>
@@ -50954,7 +50957,7 @@
         <v>87</v>
       </c>
       <c r="P241" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -51572,7 +51575,7 @@
         <v>244</v>
       </c>
       <c r="P244" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q244">
         <v>2.1</v>
@@ -51778,7 +51781,7 @@
         <v>240</v>
       </c>
       <c r="P245" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q245">
         <v>2.2</v>
@@ -51984,7 +51987,7 @@
         <v>245</v>
       </c>
       <c r="P246" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q246">
         <v>0</v>
@@ -52190,7 +52193,7 @@
         <v>246</v>
       </c>
       <c r="P247" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q247">
         <v>2.3</v>
@@ -52396,7 +52399,7 @@
         <v>87</v>
       </c>
       <c r="P248" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q248">
         <v>2.6</v>
@@ -52758,6 +52761,418 @@
         <v>0</v>
       </c>
       <c r="BP249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:68">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>7881226</v>
+      </c>
+      <c r="C250" t="s">
+        <v>68</v>
+      </c>
+      <c r="D250" t="s">
+        <v>69</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45769.5</v>
+      </c>
+      <c r="F250">
+        <v>2</v>
+      </c>
+      <c r="G250" t="s">
+        <v>80</v>
+      </c>
+      <c r="H250" t="s">
+        <v>84</v>
+      </c>
+      <c r="I250">
+        <v>1</v>
+      </c>
+      <c r="J250">
+        <v>1</v>
+      </c>
+      <c r="K250">
+        <v>2</v>
+      </c>
+      <c r="L250">
+        <v>1</v>
+      </c>
+      <c r="M250">
+        <v>1</v>
+      </c>
+      <c r="N250">
+        <v>2</v>
+      </c>
+      <c r="O250" t="s">
+        <v>248</v>
+      </c>
+      <c r="P250" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q250">
+        <v>2.9</v>
+      </c>
+      <c r="R250">
+        <v>2.2</v>
+      </c>
+      <c r="S250">
+        <v>3.3</v>
+      </c>
+      <c r="T250">
+        <v>1.35</v>
+      </c>
+      <c r="U250">
+        <v>3</v>
+      </c>
+      <c r="V250">
+        <v>2.7</v>
+      </c>
+      <c r="W250">
+        <v>1.44</v>
+      </c>
+      <c r="X250">
+        <v>7</v>
+      </c>
+      <c r="Y250">
+        <v>1.1</v>
+      </c>
+      <c r="Z250">
+        <v>2.45</v>
+      </c>
+      <c r="AA250">
+        <v>3.25</v>
+      </c>
+      <c r="AB250">
+        <v>2.82</v>
+      </c>
+      <c r="AC250">
+        <v>1.02</v>
+      </c>
+      <c r="AD250">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE250">
+        <v>1.24</v>
+      </c>
+      <c r="AF250">
+        <v>3.34</v>
+      </c>
+      <c r="AG250">
+        <v>1.85</v>
+      </c>
+      <c r="AH250">
+        <v>1.89</v>
+      </c>
+      <c r="AI250">
+        <v>1.67</v>
+      </c>
+      <c r="AJ250">
+        <v>2.15</v>
+      </c>
+      <c r="AK250">
+        <v>1.4</v>
+      </c>
+      <c r="AL250">
+        <v>1.36</v>
+      </c>
+      <c r="AM250">
+        <v>1.53</v>
+      </c>
+      <c r="AN250">
+        <v>1.4</v>
+      </c>
+      <c r="AO250">
+        <v>1.13</v>
+      </c>
+      <c r="AP250">
+        <v>1.38</v>
+      </c>
+      <c r="AQ250">
+        <v>1.13</v>
+      </c>
+      <c r="AR250">
+        <v>1.61</v>
+      </c>
+      <c r="AS250">
+        <v>1.5</v>
+      </c>
+      <c r="AT250">
+        <v>3.11</v>
+      </c>
+      <c r="AU250">
+        <v>4</v>
+      </c>
+      <c r="AV250">
+        <v>9</v>
+      </c>
+      <c r="AW250">
+        <v>4</v>
+      </c>
+      <c r="AX250">
+        <v>3</v>
+      </c>
+      <c r="AY250">
+        <v>8</v>
+      </c>
+      <c r="AZ250">
+        <v>12</v>
+      </c>
+      <c r="BA250">
+        <v>2</v>
+      </c>
+      <c r="BB250">
+        <v>3</v>
+      </c>
+      <c r="BC250">
+        <v>5</v>
+      </c>
+      <c r="BD250">
+        <v>0</v>
+      </c>
+      <c r="BE250">
+        <v>0</v>
+      </c>
+      <c r="BF250">
+        <v>0</v>
+      </c>
+      <c r="BG250">
+        <v>0</v>
+      </c>
+      <c r="BH250">
+        <v>0</v>
+      </c>
+      <c r="BI250">
+        <v>0</v>
+      </c>
+      <c r="BJ250">
+        <v>0</v>
+      </c>
+      <c r="BK250">
+        <v>1.8</v>
+      </c>
+      <c r="BL250">
+        <v>2</v>
+      </c>
+      <c r="BM250">
+        <v>0</v>
+      </c>
+      <c r="BN250">
+        <v>0</v>
+      </c>
+      <c r="BO250">
+        <v>0</v>
+      </c>
+      <c r="BP250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:68">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>7881224</v>
+      </c>
+      <c r="C251" t="s">
+        <v>68</v>
+      </c>
+      <c r="D251" t="s">
+        <v>69</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45769.5625</v>
+      </c>
+      <c r="F251">
+        <v>2</v>
+      </c>
+      <c r="G251" t="s">
+        <v>76</v>
+      </c>
+      <c r="H251" t="s">
+        <v>79</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>1</v>
+      </c>
+      <c r="K251">
+        <v>1</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+      <c r="M251">
+        <v>1</v>
+      </c>
+      <c r="N251">
+        <v>1</v>
+      </c>
+      <c r="O251" t="s">
+        <v>87</v>
+      </c>
+      <c r="P251" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q251">
+        <v>3.5</v>
+      </c>
+      <c r="R251">
+        <v>2.05</v>
+      </c>
+      <c r="S251">
+        <v>3</v>
+      </c>
+      <c r="T251">
+        <v>1.44</v>
+      </c>
+      <c r="U251">
+        <v>2.62</v>
+      </c>
+      <c r="V251">
+        <v>3.1</v>
+      </c>
+      <c r="W251">
+        <v>1.33</v>
+      </c>
+      <c r="X251">
+        <v>9</v>
+      </c>
+      <c r="Y251">
+        <v>1.06</v>
+      </c>
+      <c r="Z251">
+        <v>3.02</v>
+      </c>
+      <c r="AA251">
+        <v>3.05</v>
+      </c>
+      <c r="AB251">
+        <v>2.44</v>
+      </c>
+      <c r="AC251">
+        <v>1.08</v>
+      </c>
+      <c r="AD251">
+        <v>7.5</v>
+      </c>
+      <c r="AE251">
+        <v>1.4</v>
+      </c>
+      <c r="AF251">
+        <v>2.88</v>
+      </c>
+      <c r="AG251">
+        <v>2.1</v>
+      </c>
+      <c r="AH251">
+        <v>1.6</v>
+      </c>
+      <c r="AI251">
+        <v>1.85</v>
+      </c>
+      <c r="AJ251">
+        <v>1.85</v>
+      </c>
+      <c r="AK251">
+        <v>1.5</v>
+      </c>
+      <c r="AL251">
+        <v>1.4</v>
+      </c>
+      <c r="AM251">
+        <v>1.36</v>
+      </c>
+      <c r="AN251">
+        <v>1.13</v>
+      </c>
+      <c r="AO251">
+        <v>1.2</v>
+      </c>
+      <c r="AP251">
+        <v>1.06</v>
+      </c>
+      <c r="AQ251">
+        <v>1.31</v>
+      </c>
+      <c r="AR251">
+        <v>1.24</v>
+      </c>
+      <c r="AS251">
+        <v>1.18</v>
+      </c>
+      <c r="AT251">
+        <v>2.42</v>
+      </c>
+      <c r="AU251">
+        <v>9</v>
+      </c>
+      <c r="AV251">
+        <v>6</v>
+      </c>
+      <c r="AW251">
+        <v>5</v>
+      </c>
+      <c r="AX251">
+        <v>0</v>
+      </c>
+      <c r="AY251">
+        <v>14</v>
+      </c>
+      <c r="AZ251">
+        <v>6</v>
+      </c>
+      <c r="BA251">
+        <v>7</v>
+      </c>
+      <c r="BB251">
+        <v>4</v>
+      </c>
+      <c r="BC251">
+        <v>11</v>
+      </c>
+      <c r="BD251">
+        <v>0</v>
+      </c>
+      <c r="BE251">
+        <v>0</v>
+      </c>
+      <c r="BF251">
+        <v>0</v>
+      </c>
+      <c r="BG251">
+        <v>0</v>
+      </c>
+      <c r="BH251">
+        <v>0</v>
+      </c>
+      <c r="BI251">
+        <v>0</v>
+      </c>
+      <c r="BJ251">
+        <v>0</v>
+      </c>
+      <c r="BK251">
+        <v>0</v>
+      </c>
+      <c r="BL251">
+        <v>0</v>
+      </c>
+      <c r="BM251">
+        <v>0</v>
+      </c>
+      <c r="BN251">
+        <v>0</v>
+      </c>
+      <c r="BO251">
+        <v>0</v>
+      </c>
+      <c r="BP251">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="367">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -763,6 +763,15 @@
     <t>['31']</t>
   </si>
   <si>
+    <t>['40', '62']</t>
+  </si>
+  <si>
+    <t>['20', '45+1']</t>
+  </si>
+  <si>
+    <t>['45', '57', '62', '73']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -1103,6 +1112,9 @@
   </si>
   <si>
     <t>['5', '21', '85', '90+3']</t>
+  </si>
+  <si>
+    <t>['42', '45+4']</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP251"/>
+  <dimension ref="A1:BP255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1723,7 +1735,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1801,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ2">
         <v>1.31</v>
@@ -2341,7 +2353,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2419,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2753,7 +2765,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2831,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2959,7 +2971,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -3040,7 +3052,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ8">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3371,7 +3383,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3577,7 +3589,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3783,7 +3795,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -4070,7 +4082,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ13">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4891,10 +4903,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR17">
         <v>1.59</v>
@@ -5097,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
         <v>0.25</v>
@@ -5225,7 +5237,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5306,7 +5318,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ19">
-        <v>3</v>
+        <v>2.81</v>
       </c>
       <c r="AR19">
         <v>1.24</v>
@@ -5718,7 +5730,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ21">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5921,7 +5933,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ22">
         <v>1.31</v>
@@ -6127,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ23">
         <v>0.75</v>
@@ -6255,7 +6267,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -7079,7 +7091,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -7157,7 +7169,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
         <v>1.06</v>
@@ -7697,7 +7709,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7778,7 +7790,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ31">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -7903,7 +7915,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7984,7 +7996,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ32">
-        <v>3</v>
+        <v>2.81</v>
       </c>
       <c r="AR32">
         <v>1</v>
@@ -8190,7 +8202,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ33">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR33">
         <v>1.82</v>
@@ -8315,7 +8327,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8393,7 +8405,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ34">
         <v>1.31</v>
@@ -9139,7 +9151,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9217,10 +9229,10 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ38">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR38">
         <v>1.63</v>
@@ -9423,7 +9435,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
         <v>1.33</v>
@@ -9551,7 +9563,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9963,7 +9975,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10169,7 +10181,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10375,7 +10387,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10581,7 +10593,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -11071,7 +11083,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47">
         <v>0.25</v>
@@ -11405,7 +11417,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11486,7 +11498,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ49">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR49">
         <v>1.07</v>
@@ -11611,7 +11623,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11817,7 +11829,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -11895,10 +11907,10 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ51">
-        <v>3</v>
+        <v>2.81</v>
       </c>
       <c r="AR51">
         <v>1.93</v>
@@ -12101,10 +12113,10 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ52">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR52">
         <v>1.32</v>
@@ -12925,7 +12937,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56">
         <v>1.19</v>
@@ -13053,7 +13065,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -13131,7 +13143,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57">
         <v>1.33</v>
@@ -13259,7 +13271,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -13340,7 +13352,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ58">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR58">
         <v>1.22</v>
@@ -13465,7 +13477,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13671,7 +13683,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13877,7 +13889,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -14289,7 +14301,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14495,7 +14507,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14701,7 +14713,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14782,7 +14794,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ65">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR65">
         <v>1.31</v>
@@ -14907,7 +14919,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15194,7 +15206,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ67">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR67">
         <v>1.33</v>
@@ -15397,7 +15409,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ68">
         <v>1.06</v>
@@ -15525,7 +15537,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15603,10 +15615,10 @@
         <v>3</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ69">
-        <v>3</v>
+        <v>2.81</v>
       </c>
       <c r="AR69">
         <v>1.36</v>
@@ -15937,7 +15949,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -16221,7 +16233,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ72">
         <v>1.19</v>
@@ -16349,7 +16361,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16430,7 +16442,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ73">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR73">
         <v>1.46</v>
@@ -16555,7 +16567,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16967,7 +16979,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -17045,7 +17057,7 @@
         <v>1.75</v>
       </c>
       <c r="AP76">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ76">
         <v>2.06</v>
@@ -17379,7 +17391,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17585,7 +17597,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17666,7 +17678,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ79">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR79">
         <v>1.64</v>
@@ -17869,7 +17881,7 @@
         <v>1.25</v>
       </c>
       <c r="AP80">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ80">
         <v>1.33</v>
@@ -17997,7 +18009,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -18203,7 +18215,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -18281,7 +18293,7 @@
         <v>0.75</v>
       </c>
       <c r="AP82">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ82">
         <v>1.06</v>
@@ -18409,7 +18421,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18615,7 +18627,7 @@
         <v>87</v>
       </c>
       <c r="P84" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18696,7 +18708,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ84">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR84">
         <v>1.12</v>
@@ -18821,7 +18833,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -18902,7 +18914,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ85">
-        <v>3</v>
+        <v>2.81</v>
       </c>
       <c r="AR85">
         <v>1.2</v>
@@ -19233,7 +19245,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -19645,7 +19657,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -20057,7 +20069,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -20344,7 +20356,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ92">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR92">
         <v>1.11</v>
@@ -20547,7 +20559,7 @@
         <v>0.67</v>
       </c>
       <c r="AP93">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ93">
         <v>1.13</v>
@@ -20675,7 +20687,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20753,7 +20765,7 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ94">
         <v>2.06</v>
@@ -21165,7 +21177,7 @@
         <v>0.17</v>
       </c>
       <c r="AP96">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ96">
         <v>0.25</v>
@@ -21371,7 +21383,7 @@
         <v>1.2</v>
       </c>
       <c r="AP97">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ97">
         <v>1.33</v>
@@ -21499,7 +21511,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q98">
         <v>13</v>
@@ -21580,7 +21592,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ98">
-        <v>3</v>
+        <v>2.81</v>
       </c>
       <c r="AR98">
         <v>1.07</v>
@@ -21911,7 +21923,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -21992,7 +22004,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ100">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR100">
         <v>1.66</v>
@@ -22117,7 +22129,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -22198,7 +22210,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ101">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR101">
         <v>1.12</v>
@@ -22323,7 +22335,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22529,7 +22541,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22813,7 +22825,7 @@
         <v>0.57</v>
       </c>
       <c r="AP104">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ104">
         <v>1.13</v>
@@ -23022,7 +23034,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ105">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR105">
         <v>2.08</v>
@@ -23225,7 +23237,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ106">
         <v>0.93</v>
@@ -23353,7 +23365,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23637,7 +23649,7 @@
         <v>0.29</v>
       </c>
       <c r="AP108">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ108">
         <v>1</v>
@@ -23765,7 +23777,7 @@
         <v>87</v>
       </c>
       <c r="P109" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -23846,7 +23858,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ109">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR109">
         <v>1.11</v>
@@ -24177,7 +24189,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -24383,7 +24395,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -25207,7 +25219,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -25288,7 +25300,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ116">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR116">
         <v>1.31</v>
@@ -25413,7 +25425,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25491,7 +25503,7 @@
         <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ117">
         <v>1.19</v>
@@ -25619,7 +25631,7 @@
         <v>87</v>
       </c>
       <c r="P118" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -25700,7 +25712,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ118">
-        <v>3</v>
+        <v>2.81</v>
       </c>
       <c r="AR118">
         <v>1.51</v>
@@ -25825,7 +25837,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -26031,7 +26043,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q120">
         <v>3.15</v>
@@ -26727,7 +26739,7 @@
         <v>0.86</v>
       </c>
       <c r="AP123">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ123">
         <v>0.93</v>
@@ -26855,7 +26867,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27061,7 +27073,7 @@
         <v>87</v>
       </c>
       <c r="P125" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q125">
         <v>3.85</v>
@@ -27139,10 +27151,10 @@
         <v>1.5</v>
       </c>
       <c r="AP125">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ125">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR125">
         <v>1.76</v>
@@ -27267,7 +27279,7 @@
         <v>110</v>
       </c>
       <c r="P126" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q126">
         <v>1.77</v>
@@ -27554,7 +27566,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ127">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR127">
         <v>1.18</v>
@@ -27679,7 +27691,7 @@
         <v>119</v>
       </c>
       <c r="P128" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27885,7 +27897,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -27963,7 +27975,7 @@
         <v>0.5</v>
       </c>
       <c r="AP129">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ129">
         <v>1.13</v>
@@ -28169,7 +28181,7 @@
         <v>0.13</v>
       </c>
       <c r="AP130">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ130">
         <v>0.25</v>
@@ -28297,7 +28309,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -28375,10 +28387,10 @@
         <v>3</v>
       </c>
       <c r="AP131">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ131">
-        <v>3</v>
+        <v>2.81</v>
       </c>
       <c r="AR131">
         <v>1.03</v>
@@ -28787,7 +28799,7 @@
         <v>0.88</v>
       </c>
       <c r="AP133">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ133">
         <v>0.75</v>
@@ -28996,7 +29008,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ134">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR134">
         <v>2.03</v>
@@ -29327,7 +29339,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -29820,7 +29832,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ138">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR138">
         <v>1.06</v>
@@ -29945,7 +29957,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q139">
         <v>5.5</v>
@@ -30357,7 +30369,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30563,7 +30575,7 @@
         <v>148</v>
       </c>
       <c r="P142" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30769,7 +30781,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -31387,7 +31399,7 @@
         <v>188</v>
       </c>
       <c r="P146" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31593,7 +31605,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31674,7 +31686,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ147">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR147">
         <v>1.6</v>
@@ -31799,7 +31811,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q148">
         <v>8.5</v>
@@ -31877,10 +31889,10 @@
         <v>3</v>
       </c>
       <c r="AP148">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ148">
-        <v>3</v>
+        <v>2.81</v>
       </c>
       <c r="AR148">
         <v>1.72</v>
@@ -32005,7 +32017,7 @@
         <v>190</v>
       </c>
       <c r="P149" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32086,7 +32098,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ149">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR149">
         <v>2.02</v>
@@ -32289,7 +32301,7 @@
         <v>0.67</v>
       </c>
       <c r="AP150">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ150">
         <v>1</v>
@@ -32417,7 +32429,7 @@
         <v>192</v>
       </c>
       <c r="P151" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q151">
         <v>1.83</v>
@@ -32495,7 +32507,7 @@
         <v>0.78</v>
       </c>
       <c r="AP151">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ151">
         <v>1.13</v>
@@ -32623,7 +32635,7 @@
         <v>87</v>
       </c>
       <c r="P152" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q152">
         <v>13</v>
@@ -32704,7 +32716,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ152">
-        <v>3</v>
+        <v>2.81</v>
       </c>
       <c r="AR152">
         <v>1.2</v>
@@ -32829,7 +32841,7 @@
         <v>92</v>
       </c>
       <c r="P153" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -32907,7 +32919,7 @@
         <v>0.89</v>
       </c>
       <c r="AP153">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ153">
         <v>1.19</v>
@@ -33241,7 +33253,7 @@
         <v>194</v>
       </c>
       <c r="P155" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q155">
         <v>2.38</v>
@@ -33859,7 +33871,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q158">
         <v>1.53</v>
@@ -34065,7 +34077,7 @@
         <v>87</v>
       </c>
       <c r="P159" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34271,7 +34283,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q160">
         <v>3.25</v>
@@ -34352,7 +34364,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ160">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR160">
         <v>1.53</v>
@@ -34477,7 +34489,7 @@
         <v>87</v>
       </c>
       <c r="P161" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34558,7 +34570,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ161">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR161">
         <v>1.42</v>
@@ -34764,7 +34776,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ162">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR162">
         <v>1.35</v>
@@ -35095,7 +35107,7 @@
         <v>199</v>
       </c>
       <c r="P164" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q164">
         <v>2.1</v>
@@ -35173,7 +35185,7 @@
         <v>0.4</v>
       </c>
       <c r="AP164">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ164">
         <v>1.06</v>
@@ -35301,7 +35313,7 @@
         <v>200</v>
       </c>
       <c r="P165" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q165">
         <v>1.8</v>
@@ -35379,7 +35391,7 @@
         <v>0.6</v>
       </c>
       <c r="AP165">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ165">
         <v>1</v>
@@ -35713,7 +35725,7 @@
         <v>97</v>
       </c>
       <c r="P167" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q167">
         <v>6.5</v>
@@ -35794,7 +35806,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ167">
-        <v>3</v>
+        <v>2.81</v>
       </c>
       <c r="AR167">
         <v>2.02</v>
@@ -36203,10 +36215,10 @@
         <v>2</v>
       </c>
       <c r="AP169">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ169">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR169">
         <v>1.61</v>
@@ -36331,7 +36343,7 @@
         <v>87</v>
       </c>
       <c r="P170" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -36615,10 +36627,10 @@
         <v>1.5</v>
       </c>
       <c r="AP171">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ171">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR171">
         <v>1.13</v>
@@ -37155,7 +37167,7 @@
         <v>87</v>
       </c>
       <c r="P174" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37361,7 +37373,7 @@
         <v>87</v>
       </c>
       <c r="P175" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q175">
         <v>2.38</v>
@@ -37979,7 +37991,7 @@
         <v>206</v>
       </c>
       <c r="P178" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38263,10 +38275,10 @@
         <v>1.82</v>
       </c>
       <c r="AP179">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ179">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR179">
         <v>1.67</v>
@@ -38391,7 +38403,7 @@
         <v>87</v>
       </c>
       <c r="P180" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q180">
         <v>13</v>
@@ -38472,7 +38484,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ180">
-        <v>3</v>
+        <v>2.81</v>
       </c>
       <c r="AR180">
         <v>1.34</v>
@@ -38675,7 +38687,7 @@
         <v>1.82</v>
       </c>
       <c r="AP181">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ181">
         <v>1.31</v>
@@ -38803,7 +38815,7 @@
         <v>89</v>
       </c>
       <c r="P182" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q182">
         <v>1.83</v>
@@ -39009,7 +39021,7 @@
         <v>107</v>
       </c>
       <c r="P183" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q183">
         <v>1.91</v>
@@ -39215,7 +39227,7 @@
         <v>189</v>
       </c>
       <c r="P184" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q184">
         <v>2.3</v>
@@ -39502,7 +39514,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ185">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR185">
         <v>1.44</v>
@@ -39627,7 +39639,7 @@
         <v>208</v>
       </c>
       <c r="P186" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q186">
         <v>2.88</v>
@@ -39833,7 +39845,7 @@
         <v>87</v>
       </c>
       <c r="P187" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q187">
         <v>4.75</v>
@@ -40039,7 +40051,7 @@
         <v>87</v>
       </c>
       <c r="P188" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q188">
         <v>2</v>
@@ -40245,7 +40257,7 @@
         <v>209</v>
       </c>
       <c r="P189" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q189">
         <v>1.73</v>
@@ -40529,7 +40541,7 @@
         <v>1.18</v>
       </c>
       <c r="AP190">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ190">
         <v>0.93</v>
@@ -40941,10 +40953,10 @@
         <v>1.36</v>
       </c>
       <c r="AP192">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ192">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR192">
         <v>1.69</v>
@@ -41275,7 +41287,7 @@
         <v>212</v>
       </c>
       <c r="P194" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q194">
         <v>9.4</v>
@@ -41356,7 +41368,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ194">
-        <v>3</v>
+        <v>2.81</v>
       </c>
       <c r="AR194">
         <v>1.48</v>
@@ -41559,7 +41571,7 @@
         <v>1.67</v>
       </c>
       <c r="AP195">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ195">
         <v>1.31</v>
@@ -41687,7 +41699,7 @@
         <v>214</v>
       </c>
       <c r="P196" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q196">
         <v>3.85</v>
@@ -41768,7 +41780,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ196">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR196">
         <v>1.72</v>
@@ -41893,7 +41905,7 @@
         <v>173</v>
       </c>
       <c r="P197" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q197">
         <v>3.25</v>
@@ -41974,7 +41986,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ197">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR197">
         <v>1.49</v>
@@ -42383,7 +42395,7 @@
         <v>1.25</v>
       </c>
       <c r="AP199">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ199">
         <v>1.19</v>
@@ -42923,7 +42935,7 @@
         <v>119</v>
       </c>
       <c r="P202" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q202">
         <v>7</v>
@@ -43335,7 +43347,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q204">
         <v>1.85</v>
@@ -43541,7 +43553,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q205">
         <v>5.5</v>
@@ -43622,7 +43634,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ205">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR205">
         <v>1.17</v>
@@ -43825,7 +43837,7 @@
         <v>1.08</v>
       </c>
       <c r="AP206">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ206">
         <v>0.93</v>
@@ -43953,7 +43965,7 @@
         <v>152</v>
       </c>
       <c r="P207" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -44031,7 +44043,7 @@
         <v>1.27</v>
       </c>
       <c r="AP207">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ207">
         <v>1.31</v>
@@ -44446,7 +44458,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ209">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR209">
         <v>1.19</v>
@@ -44983,7 +44995,7 @@
         <v>87</v>
       </c>
       <c r="P212" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q212">
         <v>9.5</v>
@@ -45064,7 +45076,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ212">
-        <v>3</v>
+        <v>2.81</v>
       </c>
       <c r="AR212">
         <v>1.64</v>
@@ -45189,7 +45201,7 @@
         <v>225</v>
       </c>
       <c r="P213" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q213">
         <v>1.8</v>
@@ -45267,7 +45279,7 @@
         <v>1.15</v>
       </c>
       <c r="AP213">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ213">
         <v>1.19</v>
@@ -45395,7 +45407,7 @@
         <v>226</v>
       </c>
       <c r="P214" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q214">
         <v>2.63</v>
@@ -45473,10 +45485,10 @@
         <v>1.15</v>
       </c>
       <c r="AP214">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ214">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR214">
         <v>1.63</v>
@@ -46013,7 +46025,7 @@
         <v>189</v>
       </c>
       <c r="P217" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -46219,7 +46231,7 @@
         <v>229</v>
       </c>
       <c r="P218" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q218">
         <v>4.33</v>
@@ -46425,7 +46437,7 @@
         <v>230</v>
       </c>
       <c r="P219" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q219">
         <v>6</v>
@@ -46631,7 +46643,7 @@
         <v>231</v>
       </c>
       <c r="P220" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q220">
         <v>2.1</v>
@@ -47043,7 +47055,7 @@
         <v>233</v>
       </c>
       <c r="P222" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q222">
         <v>4.5</v>
@@ -47124,7 +47136,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ222">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR222">
         <v>1.65</v>
@@ -47249,7 +47261,7 @@
         <v>87</v>
       </c>
       <c r="P223" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q223">
         <v>3.5</v>
@@ -47533,7 +47545,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP224">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ224">
         <v>0.75</v>
@@ -47661,7 +47673,7 @@
         <v>234</v>
       </c>
       <c r="P225" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q225">
         <v>2.6</v>
@@ -47739,7 +47751,7 @@
         <v>1.38</v>
       </c>
       <c r="AP225">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ225">
         <v>1.31</v>
@@ -48073,7 +48085,7 @@
         <v>235</v>
       </c>
       <c r="P227" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q227">
         <v>2.6</v>
@@ -48357,10 +48369,10 @@
         <v>1.29</v>
       </c>
       <c r="AP228">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ228">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR228">
         <v>1.81</v>
@@ -48485,7 +48497,7 @@
         <v>236</v>
       </c>
       <c r="P229" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q229">
         <v>8</v>
@@ -48566,7 +48578,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ229">
-        <v>3</v>
+        <v>2.81</v>
       </c>
       <c r="AR229">
         <v>1.73</v>
@@ -49309,7 +49321,7 @@
         <v>182</v>
       </c>
       <c r="P233" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49721,7 +49733,7 @@
         <v>87</v>
       </c>
       <c r="P235" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q235">
         <v>3.24</v>
@@ -49799,7 +49811,7 @@
         <v>2.14</v>
       </c>
       <c r="AP235">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ235">
         <v>2.06</v>
@@ -49927,7 +49939,7 @@
         <v>239</v>
       </c>
       <c r="P236" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q236">
         <v>1.43</v>
@@ -50008,7 +50020,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ236">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR236">
         <v>2.21</v>
@@ -50545,7 +50557,7 @@
         <v>226</v>
       </c>
       <c r="P239" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -50623,10 +50635,10 @@
         <v>1.64</v>
       </c>
       <c r="AP239">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ239">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR239">
         <v>1.14</v>
@@ -50751,7 +50763,7 @@
         <v>241</v>
       </c>
       <c r="P240" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q240">
         <v>2.6</v>
@@ -50829,7 +50841,7 @@
         <v>0.71</v>
       </c>
       <c r="AP240">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ240">
         <v>0.75</v>
@@ -50957,7 +50969,7 @@
         <v>87</v>
       </c>
       <c r="P241" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -51575,7 +51587,7 @@
         <v>244</v>
       </c>
       <c r="P244" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q244">
         <v>2.1</v>
@@ -51781,7 +51793,7 @@
         <v>240</v>
       </c>
       <c r="P245" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q245">
         <v>2.2</v>
@@ -51987,7 +51999,7 @@
         <v>245</v>
       </c>
       <c r="P246" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q246">
         <v>0</v>
@@ -52193,7 +52205,7 @@
         <v>246</v>
       </c>
       <c r="P247" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q247">
         <v>2.3</v>
@@ -52399,7 +52411,7 @@
         <v>87</v>
       </c>
       <c r="P248" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q248">
         <v>2.6</v>
@@ -53173,6 +53185,830 @@
         <v>0</v>
       </c>
       <c r="BP251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:68">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>7881222</v>
+      </c>
+      <c r="C252" t="s">
+        <v>68</v>
+      </c>
+      <c r="D252" t="s">
+        <v>69</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45770.45833333334</v>
+      </c>
+      <c r="F252">
+        <v>2</v>
+      </c>
+      <c r="G252" t="s">
+        <v>75</v>
+      </c>
+      <c r="H252" t="s">
+        <v>85</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>1</v>
+      </c>
+      <c r="K252">
+        <v>1</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
+      <c r="M252">
+        <v>1</v>
+      </c>
+      <c r="N252">
+        <v>1</v>
+      </c>
+      <c r="O252" t="s">
+        <v>87</v>
+      </c>
+      <c r="P252" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q252">
+        <v>3.4</v>
+      </c>
+      <c r="R252">
+        <v>2.2</v>
+      </c>
+      <c r="S252">
+        <v>2.75</v>
+      </c>
+      <c r="T252">
+        <v>1.33</v>
+      </c>
+      <c r="U252">
+        <v>3.25</v>
+      </c>
+      <c r="V252">
+        <v>2.63</v>
+      </c>
+      <c r="W252">
+        <v>1.44</v>
+      </c>
+      <c r="X252">
+        <v>6</v>
+      </c>
+      <c r="Y252">
+        <v>1.11</v>
+      </c>
+      <c r="Z252">
+        <v>3.6</v>
+      </c>
+      <c r="AA252">
+        <v>3.6</v>
+      </c>
+      <c r="AB252">
+        <v>1.95</v>
+      </c>
+      <c r="AC252">
+        <v>1.04</v>
+      </c>
+      <c r="AD252">
+        <v>9</v>
+      </c>
+      <c r="AE252">
+        <v>1.2</v>
+      </c>
+      <c r="AF252">
+        <v>4.2</v>
+      </c>
+      <c r="AG252">
+        <v>1.7</v>
+      </c>
+      <c r="AH252">
+        <v>1.95</v>
+      </c>
+      <c r="AI252">
+        <v>1.62</v>
+      </c>
+      <c r="AJ252">
+        <v>2.2</v>
+      </c>
+      <c r="AK252">
+        <v>1.77</v>
+      </c>
+      <c r="AL252">
+        <v>1.22</v>
+      </c>
+      <c r="AM252">
+        <v>1.28</v>
+      </c>
+      <c r="AN252">
+        <v>1.6</v>
+      </c>
+      <c r="AO252">
+        <v>1.73</v>
+      </c>
+      <c r="AP252">
+        <v>1.5</v>
+      </c>
+      <c r="AQ252">
+        <v>1.81</v>
+      </c>
+      <c r="AR252">
+        <v>1.75</v>
+      </c>
+      <c r="AS252">
+        <v>1.81</v>
+      </c>
+      <c r="AT252">
+        <v>3.56</v>
+      </c>
+      <c r="AU252">
+        <v>3</v>
+      </c>
+      <c r="AV252">
+        <v>8</v>
+      </c>
+      <c r="AW252">
+        <v>15</v>
+      </c>
+      <c r="AX252">
+        <v>6</v>
+      </c>
+      <c r="AY252">
+        <v>18</v>
+      </c>
+      <c r="AZ252">
+        <v>14</v>
+      </c>
+      <c r="BA252">
+        <v>3</v>
+      </c>
+      <c r="BB252">
+        <v>2</v>
+      </c>
+      <c r="BC252">
+        <v>5</v>
+      </c>
+      <c r="BD252">
+        <v>0</v>
+      </c>
+      <c r="BE252">
+        <v>0</v>
+      </c>
+      <c r="BF252">
+        <v>0</v>
+      </c>
+      <c r="BG252">
+        <v>0</v>
+      </c>
+      <c r="BH252">
+        <v>0</v>
+      </c>
+      <c r="BI252">
+        <v>0</v>
+      </c>
+      <c r="BJ252">
+        <v>0</v>
+      </c>
+      <c r="BK252">
+        <v>0</v>
+      </c>
+      <c r="BL252">
+        <v>0</v>
+      </c>
+      <c r="BM252">
+        <v>0</v>
+      </c>
+      <c r="BN252">
+        <v>0</v>
+      </c>
+      <c r="BO252">
+        <v>0</v>
+      </c>
+      <c r="BP252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:68">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>7881221</v>
+      </c>
+      <c r="C253" t="s">
+        <v>68</v>
+      </c>
+      <c r="D253" t="s">
+        <v>69</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45770.5</v>
+      </c>
+      <c r="F253">
+        <v>2</v>
+      </c>
+      <c r="G253" t="s">
+        <v>73</v>
+      </c>
+      <c r="H253" t="s">
+        <v>77</v>
+      </c>
+      <c r="I253">
+        <v>1</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>1</v>
+      </c>
+      <c r="L253">
+        <v>2</v>
+      </c>
+      <c r="M253">
+        <v>0</v>
+      </c>
+      <c r="N253">
+        <v>2</v>
+      </c>
+      <c r="O253" t="s">
+        <v>249</v>
+      </c>
+      <c r="P253" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q253">
+        <v>0</v>
+      </c>
+      <c r="R253">
+        <v>0</v>
+      </c>
+      <c r="S253">
+        <v>0</v>
+      </c>
+      <c r="T253">
+        <v>0</v>
+      </c>
+      <c r="U253">
+        <v>0</v>
+      </c>
+      <c r="V253">
+        <v>0</v>
+      </c>
+      <c r="W253">
+        <v>0</v>
+      </c>
+      <c r="X253">
+        <v>0</v>
+      </c>
+      <c r="Y253">
+        <v>0</v>
+      </c>
+      <c r="Z253">
+        <v>2.95</v>
+      </c>
+      <c r="AA253">
+        <v>3.5</v>
+      </c>
+      <c r="AB253">
+        <v>2.25</v>
+      </c>
+      <c r="AC253">
+        <v>0</v>
+      </c>
+      <c r="AD253">
+        <v>0</v>
+      </c>
+      <c r="AE253">
+        <v>0</v>
+      </c>
+      <c r="AF253">
+        <v>0</v>
+      </c>
+      <c r="AG253">
+        <v>1.7</v>
+      </c>
+      <c r="AH253">
+        <v>1.95</v>
+      </c>
+      <c r="AI253">
+        <v>0</v>
+      </c>
+      <c r="AJ253">
+        <v>0</v>
+      </c>
+      <c r="AK253">
+        <v>0</v>
+      </c>
+      <c r="AL253">
+        <v>0</v>
+      </c>
+      <c r="AM253">
+        <v>0</v>
+      </c>
+      <c r="AN253">
+        <v>1.4</v>
+      </c>
+      <c r="AO253">
+        <v>1.27</v>
+      </c>
+      <c r="AP253">
+        <v>1.5</v>
+      </c>
+      <c r="AQ253">
+        <v>1.19</v>
+      </c>
+      <c r="AR253">
+        <v>1.17</v>
+      </c>
+      <c r="AS253">
+        <v>1.54</v>
+      </c>
+      <c r="AT253">
+        <v>2.71</v>
+      </c>
+      <c r="AU253">
+        <v>-1</v>
+      </c>
+      <c r="AV253">
+        <v>-1</v>
+      </c>
+      <c r="AW253">
+        <v>-1</v>
+      </c>
+      <c r="AX253">
+        <v>-1</v>
+      </c>
+      <c r="AY253">
+        <v>-1</v>
+      </c>
+      <c r="AZ253">
+        <v>-1</v>
+      </c>
+      <c r="BA253">
+        <v>-1</v>
+      </c>
+      <c r="BB253">
+        <v>-1</v>
+      </c>
+      <c r="BC253">
+        <v>-1</v>
+      </c>
+      <c r="BD253">
+        <v>0</v>
+      </c>
+      <c r="BE253">
+        <v>0</v>
+      </c>
+      <c r="BF253">
+        <v>0</v>
+      </c>
+      <c r="BG253">
+        <v>0</v>
+      </c>
+      <c r="BH253">
+        <v>0</v>
+      </c>
+      <c r="BI253">
+        <v>0</v>
+      </c>
+      <c r="BJ253">
+        <v>0</v>
+      </c>
+      <c r="BK253">
+        <v>0</v>
+      </c>
+      <c r="BL253">
+        <v>0</v>
+      </c>
+      <c r="BM253">
+        <v>0</v>
+      </c>
+      <c r="BN253">
+        <v>0</v>
+      </c>
+      <c r="BO253">
+        <v>0</v>
+      </c>
+      <c r="BP253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:68">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>7881220</v>
+      </c>
+      <c r="C254" t="s">
+        <v>68</v>
+      </c>
+      <c r="D254" t="s">
+        <v>69</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45770.54166666666</v>
+      </c>
+      <c r="F254">
+        <v>2</v>
+      </c>
+      <c r="G254" t="s">
+        <v>83</v>
+      </c>
+      <c r="H254" t="s">
+        <v>82</v>
+      </c>
+      <c r="I254">
+        <v>2</v>
+      </c>
+      <c r="J254">
+        <v>2</v>
+      </c>
+      <c r="K254">
+        <v>4</v>
+      </c>
+      <c r="L254">
+        <v>2</v>
+      </c>
+      <c r="M254">
+        <v>2</v>
+      </c>
+      <c r="N254">
+        <v>4</v>
+      </c>
+      <c r="O254" t="s">
+        <v>250</v>
+      </c>
+      <c r="P254" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q254">
+        <v>1.95</v>
+      </c>
+      <c r="R254">
+        <v>2.38</v>
+      </c>
+      <c r="S254">
+        <v>6</v>
+      </c>
+      <c r="T254">
+        <v>1.33</v>
+      </c>
+      <c r="U254">
+        <v>3.25</v>
+      </c>
+      <c r="V254">
+        <v>2.63</v>
+      </c>
+      <c r="W254">
+        <v>1.44</v>
+      </c>
+      <c r="X254">
+        <v>6</v>
+      </c>
+      <c r="Y254">
+        <v>1.11</v>
+      </c>
+      <c r="Z254">
+        <v>1.83</v>
+      </c>
+      <c r="AA254">
+        <v>3.59</v>
+      </c>
+      <c r="AB254">
+        <v>4.1</v>
+      </c>
+      <c r="AC254">
+        <v>1.05</v>
+      </c>
+      <c r="AD254">
+        <v>8.5</v>
+      </c>
+      <c r="AE254">
+        <v>1.25</v>
+      </c>
+      <c r="AF254">
+        <v>3.65</v>
+      </c>
+      <c r="AG254">
+        <v>1.77</v>
+      </c>
+      <c r="AH254">
+        <v>1.98</v>
+      </c>
+      <c r="AI254">
+        <v>1.83</v>
+      </c>
+      <c r="AJ254">
+        <v>1.83</v>
+      </c>
+      <c r="AK254">
+        <v>1.14</v>
+      </c>
+      <c r="AL254">
+        <v>1.22</v>
+      </c>
+      <c r="AM254">
+        <v>2.1</v>
+      </c>
+      <c r="AN254">
+        <v>2</v>
+      </c>
+      <c r="AO254">
+        <v>1.6</v>
+      </c>
+      <c r="AP254">
+        <v>1.94</v>
+      </c>
+      <c r="AQ254">
+        <v>1.56</v>
+      </c>
+      <c r="AR254">
+        <v>1.78</v>
+      </c>
+      <c r="AS254">
+        <v>1.39</v>
+      </c>
+      <c r="AT254">
+        <v>3.17</v>
+      </c>
+      <c r="AU254">
+        <v>6</v>
+      </c>
+      <c r="AV254">
+        <v>9</v>
+      </c>
+      <c r="AW254">
+        <v>5</v>
+      </c>
+      <c r="AX254">
+        <v>16</v>
+      </c>
+      <c r="AY254">
+        <v>11</v>
+      </c>
+      <c r="AZ254">
+        <v>25</v>
+      </c>
+      <c r="BA254">
+        <v>5</v>
+      </c>
+      <c r="BB254">
+        <v>12</v>
+      </c>
+      <c r="BC254">
+        <v>17</v>
+      </c>
+      <c r="BD254">
+        <v>0</v>
+      </c>
+      <c r="BE254">
+        <v>0</v>
+      </c>
+      <c r="BF254">
+        <v>0</v>
+      </c>
+      <c r="BG254">
+        <v>0</v>
+      </c>
+      <c r="BH254">
+        <v>0</v>
+      </c>
+      <c r="BI254">
+        <v>0</v>
+      </c>
+      <c r="BJ254">
+        <v>0</v>
+      </c>
+      <c r="BK254">
+        <v>0</v>
+      </c>
+      <c r="BL254">
+        <v>0</v>
+      </c>
+      <c r="BM254">
+        <v>0</v>
+      </c>
+      <c r="BN254">
+        <v>0</v>
+      </c>
+      <c r="BO254">
+        <v>0</v>
+      </c>
+      <c r="BP254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:68">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>7881219</v>
+      </c>
+      <c r="C255" t="s">
+        <v>68</v>
+      </c>
+      <c r="D255" t="s">
+        <v>69</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45770.58333333334</v>
+      </c>
+      <c r="F255">
+        <v>2</v>
+      </c>
+      <c r="G255" t="s">
+        <v>70</v>
+      </c>
+      <c r="H255" t="s">
+        <v>72</v>
+      </c>
+      <c r="I255">
+        <v>1</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>1</v>
+      </c>
+      <c r="L255">
+        <v>4</v>
+      </c>
+      <c r="M255">
+        <v>1</v>
+      </c>
+      <c r="N255">
+        <v>5</v>
+      </c>
+      <c r="O255" t="s">
+        <v>251</v>
+      </c>
+      <c r="P255" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q255">
+        <v>5.5</v>
+      </c>
+      <c r="R255">
+        <v>2.6</v>
+      </c>
+      <c r="S255">
+        <v>1.83</v>
+      </c>
+      <c r="T255">
+        <v>1.25</v>
+      </c>
+      <c r="U255">
+        <v>3.75</v>
+      </c>
+      <c r="V255">
+        <v>2.2</v>
+      </c>
+      <c r="W255">
+        <v>1.62</v>
+      </c>
+      <c r="X255">
+        <v>4.5</v>
+      </c>
+      <c r="Y255">
+        <v>1.17</v>
+      </c>
+      <c r="Z255">
+        <v>8.4</v>
+      </c>
+      <c r="AA255">
+        <v>5.2</v>
+      </c>
+      <c r="AB255">
+        <v>1.32</v>
+      </c>
+      <c r="AC255">
+        <v>0</v>
+      </c>
+      <c r="AD255">
+        <v>0</v>
+      </c>
+      <c r="AE255">
+        <v>1.09</v>
+      </c>
+      <c r="AF255">
+        <v>6.5</v>
+      </c>
+      <c r="AG255">
+        <v>1.38</v>
+      </c>
+      <c r="AH255">
+        <v>2.81</v>
+      </c>
+      <c r="AI255">
+        <v>1.67</v>
+      </c>
+      <c r="AJ255">
+        <v>2.1</v>
+      </c>
+      <c r="AK255">
+        <v>3.55</v>
+      </c>
+      <c r="AL255">
+        <v>1.13</v>
+      </c>
+      <c r="AM255">
+        <v>1.03</v>
+      </c>
+      <c r="AN255">
+        <v>1.73</v>
+      </c>
+      <c r="AO255">
+        <v>3</v>
+      </c>
+      <c r="AP255">
+        <v>1.81</v>
+      </c>
+      <c r="AQ255">
+        <v>2.81</v>
+      </c>
+      <c r="AR255">
+        <v>1.61</v>
+      </c>
+      <c r="AS255">
+        <v>2.23</v>
+      </c>
+      <c r="AT255">
+        <v>3.84</v>
+      </c>
+      <c r="AU255">
+        <v>10</v>
+      </c>
+      <c r="AV255">
+        <v>11</v>
+      </c>
+      <c r="AW255">
+        <v>10</v>
+      </c>
+      <c r="AX255">
+        <v>9</v>
+      </c>
+      <c r="AY255">
+        <v>20</v>
+      </c>
+      <c r="AZ255">
+        <v>20</v>
+      </c>
+      <c r="BA255">
+        <v>6</v>
+      </c>
+      <c r="BB255">
+        <v>15</v>
+      </c>
+      <c r="BC255">
+        <v>21</v>
+      </c>
+      <c r="BD255">
+        <v>0</v>
+      </c>
+      <c r="BE255">
+        <v>0</v>
+      </c>
+      <c r="BF255">
+        <v>0</v>
+      </c>
+      <c r="BG255">
+        <v>0</v>
+      </c>
+      <c r="BH255">
+        <v>0</v>
+      </c>
+      <c r="BI255">
+        <v>0</v>
+      </c>
+      <c r="BJ255">
+        <v>0</v>
+      </c>
+      <c r="BK255">
+        <v>0</v>
+      </c>
+      <c r="BL255">
+        <v>0</v>
+      </c>
+      <c r="BM255">
+        <v>0</v>
+      </c>
+      <c r="BN255">
+        <v>0</v>
+      </c>
+      <c r="BO255">
+        <v>0</v>
+      </c>
+      <c r="BP255">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="370">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -772,6 +772,12 @@
     <t>['45', '57', '62', '73']</t>
   </si>
   <si>
+    <t>['43', '78']</t>
+  </si>
+  <si>
+    <t>['4', '9', '25', '28']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -1115,6 +1121,9 @@
   </si>
   <si>
     <t>['42', '45+4']</t>
+  </si>
+  <si>
+    <t>['15']</t>
   </si>
 </sst>
 </file>
@@ -1476,7 +1485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP255"/>
+  <dimension ref="A1:BP257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1735,7 +1744,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2353,7 +2362,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2765,7 +2774,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2971,7 +2980,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -3383,7 +3392,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3461,7 +3470,7 @@
         <v>3</v>
       </c>
       <c r="AP10">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ10">
         <v>2.06</v>
@@ -3589,7 +3598,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3670,7 +3679,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ11">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3795,7 +3804,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -4285,10 +4294,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -5237,7 +5246,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -6267,7 +6276,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6348,7 +6357,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ24">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR24">
         <v>0.98</v>
@@ -6554,7 +6563,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ25">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR25">
         <v>1.68</v>
@@ -6757,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26">
         <v>1.19</v>
@@ -7091,7 +7100,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -7375,7 +7384,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ29">
         <v>1.31</v>
@@ -7709,7 +7718,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7915,7 +7924,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -8327,7 +8336,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -9151,7 +9160,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9438,7 +9447,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ39">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR39">
         <v>0</v>
@@ -9563,7 +9572,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9975,7 +9984,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10053,7 +10062,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ42">
         <v>1.13</v>
@@ -10181,7 +10190,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10387,7 +10396,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10468,7 +10477,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ44">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR44">
         <v>1.19</v>
@@ -10593,7 +10602,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -11417,7 +11426,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11623,7 +11632,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11829,7 +11838,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -12319,7 +12328,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
         <v>1.13</v>
@@ -12734,7 +12743,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ55">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR55">
         <v>2.35</v>
@@ -13065,7 +13074,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -13146,7 +13155,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ57">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR57">
         <v>1.94</v>
@@ -13271,7 +13280,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -13477,7 +13486,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13683,7 +13692,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13761,7 +13770,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ60">
         <v>0.75</v>
@@ -13889,7 +13898,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -14301,7 +14310,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14507,7 +14516,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14713,7 +14722,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14919,7 +14928,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15537,7 +15546,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15949,7 +15958,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -16361,7 +16370,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16567,7 +16576,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16854,7 +16863,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ75">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR75">
         <v>1.22</v>
@@ -16979,7 +16988,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -17263,7 +17272,7 @@
         <v>0.2</v>
       </c>
       <c r="AP77">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -17391,7 +17400,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17597,7 +17606,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17884,7 +17893,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ80">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR80">
         <v>1.56</v>
@@ -18009,7 +18018,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -18215,7 +18224,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -18421,7 +18430,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18627,7 +18636,7 @@
         <v>87</v>
       </c>
       <c r="P84" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18705,7 +18714,7 @@
         <v>1.6</v>
       </c>
       <c r="AP84">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ84">
         <v>1.81</v>
@@ -18833,7 +18842,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -19245,7 +19254,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -19532,7 +19541,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ88">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR88">
         <v>1.41</v>
@@ -19657,7 +19666,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -20069,7 +20078,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -20353,7 +20362,7 @@
         <v>1.83</v>
       </c>
       <c r="AP92">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ92">
         <v>1.81</v>
@@ -20687,7 +20696,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -21386,7 +21395,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ97">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR97">
         <v>1.33</v>
@@ -21511,7 +21520,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q98">
         <v>13</v>
@@ -21589,7 +21598,7 @@
         <v>3</v>
       </c>
       <c r="AP98">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98">
         <v>2.81</v>
@@ -21923,7 +21932,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -22129,7 +22138,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -22335,7 +22344,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22541,7 +22550,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -23240,7 +23249,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ106">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR106">
         <v>1.53</v>
@@ -23365,7 +23374,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23777,7 +23786,7 @@
         <v>87</v>
       </c>
       <c r="P109" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -23855,7 +23864,7 @@
         <v>2</v>
       </c>
       <c r="AP109">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ109">
         <v>1.56</v>
@@ -24189,7 +24198,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -24395,7 +24404,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24476,7 +24485,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ112">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR112">
         <v>1.19</v>
@@ -24679,7 +24688,7 @@
         <v>0.5</v>
       </c>
       <c r="AP113">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ113">
         <v>1.06</v>
@@ -25219,7 +25228,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -25425,7 +25434,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25631,7 +25640,7 @@
         <v>87</v>
       </c>
       <c r="P118" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -25837,7 +25846,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25918,7 +25927,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ119">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR119">
         <v>1.78</v>
@@ -26043,7 +26052,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q120">
         <v>3.15</v>
@@ -26121,7 +26130,7 @@
         <v>0.86</v>
       </c>
       <c r="AP120">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ120">
         <v>1.19</v>
@@ -26742,7 +26751,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ123">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR123">
         <v>1.46</v>
@@ -26867,7 +26876,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27073,7 +27082,7 @@
         <v>87</v>
       </c>
       <c r="P125" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q125">
         <v>3.85</v>
@@ -27279,7 +27288,7 @@
         <v>110</v>
       </c>
       <c r="P126" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q126">
         <v>1.77</v>
@@ -27691,7 +27700,7 @@
         <v>119</v>
       </c>
       <c r="P128" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27897,7 +27906,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -28309,7 +28318,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -29339,7 +29348,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -29417,7 +29426,7 @@
         <v>2</v>
       </c>
       <c r="AP136">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ136">
         <v>1.31</v>
@@ -29626,7 +29635,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ137">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR137">
         <v>1.8</v>
@@ -29829,7 +29838,7 @@
         <v>1.43</v>
       </c>
       <c r="AP138">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ138">
         <v>1.19</v>
@@ -29957,7 +29966,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q139">
         <v>5.5</v>
@@ -30369,7 +30378,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30450,7 +30459,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ141">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR141">
         <v>1.19</v>
@@ -30575,7 +30584,7 @@
         <v>148</v>
       </c>
       <c r="P142" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30781,7 +30790,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -30859,7 +30868,7 @@
         <v>2.38</v>
       </c>
       <c r="AP143">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ143">
         <v>2.06</v>
@@ -31399,7 +31408,7 @@
         <v>188</v>
       </c>
       <c r="P146" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31605,7 +31614,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31811,7 +31820,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q148">
         <v>8.5</v>
@@ -32017,7 +32026,7 @@
         <v>190</v>
       </c>
       <c r="P149" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32429,7 +32438,7 @@
         <v>192</v>
       </c>
       <c r="P151" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q151">
         <v>1.83</v>
@@ -32635,7 +32644,7 @@
         <v>87</v>
       </c>
       <c r="P152" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q152">
         <v>13</v>
@@ -32713,7 +32722,7 @@
         <v>3</v>
       </c>
       <c r="AP152">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ152">
         <v>2.81</v>
@@ -32841,7 +32850,7 @@
         <v>92</v>
       </c>
       <c r="P153" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -33253,7 +33262,7 @@
         <v>194</v>
       </c>
       <c r="P155" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q155">
         <v>2.38</v>
@@ -33743,7 +33752,7 @@
         <v>0.44</v>
       </c>
       <c r="AP157">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ157">
         <v>1.06</v>
@@ -33871,7 +33880,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q158">
         <v>1.53</v>
@@ -33952,7 +33961,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ158">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR158">
         <v>2</v>
@@ -34077,7 +34086,7 @@
         <v>87</v>
       </c>
       <c r="P159" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34155,10 +34164,10 @@
         <v>0.78</v>
       </c>
       <c r="AP159">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ159">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR159">
         <v>1.07</v>
@@ -34283,7 +34292,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q160">
         <v>3.25</v>
@@ -34489,7 +34498,7 @@
         <v>87</v>
       </c>
       <c r="P161" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -35107,7 +35116,7 @@
         <v>199</v>
       </c>
       <c r="P164" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q164">
         <v>2.1</v>
@@ -35313,7 +35322,7 @@
         <v>200</v>
       </c>
       <c r="P165" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q165">
         <v>1.8</v>
@@ -35725,7 +35734,7 @@
         <v>97</v>
       </c>
       <c r="P167" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q167">
         <v>6.5</v>
@@ -36343,7 +36352,7 @@
         <v>87</v>
       </c>
       <c r="P170" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -36424,7 +36433,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ170">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR170">
         <v>1.25</v>
@@ -37167,7 +37176,7 @@
         <v>87</v>
       </c>
       <c r="P174" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37245,7 +37254,7 @@
         <v>1.1</v>
       </c>
       <c r="AP174">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ174">
         <v>1.19</v>
@@ -37373,7 +37382,7 @@
         <v>87</v>
       </c>
       <c r="P175" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q175">
         <v>2.38</v>
@@ -37454,7 +37463,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ175">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR175">
         <v>1.51</v>
@@ -37863,7 +37872,7 @@
         <v>1.3</v>
       </c>
       <c r="AP177">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ177">
         <v>1.31</v>
@@ -37991,7 +38000,7 @@
         <v>206</v>
       </c>
       <c r="P178" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38403,7 +38412,7 @@
         <v>87</v>
       </c>
       <c r="P180" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q180">
         <v>13</v>
@@ -38815,7 +38824,7 @@
         <v>89</v>
       </c>
       <c r="P182" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q182">
         <v>1.83</v>
@@ -39021,7 +39030,7 @@
         <v>107</v>
       </c>
       <c r="P183" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q183">
         <v>1.91</v>
@@ -39227,7 +39236,7 @@
         <v>189</v>
       </c>
       <c r="P184" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q184">
         <v>2.3</v>
@@ -39639,7 +39648,7 @@
         <v>208</v>
       </c>
       <c r="P186" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q186">
         <v>2.88</v>
@@ -39717,7 +39726,7 @@
         <v>0.73</v>
       </c>
       <c r="AP186">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ186">
         <v>0.75</v>
@@ -39845,7 +39854,7 @@
         <v>87</v>
       </c>
       <c r="P187" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q187">
         <v>4.75</v>
@@ -40051,7 +40060,7 @@
         <v>87</v>
       </c>
       <c r="P188" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q188">
         <v>2</v>
@@ -40257,7 +40266,7 @@
         <v>209</v>
       </c>
       <c r="P189" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q189">
         <v>1.73</v>
@@ -40544,7 +40553,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ190">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR190">
         <v>1.16</v>
@@ -40747,10 +40756,10 @@
         <v>1.27</v>
       </c>
       <c r="AP191">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ191">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR191">
         <v>1.17</v>
@@ -41159,7 +41168,7 @@
         <v>0.33</v>
       </c>
       <c r="AP193">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ193">
         <v>0.25</v>
@@ -41287,7 +41296,7 @@
         <v>212</v>
       </c>
       <c r="P194" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q194">
         <v>9.4</v>
@@ -41699,7 +41708,7 @@
         <v>214</v>
       </c>
       <c r="P196" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q196">
         <v>3.85</v>
@@ -41905,7 +41914,7 @@
         <v>173</v>
       </c>
       <c r="P197" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q197">
         <v>3.25</v>
@@ -42604,7 +42613,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ200">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR200">
         <v>1.97</v>
@@ -42935,7 +42944,7 @@
         <v>119</v>
       </c>
       <c r="P202" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q202">
         <v>7</v>
@@ -43347,7 +43356,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q204">
         <v>1.85</v>
@@ -43553,7 +43562,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q205">
         <v>5.5</v>
@@ -43631,7 +43640,7 @@
         <v>1.25</v>
       </c>
       <c r="AP205">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ205">
         <v>1.19</v>
@@ -43840,7 +43849,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ206">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR206">
         <v>1.7</v>
@@ -43965,7 +43974,7 @@
         <v>152</v>
       </c>
       <c r="P207" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -44455,7 +44464,7 @@
         <v>1.62</v>
       </c>
       <c r="AP209">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ209">
         <v>1.56</v>
@@ -44870,7 +44879,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ211">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR211">
         <v>1.42</v>
@@ -44995,7 +45004,7 @@
         <v>87</v>
       </c>
       <c r="P212" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q212">
         <v>9.5</v>
@@ -45201,7 +45210,7 @@
         <v>225</v>
       </c>
       <c r="P213" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q213">
         <v>1.8</v>
@@ -45407,7 +45416,7 @@
         <v>226</v>
       </c>
       <c r="P214" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q214">
         <v>2.63</v>
@@ -46025,7 +46034,7 @@
         <v>189</v>
       </c>
       <c r="P217" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -46231,7 +46240,7 @@
         <v>229</v>
       </c>
       <c r="P218" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q218">
         <v>4.33</v>
@@ -46309,7 +46318,7 @@
         <v>1.38</v>
       </c>
       <c r="AP218">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ218">
         <v>1.19</v>
@@ -46437,7 +46446,7 @@
         <v>230</v>
       </c>
       <c r="P219" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q219">
         <v>6</v>
@@ -46643,7 +46652,7 @@
         <v>231</v>
       </c>
       <c r="P220" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q220">
         <v>2.1</v>
@@ -46724,7 +46733,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ220">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR220">
         <v>1.95</v>
@@ -47055,7 +47064,7 @@
         <v>233</v>
       </c>
       <c r="P222" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q222">
         <v>4.5</v>
@@ -47261,7 +47270,7 @@
         <v>87</v>
       </c>
       <c r="P223" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q223">
         <v>3.5</v>
@@ -47673,7 +47682,7 @@
         <v>234</v>
       </c>
       <c r="P225" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q225">
         <v>2.6</v>
@@ -48085,7 +48094,7 @@
         <v>235</v>
       </c>
       <c r="P227" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q227">
         <v>2.6</v>
@@ -48497,7 +48506,7 @@
         <v>236</v>
       </c>
       <c r="P229" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q229">
         <v>8</v>
@@ -49193,7 +49202,7 @@
         <v>1.43</v>
       </c>
       <c r="AP232">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ232">
         <v>1.31</v>
@@ -49321,7 +49330,7 @@
         <v>182</v>
       </c>
       <c r="P233" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49402,7 +49411,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ233">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR233">
         <v>1.44</v>
@@ -49733,7 +49742,7 @@
         <v>87</v>
       </c>
       <c r="P235" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q235">
         <v>3.24</v>
@@ -49939,7 +49948,7 @@
         <v>239</v>
       </c>
       <c r="P236" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q236">
         <v>1.43</v>
@@ -50223,10 +50232,10 @@
         <v>0.93</v>
       </c>
       <c r="AP237">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ237">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR237">
         <v>1.27</v>
@@ -50557,7 +50566,7 @@
         <v>226</v>
       </c>
       <c r="P239" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -50763,7 +50772,7 @@
         <v>241</v>
       </c>
       <c r="P240" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q240">
         <v>2.6</v>
@@ -50969,7 +50978,7 @@
         <v>87</v>
       </c>
       <c r="P241" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -51587,7 +51596,7 @@
         <v>244</v>
       </c>
       <c r="P244" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q244">
         <v>2.1</v>
@@ -51793,7 +51802,7 @@
         <v>240</v>
       </c>
       <c r="P245" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q245">
         <v>2.2</v>
@@ -51999,7 +52008,7 @@
         <v>245</v>
       </c>
       <c r="P246" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q246">
         <v>0</v>
@@ -52205,7 +52214,7 @@
         <v>246</v>
       </c>
       <c r="P247" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q247">
         <v>2.3</v>
@@ -52411,7 +52420,7 @@
         <v>87</v>
       </c>
       <c r="P248" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q248">
         <v>2.6</v>
@@ -53647,7 +53656,7 @@
         <v>250</v>
       </c>
       <c r="P254" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q254">
         <v>1.95</v>
@@ -53853,7 +53862,7 @@
         <v>251</v>
       </c>
       <c r="P255" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q255">
         <v>5.5</v>
@@ -54009,6 +54018,418 @@
         <v>0</v>
       </c>
       <c r="BP255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:68">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>7881225</v>
+      </c>
+      <c r="C256" t="s">
+        <v>68</v>
+      </c>
+      <c r="D256" t="s">
+        <v>69</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45771.5</v>
+      </c>
+      <c r="F256">
+        <v>2</v>
+      </c>
+      <c r="G256" t="s">
+        <v>81</v>
+      </c>
+      <c r="H256" t="s">
+        <v>71</v>
+      </c>
+      <c r="I256">
+        <v>1</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>1</v>
+      </c>
+      <c r="L256">
+        <v>2</v>
+      </c>
+      <c r="M256">
+        <v>1</v>
+      </c>
+      <c r="N256">
+        <v>3</v>
+      </c>
+      <c r="O256" t="s">
+        <v>252</v>
+      </c>
+      <c r="P256" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q256">
+        <v>3</v>
+      </c>
+      <c r="R256">
+        <v>1.91</v>
+      </c>
+      <c r="S256">
+        <v>4.33</v>
+      </c>
+      <c r="T256">
+        <v>1.57</v>
+      </c>
+      <c r="U256">
+        <v>2.25</v>
+      </c>
+      <c r="V256">
+        <v>3.75</v>
+      </c>
+      <c r="W256">
+        <v>1.25</v>
+      </c>
+      <c r="X256">
+        <v>9</v>
+      </c>
+      <c r="Y256">
+        <v>1.04</v>
+      </c>
+      <c r="Z256">
+        <v>2.14</v>
+      </c>
+      <c r="AA256">
+        <v>3.27</v>
+      </c>
+      <c r="AB256">
+        <v>3.38</v>
+      </c>
+      <c r="AC256">
+        <v>1.11</v>
+      </c>
+      <c r="AD256">
+        <v>6</v>
+      </c>
+      <c r="AE256">
+        <v>1.5</v>
+      </c>
+      <c r="AF256">
+        <v>2.3</v>
+      </c>
+      <c r="AG256">
+        <v>2.59</v>
+      </c>
+      <c r="AH256">
+        <v>1.44</v>
+      </c>
+      <c r="AI256">
+        <v>2.2</v>
+      </c>
+      <c r="AJ256">
+        <v>1.62</v>
+      </c>
+      <c r="AK256">
+        <v>1.25</v>
+      </c>
+      <c r="AL256">
+        <v>1.33</v>
+      </c>
+      <c r="AM256">
+        <v>1.65</v>
+      </c>
+      <c r="AN256">
+        <v>1.4</v>
+      </c>
+      <c r="AO256">
+        <v>0.93</v>
+      </c>
+      <c r="AP256">
+        <v>1.5</v>
+      </c>
+      <c r="AQ256">
+        <v>0.88</v>
+      </c>
+      <c r="AR256">
+        <v>1.24</v>
+      </c>
+      <c r="AS256">
+        <v>1.19</v>
+      </c>
+      <c r="AT256">
+        <v>2.43</v>
+      </c>
+      <c r="AU256">
+        <v>6</v>
+      </c>
+      <c r="AV256">
+        <v>6</v>
+      </c>
+      <c r="AW256">
+        <v>3</v>
+      </c>
+      <c r="AX256">
+        <v>5</v>
+      </c>
+      <c r="AY256">
+        <v>9</v>
+      </c>
+      <c r="AZ256">
+        <v>11</v>
+      </c>
+      <c r="BA256">
+        <v>6</v>
+      </c>
+      <c r="BB256">
+        <v>5</v>
+      </c>
+      <c r="BC256">
+        <v>11</v>
+      </c>
+      <c r="BD256">
+        <v>0</v>
+      </c>
+      <c r="BE256">
+        <v>0</v>
+      </c>
+      <c r="BF256">
+        <v>0</v>
+      </c>
+      <c r="BG256">
+        <v>0</v>
+      </c>
+      <c r="BH256">
+        <v>0</v>
+      </c>
+      <c r="BI256">
+        <v>0</v>
+      </c>
+      <c r="BJ256">
+        <v>0</v>
+      </c>
+      <c r="BK256">
+        <v>0</v>
+      </c>
+      <c r="BL256">
+        <v>0</v>
+      </c>
+      <c r="BM256">
+        <v>0</v>
+      </c>
+      <c r="BN256">
+        <v>0</v>
+      </c>
+      <c r="BO256">
+        <v>0</v>
+      </c>
+      <c r="BP256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:68">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>7881223</v>
+      </c>
+      <c r="C257" t="s">
+        <v>68</v>
+      </c>
+      <c r="D257" t="s">
+        <v>69</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45771.54166666666</v>
+      </c>
+      <c r="F257">
+        <v>2</v>
+      </c>
+      <c r="G257" t="s">
+        <v>78</v>
+      </c>
+      <c r="H257" t="s">
+        <v>74</v>
+      </c>
+      <c r="I257">
+        <v>4</v>
+      </c>
+      <c r="J257">
+        <v>1</v>
+      </c>
+      <c r="K257">
+        <v>5</v>
+      </c>
+      <c r="L257">
+        <v>4</v>
+      </c>
+      <c r="M257">
+        <v>1</v>
+      </c>
+      <c r="N257">
+        <v>5</v>
+      </c>
+      <c r="O257" t="s">
+        <v>253</v>
+      </c>
+      <c r="P257" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q257">
+        <v>5.5</v>
+      </c>
+      <c r="R257">
+        <v>2.2</v>
+      </c>
+      <c r="S257">
+        <v>2.1</v>
+      </c>
+      <c r="T257">
+        <v>1.4</v>
+      </c>
+      <c r="U257">
+        <v>2.75</v>
+      </c>
+      <c r="V257">
+        <v>2.75</v>
+      </c>
+      <c r="W257">
+        <v>1.4</v>
+      </c>
+      <c r="X257">
+        <v>7</v>
+      </c>
+      <c r="Y257">
+        <v>1.08</v>
+      </c>
+      <c r="Z257">
+        <v>5.7</v>
+      </c>
+      <c r="AA257">
+        <v>3.72</v>
+      </c>
+      <c r="AB257">
+        <v>1.6</v>
+      </c>
+      <c r="AC257">
+        <v>1.05</v>
+      </c>
+      <c r="AD257">
+        <v>8.5</v>
+      </c>
+      <c r="AE257">
+        <v>1.28</v>
+      </c>
+      <c r="AF257">
+        <v>3.4</v>
+      </c>
+      <c r="AG257">
+        <v>1.87</v>
+      </c>
+      <c r="AH257">
+        <v>1.87</v>
+      </c>
+      <c r="AI257">
+        <v>1.91</v>
+      </c>
+      <c r="AJ257">
+        <v>1.8</v>
+      </c>
+      <c r="AK257">
+        <v>2.3</v>
+      </c>
+      <c r="AL257">
+        <v>1.2</v>
+      </c>
+      <c r="AM257">
+        <v>1.1</v>
+      </c>
+      <c r="AN257">
+        <v>0.8</v>
+      </c>
+      <c r="AO257">
+        <v>1.33</v>
+      </c>
+      <c r="AP257">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ257">
+        <v>1.25</v>
+      </c>
+      <c r="AR257">
+        <v>1.29</v>
+      </c>
+      <c r="AS257">
+        <v>1.45</v>
+      </c>
+      <c r="AT257">
+        <v>2.74</v>
+      </c>
+      <c r="AU257">
+        <v>9</v>
+      </c>
+      <c r="AV257">
+        <v>3</v>
+      </c>
+      <c r="AW257">
+        <v>9</v>
+      </c>
+      <c r="AX257">
+        <v>12</v>
+      </c>
+      <c r="AY257">
+        <v>18</v>
+      </c>
+      <c r="AZ257">
+        <v>15</v>
+      </c>
+      <c r="BA257">
+        <v>5</v>
+      </c>
+      <c r="BB257">
+        <v>7</v>
+      </c>
+      <c r="BC257">
+        <v>12</v>
+      </c>
+      <c r="BD257">
+        <v>0</v>
+      </c>
+      <c r="BE257">
+        <v>0</v>
+      </c>
+      <c r="BF257">
+        <v>0</v>
+      </c>
+      <c r="BG257">
+        <v>0</v>
+      </c>
+      <c r="BH257">
+        <v>0</v>
+      </c>
+      <c r="BI257">
+        <v>0</v>
+      </c>
+      <c r="BJ257">
+        <v>0</v>
+      </c>
+      <c r="BK257">
+        <v>0</v>
+      </c>
+      <c r="BL257">
+        <v>0</v>
+      </c>
+      <c r="BM257">
+        <v>0</v>
+      </c>
+      <c r="BN257">
+        <v>0</v>
+      </c>
+      <c r="BO257">
+        <v>0</v>
+      </c>
+      <c r="BP257">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
@@ -53543,31 +53543,31 @@
         <v>2.71</v>
       </c>
       <c r="AU253">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV253">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AW253">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX253">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="AY253">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ253">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="BA253">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB253">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC253">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD253">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="371">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -778,6 +778,9 @@
     <t>['4', '9', '25', '28']</t>
   </si>
   <si>
+    <t>['29', '42', '45+2']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -1485,7 +1488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP257"/>
+  <dimension ref="A1:BP258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1744,7 +1747,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2362,7 +2365,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2774,7 +2777,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2980,7 +2983,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -3392,7 +3395,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3598,7 +3601,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3804,7 +3807,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -4503,7 +4506,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ15">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5246,7 +5249,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -6276,7 +6279,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -7100,7 +7103,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -7181,7 +7184,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7590,7 +7593,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ30">
         <v>2.06</v>
@@ -7718,7 +7721,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7924,7 +7927,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -8336,7 +8339,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -9160,7 +9163,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9572,7 +9575,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9984,7 +9987,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10190,7 +10193,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10396,7 +10399,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10602,7 +10605,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10680,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ45">
         <v>0.75</v>
@@ -10889,7 +10892,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ46">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>0.99</v>
@@ -11426,7 +11429,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11632,7 +11635,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11838,7 +11841,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -13074,7 +13077,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -13280,7 +13283,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -13486,7 +13489,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13692,7 +13695,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13898,7 +13901,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13976,7 +13979,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ61">
         <v>1.19</v>
@@ -14310,7 +14313,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14516,7 +14519,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14722,7 +14725,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14800,7 +14803,7 @@
         <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ65">
         <v>1.81</v>
@@ -14928,7 +14931,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15421,7 +15424,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ68">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR68">
         <v>1.54</v>
@@ -15546,7 +15549,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15958,7 +15961,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -16370,7 +16373,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16576,7 +16579,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16988,7 +16991,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -17400,7 +17403,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17606,7 +17609,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -18018,7 +18021,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -18224,7 +18227,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -18305,7 +18308,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ82">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>1.24</v>
@@ -18430,7 +18433,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18636,7 +18639,7 @@
         <v>87</v>
       </c>
       <c r="P84" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18842,7 +18845,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -18920,7 +18923,7 @@
         <v>3</v>
       </c>
       <c r="AP85">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ85">
         <v>2.81</v>
@@ -19254,7 +19257,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -19666,7 +19669,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -20078,7 +20081,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -20696,7 +20699,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20980,10 +20983,10 @@
         <v>0.6</v>
       </c>
       <c r="AP95">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ95">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR95">
         <v>1.17</v>
@@ -21520,7 +21523,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q98">
         <v>13</v>
@@ -21932,7 +21935,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -22138,7 +22141,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -22344,7 +22347,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22550,7 +22553,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -23374,7 +23377,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23786,7 +23789,7 @@
         <v>87</v>
       </c>
       <c r="P109" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -24198,7 +24201,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -24404,7 +24407,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24482,7 +24485,7 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ112">
         <v>1.25</v>
@@ -24691,7 +24694,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ113">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR113">
         <v>1.01</v>
@@ -25228,7 +25231,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -25434,7 +25437,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25640,7 +25643,7 @@
         <v>87</v>
       </c>
       <c r="P118" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -25846,7 +25849,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -26052,7 +26055,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q120">
         <v>3.15</v>
@@ -26339,7 +26342,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ121">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR121">
         <v>1.85</v>
@@ -26876,7 +26879,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27082,7 +27085,7 @@
         <v>87</v>
       </c>
       <c r="P125" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q125">
         <v>3.85</v>
@@ -27288,7 +27291,7 @@
         <v>110</v>
       </c>
       <c r="P126" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q126">
         <v>1.77</v>
@@ -27700,7 +27703,7 @@
         <v>119</v>
       </c>
       <c r="P128" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27906,7 +27909,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -28318,7 +28321,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -29223,7 +29226,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ135">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR135">
         <v>1.93</v>
@@ -29348,7 +29351,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -29966,7 +29969,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q139">
         <v>5.5</v>
@@ -30378,7 +30381,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30456,7 +30459,7 @@
         <v>0.88</v>
       </c>
       <c r="AP141">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ141">
         <v>0.88</v>
@@ -30584,7 +30587,7 @@
         <v>148</v>
       </c>
       <c r="P142" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30790,7 +30793,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -31408,7 +31411,7 @@
         <v>188</v>
       </c>
       <c r="P146" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31614,7 +31617,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31820,7 +31823,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q148">
         <v>8.5</v>
@@ -32026,7 +32029,7 @@
         <v>190</v>
       </c>
       <c r="P149" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32438,7 +32441,7 @@
         <v>192</v>
       </c>
       <c r="P151" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q151">
         <v>1.83</v>
@@ -32644,7 +32647,7 @@
         <v>87</v>
       </c>
       <c r="P152" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q152">
         <v>13</v>
@@ -32850,7 +32853,7 @@
         <v>92</v>
       </c>
       <c r="P153" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -33134,7 +33137,7 @@
         <v>1.33</v>
       </c>
       <c r="AP154">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ154">
         <v>1.31</v>
@@ -33262,7 +33265,7 @@
         <v>194</v>
       </c>
       <c r="P155" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q155">
         <v>2.38</v>
@@ -33755,7 +33758,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ157">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR157">
         <v>1.13</v>
@@ -33880,7 +33883,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q158">
         <v>1.53</v>
@@ -34086,7 +34089,7 @@
         <v>87</v>
       </c>
       <c r="P159" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34292,7 +34295,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q160">
         <v>3.25</v>
@@ -34498,7 +34501,7 @@
         <v>87</v>
       </c>
       <c r="P161" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34576,7 +34579,7 @@
         <v>1.33</v>
       </c>
       <c r="AP161">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ161">
         <v>1.19</v>
@@ -35116,7 +35119,7 @@
         <v>199</v>
       </c>
       <c r="P164" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q164">
         <v>2.1</v>
@@ -35197,7 +35200,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ164">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR164">
         <v>1.67</v>
@@ -35322,7 +35325,7 @@
         <v>200</v>
       </c>
       <c r="P165" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q165">
         <v>1.8</v>
@@ -35606,7 +35609,7 @@
         <v>0.1</v>
       </c>
       <c r="AP166">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ166">
         <v>0.25</v>
@@ -35734,7 +35737,7 @@
         <v>97</v>
       </c>
       <c r="P167" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q167">
         <v>6.5</v>
@@ -36352,7 +36355,7 @@
         <v>87</v>
       </c>
       <c r="P170" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -37176,7 +37179,7 @@
         <v>87</v>
       </c>
       <c r="P174" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37382,7 +37385,7 @@
         <v>87</v>
       </c>
       <c r="P175" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q175">
         <v>2.38</v>
@@ -38000,7 +38003,7 @@
         <v>206</v>
       </c>
       <c r="P178" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38078,7 +38081,7 @@
         <v>0.64</v>
       </c>
       <c r="AP178">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ178">
         <v>1</v>
@@ -38412,7 +38415,7 @@
         <v>87</v>
       </c>
       <c r="P180" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q180">
         <v>13</v>
@@ -38824,7 +38827,7 @@
         <v>89</v>
       </c>
       <c r="P182" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q182">
         <v>1.83</v>
@@ -39030,7 +39033,7 @@
         <v>107</v>
       </c>
       <c r="P183" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q183">
         <v>1.91</v>
@@ -39111,7 +39114,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ183">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR183">
         <v>1.95</v>
@@ -39236,7 +39239,7 @@
         <v>189</v>
       </c>
       <c r="P184" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q184">
         <v>2.3</v>
@@ -39648,7 +39651,7 @@
         <v>208</v>
       </c>
       <c r="P186" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q186">
         <v>2.88</v>
@@ -39854,7 +39857,7 @@
         <v>87</v>
       </c>
       <c r="P187" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q187">
         <v>4.75</v>
@@ -40060,7 +40063,7 @@
         <v>87</v>
       </c>
       <c r="P188" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q188">
         <v>2</v>
@@ -40266,7 +40269,7 @@
         <v>209</v>
       </c>
       <c r="P189" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q189">
         <v>1.73</v>
@@ -41296,7 +41299,7 @@
         <v>212</v>
       </c>
       <c r="P194" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q194">
         <v>9.4</v>
@@ -41708,7 +41711,7 @@
         <v>214</v>
       </c>
       <c r="P196" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q196">
         <v>3.85</v>
@@ -41914,7 +41917,7 @@
         <v>173</v>
       </c>
       <c r="P197" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q197">
         <v>3.25</v>
@@ -41992,7 +41995,7 @@
         <v>1.67</v>
       </c>
       <c r="AP197">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ197">
         <v>1.56</v>
@@ -42201,7 +42204,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ198">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR198">
         <v>1.34</v>
@@ -42944,7 +42947,7 @@
         <v>119</v>
       </c>
       <c r="P202" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q202">
         <v>7</v>
@@ -43356,7 +43359,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q204">
         <v>1.85</v>
@@ -43562,7 +43565,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q205">
         <v>5.5</v>
@@ -43974,7 +43977,7 @@
         <v>152</v>
       </c>
       <c r="P207" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -44673,7 +44676,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ210">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR210">
         <v>1.45</v>
@@ -45004,7 +45007,7 @@
         <v>87</v>
       </c>
       <c r="P212" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q212">
         <v>9.5</v>
@@ -45210,7 +45213,7 @@
         <v>225</v>
       </c>
       <c r="P213" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q213">
         <v>1.8</v>
@@ -45416,7 +45419,7 @@
         <v>226</v>
       </c>
       <c r="P214" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q214">
         <v>2.63</v>
@@ -45700,7 +45703,7 @@
         <v>1.54</v>
       </c>
       <c r="AP215">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ215">
         <v>1.31</v>
@@ -46034,7 +46037,7 @@
         <v>189</v>
       </c>
       <c r="P217" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -46240,7 +46243,7 @@
         <v>229</v>
       </c>
       <c r="P218" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q218">
         <v>4.33</v>
@@ -46446,7 +46449,7 @@
         <v>230</v>
       </c>
       <c r="P219" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q219">
         <v>6</v>
@@ -46652,7 +46655,7 @@
         <v>231</v>
       </c>
       <c r="P220" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q220">
         <v>2.1</v>
@@ -47064,7 +47067,7 @@
         <v>233</v>
       </c>
       <c r="P222" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q222">
         <v>4.5</v>
@@ -47270,7 +47273,7 @@
         <v>87</v>
       </c>
       <c r="P223" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q223">
         <v>3.5</v>
@@ -47682,7 +47685,7 @@
         <v>234</v>
       </c>
       <c r="P225" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q225">
         <v>2.6</v>
@@ -47966,7 +47969,7 @@
         <v>1.07</v>
       </c>
       <c r="AP226">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ226">
         <v>1.19</v>
@@ -48094,7 +48097,7 @@
         <v>235</v>
       </c>
       <c r="P227" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q227">
         <v>2.6</v>
@@ -48175,7 +48178,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ227">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR227">
         <v>1.6</v>
@@ -48506,7 +48509,7 @@
         <v>236</v>
       </c>
       <c r="P229" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q229">
         <v>8</v>
@@ -49330,7 +49333,7 @@
         <v>182</v>
       </c>
       <c r="P233" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49742,7 +49745,7 @@
         <v>87</v>
       </c>
       <c r="P235" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q235">
         <v>3.24</v>
@@ -49948,7 +49951,7 @@
         <v>239</v>
       </c>
       <c r="P236" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q236">
         <v>1.43</v>
@@ -50566,7 +50569,7 @@
         <v>226</v>
       </c>
       <c r="P239" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -50772,7 +50775,7 @@
         <v>241</v>
       </c>
       <c r="P240" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q240">
         <v>2.6</v>
@@ -50978,7 +50981,7 @@
         <v>87</v>
       </c>
       <c r="P241" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -51596,7 +51599,7 @@
         <v>244</v>
       </c>
       <c r="P244" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q244">
         <v>2.1</v>
@@ -51802,7 +51805,7 @@
         <v>240</v>
       </c>
       <c r="P245" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q245">
         <v>2.2</v>
@@ -52008,7 +52011,7 @@
         <v>245</v>
       </c>
       <c r="P246" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q246">
         <v>0</v>
@@ -52214,7 +52217,7 @@
         <v>246</v>
       </c>
       <c r="P247" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q247">
         <v>2.3</v>
@@ -52292,7 +52295,7 @@
         <v>0.87</v>
       </c>
       <c r="AP247">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ247">
         <v>1</v>
@@ -52420,7 +52423,7 @@
         <v>87</v>
       </c>
       <c r="P248" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q248">
         <v>2.6</v>
@@ -52501,7 +52504,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ248">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR248">
         <v>1.39</v>
@@ -53656,7 +53659,7 @@
         <v>250</v>
       </c>
       <c r="P254" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q254">
         <v>1.95</v>
@@ -53862,7 +53865,7 @@
         <v>251</v>
       </c>
       <c r="P255" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q255">
         <v>5.5</v>
@@ -54274,7 +54277,7 @@
         <v>253</v>
       </c>
       <c r="P257" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q257">
         <v>5.5</v>
@@ -54430,6 +54433,212 @@
         <v>0</v>
       </c>
       <c r="BP257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:68">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>7881234</v>
+      </c>
+      <c r="C258" t="s">
+        <v>68</v>
+      </c>
+      <c r="D258" t="s">
+        <v>69</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45773.52083333334</v>
+      </c>
+      <c r="F258">
+        <v>3</v>
+      </c>
+      <c r="G258" t="s">
+        <v>84</v>
+      </c>
+      <c r="H258" t="s">
+        <v>76</v>
+      </c>
+      <c r="I258">
+        <v>3</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>3</v>
+      </c>
+      <c r="L258">
+        <v>3</v>
+      </c>
+      <c r="M258">
+        <v>1</v>
+      </c>
+      <c r="N258">
+        <v>4</v>
+      </c>
+      <c r="O258" t="s">
+        <v>254</v>
+      </c>
+      <c r="P258" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q258">
+        <v>1.95</v>
+      </c>
+      <c r="R258">
+        <v>2.3</v>
+      </c>
+      <c r="S258">
+        <v>6</v>
+      </c>
+      <c r="T258">
+        <v>1.33</v>
+      </c>
+      <c r="U258">
+        <v>3.25</v>
+      </c>
+      <c r="V258">
+        <v>2.63</v>
+      </c>
+      <c r="W258">
+        <v>1.44</v>
+      </c>
+      <c r="X258">
+        <v>6</v>
+      </c>
+      <c r="Y258">
+        <v>1.11</v>
+      </c>
+      <c r="Z258">
+        <v>1.36</v>
+      </c>
+      <c r="AA258">
+        <v>4.7</v>
+      </c>
+      <c r="AB258">
+        <v>7</v>
+      </c>
+      <c r="AC258">
+        <v>0</v>
+      </c>
+      <c r="AD258">
+        <v>0</v>
+      </c>
+      <c r="AE258">
+        <v>0</v>
+      </c>
+      <c r="AF258">
+        <v>0</v>
+      </c>
+      <c r="AG258">
+        <v>1.83</v>
+      </c>
+      <c r="AH258">
+        <v>1.8</v>
+      </c>
+      <c r="AI258">
+        <v>1.91</v>
+      </c>
+      <c r="AJ258">
+        <v>1.8</v>
+      </c>
+      <c r="AK258">
+        <v>0</v>
+      </c>
+      <c r="AL258">
+        <v>0</v>
+      </c>
+      <c r="AM258">
+        <v>0</v>
+      </c>
+      <c r="AN258">
+        <v>1.25</v>
+      </c>
+      <c r="AO258">
+        <v>1.06</v>
+      </c>
+      <c r="AP258">
+        <v>1.35</v>
+      </c>
+      <c r="AQ258">
+        <v>1</v>
+      </c>
+      <c r="AR258">
+        <v>1.5</v>
+      </c>
+      <c r="AS258">
+        <v>1.23</v>
+      </c>
+      <c r="AT258">
+        <v>2.73</v>
+      </c>
+      <c r="AU258">
+        <v>10</v>
+      </c>
+      <c r="AV258">
+        <v>3</v>
+      </c>
+      <c r="AW258">
+        <v>4</v>
+      </c>
+      <c r="AX258">
+        <v>5</v>
+      </c>
+      <c r="AY258">
+        <v>15</v>
+      </c>
+      <c r="AZ258">
+        <v>8</v>
+      </c>
+      <c r="BA258">
+        <v>5</v>
+      </c>
+      <c r="BB258">
+        <v>3</v>
+      </c>
+      <c r="BC258">
+        <v>8</v>
+      </c>
+      <c r="BD258">
+        <v>0</v>
+      </c>
+      <c r="BE258">
+        <v>0</v>
+      </c>
+      <c r="BF258">
+        <v>0</v>
+      </c>
+      <c r="BG258">
+        <v>0</v>
+      </c>
+      <c r="BH258">
+        <v>0</v>
+      </c>
+      <c r="BI258">
+        <v>0</v>
+      </c>
+      <c r="BJ258">
+        <v>0</v>
+      </c>
+      <c r="BK258">
+        <v>0</v>
+      </c>
+      <c r="BL258">
+        <v>0</v>
+      </c>
+      <c r="BM258">
+        <v>0</v>
+      </c>
+      <c r="BN258">
+        <v>0</v>
+      </c>
+      <c r="BO258">
+        <v>0</v>
+      </c>
+      <c r="BP258">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="376">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -781,6 +781,12 @@
     <t>['29', '42', '45+2']</t>
   </si>
   <si>
+    <t>['31', '33', '36', '67', '90+4']</t>
+  </si>
+  <si>
+    <t>['18', '59', '90+5']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -1127,6 +1133,15 @@
   </si>
   <si>
     <t>['15']</t>
+  </si>
+  <si>
+    <t>['59', '90']</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['49', '54', '65']</t>
   </si>
 </sst>
 </file>
@@ -1488,7 +1503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP258"/>
+  <dimension ref="A1:BP261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1747,7 +1762,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2237,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ4">
         <v>0.25</v>
@@ -2365,7 +2380,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2446,7 +2461,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2777,7 +2792,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2983,7 +2998,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -3395,7 +3410,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3601,7 +3616,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3807,7 +3822,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3885,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ12">
         <v>1.31</v>
@@ -4094,7 +4109,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ13">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4918,7 +4933,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ17">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR17">
         <v>1.59</v>
@@ -5249,7 +5264,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5945,7 +5960,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>1.31</v>
@@ -6279,7 +6294,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6772,7 +6787,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ26">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR26">
         <v>0.95</v>
@@ -6975,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ27">
         <v>1.19</v>
@@ -7103,7 +7118,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -7721,7 +7736,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7799,10 +7814,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ31">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -7927,7 +7942,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -8214,7 +8229,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ33">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR33">
         <v>1.82</v>
@@ -8339,7 +8354,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -9163,7 +9178,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9575,7 +9590,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9987,7 +10002,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10193,7 +10208,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10274,7 +10289,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ43">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR43">
         <v>1.47</v>
@@ -10399,7 +10414,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10477,7 +10492,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ44">
         <v>0.88</v>
@@ -10605,7 +10620,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -11429,7 +11444,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11510,7 +11525,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ49">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR49">
         <v>1.07</v>
@@ -11635,7 +11650,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11841,7 +11856,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -12125,7 +12140,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
         <v>1.81</v>
@@ -12537,7 +12552,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ54">
         <v>1.31</v>
@@ -12743,7 +12758,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ55">
         <v>0.88</v>
@@ -12952,7 +12967,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR56">
         <v>0</v>
@@ -13077,7 +13092,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -13283,7 +13298,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -13364,7 +13379,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ58">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR58">
         <v>1.22</v>
@@ -13489,7 +13504,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13695,7 +13710,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13901,7 +13916,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13982,7 +13997,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ61">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR61">
         <v>1.36</v>
@@ -14313,7 +14328,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14519,7 +14534,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14725,7 +14740,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14931,7 +14946,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15218,7 +15233,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ67">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR67">
         <v>1.33</v>
@@ -15549,7 +15564,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15627,7 +15642,7 @@
         <v>3</v>
       </c>
       <c r="AP69">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
         <v>2.81</v>
@@ -15833,7 +15848,7 @@
         <v>1.2</v>
       </c>
       <c r="AP70">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ70">
         <v>1.31</v>
@@ -15961,7 +15976,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -16248,7 +16263,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ72">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR72">
         <v>1.97</v>
@@ -16373,7 +16388,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16454,7 +16469,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ73">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR73">
         <v>1.46</v>
@@ -16579,7 +16594,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16657,7 +16672,7 @@
         <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ74">
         <v>0.75</v>
@@ -16991,7 +17006,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -17403,7 +17418,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17481,7 +17496,7 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ78">
         <v>1.19</v>
@@ -17609,7 +17624,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17690,7 +17705,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ79">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR79">
         <v>1.64</v>
@@ -18021,7 +18036,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -18227,7 +18242,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -18305,7 +18320,7 @@
         <v>0.75</v>
       </c>
       <c r="AP82">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ82">
         <v>1</v>
@@ -18433,7 +18448,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18639,7 +18654,7 @@
         <v>87</v>
       </c>
       <c r="P84" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18845,7 +18860,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -19257,7 +19272,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -19335,7 +19350,7 @@
         <v>0.8</v>
       </c>
       <c r="AP87">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ87">
         <v>0.75</v>
@@ -19669,7 +19684,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19750,7 +19765,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ89">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR89">
         <v>1.92</v>
@@ -20081,7 +20096,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -20699,7 +20714,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -21395,7 +21410,7 @@
         <v>1.2</v>
       </c>
       <c r="AP97">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ97">
         <v>1.25</v>
@@ -21523,7 +21538,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q98">
         <v>13</v>
@@ -21935,7 +21950,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -22013,10 +22028,10 @@
         <v>2.33</v>
       </c>
       <c r="AP100">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ100">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR100">
         <v>1.66</v>
@@ -22141,7 +22156,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -22222,7 +22237,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ101">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR101">
         <v>1.12</v>
@@ -22347,7 +22362,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22553,7 +22568,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -23043,7 +23058,7 @@
         <v>1.71</v>
       </c>
       <c r="AP105">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ105">
         <v>1.81</v>
@@ -23377,7 +23392,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23789,7 +23804,7 @@
         <v>87</v>
       </c>
       <c r="P109" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -23870,7 +23885,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ109">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR109">
         <v>1.11</v>
@@ -24201,7 +24216,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -24407,7 +24422,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24897,7 +24912,7 @@
         <v>2.33</v>
       </c>
       <c r="AP114">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ114">
         <v>1.31</v>
@@ -25231,7 +25246,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -25312,7 +25327,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ116">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR116">
         <v>1.31</v>
@@ -25437,7 +25452,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25515,10 +25530,10 @@
         <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ117">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR117">
         <v>1.39</v>
@@ -25643,7 +25658,7 @@
         <v>87</v>
       </c>
       <c r="P118" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -25849,7 +25864,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -26055,7 +26070,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q120">
         <v>3.15</v>
@@ -26339,7 +26354,7 @@
         <v>0.43</v>
       </c>
       <c r="AP121">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ121">
         <v>1</v>
@@ -26751,7 +26766,7 @@
         <v>0.86</v>
       </c>
       <c r="AP123">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ123">
         <v>0.88</v>
@@ -26879,7 +26894,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26960,7 +26975,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ124">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR124">
         <v>1.33</v>
@@ -27085,7 +27100,7 @@
         <v>87</v>
       </c>
       <c r="P125" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q125">
         <v>3.85</v>
@@ -27291,7 +27306,7 @@
         <v>110</v>
       </c>
       <c r="P126" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q126">
         <v>1.77</v>
@@ -27578,7 +27593,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ127">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR127">
         <v>1.18</v>
@@ -27703,7 +27718,7 @@
         <v>119</v>
       </c>
       <c r="P128" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27909,7 +27924,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -28193,7 +28208,7 @@
         <v>0.13</v>
       </c>
       <c r="AP130">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ130">
         <v>0.25</v>
@@ -28321,7 +28336,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -28811,7 +28826,7 @@
         <v>0.88</v>
       </c>
       <c r="AP133">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ133">
         <v>0.75</v>
@@ -29017,10 +29032,10 @@
         <v>1.67</v>
       </c>
       <c r="AP134">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ134">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR134">
         <v>2.03</v>
@@ -29223,7 +29238,7 @@
         <v>0.5</v>
       </c>
       <c r="AP135">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ135">
         <v>1</v>
@@ -29351,7 +29366,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -29635,7 +29650,7 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ137">
         <v>1.25</v>
@@ -29844,7 +29859,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ138">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR138">
         <v>1.06</v>
@@ -29969,7 +29984,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q139">
         <v>5.5</v>
@@ -30381,7 +30396,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30587,7 +30602,7 @@
         <v>148</v>
       </c>
       <c r="P142" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30668,7 +30683,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ142">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR142">
         <v>1.78</v>
@@ -30793,7 +30808,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -31411,7 +31426,7 @@
         <v>188</v>
       </c>
       <c r="P146" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31617,7 +31632,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31698,7 +31713,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ147">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR147">
         <v>1.6</v>
@@ -31823,7 +31838,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q148">
         <v>8.5</v>
@@ -32029,7 +32044,7 @@
         <v>190</v>
       </c>
       <c r="P149" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32441,7 +32456,7 @@
         <v>192</v>
       </c>
       <c r="P151" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q151">
         <v>1.83</v>
@@ -32519,7 +32534,7 @@
         <v>0.78</v>
       </c>
       <c r="AP151">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ151">
         <v>1.13</v>
@@ -32647,7 +32662,7 @@
         <v>87</v>
       </c>
       <c r="P152" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q152">
         <v>13</v>
@@ -32853,7 +32868,7 @@
         <v>92</v>
       </c>
       <c r="P153" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -33265,7 +33280,7 @@
         <v>194</v>
       </c>
       <c r="P155" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q155">
         <v>2.38</v>
@@ -33343,10 +33358,10 @@
         <v>1.56</v>
       </c>
       <c r="AP155">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ155">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR155">
         <v>1.77</v>
@@ -33883,7 +33898,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q158">
         <v>1.53</v>
@@ -33961,7 +33976,7 @@
         <v>1.22</v>
       </c>
       <c r="AP158">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ158">
         <v>1.25</v>
@@ -34089,7 +34104,7 @@
         <v>87</v>
       </c>
       <c r="P159" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34295,7 +34310,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q160">
         <v>3.25</v>
@@ -34376,7 +34391,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ160">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR160">
         <v>1.53</v>
@@ -34501,7 +34516,7 @@
         <v>87</v>
       </c>
       <c r="P161" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34582,7 +34597,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ161">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR161">
         <v>1.42</v>
@@ -35119,7 +35134,7 @@
         <v>199</v>
       </c>
       <c r="P164" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q164">
         <v>2.1</v>
@@ -35325,7 +35340,7 @@
         <v>200</v>
       </c>
       <c r="P165" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q165">
         <v>1.8</v>
@@ -35403,7 +35418,7 @@
         <v>0.6</v>
       </c>
       <c r="AP165">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ165">
         <v>1</v>
@@ -35737,7 +35752,7 @@
         <v>97</v>
       </c>
       <c r="P167" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q167">
         <v>6.5</v>
@@ -36230,7 +36245,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ169">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR169">
         <v>1.61</v>
@@ -36355,7 +36370,7 @@
         <v>87</v>
       </c>
       <c r="P170" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -36642,7 +36657,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ171">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR171">
         <v>1.13</v>
@@ -36845,10 +36860,10 @@
         <v>1.4</v>
       </c>
       <c r="AP172">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ172">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR172">
         <v>2.01</v>
@@ -37051,7 +37066,7 @@
         <v>2.2</v>
       </c>
       <c r="AP173">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ173">
         <v>2.06</v>
@@ -37179,7 +37194,7 @@
         <v>87</v>
       </c>
       <c r="P174" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37385,7 +37400,7 @@
         <v>87</v>
       </c>
       <c r="P175" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q175">
         <v>2.38</v>
@@ -38003,7 +38018,7 @@
         <v>206</v>
       </c>
       <c r="P178" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38287,10 +38302,10 @@
         <v>1.82</v>
       </c>
       <c r="AP179">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ179">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR179">
         <v>1.67</v>
@@ -38415,7 +38430,7 @@
         <v>87</v>
       </c>
       <c r="P180" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q180">
         <v>13</v>
@@ -38827,7 +38842,7 @@
         <v>89</v>
       </c>
       <c r="P182" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q182">
         <v>1.83</v>
@@ -39033,7 +39048,7 @@
         <v>107</v>
       </c>
       <c r="P183" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q183">
         <v>1.91</v>
@@ -39239,7 +39254,7 @@
         <v>189</v>
       </c>
       <c r="P184" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q184">
         <v>2.3</v>
@@ -39651,7 +39666,7 @@
         <v>208</v>
       </c>
       <c r="P186" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q186">
         <v>2.88</v>
@@ -39857,7 +39872,7 @@
         <v>87</v>
       </c>
       <c r="P187" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q187">
         <v>4.75</v>
@@ -39938,7 +39953,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ187">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR187">
         <v>1.22</v>
@@ -40063,7 +40078,7 @@
         <v>87</v>
       </c>
       <c r="P188" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q188">
         <v>2</v>
@@ -40141,7 +40156,7 @@
         <v>0.73</v>
       </c>
       <c r="AP188">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ188">
         <v>1.13</v>
@@ -40269,7 +40284,7 @@
         <v>209</v>
       </c>
       <c r="P189" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q189">
         <v>1.73</v>
@@ -40347,7 +40362,7 @@
         <v>2.09</v>
       </c>
       <c r="AP189">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ189">
         <v>2.06</v>
@@ -40968,7 +40983,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ192">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR192">
         <v>1.69</v>
@@ -41299,7 +41314,7 @@
         <v>212</v>
       </c>
       <c r="P194" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q194">
         <v>9.4</v>
@@ -41583,7 +41598,7 @@
         <v>1.67</v>
       </c>
       <c r="AP195">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ195">
         <v>1.31</v>
@@ -41711,7 +41726,7 @@
         <v>214</v>
       </c>
       <c r="P196" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q196">
         <v>3.85</v>
@@ -41917,7 +41932,7 @@
         <v>173</v>
       </c>
       <c r="P197" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q197">
         <v>3.25</v>
@@ -41998,7 +42013,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ197">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR197">
         <v>1.49</v>
@@ -42947,7 +42962,7 @@
         <v>119</v>
       </c>
       <c r="P202" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q202">
         <v>7</v>
@@ -43231,7 +43246,7 @@
         <v>0.92</v>
       </c>
       <c r="AP203">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ203">
         <v>1.13</v>
@@ -43359,7 +43374,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q204">
         <v>1.85</v>
@@ -43437,7 +43452,7 @@
         <v>0.83</v>
       </c>
       <c r="AP204">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ204">
         <v>1</v>
@@ -43565,7 +43580,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q205">
         <v>5.5</v>
@@ -43646,7 +43661,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ205">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR205">
         <v>1.17</v>
@@ -43977,7 +43992,7 @@
         <v>152</v>
       </c>
       <c r="P207" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -44264,7 +44279,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ208">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR208">
         <v>1.69</v>
@@ -44470,7 +44485,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ209">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR209">
         <v>1.19</v>
@@ -45007,7 +45022,7 @@
         <v>87</v>
       </c>
       <c r="P212" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q212">
         <v>9.5</v>
@@ -45213,7 +45228,7 @@
         <v>225</v>
       </c>
       <c r="P213" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q213">
         <v>1.8</v>
@@ -45291,7 +45306,7 @@
         <v>1.15</v>
       </c>
       <c r="AP213">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ213">
         <v>1.19</v>
@@ -45419,7 +45434,7 @@
         <v>226</v>
       </c>
       <c r="P214" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q214">
         <v>2.63</v>
@@ -45500,7 +45515,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ214">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR214">
         <v>1.63</v>
@@ -45909,7 +45924,7 @@
         <v>0.31</v>
       </c>
       <c r="AP216">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ216">
         <v>0.25</v>
@@ -46037,7 +46052,7 @@
         <v>189</v>
       </c>
       <c r="P217" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -46243,7 +46258,7 @@
         <v>229</v>
       </c>
       <c r="P218" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q218">
         <v>4.33</v>
@@ -46324,7 +46339,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ218">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR218">
         <v>1.22</v>
@@ -46449,7 +46464,7 @@
         <v>230</v>
       </c>
       <c r="P219" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q219">
         <v>6</v>
@@ -46655,7 +46670,7 @@
         <v>231</v>
       </c>
       <c r="P220" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q220">
         <v>2.1</v>
@@ -46939,7 +46954,7 @@
         <v>1</v>
       </c>
       <c r="AP221">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ221">
         <v>1</v>
@@ -47067,7 +47082,7 @@
         <v>233</v>
       </c>
       <c r="P222" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q222">
         <v>4.5</v>
@@ -47273,7 +47288,7 @@
         <v>87</v>
       </c>
       <c r="P223" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q223">
         <v>3.5</v>
@@ -47685,7 +47700,7 @@
         <v>234</v>
       </c>
       <c r="P225" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q225">
         <v>2.6</v>
@@ -48097,7 +48112,7 @@
         <v>235</v>
       </c>
       <c r="P227" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q227">
         <v>2.6</v>
@@ -48381,10 +48396,10 @@
         <v>1.29</v>
       </c>
       <c r="AP228">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ228">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR228">
         <v>1.81</v>
@@ -48509,7 +48524,7 @@
         <v>236</v>
       </c>
       <c r="P229" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q229">
         <v>8</v>
@@ -48587,7 +48602,7 @@
         <v>3</v>
       </c>
       <c r="AP229">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ229">
         <v>2.81</v>
@@ -48796,7 +48811,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ230">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR230">
         <v>1.39</v>
@@ -49333,7 +49348,7 @@
         <v>182</v>
       </c>
       <c r="P233" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49745,7 +49760,7 @@
         <v>87</v>
       </c>
       <c r="P235" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q235">
         <v>3.24</v>
@@ -49951,7 +49966,7 @@
         <v>239</v>
       </c>
       <c r="P236" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q236">
         <v>1.43</v>
@@ -50029,10 +50044,10 @@
         <v>1.71</v>
       </c>
       <c r="AP236">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ236">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR236">
         <v>2.21</v>
@@ -50569,7 +50584,7 @@
         <v>226</v>
       </c>
       <c r="P239" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -50775,7 +50790,7 @@
         <v>241</v>
       </c>
       <c r="P240" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q240">
         <v>2.6</v>
@@ -50981,7 +50996,7 @@
         <v>87</v>
       </c>
       <c r="P241" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -51268,7 +51283,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ242">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR242">
         <v>1.65</v>
@@ -51471,7 +51486,7 @@
         <v>2.2</v>
       </c>
       <c r="AP243">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ243">
         <v>2.06</v>
@@ -51599,7 +51614,7 @@
         <v>244</v>
       </c>
       <c r="P244" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q244">
         <v>2.1</v>
@@ -51805,7 +51820,7 @@
         <v>240</v>
       </c>
       <c r="P245" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q245">
         <v>2.2</v>
@@ -52011,7 +52026,7 @@
         <v>245</v>
       </c>
       <c r="P246" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q246">
         <v>0</v>
@@ -52089,7 +52104,7 @@
         <v>1.4</v>
       </c>
       <c r="AP246">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ246">
         <v>1.31</v>
@@ -52217,7 +52232,7 @@
         <v>246</v>
       </c>
       <c r="P247" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q247">
         <v>2.3</v>
@@ -52423,7 +52438,7 @@
         <v>87</v>
       </c>
       <c r="P248" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q248">
         <v>2.6</v>
@@ -53534,7 +53549,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ253">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR253">
         <v>1.17</v>
@@ -53659,7 +53674,7 @@
         <v>250</v>
       </c>
       <c r="P254" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q254">
         <v>1.95</v>
@@ -53737,10 +53752,10 @@
         <v>1.6</v>
       </c>
       <c r="AP254">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ254">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR254">
         <v>1.78</v>
@@ -53865,7 +53880,7 @@
         <v>251</v>
       </c>
       <c r="P255" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q255">
         <v>5.5</v>
@@ -54277,7 +54292,7 @@
         <v>253</v>
       </c>
       <c r="P257" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q257">
         <v>5.5</v>
@@ -54483,7 +54498,7 @@
         <v>254</v>
       </c>
       <c r="P258" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q258">
         <v>1.95</v>
@@ -54639,6 +54654,624 @@
         <v>0</v>
       </c>
       <c r="BP258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:68">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>7881228</v>
+      </c>
+      <c r="C259" t="s">
+        <v>68</v>
+      </c>
+      <c r="D259" t="s">
+        <v>69</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45774.54166666666</v>
+      </c>
+      <c r="F259">
+        <v>3</v>
+      </c>
+      <c r="G259" t="s">
+        <v>72</v>
+      </c>
+      <c r="H259" t="s">
+        <v>82</v>
+      </c>
+      <c r="I259">
+        <v>3</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>3</v>
+      </c>
+      <c r="L259">
+        <v>5</v>
+      </c>
+      <c r="M259">
+        <v>2</v>
+      </c>
+      <c r="N259">
+        <v>7</v>
+      </c>
+      <c r="O259" t="s">
+        <v>255</v>
+      </c>
+      <c r="P259" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q259">
+        <v>1.57</v>
+      </c>
+      <c r="R259">
+        <v>3</v>
+      </c>
+      <c r="S259">
+        <v>7.5</v>
+      </c>
+      <c r="T259">
+        <v>1.17</v>
+      </c>
+      <c r="U259">
+        <v>4.5</v>
+      </c>
+      <c r="V259">
+        <v>1.83</v>
+      </c>
+      <c r="W259">
+        <v>1.83</v>
+      </c>
+      <c r="X259">
+        <v>3.75</v>
+      </c>
+      <c r="Y259">
+        <v>1.25</v>
+      </c>
+      <c r="Z259">
+        <v>1.21</v>
+      </c>
+      <c r="AA259">
+        <v>5.96</v>
+      </c>
+      <c r="AB259">
+        <v>9.66</v>
+      </c>
+      <c r="AC259">
+        <v>0</v>
+      </c>
+      <c r="AD259">
+        <v>0</v>
+      </c>
+      <c r="AE259">
+        <v>0</v>
+      </c>
+      <c r="AF259">
+        <v>0</v>
+      </c>
+      <c r="AG259">
+        <v>1.33</v>
+      </c>
+      <c r="AH259">
+        <v>3.25</v>
+      </c>
+      <c r="AI259">
+        <v>1.73</v>
+      </c>
+      <c r="AJ259">
+        <v>2</v>
+      </c>
+      <c r="AK259">
+        <v>0</v>
+      </c>
+      <c r="AL259">
+        <v>0</v>
+      </c>
+      <c r="AM259">
+        <v>0</v>
+      </c>
+      <c r="AN259">
+        <v>2.75</v>
+      </c>
+      <c r="AO259">
+        <v>1.56</v>
+      </c>
+      <c r="AP259">
+        <v>2.76</v>
+      </c>
+      <c r="AQ259">
+        <v>1.47</v>
+      </c>
+      <c r="AR259">
+        <v>2.23</v>
+      </c>
+      <c r="AS259">
+        <v>1.48</v>
+      </c>
+      <c r="AT259">
+        <v>3.71</v>
+      </c>
+      <c r="AU259">
+        <v>10</v>
+      </c>
+      <c r="AV259">
+        <v>6</v>
+      </c>
+      <c r="AW259">
+        <v>12</v>
+      </c>
+      <c r="AX259">
+        <v>3</v>
+      </c>
+      <c r="AY259">
+        <v>22</v>
+      </c>
+      <c r="AZ259">
+        <v>9</v>
+      </c>
+      <c r="BA259">
+        <v>2</v>
+      </c>
+      <c r="BB259">
+        <v>7</v>
+      </c>
+      <c r="BC259">
+        <v>9</v>
+      </c>
+      <c r="BD259">
+        <v>0</v>
+      </c>
+      <c r="BE259">
+        <v>0</v>
+      </c>
+      <c r="BF259">
+        <v>0</v>
+      </c>
+      <c r="BG259">
+        <v>0</v>
+      </c>
+      <c r="BH259">
+        <v>0</v>
+      </c>
+      <c r="BI259">
+        <v>0</v>
+      </c>
+      <c r="BJ259">
+        <v>0</v>
+      </c>
+      <c r="BK259">
+        <v>0</v>
+      </c>
+      <c r="BL259">
+        <v>0</v>
+      </c>
+      <c r="BM259">
+        <v>0</v>
+      </c>
+      <c r="BN259">
+        <v>0</v>
+      </c>
+      <c r="BO259">
+        <v>0</v>
+      </c>
+      <c r="BP259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:68">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>7881227</v>
+      </c>
+      <c r="C260" t="s">
+        <v>68</v>
+      </c>
+      <c r="D260" t="s">
+        <v>69</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45774.60416666666</v>
+      </c>
+      <c r="F260">
+        <v>3</v>
+      </c>
+      <c r="G260" t="s">
+        <v>83</v>
+      </c>
+      <c r="H260" t="s">
+        <v>70</v>
+      </c>
+      <c r="I260">
+        <v>1</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>1</v>
+      </c>
+      <c r="L260">
+        <v>3</v>
+      </c>
+      <c r="M260">
+        <v>1</v>
+      </c>
+      <c r="N260">
+        <v>4</v>
+      </c>
+      <c r="O260" t="s">
+        <v>256</v>
+      </c>
+      <c r="P260" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q260">
+        <v>2.3</v>
+      </c>
+      <c r="R260">
+        <v>2.3</v>
+      </c>
+      <c r="S260">
+        <v>4</v>
+      </c>
+      <c r="T260">
+        <v>1.33</v>
+      </c>
+      <c r="U260">
+        <v>3.25</v>
+      </c>
+      <c r="V260">
+        <v>2.5</v>
+      </c>
+      <c r="W260">
+        <v>1.5</v>
+      </c>
+      <c r="X260">
+        <v>5.5</v>
+      </c>
+      <c r="Y260">
+        <v>1.13</v>
+      </c>
+      <c r="Z260">
+        <v>1.76</v>
+      </c>
+      <c r="AA260">
+        <v>3.8</v>
+      </c>
+      <c r="AB260">
+        <v>4.2</v>
+      </c>
+      <c r="AC260">
+        <v>0</v>
+      </c>
+      <c r="AD260">
+        <v>0</v>
+      </c>
+      <c r="AE260">
+        <v>0</v>
+      </c>
+      <c r="AF260">
+        <v>0</v>
+      </c>
+      <c r="AG260">
+        <v>1.65</v>
+      </c>
+      <c r="AH260">
+        <v>2</v>
+      </c>
+      <c r="AI260">
+        <v>1.67</v>
+      </c>
+      <c r="AJ260">
+        <v>2.1</v>
+      </c>
+      <c r="AK260">
+        <v>0</v>
+      </c>
+      <c r="AL260">
+        <v>0</v>
+      </c>
+      <c r="AM260">
+        <v>0</v>
+      </c>
+      <c r="AN260">
+        <v>1.94</v>
+      </c>
+      <c r="AO260">
+        <v>1.19</v>
+      </c>
+      <c r="AP260">
+        <v>2</v>
+      </c>
+      <c r="AQ260">
+        <v>1.12</v>
+      </c>
+      <c r="AR260">
+        <v>1.75</v>
+      </c>
+      <c r="AS260">
+        <v>1.76</v>
+      </c>
+      <c r="AT260">
+        <v>3.51</v>
+      </c>
+      <c r="AU260">
+        <v>9</v>
+      </c>
+      <c r="AV260">
+        <v>5</v>
+      </c>
+      <c r="AW260">
+        <v>1</v>
+      </c>
+      <c r="AX260">
+        <v>10</v>
+      </c>
+      <c r="AY260">
+        <v>10</v>
+      </c>
+      <c r="AZ260">
+        <v>15</v>
+      </c>
+      <c r="BA260">
+        <v>3</v>
+      </c>
+      <c r="BB260">
+        <v>7</v>
+      </c>
+      <c r="BC260">
+        <v>10</v>
+      </c>
+      <c r="BD260">
+        <v>0</v>
+      </c>
+      <c r="BE260">
+        <v>0</v>
+      </c>
+      <c r="BF260">
+        <v>0</v>
+      </c>
+      <c r="BG260">
+        <v>0</v>
+      </c>
+      <c r="BH260">
+        <v>0</v>
+      </c>
+      <c r="BI260">
+        <v>0</v>
+      </c>
+      <c r="BJ260">
+        <v>0</v>
+      </c>
+      <c r="BK260">
+        <v>0</v>
+      </c>
+      <c r="BL260">
+        <v>0</v>
+      </c>
+      <c r="BM260">
+        <v>0</v>
+      </c>
+      <c r="BN260">
+        <v>0</v>
+      </c>
+      <c r="BO260">
+        <v>0</v>
+      </c>
+      <c r="BP260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:68">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>7881229</v>
+      </c>
+      <c r="C261" t="s">
+        <v>68</v>
+      </c>
+      <c r="D261" t="s">
+        <v>69</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45774.625</v>
+      </c>
+      <c r="F261">
+        <v>3</v>
+      </c>
+      <c r="G261" t="s">
+        <v>85</v>
+      </c>
+      <c r="H261" t="s">
+        <v>77</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
+      <c r="L261">
+        <v>0</v>
+      </c>
+      <c r="M261">
+        <v>3</v>
+      </c>
+      <c r="N261">
+        <v>3</v>
+      </c>
+      <c r="O261" t="s">
+        <v>87</v>
+      </c>
+      <c r="P261" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q261">
+        <v>2.6</v>
+      </c>
+      <c r="R261">
+        <v>2.25</v>
+      </c>
+      <c r="S261">
+        <v>3.5</v>
+      </c>
+      <c r="T261">
+        <v>1.33</v>
+      </c>
+      <c r="U261">
+        <v>3.25</v>
+      </c>
+      <c r="V261">
+        <v>2.5</v>
+      </c>
+      <c r="W261">
+        <v>1.5</v>
+      </c>
+      <c r="X261">
+        <v>6</v>
+      </c>
+      <c r="Y261">
+        <v>1.11</v>
+      </c>
+      <c r="Z261">
+        <v>2.02</v>
+      </c>
+      <c r="AA261">
+        <v>3.53</v>
+      </c>
+      <c r="AB261">
+        <v>3.41</v>
+      </c>
+      <c r="AC261">
+        <v>0</v>
+      </c>
+      <c r="AD261">
+        <v>0</v>
+      </c>
+      <c r="AE261">
+        <v>2.05</v>
+      </c>
+      <c r="AF261">
+        <v>1.72</v>
+      </c>
+      <c r="AG261">
+        <v>1.79</v>
+      </c>
+      <c r="AH261">
+        <v>1.95</v>
+      </c>
+      <c r="AI261">
+        <v>1.62</v>
+      </c>
+      <c r="AJ261">
+        <v>2.2</v>
+      </c>
+      <c r="AK261">
+        <v>0</v>
+      </c>
+      <c r="AL261">
+        <v>0</v>
+      </c>
+      <c r="AM261">
+        <v>0</v>
+      </c>
+      <c r="AN261">
+        <v>1.19</v>
+      </c>
+      <c r="AO261">
+        <v>1.19</v>
+      </c>
+      <c r="AP261">
+        <v>1.12</v>
+      </c>
+      <c r="AQ261">
+        <v>1.29</v>
+      </c>
+      <c r="AR261">
+        <v>1.71</v>
+      </c>
+      <c r="AS261">
+        <v>1.62</v>
+      </c>
+      <c r="AT261">
+        <v>3.33</v>
+      </c>
+      <c r="AU261">
+        <v>5</v>
+      </c>
+      <c r="AV261">
+        <v>9</v>
+      </c>
+      <c r="AW261">
+        <v>2</v>
+      </c>
+      <c r="AX261">
+        <v>3</v>
+      </c>
+      <c r="AY261">
+        <v>7</v>
+      </c>
+      <c r="AZ261">
+        <v>12</v>
+      </c>
+      <c r="BA261">
+        <v>3</v>
+      </c>
+      <c r="BB261">
+        <v>4</v>
+      </c>
+      <c r="BC261">
+        <v>7</v>
+      </c>
+      <c r="BD261">
+        <v>0</v>
+      </c>
+      <c r="BE261">
+        <v>0</v>
+      </c>
+      <c r="BF261">
+        <v>0</v>
+      </c>
+      <c r="BG261">
+        <v>0</v>
+      </c>
+      <c r="BH261">
+        <v>0</v>
+      </c>
+      <c r="BI261">
+        <v>0</v>
+      </c>
+      <c r="BJ261">
+        <v>0</v>
+      </c>
+      <c r="BK261">
+        <v>0</v>
+      </c>
+      <c r="BL261">
+        <v>0</v>
+      </c>
+      <c r="BM261">
+        <v>0</v>
+      </c>
+      <c r="BN261">
+        <v>0</v>
+      </c>
+      <c r="BO261">
+        <v>0</v>
+      </c>
+      <c r="BP261">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="377">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -787,6 +787,12 @@
     <t>['18', '59', '90+5']</t>
   </si>
   <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -823,9 +829,6 @@
     <t>['15', '17', '77', '89']</t>
   </si>
   <si>
-    <t>['29']</t>
-  </si>
-  <si>
     <t>['4', '23']</t>
   </si>
   <si>
@@ -848,9 +851,6 @@
   </si>
   <si>
     <t>['29', '41']</t>
-  </si>
-  <si>
-    <t>['85']</t>
   </si>
   <si>
     <t>['16', '68']</t>
@@ -1142,6 +1142,9 @@
   </si>
   <si>
     <t>['49', '54', '65']</t>
+  </si>
+  <si>
+    <t>['9', '79']</t>
   </si>
 </sst>
 </file>
@@ -1503,7 +1506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP261"/>
+  <dimension ref="A1:BP265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1762,7 +1765,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2046,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ3">
         <v>2.06</v>
@@ -2255,7 +2258,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ4">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2380,7 +2383,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2458,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ5">
         <v>1.47</v>
@@ -2664,10 +2667,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ6">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2792,7 +2795,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2998,7 +3001,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -3410,7 +3413,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3616,7 +3619,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3694,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ11">
         <v>0.88</v>
@@ -3822,7 +3825,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -4724,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ16">
         <v>1.13</v>
@@ -5136,10 +5139,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ18">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5264,7 +5267,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5754,7 +5757,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ21">
         <v>1.81</v>
@@ -6169,7 +6172,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ23">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR23">
         <v>1.76</v>
@@ -6294,7 +6297,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6993,7 +6996,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ27">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR27">
         <v>2.33</v>
@@ -7118,7 +7121,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -7196,7 +7199,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -7736,7 +7739,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7942,7 +7945,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -8020,7 +8023,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ32">
         <v>2.81</v>
@@ -8354,7 +8357,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8641,7 +8644,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ35">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR35">
         <v>1.01</v>
@@ -8844,7 +8847,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -9050,7 +9053,7 @@
         <v>0.5</v>
       </c>
       <c r="AP37">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ37">
         <v>1.13</v>
@@ -9178,7 +9181,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9462,7 +9465,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ39">
         <v>1.25</v>
@@ -9590,7 +9593,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9671,7 +9674,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ40">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR40">
         <v>1.05</v>
@@ -10002,7 +10005,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10208,7 +10211,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10414,7 +10417,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10620,7 +10623,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10701,7 +10704,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ45">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR45">
         <v>1.22</v>
@@ -10904,7 +10907,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -11113,7 +11116,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ47">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR47">
         <v>1.89</v>
@@ -11316,7 +11319,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11444,7 +11447,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11522,7 +11525,7 @@
         <v>2.33</v>
       </c>
       <c r="AP49">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ49">
         <v>1.47</v>
@@ -11650,7 +11653,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11856,7 +11859,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -12964,7 +12967,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ56">
         <v>1.12</v>
@@ -13791,7 +13794,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ60">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR60">
         <v>0.73</v>
@@ -14200,10 +14203,10 @@
         <v>0.25</v>
       </c>
       <c r="AP62">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ62">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR62">
         <v>1.13</v>
@@ -14409,7 +14412,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ63">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR63">
         <v>1.81</v>
@@ -14612,7 +14615,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ64">
         <v>1.31</v>
@@ -15230,7 +15233,7 @@
         <v>2.5</v>
       </c>
       <c r="AP67">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ67">
         <v>1.47</v>
@@ -16466,7 +16469,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ73">
         <v>1.29</v>
@@ -16675,7 +16678,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ74">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR74">
         <v>1.34</v>
@@ -17084,7 +17087,7 @@
         <v>1.75</v>
       </c>
       <c r="AP76">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ76">
         <v>2.06</v>
@@ -17499,7 +17502,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ78">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR78">
         <v>1.57</v>
@@ -17624,7 +17627,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -18114,7 +18117,7 @@
         <v>2.5</v>
       </c>
       <c r="AP81">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ81">
         <v>1.31</v>
@@ -18526,10 +18529,10 @@
         <v>0.75</v>
       </c>
       <c r="AP83">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ83">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR83">
         <v>1.12</v>
@@ -19147,7 +19150,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ86">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR86">
         <v>1.93</v>
@@ -19353,7 +19356,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ87">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR87">
         <v>2.4</v>
@@ -19556,7 +19559,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ88">
         <v>0.88</v>
@@ -20586,7 +20589,7 @@
         <v>0.67</v>
       </c>
       <c r="AP93">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ93">
         <v>1.13</v>
@@ -21207,7 +21210,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ96">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR96">
         <v>1.54</v>
@@ -21822,10 +21825,10 @@
         <v>0.6</v>
       </c>
       <c r="AP99">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ99">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR99">
         <v>1.32</v>
@@ -22234,7 +22237,7 @@
         <v>1.5</v>
       </c>
       <c r="AP101">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ101">
         <v>1.29</v>
@@ -22649,7 +22652,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ103">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR103">
         <v>1.2</v>
@@ -23676,7 +23679,7 @@
         <v>0.29</v>
       </c>
       <c r="AP108">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ108">
         <v>1</v>
@@ -24088,7 +24091,7 @@
         <v>1.29</v>
       </c>
       <c r="AP110">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ110">
         <v>1.31</v>
@@ -24297,7 +24300,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ111">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR111">
         <v>1.71</v>
@@ -25118,10 +25121,10 @@
         <v>0.14</v>
       </c>
       <c r="AP115">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ115">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR115">
         <v>1.12</v>
@@ -25324,7 +25327,7 @@
         <v>1.8</v>
       </c>
       <c r="AP116">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ116">
         <v>1.29</v>
@@ -26151,7 +26154,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ120">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR120">
         <v>1.05</v>
@@ -26972,7 +26975,7 @@
         <v>1.43</v>
       </c>
       <c r="AP124">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ124">
         <v>1.12</v>
@@ -27384,7 +27387,7 @@
         <v>0.38</v>
       </c>
       <c r="AP126">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ126">
         <v>1</v>
@@ -27718,7 +27721,7 @@
         <v>119</v>
       </c>
       <c r="P128" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27796,7 +27799,7 @@
         <v>1.13</v>
       </c>
       <c r="AP128">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ128">
         <v>1.31</v>
@@ -28211,7 +28214,7 @@
         <v>2</v>
       </c>
       <c r="AQ130">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR130">
         <v>1.5</v>
@@ -28414,7 +28417,7 @@
         <v>3</v>
       </c>
       <c r="AP131">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ131">
         <v>2.81</v>
@@ -28623,7 +28626,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ132">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR132">
         <v>1.95</v>
@@ -28829,7 +28832,7 @@
         <v>2</v>
       </c>
       <c r="AQ133">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR133">
         <v>1.68</v>
@@ -30062,7 +30065,7 @@
         <v>2.29</v>
       </c>
       <c r="AP139">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ139">
         <v>2.06</v>
@@ -30271,7 +30274,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ140">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR140">
         <v>1.53</v>
@@ -31298,10 +31301,10 @@
         <v>0.11</v>
       </c>
       <c r="AP145">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ145">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR145">
         <v>1.37</v>
@@ -31504,10 +31507,10 @@
         <v>0.78</v>
       </c>
       <c r="AP146">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ146">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR146">
         <v>1.33</v>
@@ -31710,7 +31713,7 @@
         <v>1.89</v>
       </c>
       <c r="AP147">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ147">
         <v>1.47</v>
@@ -32946,10 +32949,10 @@
         <v>0.89</v>
       </c>
       <c r="AP153">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ153">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR153">
         <v>1.01</v>
@@ -34800,7 +34803,7 @@
         <v>1.8</v>
       </c>
       <c r="AP162">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ162">
         <v>1.81</v>
@@ -35006,7 +35009,7 @@
         <v>1.9</v>
       </c>
       <c r="AP163">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ163">
         <v>1.31</v>
@@ -35627,7 +35630,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ166">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR166">
         <v>1.38</v>
@@ -36036,10 +36039,10 @@
         <v>0.7</v>
       </c>
       <c r="AP168">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ168">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR168">
         <v>1.49</v>
@@ -36654,7 +36657,7 @@
         <v>1.5</v>
       </c>
       <c r="AP171">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ171">
         <v>1.29</v>
@@ -37275,7 +37278,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ174">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR174">
         <v>1.18</v>
@@ -38508,7 +38511,7 @@
         <v>3</v>
       </c>
       <c r="AP180">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ180">
         <v>2.81</v>
@@ -38923,7 +38926,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ182">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR182">
         <v>1.76</v>
@@ -39332,10 +39335,10 @@
         <v>1.27</v>
       </c>
       <c r="AP184">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ184">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR184">
         <v>1.73</v>
@@ -39538,7 +39541,7 @@
         <v>1.73</v>
       </c>
       <c r="AP185">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ185">
         <v>1.81</v>
@@ -39747,7 +39750,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ186">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR186">
         <v>1.05</v>
@@ -40568,7 +40571,7 @@
         <v>1.18</v>
       </c>
       <c r="AP190">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ190">
         <v>0.88</v>
@@ -41189,7 +41192,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ193">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR193">
         <v>1.1</v>
@@ -41392,7 +41395,7 @@
         <v>3</v>
       </c>
       <c r="AP194">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ194">
         <v>2.81</v>
@@ -42216,7 +42219,7 @@
         <v>0.83</v>
       </c>
       <c r="AP198">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ198">
         <v>1</v>
@@ -42425,7 +42428,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ199">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR199">
         <v>1.64</v>
@@ -42837,7 +42840,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ201">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR201">
         <v>1.57</v>
@@ -44070,7 +44073,7 @@
         <v>1.27</v>
       </c>
       <c r="AP207">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ207">
         <v>1.31</v>
@@ -44276,7 +44279,7 @@
         <v>1.42</v>
       </c>
       <c r="AP208">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ208">
         <v>1.12</v>
@@ -44688,7 +44691,7 @@
         <v>0.85</v>
       </c>
       <c r="AP210">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ210">
         <v>1</v>
@@ -44894,7 +44897,7 @@
         <v>1.31</v>
       </c>
       <c r="AP211">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ211">
         <v>1.25</v>
@@ -45309,7 +45312,7 @@
         <v>2</v>
       </c>
       <c r="AQ213">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR213">
         <v>1.85</v>
@@ -45927,7 +45930,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ216">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR216">
         <v>1.76</v>
@@ -47366,7 +47369,7 @@
         <v>2.08</v>
       </c>
       <c r="AP223">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ223">
         <v>2.06</v>
@@ -47572,10 +47575,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP224">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ224">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR224">
         <v>1.16</v>
@@ -47987,7 +47990,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ226">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR226">
         <v>1.47</v>
@@ -48808,7 +48811,7 @@
         <v>1.36</v>
       </c>
       <c r="AP230">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ230">
         <v>1.12</v>
@@ -49017,7 +49020,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ231">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR231">
         <v>1.62</v>
@@ -49426,7 +49429,7 @@
         <v>1.21</v>
       </c>
       <c r="AP233">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ233">
         <v>1.25</v>
@@ -50662,7 +50665,7 @@
         <v>1.64</v>
       </c>
       <c r="AP239">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ239">
         <v>1.81</v>
@@ -50871,7 +50874,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ240">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR240">
         <v>1.76</v>
@@ -51074,7 +51077,7 @@
         <v>1</v>
       </c>
       <c r="AP241">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ241">
         <v>1.13</v>
@@ -51692,10 +51695,10 @@
         <v>0.73</v>
       </c>
       <c r="AP244">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ244">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR244">
         <v>1.63</v>
@@ -51901,7 +51904,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ245">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR245">
         <v>1.89</v>
@@ -52026,7 +52029,7 @@
         <v>245</v>
       </c>
       <c r="P246" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q246">
         <v>0</v>
@@ -52438,7 +52441,7 @@
         <v>87</v>
       </c>
       <c r="P248" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q248">
         <v>2.6</v>
@@ -52516,7 +52519,7 @@
         <v>0.93</v>
       </c>
       <c r="AP248">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ248">
         <v>1</v>
@@ -52722,10 +52725,10 @@
         <v>0.27</v>
       </c>
       <c r="AP249">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ249">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR249">
         <v>1.48</v>
@@ -53546,7 +53549,7 @@
         <v>1.27</v>
       </c>
       <c r="AP253">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ253">
         <v>1.29</v>
@@ -55272,6 +55275,830 @@
         <v>0</v>
       </c>
       <c r="BP261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:68">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>7881233</v>
+      </c>
+      <c r="C262" t="s">
+        <v>68</v>
+      </c>
+      <c r="D262" t="s">
+        <v>69</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45775.47916666666</v>
+      </c>
+      <c r="F262">
+        <v>3</v>
+      </c>
+      <c r="G262" t="s">
+        <v>71</v>
+      </c>
+      <c r="H262" t="s">
+        <v>78</v>
+      </c>
+      <c r="I262">
+        <v>1</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>1</v>
+      </c>
+      <c r="L262">
+        <v>1</v>
+      </c>
+      <c r="M262">
+        <v>0</v>
+      </c>
+      <c r="N262">
+        <v>1</v>
+      </c>
+      <c r="O262" t="s">
+        <v>257</v>
+      </c>
+      <c r="P262" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q262">
+        <v>1.91</v>
+      </c>
+      <c r="R262">
+        <v>2.38</v>
+      </c>
+      <c r="S262">
+        <v>6.5</v>
+      </c>
+      <c r="T262">
+        <v>0</v>
+      </c>
+      <c r="U262">
+        <v>0</v>
+      </c>
+      <c r="V262">
+        <v>0</v>
+      </c>
+      <c r="W262">
+        <v>0</v>
+      </c>
+      <c r="X262">
+        <v>0</v>
+      </c>
+      <c r="Y262">
+        <v>0</v>
+      </c>
+      <c r="Z262">
+        <v>1.47</v>
+      </c>
+      <c r="AA262">
+        <v>5.3</v>
+      </c>
+      <c r="AB262">
+        <v>5.1</v>
+      </c>
+      <c r="AC262">
+        <v>0</v>
+      </c>
+      <c r="AD262">
+        <v>0</v>
+      </c>
+      <c r="AE262">
+        <v>0</v>
+      </c>
+      <c r="AF262">
+        <v>0</v>
+      </c>
+      <c r="AG262">
+        <v>1.92</v>
+      </c>
+      <c r="AH262">
+        <v>1.82</v>
+      </c>
+      <c r="AI262">
+        <v>0</v>
+      </c>
+      <c r="AJ262">
+        <v>0</v>
+      </c>
+      <c r="AK262">
+        <v>0</v>
+      </c>
+      <c r="AL262">
+        <v>0</v>
+      </c>
+      <c r="AM262">
+        <v>0</v>
+      </c>
+      <c r="AN262">
+        <v>1.31</v>
+      </c>
+      <c r="AO262">
+        <v>0.25</v>
+      </c>
+      <c r="AP262">
+        <v>1.41</v>
+      </c>
+      <c r="AQ262">
+        <v>0.24</v>
+      </c>
+      <c r="AR262">
+        <v>1.37</v>
+      </c>
+      <c r="AS262">
+        <v>1.19</v>
+      </c>
+      <c r="AT262">
+        <v>2.56</v>
+      </c>
+      <c r="AU262">
+        <v>5</v>
+      </c>
+      <c r="AV262">
+        <v>0</v>
+      </c>
+      <c r="AW262">
+        <v>11</v>
+      </c>
+      <c r="AX262">
+        <v>7</v>
+      </c>
+      <c r="AY262">
+        <v>16</v>
+      </c>
+      <c r="AZ262">
+        <v>7</v>
+      </c>
+      <c r="BA262">
+        <v>3</v>
+      </c>
+      <c r="BB262">
+        <v>2</v>
+      </c>
+      <c r="BC262">
+        <v>5</v>
+      </c>
+      <c r="BD262">
+        <v>0</v>
+      </c>
+      <c r="BE262">
+        <v>0</v>
+      </c>
+      <c r="BF262">
+        <v>0</v>
+      </c>
+      <c r="BG262">
+        <v>0</v>
+      </c>
+      <c r="BH262">
+        <v>0</v>
+      </c>
+      <c r="BI262">
+        <v>0</v>
+      </c>
+      <c r="BJ262">
+        <v>0</v>
+      </c>
+      <c r="BK262">
+        <v>0</v>
+      </c>
+      <c r="BL262">
+        <v>0</v>
+      </c>
+      <c r="BM262">
+        <v>0</v>
+      </c>
+      <c r="BN262">
+        <v>0</v>
+      </c>
+      <c r="BO262">
+        <v>0</v>
+      </c>
+      <c r="BP262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:68">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>7881232</v>
+      </c>
+      <c r="C263" t="s">
+        <v>68</v>
+      </c>
+      <c r="D263" t="s">
+        <v>69</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45775.5</v>
+      </c>
+      <c r="F263">
+        <v>3</v>
+      </c>
+      <c r="G263" t="s">
+        <v>74</v>
+      </c>
+      <c r="H263" t="s">
+        <v>81</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <v>0</v>
+      </c>
+      <c r="M263">
+        <v>0</v>
+      </c>
+      <c r="N263">
+        <v>0</v>
+      </c>
+      <c r="O263" t="s">
+        <v>87</v>
+      </c>
+      <c r="P263" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q263">
+        <v>2.5</v>
+      </c>
+      <c r="R263">
+        <v>2.1</v>
+      </c>
+      <c r="S263">
+        <v>4.5</v>
+      </c>
+      <c r="T263">
+        <v>1.44</v>
+      </c>
+      <c r="U263">
+        <v>2.63</v>
+      </c>
+      <c r="V263">
+        <v>3</v>
+      </c>
+      <c r="W263">
+        <v>1.36</v>
+      </c>
+      <c r="X263">
+        <v>7.5</v>
+      </c>
+      <c r="Y263">
+        <v>1.07</v>
+      </c>
+      <c r="Z263">
+        <v>1.79</v>
+      </c>
+      <c r="AA263">
+        <v>3.45</v>
+      </c>
+      <c r="AB263">
+        <v>4.5</v>
+      </c>
+      <c r="AC263">
+        <v>0</v>
+      </c>
+      <c r="AD263">
+        <v>0</v>
+      </c>
+      <c r="AE263">
+        <v>0</v>
+      </c>
+      <c r="AF263">
+        <v>0</v>
+      </c>
+      <c r="AG263">
+        <v>2.05</v>
+      </c>
+      <c r="AH263">
+        <v>1.65</v>
+      </c>
+      <c r="AI263">
+        <v>1.91</v>
+      </c>
+      <c r="AJ263">
+        <v>1.8</v>
+      </c>
+      <c r="AK263">
+        <v>0</v>
+      </c>
+      <c r="AL263">
+        <v>0</v>
+      </c>
+      <c r="AM263">
+        <v>0</v>
+      </c>
+      <c r="AN263">
+        <v>1.25</v>
+      </c>
+      <c r="AO263">
+        <v>1</v>
+      </c>
+      <c r="AP263">
+        <v>1.24</v>
+      </c>
+      <c r="AQ263">
+        <v>1</v>
+      </c>
+      <c r="AR263">
+        <v>1.66</v>
+      </c>
+      <c r="AS263">
+        <v>1.35</v>
+      </c>
+      <c r="AT263">
+        <v>3.01</v>
+      </c>
+      <c r="AU263">
+        <v>9</v>
+      </c>
+      <c r="AV263">
+        <v>2</v>
+      </c>
+      <c r="AW263">
+        <v>3</v>
+      </c>
+      <c r="AX263">
+        <v>8</v>
+      </c>
+      <c r="AY263">
+        <v>12</v>
+      </c>
+      <c r="AZ263">
+        <v>10</v>
+      </c>
+      <c r="BA263">
+        <v>8</v>
+      </c>
+      <c r="BB263">
+        <v>4</v>
+      </c>
+      <c r="BC263">
+        <v>12</v>
+      </c>
+      <c r="BD263">
+        <v>0</v>
+      </c>
+      <c r="BE263">
+        <v>0</v>
+      </c>
+      <c r="BF263">
+        <v>0</v>
+      </c>
+      <c r="BG263">
+        <v>0</v>
+      </c>
+      <c r="BH263">
+        <v>0</v>
+      </c>
+      <c r="BI263">
+        <v>0</v>
+      </c>
+      <c r="BJ263">
+        <v>0</v>
+      </c>
+      <c r="BK263">
+        <v>0</v>
+      </c>
+      <c r="BL263">
+        <v>0</v>
+      </c>
+      <c r="BM263">
+        <v>0</v>
+      </c>
+      <c r="BN263">
+        <v>0</v>
+      </c>
+      <c r="BO263">
+        <v>0</v>
+      </c>
+      <c r="BP263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:68">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>7881230</v>
+      </c>
+      <c r="C264" t="s">
+        <v>68</v>
+      </c>
+      <c r="D264" t="s">
+        <v>69</v>
+      </c>
+      <c r="E264" s="2">
+        <v>45775.54166666666</v>
+      </c>
+      <c r="F264">
+        <v>3</v>
+      </c>
+      <c r="G264" t="s">
+        <v>73</v>
+      </c>
+      <c r="H264" t="s">
+        <v>75</v>
+      </c>
+      <c r="I264">
+        <v>1</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>1</v>
+      </c>
+      <c r="L264">
+        <v>1</v>
+      </c>
+      <c r="M264">
+        <v>1</v>
+      </c>
+      <c r="N264">
+        <v>2</v>
+      </c>
+      <c r="O264" t="s">
+        <v>151</v>
+      </c>
+      <c r="P264" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q264">
+        <v>0</v>
+      </c>
+      <c r="R264">
+        <v>0</v>
+      </c>
+      <c r="S264">
+        <v>0</v>
+      </c>
+      <c r="T264">
+        <v>0</v>
+      </c>
+      <c r="U264">
+        <v>0</v>
+      </c>
+      <c r="V264">
+        <v>0</v>
+      </c>
+      <c r="W264">
+        <v>0</v>
+      </c>
+      <c r="X264">
+        <v>0</v>
+      </c>
+      <c r="Y264">
+        <v>0</v>
+      </c>
+      <c r="Z264">
+        <v>2.4</v>
+      </c>
+      <c r="AA264">
+        <v>3.1</v>
+      </c>
+      <c r="AB264">
+        <v>2.85</v>
+      </c>
+      <c r="AC264">
+        <v>0</v>
+      </c>
+      <c r="AD264">
+        <v>0</v>
+      </c>
+      <c r="AE264">
+        <v>0</v>
+      </c>
+      <c r="AF264">
+        <v>0</v>
+      </c>
+      <c r="AG264">
+        <v>2</v>
+      </c>
+      <c r="AH264">
+        <v>1.67</v>
+      </c>
+      <c r="AI264">
+        <v>0</v>
+      </c>
+      <c r="AJ264">
+        <v>0</v>
+      </c>
+      <c r="AK264">
+        <v>0</v>
+      </c>
+      <c r="AL264">
+        <v>0</v>
+      </c>
+      <c r="AM264">
+        <v>0</v>
+      </c>
+      <c r="AN264">
+        <v>1.5</v>
+      </c>
+      <c r="AO264">
+        <v>1.19</v>
+      </c>
+      <c r="AP264">
+        <v>1.47</v>
+      </c>
+      <c r="AQ264">
+        <v>1.18</v>
+      </c>
+      <c r="AR264">
+        <v>1.22</v>
+      </c>
+      <c r="AS264">
+        <v>1.28</v>
+      </c>
+      <c r="AT264">
+        <v>2.5</v>
+      </c>
+      <c r="AU264">
+        <v>-1</v>
+      </c>
+      <c r="AV264">
+        <v>-1</v>
+      </c>
+      <c r="AW264">
+        <v>-1</v>
+      </c>
+      <c r="AX264">
+        <v>-1</v>
+      </c>
+      <c r="AY264">
+        <v>-1</v>
+      </c>
+      <c r="AZ264">
+        <v>-1</v>
+      </c>
+      <c r="BA264">
+        <v>-1</v>
+      </c>
+      <c r="BB264">
+        <v>-1</v>
+      </c>
+      <c r="BC264">
+        <v>-1</v>
+      </c>
+      <c r="BD264">
+        <v>0</v>
+      </c>
+      <c r="BE264">
+        <v>0</v>
+      </c>
+      <c r="BF264">
+        <v>0</v>
+      </c>
+      <c r="BG264">
+        <v>0</v>
+      </c>
+      <c r="BH264">
+        <v>0</v>
+      </c>
+      <c r="BI264">
+        <v>0</v>
+      </c>
+      <c r="BJ264">
+        <v>0</v>
+      </c>
+      <c r="BK264">
+        <v>0</v>
+      </c>
+      <c r="BL264">
+        <v>0</v>
+      </c>
+      <c r="BM264">
+        <v>0</v>
+      </c>
+      <c r="BN264">
+        <v>0</v>
+      </c>
+      <c r="BO264">
+        <v>0</v>
+      </c>
+      <c r="BP264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:68">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>7881231</v>
+      </c>
+      <c r="C265" t="s">
+        <v>68</v>
+      </c>
+      <c r="D265" t="s">
+        <v>69</v>
+      </c>
+      <c r="E265" s="2">
+        <v>45775.5625</v>
+      </c>
+      <c r="F265">
+        <v>3</v>
+      </c>
+      <c r="G265" t="s">
+        <v>79</v>
+      </c>
+      <c r="H265" t="s">
+        <v>80</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>1</v>
+      </c>
+      <c r="K265">
+        <v>1</v>
+      </c>
+      <c r="L265">
+        <v>1</v>
+      </c>
+      <c r="M265">
+        <v>2</v>
+      </c>
+      <c r="N265">
+        <v>3</v>
+      </c>
+      <c r="O265" t="s">
+        <v>258</v>
+      </c>
+      <c r="P265" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q265">
+        <v>2.75</v>
+      </c>
+      <c r="R265">
+        <v>2.1</v>
+      </c>
+      <c r="S265">
+        <v>3.5</v>
+      </c>
+      <c r="T265">
+        <v>1.4</v>
+      </c>
+      <c r="U265">
+        <v>2.75</v>
+      </c>
+      <c r="V265">
+        <v>2.75</v>
+      </c>
+      <c r="W265">
+        <v>1.4</v>
+      </c>
+      <c r="X265">
+        <v>7</v>
+      </c>
+      <c r="Y265">
+        <v>1.08</v>
+      </c>
+      <c r="Z265">
+        <v>2.18</v>
+      </c>
+      <c r="AA265">
+        <v>3.23</v>
+      </c>
+      <c r="AB265">
+        <v>3.32</v>
+      </c>
+      <c r="AC265">
+        <v>0</v>
+      </c>
+      <c r="AD265">
+        <v>0</v>
+      </c>
+      <c r="AE265">
+        <v>0</v>
+      </c>
+      <c r="AF265">
+        <v>0</v>
+      </c>
+      <c r="AG265">
+        <v>1.91</v>
+      </c>
+      <c r="AH265">
+        <v>1.83</v>
+      </c>
+      <c r="AI265">
+        <v>1.8</v>
+      </c>
+      <c r="AJ265">
+        <v>1.91</v>
+      </c>
+      <c r="AK265">
+        <v>0</v>
+      </c>
+      <c r="AL265">
+        <v>0</v>
+      </c>
+      <c r="AM265">
+        <v>0</v>
+      </c>
+      <c r="AN265">
+        <v>1.25</v>
+      </c>
+      <c r="AO265">
+        <v>0.75</v>
+      </c>
+      <c r="AP265">
+        <v>1.18</v>
+      </c>
+      <c r="AQ265">
+        <v>0.88</v>
+      </c>
+      <c r="AR265">
+        <v>1.53</v>
+      </c>
+      <c r="AS265">
+        <v>1.51</v>
+      </c>
+      <c r="AT265">
+        <v>3.04</v>
+      </c>
+      <c r="AU265">
+        <v>7</v>
+      </c>
+      <c r="AV265">
+        <v>4</v>
+      </c>
+      <c r="AW265">
+        <v>10</v>
+      </c>
+      <c r="AX265">
+        <v>3</v>
+      </c>
+      <c r="AY265">
+        <v>17</v>
+      </c>
+      <c r="AZ265">
+        <v>7</v>
+      </c>
+      <c r="BA265">
+        <v>2</v>
+      </c>
+      <c r="BB265">
+        <v>4</v>
+      </c>
+      <c r="BC265">
+        <v>6</v>
+      </c>
+      <c r="BD265">
+        <v>0</v>
+      </c>
+      <c r="BE265">
+        <v>0</v>
+      </c>
+      <c r="BF265">
+        <v>0</v>
+      </c>
+      <c r="BG265">
+        <v>0</v>
+      </c>
+      <c r="BH265">
+        <v>0</v>
+      </c>
+      <c r="BI265">
+        <v>0</v>
+      </c>
+      <c r="BJ265">
+        <v>0</v>
+      </c>
+      <c r="BK265">
+        <v>0</v>
+      </c>
+      <c r="BL265">
+        <v>0</v>
+      </c>
+      <c r="BM265">
+        <v>0</v>
+      </c>
+      <c r="BN265">
+        <v>0</v>
+      </c>
+      <c r="BO265">
+        <v>0</v>
+      </c>
+      <c r="BP265">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
@@ -55830,31 +55830,31 @@
         <v>2.5</v>
       </c>
       <c r="AU264">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV264">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW264">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX264">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY264">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AZ264">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA264">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB264">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC264">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD264">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="379">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -793,6 +793,9 @@
     <t>['85']</t>
   </si>
   <si>
+    <t>['49']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -1145,6 +1148,9 @@
   </si>
   <si>
     <t>['9', '79']</t>
+  </si>
+  <si>
+    <t>['8', '17']</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP265"/>
+  <dimension ref="A1:BP266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1765,7 +1771,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2383,7 +2389,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2795,7 +2801,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3001,7 +3007,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -3082,7 +3088,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ8">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3413,7 +3419,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3619,7 +3625,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3825,7 +3831,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -4521,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -5267,7 +5273,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5760,7 +5766,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ21">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -6297,7 +6303,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6375,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ24">
         <v>1.25</v>
@@ -7121,7 +7127,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -7739,7 +7745,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7945,7 +7951,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -9181,7 +9187,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9262,7 +9268,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ38">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR38">
         <v>1.63</v>
@@ -9593,7 +9599,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -10005,7 +10011,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10211,7 +10217,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10289,7 +10295,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ43">
         <v>1.12</v>
@@ -10417,7 +10423,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10623,7 +10629,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -11447,7 +11453,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11653,7 +11659,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -12146,7 +12152,7 @@
         <v>2</v>
       </c>
       <c r="AQ52">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR52">
         <v>1.32</v>
@@ -13095,7 +13101,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -13301,7 +13307,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -13507,7 +13513,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13585,7 +13591,7 @@
         <v>2.33</v>
       </c>
       <c r="AP59">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ59">
         <v>2.06</v>
@@ -13713,7 +13719,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13919,7 +13925,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -14331,7 +14337,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14537,7 +14543,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14743,7 +14749,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14824,7 +14830,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ65">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR65">
         <v>1.31</v>
@@ -14949,7 +14955,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15567,7 +15573,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15979,7 +15985,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -16057,7 +16063,7 @@
         <v>0.8</v>
       </c>
       <c r="AP71">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ71">
         <v>1.13</v>
@@ -16391,7 +16397,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16597,7 +16603,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -17009,7 +17015,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -17421,7 +17427,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17627,7 +17633,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -18039,7 +18045,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -18245,7 +18251,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -18451,7 +18457,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18657,7 +18663,7 @@
         <v>87</v>
       </c>
       <c r="P84" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18738,7 +18744,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ84">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR84">
         <v>1.12</v>
@@ -18863,7 +18869,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -19275,7 +19281,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -19687,7 +19693,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19971,7 +19977,7 @@
         <v>0.17</v>
       </c>
       <c r="AP90">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ90">
         <v>1</v>
@@ -20099,7 +20105,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -20386,7 +20392,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ92">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR92">
         <v>1.11</v>
@@ -20717,7 +20723,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -21541,7 +21547,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q98">
         <v>13</v>
@@ -21953,7 +21959,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -22159,7 +22165,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -22365,7 +22371,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22571,7 +22577,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -23064,7 +23070,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ105">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR105">
         <v>2.08</v>
@@ -23395,7 +23401,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23807,7 +23813,7 @@
         <v>87</v>
       </c>
       <c r="P109" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -24219,7 +24225,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -24425,7 +24431,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -25249,7 +25255,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -25455,7 +25461,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25661,7 +25667,7 @@
         <v>87</v>
       </c>
       <c r="P118" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -25739,7 +25745,7 @@
         <v>3</v>
       </c>
       <c r="AP118">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ118">
         <v>2.81</v>
@@ -25867,7 +25873,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -26073,7 +26079,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q120">
         <v>3.15</v>
@@ -26563,7 +26569,7 @@
         <v>2.14</v>
       </c>
       <c r="AP122">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ122">
         <v>1.31</v>
@@ -26897,7 +26903,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27103,7 +27109,7 @@
         <v>87</v>
       </c>
       <c r="P125" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q125">
         <v>3.85</v>
@@ -27184,7 +27190,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ125">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR125">
         <v>1.76</v>
@@ -27309,7 +27315,7 @@
         <v>110</v>
       </c>
       <c r="P126" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q126">
         <v>1.77</v>
@@ -27721,7 +27727,7 @@
         <v>119</v>
       </c>
       <c r="P128" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27927,7 +27933,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -28339,7 +28345,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -29369,7 +29375,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -29987,7 +29993,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q139">
         <v>5.5</v>
@@ -30271,7 +30277,7 @@
         <v>0.88</v>
       </c>
       <c r="AP140">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ140">
         <v>1.18</v>
@@ -30399,7 +30405,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30605,7 +30611,7 @@
         <v>148</v>
       </c>
       <c r="P142" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30811,7 +30817,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -31429,7 +31435,7 @@
         <v>188</v>
       </c>
       <c r="P146" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31635,7 +31641,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31841,7 +31847,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q148">
         <v>8.5</v>
@@ -32047,7 +32053,7 @@
         <v>190</v>
       </c>
       <c r="P149" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32128,7 +32134,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ149">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR149">
         <v>2.02</v>
@@ -32459,7 +32465,7 @@
         <v>192</v>
       </c>
       <c r="P151" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q151">
         <v>1.83</v>
@@ -32665,7 +32671,7 @@
         <v>87</v>
       </c>
       <c r="P152" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q152">
         <v>13</v>
@@ -32871,7 +32877,7 @@
         <v>92</v>
       </c>
       <c r="P153" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -33283,7 +33289,7 @@
         <v>194</v>
       </c>
       <c r="P155" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q155">
         <v>2.38</v>
@@ -33901,7 +33907,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q158">
         <v>1.53</v>
@@ -34107,7 +34113,7 @@
         <v>87</v>
       </c>
       <c r="P159" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34313,7 +34319,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q160">
         <v>3.25</v>
@@ -34391,7 +34397,7 @@
         <v>1.38</v>
       </c>
       <c r="AP160">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ160">
         <v>1.29</v>
@@ -34519,7 +34525,7 @@
         <v>87</v>
       </c>
       <c r="P161" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34806,7 +34812,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ162">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR162">
         <v>1.35</v>
@@ -35137,7 +35143,7 @@
         <v>199</v>
       </c>
       <c r="P164" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q164">
         <v>2.1</v>
@@ -35343,7 +35349,7 @@
         <v>200</v>
       </c>
       <c r="P165" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q165">
         <v>1.8</v>
@@ -35755,7 +35761,7 @@
         <v>97</v>
       </c>
       <c r="P167" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q167">
         <v>6.5</v>
@@ -36373,7 +36379,7 @@
         <v>87</v>
       </c>
       <c r="P170" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -37197,7 +37203,7 @@
         <v>87</v>
       </c>
       <c r="P174" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37403,7 +37409,7 @@
         <v>87</v>
       </c>
       <c r="P175" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q175">
         <v>2.38</v>
@@ -37481,7 +37487,7 @@
         <v>1</v>
       </c>
       <c r="AP175">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ175">
         <v>0.88</v>
@@ -38021,7 +38027,7 @@
         <v>206</v>
       </c>
       <c r="P178" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38433,7 +38439,7 @@
         <v>87</v>
       </c>
       <c r="P180" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q180">
         <v>13</v>
@@ -38845,7 +38851,7 @@
         <v>89</v>
       </c>
       <c r="P182" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q182">
         <v>1.83</v>
@@ -39051,7 +39057,7 @@
         <v>107</v>
       </c>
       <c r="P183" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q183">
         <v>1.91</v>
@@ -39257,7 +39263,7 @@
         <v>189</v>
       </c>
       <c r="P184" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q184">
         <v>2.3</v>
@@ -39544,7 +39550,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ185">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR185">
         <v>1.44</v>
@@ -39669,7 +39675,7 @@
         <v>208</v>
       </c>
       <c r="P186" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q186">
         <v>2.88</v>
@@ -39875,7 +39881,7 @@
         <v>87</v>
       </c>
       <c r="P187" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q187">
         <v>4.75</v>
@@ -40081,7 +40087,7 @@
         <v>87</v>
       </c>
       <c r="P188" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q188">
         <v>2</v>
@@ -40287,7 +40293,7 @@
         <v>209</v>
       </c>
       <c r="P189" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q189">
         <v>1.73</v>
@@ -41317,7 +41323,7 @@
         <v>212</v>
       </c>
       <c r="P194" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q194">
         <v>9.4</v>
@@ -41729,7 +41735,7 @@
         <v>214</v>
       </c>
       <c r="P196" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q196">
         <v>3.85</v>
@@ -41810,7 +41816,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ196">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR196">
         <v>1.72</v>
@@ -41935,7 +41941,7 @@
         <v>173</v>
       </c>
       <c r="P197" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q197">
         <v>3.25</v>
@@ -42837,7 +42843,7 @@
         <v>0.75</v>
       </c>
       <c r="AP201">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ201">
         <v>0.88</v>
@@ -42965,7 +42971,7 @@
         <v>119</v>
       </c>
       <c r="P202" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q202">
         <v>7</v>
@@ -43377,7 +43383,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q204">
         <v>1.85</v>
@@ -43583,7 +43589,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q205">
         <v>5.5</v>
@@ -43995,7 +44001,7 @@
         <v>152</v>
       </c>
       <c r="P207" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -45025,7 +45031,7 @@
         <v>87</v>
       </c>
       <c r="P212" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q212">
         <v>9.5</v>
@@ -45231,7 +45237,7 @@
         <v>225</v>
       </c>
       <c r="P213" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q213">
         <v>1.8</v>
@@ -45437,7 +45443,7 @@
         <v>226</v>
       </c>
       <c r="P214" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q214">
         <v>2.63</v>
@@ -46055,7 +46061,7 @@
         <v>189</v>
       </c>
       <c r="P217" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -46133,7 +46139,7 @@
         <v>1.25</v>
       </c>
       <c r="AP217">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ217">
         <v>1.31</v>
@@ -46261,7 +46267,7 @@
         <v>229</v>
       </c>
       <c r="P218" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q218">
         <v>4.33</v>
@@ -46467,7 +46473,7 @@
         <v>230</v>
       </c>
       <c r="P219" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q219">
         <v>6</v>
@@ -46673,7 +46679,7 @@
         <v>231</v>
       </c>
       <c r="P220" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q220">
         <v>2.1</v>
@@ -47085,7 +47091,7 @@
         <v>233</v>
       </c>
       <c r="P222" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q222">
         <v>4.5</v>
@@ -47163,10 +47169,10 @@
         <v>1.77</v>
       </c>
       <c r="AP222">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ222">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR222">
         <v>1.65</v>
@@ -47291,7 +47297,7 @@
         <v>87</v>
       </c>
       <c r="P223" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q223">
         <v>3.5</v>
@@ -47703,7 +47709,7 @@
         <v>234</v>
       </c>
       <c r="P225" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q225">
         <v>2.6</v>
@@ -48115,7 +48121,7 @@
         <v>235</v>
       </c>
       <c r="P227" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q227">
         <v>2.6</v>
@@ -48527,7 +48533,7 @@
         <v>236</v>
       </c>
       <c r="P229" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q229">
         <v>8</v>
@@ -49017,7 +49023,7 @@
         <v>0.29</v>
       </c>
       <c r="AP231">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ231">
         <v>0.24</v>
@@ -49351,7 +49357,7 @@
         <v>182</v>
       </c>
       <c r="P233" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49763,7 +49769,7 @@
         <v>87</v>
       </c>
       <c r="P235" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q235">
         <v>3.24</v>
@@ -49969,7 +49975,7 @@
         <v>239</v>
       </c>
       <c r="P236" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q236">
         <v>1.43</v>
@@ -50587,7 +50593,7 @@
         <v>226</v>
       </c>
       <c r="P239" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -50668,7 +50674,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ239">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR239">
         <v>1.14</v>
@@ -50793,7 +50799,7 @@
         <v>241</v>
       </c>
       <c r="P240" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q240">
         <v>2.6</v>
@@ -50999,7 +51005,7 @@
         <v>87</v>
       </c>
       <c r="P241" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -51283,7 +51289,7 @@
         <v>1.27</v>
       </c>
       <c r="AP242">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ242">
         <v>1.12</v>
@@ -51617,7 +51623,7 @@
         <v>244</v>
       </c>
       <c r="P244" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q244">
         <v>2.1</v>
@@ -51823,7 +51829,7 @@
         <v>240</v>
       </c>
       <c r="P245" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q245">
         <v>2.2</v>
@@ -52029,7 +52035,7 @@
         <v>245</v>
       </c>
       <c r="P246" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q246">
         <v>0</v>
@@ -52235,7 +52241,7 @@
         <v>246</v>
       </c>
       <c r="P247" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q247">
         <v>2.3</v>
@@ -52441,7 +52447,7 @@
         <v>87</v>
       </c>
       <c r="P248" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q248">
         <v>2.6</v>
@@ -53346,7 +53352,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ252">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR252">
         <v>1.75</v>
@@ -53677,7 +53683,7 @@
         <v>250</v>
       </c>
       <c r="P254" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q254">
         <v>1.95</v>
@@ -53883,7 +53889,7 @@
         <v>251</v>
       </c>
       <c r="P255" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q255">
         <v>5.5</v>
@@ -54295,7 +54301,7 @@
         <v>253</v>
       </c>
       <c r="P257" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q257">
         <v>5.5</v>
@@ -54501,7 +54507,7 @@
         <v>254</v>
       </c>
       <c r="P258" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q258">
         <v>1.95</v>
@@ -54707,7 +54713,7 @@
         <v>255</v>
       </c>
       <c r="P259" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q259">
         <v>1.57</v>
@@ -54913,7 +54919,7 @@
         <v>256</v>
       </c>
       <c r="P260" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q260">
         <v>2.3</v>
@@ -55119,7 +55125,7 @@
         <v>87</v>
       </c>
       <c r="P261" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q261">
         <v>2.6</v>
@@ -55943,7 +55949,7 @@
         <v>258</v>
       </c>
       <c r="P265" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q265">
         <v>2.75</v>
@@ -56099,6 +56105,212 @@
         <v>0</v>
       </c>
       <c r="BP265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:68">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>7881236</v>
+      </c>
+      <c r="C266" t="s">
+        <v>68</v>
+      </c>
+      <c r="D266" t="s">
+        <v>69</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45779.79166666666</v>
+      </c>
+      <c r="F266">
+        <v>4</v>
+      </c>
+      <c r="G266" t="s">
+        <v>82</v>
+      </c>
+      <c r="H266" t="s">
+        <v>85</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>2</v>
+      </c>
+      <c r="K266">
+        <v>2</v>
+      </c>
+      <c r="L266">
+        <v>1</v>
+      </c>
+      <c r="M266">
+        <v>2</v>
+      </c>
+      <c r="N266">
+        <v>3</v>
+      </c>
+      <c r="O266" t="s">
+        <v>259</v>
+      </c>
+      <c r="P266" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q266">
+        <v>0</v>
+      </c>
+      <c r="R266">
+        <v>0</v>
+      </c>
+      <c r="S266">
+        <v>0</v>
+      </c>
+      <c r="T266">
+        <v>0</v>
+      </c>
+      <c r="U266">
+        <v>0</v>
+      </c>
+      <c r="V266">
+        <v>0</v>
+      </c>
+      <c r="W266">
+        <v>0</v>
+      </c>
+      <c r="X266">
+        <v>0</v>
+      </c>
+      <c r="Y266">
+        <v>0</v>
+      </c>
+      <c r="Z266">
+        <v>2.38</v>
+      </c>
+      <c r="AA266">
+        <v>3.14</v>
+      </c>
+      <c r="AB266">
+        <v>2.62</v>
+      </c>
+      <c r="AC266">
+        <v>0</v>
+      </c>
+      <c r="AD266">
+        <v>0</v>
+      </c>
+      <c r="AE266">
+        <v>0</v>
+      </c>
+      <c r="AF266">
+        <v>0</v>
+      </c>
+      <c r="AG266">
+        <v>1.76</v>
+      </c>
+      <c r="AH266">
+        <v>1.94</v>
+      </c>
+      <c r="AI266">
+        <v>0</v>
+      </c>
+      <c r="AJ266">
+        <v>0</v>
+      </c>
+      <c r="AK266">
+        <v>0</v>
+      </c>
+      <c r="AL266">
+        <v>0</v>
+      </c>
+      <c r="AM266">
+        <v>0</v>
+      </c>
+      <c r="AN266">
+        <v>1.56</v>
+      </c>
+      <c r="AO266">
+        <v>1.81</v>
+      </c>
+      <c r="AP266">
+        <v>1.47</v>
+      </c>
+      <c r="AQ266">
+        <v>1.88</v>
+      </c>
+      <c r="AR266">
+        <v>1.68</v>
+      </c>
+      <c r="AS266">
+        <v>1.81</v>
+      </c>
+      <c r="AT266">
+        <v>3.49</v>
+      </c>
+      <c r="AU266">
+        <v>-1</v>
+      </c>
+      <c r="AV266">
+        <v>-1</v>
+      </c>
+      <c r="AW266">
+        <v>-1</v>
+      </c>
+      <c r="AX266">
+        <v>-1</v>
+      </c>
+      <c r="AY266">
+        <v>-1</v>
+      </c>
+      <c r="AZ266">
+        <v>-1</v>
+      </c>
+      <c r="BA266">
+        <v>-1</v>
+      </c>
+      <c r="BB266">
+        <v>-1</v>
+      </c>
+      <c r="BC266">
+        <v>-1</v>
+      </c>
+      <c r="BD266">
+        <v>0</v>
+      </c>
+      <c r="BE266">
+        <v>0</v>
+      </c>
+      <c r="BF266">
+        <v>0</v>
+      </c>
+      <c r="BG266">
+        <v>0</v>
+      </c>
+      <c r="BH266">
+        <v>0</v>
+      </c>
+      <c r="BI266">
+        <v>0</v>
+      </c>
+      <c r="BJ266">
+        <v>0</v>
+      </c>
+      <c r="BK266">
+        <v>0</v>
+      </c>
+      <c r="BL266">
+        <v>0</v>
+      </c>
+      <c r="BM266">
+        <v>0</v>
+      </c>
+      <c r="BN266">
+        <v>0</v>
+      </c>
+      <c r="BO266">
+        <v>0</v>
+      </c>
+      <c r="BP266">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="380">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -796,6 +796,9 @@
     <t>['49']</t>
   </si>
   <si>
+    <t>['15']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -1135,9 +1138,6 @@
     <t>['42', '45+4']</t>
   </si>
   <si>
-    <t>['15']</t>
-  </si>
-  <si>
     <t>['59', '90']</t>
   </si>
   <si>
@@ -1151,6 +1151,9 @@
   </si>
   <si>
     <t>['8', '17']</t>
+  </si>
+  <si>
+    <t>['76', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP266"/>
+  <dimension ref="A1:BP269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1771,7 +1774,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2055,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3">
         <v>2.06</v>
@@ -2389,7 +2392,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2801,7 +2804,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3007,7 +3010,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -3291,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ9">
         <v>1.13</v>
@@ -3419,7 +3422,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3625,7 +3628,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3831,7 +3834,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -4115,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ13">
         <v>1.29</v>
@@ -4324,7 +4327,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ14">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4530,7 +4533,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4733,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ16">
         <v>1.13</v>
@@ -5273,7 +5276,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5354,7 +5357,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ19">
-        <v>2.81</v>
+        <v>2.82</v>
       </c>
       <c r="AR19">
         <v>1.24</v>
@@ -5557,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -6303,7 +6306,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6384,7 +6387,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ24">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR24">
         <v>0.98</v>
@@ -6587,7 +6590,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ25">
         <v>0.88</v>
@@ -7127,7 +7130,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -7208,7 +7211,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7745,7 +7748,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7951,7 +7954,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -8032,7 +8035,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ32">
-        <v>2.81</v>
+        <v>2.82</v>
       </c>
       <c r="AR32">
         <v>1</v>
@@ -8235,7 +8238,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ33">
         <v>1.47</v>
@@ -8853,7 +8856,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -9187,7 +9190,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9474,7 +9477,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ39">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR39">
         <v>0</v>
@@ -9599,7 +9602,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9883,7 +9886,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ41">
         <v>1.31</v>
@@ -10011,7 +10014,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10217,7 +10220,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10423,7 +10426,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10629,7 +10632,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10916,7 +10919,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR46">
         <v>0.99</v>
@@ -11453,7 +11456,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11531,7 +11534,7 @@
         <v>2.33</v>
       </c>
       <c r="AP49">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ49">
         <v>1.47</v>
@@ -11659,7 +11662,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11737,7 +11740,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ50">
         <v>1.31</v>
@@ -11946,7 +11949,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ51">
-        <v>2.81</v>
+        <v>2.82</v>
       </c>
       <c r="AR51">
         <v>1.93</v>
@@ -13101,7 +13104,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -13182,7 +13185,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ57">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR57">
         <v>1.94</v>
@@ -13307,7 +13310,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -13513,7 +13516,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13719,7 +13722,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13925,7 +13928,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -14337,7 +14340,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14415,7 +14418,7 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ63">
         <v>1.18</v>
@@ -14543,7 +14546,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14621,7 +14624,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ64">
         <v>1.31</v>
@@ -14749,7 +14752,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14955,7 +14958,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15033,7 +15036,7 @@
         <v>0.25</v>
       </c>
       <c r="AP66">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -15448,7 +15451,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR68">
         <v>1.54</v>
@@ -15573,7 +15576,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15654,7 +15657,7 @@
         <v>2</v>
       </c>
       <c r="AQ69">
-        <v>2.81</v>
+        <v>2.82</v>
       </c>
       <c r="AR69">
         <v>1.36</v>
@@ -15985,7 +15988,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -16397,7 +16400,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16603,7 +16606,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -17015,7 +17018,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -17427,7 +17430,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17633,7 +17636,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17711,7 +17714,7 @@
         <v>2.6</v>
       </c>
       <c r="AP79">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ79">
         <v>1.47</v>
@@ -17920,7 +17923,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ80">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR80">
         <v>1.56</v>
@@ -18045,7 +18048,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -18251,7 +18254,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -18332,7 +18335,7 @@
         <v>2</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR82">
         <v>1.24</v>
@@ -18457,7 +18460,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18535,7 +18538,7 @@
         <v>0.75</v>
       </c>
       <c r="AP83">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ83">
         <v>1.18</v>
@@ -18663,7 +18666,7 @@
         <v>87</v>
       </c>
       <c r="P84" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18869,7 +18872,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -18950,7 +18953,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ85">
-        <v>2.81</v>
+        <v>2.82</v>
       </c>
       <c r="AR85">
         <v>1.2</v>
@@ -19153,7 +19156,7 @@
         <v>0.2</v>
       </c>
       <c r="AP86">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ86">
         <v>0.24</v>
@@ -19281,7 +19284,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -19693,7 +19696,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19771,7 +19774,7 @@
         <v>1.2</v>
       </c>
       <c r="AP89">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ89">
         <v>1.12</v>
@@ -20105,7 +20108,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -20723,7 +20726,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -21010,7 +21013,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ95">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR95">
         <v>1.17</v>
@@ -21422,7 +21425,7 @@
         <v>2</v>
       </c>
       <c r="AQ97">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR97">
         <v>1.33</v>
@@ -21547,7 +21550,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q98">
         <v>13</v>
@@ -21628,7 +21631,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ98">
-        <v>2.81</v>
+        <v>2.82</v>
       </c>
       <c r="AR98">
         <v>1.07</v>
@@ -21959,7 +21962,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -22165,7 +22168,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -22243,7 +22246,7 @@
         <v>1.5</v>
       </c>
       <c r="AP101">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ101">
         <v>1.29</v>
@@ -22371,7 +22374,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22449,7 +22452,7 @@
         <v>2.6</v>
       </c>
       <c r="AP102">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ102">
         <v>1.31</v>
@@ -22577,7 +22580,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -23401,7 +23404,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23479,7 +23482,7 @@
         <v>2.17</v>
       </c>
       <c r="AP107">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ107">
         <v>2.06</v>
@@ -23813,7 +23816,7 @@
         <v>87</v>
       </c>
       <c r="P109" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -24225,7 +24228,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -24303,7 +24306,7 @@
         <v>1</v>
       </c>
       <c r="AP111">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ111">
         <v>1.18</v>
@@ -24431,7 +24434,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24512,7 +24515,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ112">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR112">
         <v>1.19</v>
@@ -24718,7 +24721,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ113">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR113">
         <v>1.01</v>
@@ -25127,7 +25130,7 @@
         <v>0.14</v>
       </c>
       <c r="AP115">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ115">
         <v>0.24</v>
@@ -25255,7 +25258,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -25461,7 +25464,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25667,7 +25670,7 @@
         <v>87</v>
       </c>
       <c r="P118" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -25748,7 +25751,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ118">
-        <v>2.81</v>
+        <v>2.82</v>
       </c>
       <c r="AR118">
         <v>1.51</v>
@@ -25873,7 +25876,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25951,10 +25954,10 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ119">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR119">
         <v>1.78</v>
@@ -26079,7 +26082,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q120">
         <v>3.15</v>
@@ -26366,7 +26369,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ121">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR121">
         <v>1.85</v>
@@ -26903,7 +26906,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27109,7 +27112,7 @@
         <v>87</v>
       </c>
       <c r="P125" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q125">
         <v>3.85</v>
@@ -27315,7 +27318,7 @@
         <v>110</v>
       </c>
       <c r="P126" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q126">
         <v>1.77</v>
@@ -27727,7 +27730,7 @@
         <v>119</v>
       </c>
       <c r="P128" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27805,7 +27808,7 @@
         <v>1.13</v>
       </c>
       <c r="AP128">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ128">
         <v>1.31</v>
@@ -27933,7 +27936,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -28345,7 +28348,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -28426,7 +28429,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ131">
-        <v>2.81</v>
+        <v>2.82</v>
       </c>
       <c r="AR131">
         <v>1.03</v>
@@ -28629,7 +28632,7 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ132">
         <v>0.88</v>
@@ -29250,7 +29253,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ135">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR135">
         <v>1.93</v>
@@ -29375,7 +29378,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -29662,7 +29665,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ137">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR137">
         <v>1.8</v>
@@ -29993,7 +29996,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q139">
         <v>5.5</v>
@@ -30405,7 +30408,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30611,7 +30614,7 @@
         <v>148</v>
       </c>
       <c r="P142" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30689,7 +30692,7 @@
         <v>1.38</v>
       </c>
       <c r="AP142">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ142">
         <v>1.12</v>
@@ -30817,7 +30820,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -31435,7 +31438,7 @@
         <v>188</v>
       </c>
       <c r="P146" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31513,7 +31516,7 @@
         <v>0.78</v>
       </c>
       <c r="AP146">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ146">
         <v>0.88</v>
@@ -31641,7 +31644,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31847,7 +31850,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q148">
         <v>8.5</v>
@@ -31928,7 +31931,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ148">
-        <v>2.81</v>
+        <v>2.82</v>
       </c>
       <c r="AR148">
         <v>1.72</v>
@@ -32053,7 +32056,7 @@
         <v>190</v>
       </c>
       <c r="P149" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32131,7 +32134,7 @@
         <v>1.67</v>
       </c>
       <c r="AP149">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ149">
         <v>1.88</v>
@@ -32465,7 +32468,7 @@
         <v>192</v>
       </c>
       <c r="P151" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q151">
         <v>1.83</v>
@@ -32671,7 +32674,7 @@
         <v>87</v>
       </c>
       <c r="P152" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q152">
         <v>13</v>
@@ -32752,7 +32755,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ152">
-        <v>2.81</v>
+        <v>2.82</v>
       </c>
       <c r="AR152">
         <v>1.2</v>
@@ -32877,7 +32880,7 @@
         <v>92</v>
       </c>
       <c r="P153" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -33289,7 +33292,7 @@
         <v>194</v>
       </c>
       <c r="P155" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q155">
         <v>2.38</v>
@@ -33573,7 +33576,7 @@
         <v>2.11</v>
       </c>
       <c r="AP156">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ156">
         <v>2.06</v>
@@ -33782,7 +33785,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ157">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR157">
         <v>1.13</v>
@@ -33907,7 +33910,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q158">
         <v>1.53</v>
@@ -33988,7 +33991,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ158">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR158">
         <v>2</v>
@@ -34113,7 +34116,7 @@
         <v>87</v>
       </c>
       <c r="P159" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34319,7 +34322,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q160">
         <v>3.25</v>
@@ -34525,7 +34528,7 @@
         <v>87</v>
       </c>
       <c r="P161" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34809,7 +34812,7 @@
         <v>1.8</v>
       </c>
       <c r="AP162">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ162">
         <v>1.88</v>
@@ -35143,7 +35146,7 @@
         <v>199</v>
       </c>
       <c r="P164" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q164">
         <v>2.1</v>
@@ -35224,7 +35227,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ164">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR164">
         <v>1.67</v>
@@ -35349,7 +35352,7 @@
         <v>200</v>
       </c>
       <c r="P165" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q165">
         <v>1.8</v>
@@ -35761,7 +35764,7 @@
         <v>97</v>
       </c>
       <c r="P167" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q167">
         <v>6.5</v>
@@ -35839,10 +35842,10 @@
         <v>3</v>
       </c>
       <c r="AP167">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ167">
-        <v>2.81</v>
+        <v>2.82</v>
       </c>
       <c r="AR167">
         <v>2.02</v>
@@ -36379,7 +36382,7 @@
         <v>87</v>
       </c>
       <c r="P170" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -36460,7 +36463,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ170">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR170">
         <v>1.25</v>
@@ -37203,7 +37206,7 @@
         <v>87</v>
       </c>
       <c r="P174" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37409,7 +37412,7 @@
         <v>87</v>
       </c>
       <c r="P175" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q175">
         <v>2.38</v>
@@ -37693,7 +37696,7 @@
         <v>0.8</v>
       </c>
       <c r="AP176">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ176">
         <v>1.13</v>
@@ -38027,7 +38030,7 @@
         <v>206</v>
       </c>
       <c r="P178" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38439,7 +38442,7 @@
         <v>87</v>
       </c>
       <c r="P180" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q180">
         <v>13</v>
@@ -38517,10 +38520,10 @@
         <v>3</v>
       </c>
       <c r="AP180">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ180">
-        <v>2.81</v>
+        <v>2.82</v>
       </c>
       <c r="AR180">
         <v>1.34</v>
@@ -38851,7 +38854,7 @@
         <v>89</v>
       </c>
       <c r="P182" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q182">
         <v>1.83</v>
@@ -38929,7 +38932,7 @@
         <v>0.09</v>
       </c>
       <c r="AP182">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ182">
         <v>0.24</v>
@@ -39057,7 +39060,7 @@
         <v>107</v>
       </c>
       <c r="P183" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q183">
         <v>1.91</v>
@@ -39135,10 +39138,10 @@
         <v>0.64</v>
       </c>
       <c r="AP183">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ183">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR183">
         <v>1.95</v>
@@ -39263,7 +39266,7 @@
         <v>189</v>
       </c>
       <c r="P184" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q184">
         <v>2.3</v>
@@ -39675,7 +39678,7 @@
         <v>208</v>
       </c>
       <c r="P186" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q186">
         <v>2.88</v>
@@ -39881,7 +39884,7 @@
         <v>87</v>
       </c>
       <c r="P187" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q187">
         <v>4.75</v>
@@ -40087,7 +40090,7 @@
         <v>87</v>
       </c>
       <c r="P188" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q188">
         <v>2</v>
@@ -40293,7 +40296,7 @@
         <v>209</v>
       </c>
       <c r="P189" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q189">
         <v>1.73</v>
@@ -40786,7 +40789,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ191">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR191">
         <v>1.17</v>
@@ -41323,7 +41326,7 @@
         <v>212</v>
       </c>
       <c r="P194" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q194">
         <v>9.4</v>
@@ -41404,7 +41407,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ194">
-        <v>2.81</v>
+        <v>2.82</v>
       </c>
       <c r="AR194">
         <v>1.48</v>
@@ -41735,7 +41738,7 @@
         <v>214</v>
       </c>
       <c r="P196" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q196">
         <v>3.85</v>
@@ -41813,7 +41816,7 @@
         <v>1.67</v>
       </c>
       <c r="AP196">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ196">
         <v>1.88</v>
@@ -41941,7 +41944,7 @@
         <v>173</v>
       </c>
       <c r="P197" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q197">
         <v>3.25</v>
@@ -42225,10 +42228,10 @@
         <v>0.83</v>
       </c>
       <c r="AP198">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ198">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR198">
         <v>1.34</v>
@@ -42637,10 +42640,10 @@
         <v>1.42</v>
       </c>
       <c r="AP200">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ200">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR200">
         <v>1.97</v>
@@ -42971,7 +42974,7 @@
         <v>119</v>
       </c>
       <c r="P202" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q202">
         <v>7</v>
@@ -43383,7 +43386,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q204">
         <v>1.85</v>
@@ -43589,7 +43592,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q205">
         <v>5.5</v>
@@ -44001,7 +44004,7 @@
         <v>152</v>
       </c>
       <c r="P207" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -44700,7 +44703,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ210">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR210">
         <v>1.45</v>
@@ -44903,10 +44906,10 @@
         <v>1.31</v>
       </c>
       <c r="AP211">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ211">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR211">
         <v>1.42</v>
@@ -45031,7 +45034,7 @@
         <v>87</v>
       </c>
       <c r="P212" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q212">
         <v>9.5</v>
@@ -45109,10 +45112,10 @@
         <v>3</v>
       </c>
       <c r="AP212">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ212">
-        <v>2.81</v>
+        <v>2.82</v>
       </c>
       <c r="AR212">
         <v>1.64</v>
@@ -45237,7 +45240,7 @@
         <v>225</v>
       </c>
       <c r="P213" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q213">
         <v>1.8</v>
@@ -45443,7 +45446,7 @@
         <v>226</v>
       </c>
       <c r="P214" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q214">
         <v>2.63</v>
@@ -46061,7 +46064,7 @@
         <v>189</v>
       </c>
       <c r="P217" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -46267,7 +46270,7 @@
         <v>229</v>
       </c>
       <c r="P218" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q218">
         <v>4.33</v>
@@ -46473,7 +46476,7 @@
         <v>230</v>
       </c>
       <c r="P219" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q219">
         <v>6</v>
@@ -46679,7 +46682,7 @@
         <v>231</v>
       </c>
       <c r="P220" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q220">
         <v>2.1</v>
@@ -46757,7 +46760,7 @@
         <v>1</v>
       </c>
       <c r="AP220">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ220">
         <v>0.88</v>
@@ -47091,7 +47094,7 @@
         <v>233</v>
       </c>
       <c r="P222" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q222">
         <v>4.5</v>
@@ -47297,7 +47300,7 @@
         <v>87</v>
       </c>
       <c r="P223" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q223">
         <v>3.5</v>
@@ -47709,7 +47712,7 @@
         <v>234</v>
       </c>
       <c r="P225" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q225">
         <v>2.6</v>
@@ -48121,7 +48124,7 @@
         <v>235</v>
       </c>
       <c r="P227" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q227">
         <v>2.6</v>
@@ -48199,10 +48202,10 @@
         <v>0.79</v>
       </c>
       <c r="AP227">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ227">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR227">
         <v>1.6</v>
@@ -48533,7 +48536,7 @@
         <v>236</v>
       </c>
       <c r="P229" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q229">
         <v>8</v>
@@ -48614,7 +48617,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ229">
-        <v>2.81</v>
+        <v>2.82</v>
       </c>
       <c r="AR229">
         <v>1.73</v>
@@ -48817,7 +48820,7 @@
         <v>1.36</v>
       </c>
       <c r="AP230">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ230">
         <v>1.12</v>
@@ -49357,7 +49360,7 @@
         <v>182</v>
       </c>
       <c r="P233" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49438,7 +49441,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ233">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR233">
         <v>1.44</v>
@@ -49769,7 +49772,7 @@
         <v>87</v>
       </c>
       <c r="P235" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q235">
         <v>3.24</v>
@@ -49975,7 +49978,7 @@
         <v>239</v>
       </c>
       <c r="P236" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q236">
         <v>1.43</v>
@@ -50465,7 +50468,7 @@
         <v>1.29</v>
       </c>
       <c r="AP238">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ238">
         <v>1.31</v>
@@ -50593,7 +50596,7 @@
         <v>226</v>
       </c>
       <c r="P239" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -50799,7 +50802,7 @@
         <v>241</v>
       </c>
       <c r="P240" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q240">
         <v>2.6</v>
@@ -51005,7 +51008,7 @@
         <v>87</v>
       </c>
       <c r="P241" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -51623,7 +51626,7 @@
         <v>244</v>
       </c>
       <c r="P244" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q244">
         <v>2.1</v>
@@ -51829,7 +51832,7 @@
         <v>240</v>
       </c>
       <c r="P245" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q245">
         <v>2.2</v>
@@ -51907,7 +51910,7 @@
         <v>1.07</v>
       </c>
       <c r="AP245">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ245">
         <v>1.18</v>
@@ -52035,7 +52038,7 @@
         <v>245</v>
       </c>
       <c r="P246" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q246">
         <v>0</v>
@@ -52241,7 +52244,7 @@
         <v>246</v>
       </c>
       <c r="P247" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q247">
         <v>2.3</v>
@@ -52447,7 +52450,7 @@
         <v>87</v>
       </c>
       <c r="P248" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q248">
         <v>2.6</v>
@@ -52525,10 +52528,10 @@
         <v>0.93</v>
       </c>
       <c r="AP248">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ248">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR248">
         <v>1.39</v>
@@ -52937,7 +52940,7 @@
         <v>1.13</v>
       </c>
       <c r="AP250">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ250">
         <v>1.13</v>
@@ -53683,7 +53686,7 @@
         <v>250</v>
       </c>
       <c r="P254" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q254">
         <v>1.95</v>
@@ -53889,7 +53892,7 @@
         <v>251</v>
       </c>
       <c r="P255" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q255">
         <v>5.5</v>
@@ -53970,7 +53973,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ255">
-        <v>2.81</v>
+        <v>2.82</v>
       </c>
       <c r="AR255">
         <v>1.61</v>
@@ -54301,7 +54304,7 @@
         <v>253</v>
       </c>
       <c r="P257" t="s">
-        <v>373</v>
+        <v>260</v>
       </c>
       <c r="Q257">
         <v>5.5</v>
@@ -54382,7 +54385,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ257">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR257">
         <v>1.29</v>
@@ -54507,7 +54510,7 @@
         <v>254</v>
       </c>
       <c r="P258" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q258">
         <v>1.95</v>
@@ -54588,7 +54591,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ258">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR258">
         <v>1.5</v>
@@ -55409,7 +55412,7 @@
         <v>0.25</v>
       </c>
       <c r="AP262">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ262">
         <v>0.24</v>
@@ -56122,7 +56125,7 @@
         <v>69</v>
       </c>
       <c r="E266" s="2">
-        <v>45779.79166666666</v>
+        <v>45779.5625</v>
       </c>
       <c r="F266">
         <v>4</v>
@@ -56158,31 +56161,31 @@
         <v>378</v>
       </c>
       <c r="Q266">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R266">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="S266">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T266">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U266">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="V266">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="W266">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X266">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y266">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="Z266">
         <v>2.38</v>
@@ -56194,16 +56197,16 @@
         <v>2.62</v>
       </c>
       <c r="AC266">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AD266">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE266">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF266">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG266">
         <v>1.76</v>
@@ -56212,19 +56215,19 @@
         <v>1.94</v>
       </c>
       <c r="AI266">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AJ266">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AK266">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AL266">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AM266">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AN266">
         <v>1.56</v>
@@ -56248,70 +56251,688 @@
         <v>3.49</v>
       </c>
       <c r="AU266">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV266">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW266">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX266">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY266">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ266">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA266">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BB266">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC266">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD266">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="BE266">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="BF266">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="BG266">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="BH266">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="BI266">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="BJ266">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BK266">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="BL266">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="BM266">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="BN266">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="BO266">
-        <v>0</v>
+        <v>4.23</v>
       </c>
       <c r="BP266">
-        <v>0</v>
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="267" spans="1:68">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>7881240</v>
+      </c>
+      <c r="C267" t="s">
+        <v>68</v>
+      </c>
+      <c r="D267" t="s">
+        <v>69</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45780.375</v>
+      </c>
+      <c r="F267">
+        <v>4</v>
+      </c>
+      <c r="G267" t="s">
+        <v>71</v>
+      </c>
+      <c r="H267" t="s">
+        <v>74</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>1</v>
+      </c>
+      <c r="K267">
+        <v>1</v>
+      </c>
+      <c r="L267">
+        <v>0</v>
+      </c>
+      <c r="M267">
+        <v>1</v>
+      </c>
+      <c r="N267">
+        <v>1</v>
+      </c>
+      <c r="O267" t="s">
+        <v>87</v>
+      </c>
+      <c r="P267" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q267">
+        <v>3.4</v>
+      </c>
+      <c r="R267">
+        <v>2.05</v>
+      </c>
+      <c r="S267">
+        <v>3.1</v>
+      </c>
+      <c r="T267">
+        <v>1.44</v>
+      </c>
+      <c r="U267">
+        <v>2.63</v>
+      </c>
+      <c r="V267">
+        <v>3.25</v>
+      </c>
+      <c r="W267">
+        <v>1.33</v>
+      </c>
+      <c r="X267">
+        <v>7.5</v>
+      </c>
+      <c r="Y267">
+        <v>1.07</v>
+      </c>
+      <c r="Z267">
+        <v>2.63</v>
+      </c>
+      <c r="AA267">
+        <v>3.11</v>
+      </c>
+      <c r="AB267">
+        <v>2.39</v>
+      </c>
+      <c r="AC267">
+        <v>1.07</v>
+      </c>
+      <c r="AD267">
+        <v>8</v>
+      </c>
+      <c r="AE267">
+        <v>1.33</v>
+      </c>
+      <c r="AF267">
+        <v>3.25</v>
+      </c>
+      <c r="AG267">
+        <v>1.94</v>
+      </c>
+      <c r="AH267">
+        <v>1.76</v>
+      </c>
+      <c r="AI267">
+        <v>1.83</v>
+      </c>
+      <c r="AJ267">
+        <v>1.83</v>
+      </c>
+      <c r="AK267">
+        <v>1.5</v>
+      </c>
+      <c r="AL267">
+        <v>1.3</v>
+      </c>
+      <c r="AM267">
+        <v>1.37</v>
+      </c>
+      <c r="AN267">
+        <v>1.41</v>
+      </c>
+      <c r="AO267">
+        <v>1.25</v>
+      </c>
+      <c r="AP267">
+        <v>1.33</v>
+      </c>
+      <c r="AQ267">
+        <v>1.35</v>
+      </c>
+      <c r="AR267">
+        <v>1.4</v>
+      </c>
+      <c r="AS267">
+        <v>1.46</v>
+      </c>
+      <c r="AT267">
+        <v>2.86</v>
+      </c>
+      <c r="AU267">
+        <v>5</v>
+      </c>
+      <c r="AV267">
+        <v>4</v>
+      </c>
+      <c r="AW267">
+        <v>7</v>
+      </c>
+      <c r="AX267">
+        <v>3</v>
+      </c>
+      <c r="AY267">
+        <v>12</v>
+      </c>
+      <c r="AZ267">
+        <v>7</v>
+      </c>
+      <c r="BA267">
+        <v>4</v>
+      </c>
+      <c r="BB267">
+        <v>6</v>
+      </c>
+      <c r="BC267">
+        <v>10</v>
+      </c>
+      <c r="BD267">
+        <v>2.24</v>
+      </c>
+      <c r="BE267">
+        <v>6.1</v>
+      </c>
+      <c r="BF267">
+        <v>2.05</v>
+      </c>
+      <c r="BG267">
+        <v>1.5</v>
+      </c>
+      <c r="BH267">
+        <v>2.41</v>
+      </c>
+      <c r="BI267">
+        <v>1.86</v>
+      </c>
+      <c r="BJ267">
+        <v>1.88</v>
+      </c>
+      <c r="BK267">
+        <v>2.38</v>
+      </c>
+      <c r="BL267">
+        <v>1.54</v>
+      </c>
+      <c r="BM267">
+        <v>3.15</v>
+      </c>
+      <c r="BN267">
+        <v>1.31</v>
+      </c>
+      <c r="BO267">
+        <v>4.2</v>
+      </c>
+      <c r="BP267">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="268" spans="1:68">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>7881235</v>
+      </c>
+      <c r="C268" t="s">
+        <v>68</v>
+      </c>
+      <c r="D268" t="s">
+        <v>69</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45780.58333333334</v>
+      </c>
+      <c r="F268">
+        <v>4</v>
+      </c>
+      <c r="G268" t="s">
+        <v>77</v>
+      </c>
+      <c r="H268" t="s">
+        <v>72</v>
+      </c>
+      <c r="I268">
+        <v>1</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>1</v>
+      </c>
+      <c r="L268">
+        <v>1</v>
+      </c>
+      <c r="M268">
+        <v>2</v>
+      </c>
+      <c r="N268">
+        <v>3</v>
+      </c>
+      <c r="O268" t="s">
+        <v>235</v>
+      </c>
+      <c r="P268" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q268">
+        <v>5</v>
+      </c>
+      <c r="R268">
+        <v>2.75</v>
+      </c>
+      <c r="S268">
+        <v>1.8</v>
+      </c>
+      <c r="T268">
+        <v>1.2</v>
+      </c>
+      <c r="U268">
+        <v>4.33</v>
+      </c>
+      <c r="V268">
+        <v>1.83</v>
+      </c>
+      <c r="W268">
+        <v>1.83</v>
+      </c>
+      <c r="X268">
+        <v>3.75</v>
+      </c>
+      <c r="Y268">
+        <v>1.25</v>
+      </c>
+      <c r="Z268">
+        <v>4.6</v>
+      </c>
+      <c r="AA268">
+        <v>3.95</v>
+      </c>
+      <c r="AB268">
+        <v>1.54</v>
+      </c>
+      <c r="AC268">
+        <v>1.01</v>
+      </c>
+      <c r="AD268">
+        <v>17</v>
+      </c>
+      <c r="AE268">
+        <v>1.1</v>
+      </c>
+      <c r="AF268">
+        <v>6.5</v>
+      </c>
+      <c r="AG268">
+        <v>1.44</v>
+      </c>
+      <c r="AH268">
+        <v>2.59</v>
+      </c>
+      <c r="AI268">
+        <v>1.5</v>
+      </c>
+      <c r="AJ268">
+        <v>2.5</v>
+      </c>
+      <c r="AK268">
+        <v>2.42</v>
+      </c>
+      <c r="AL268">
+        <v>1.15</v>
+      </c>
+      <c r="AM268">
+        <v>1.12</v>
+      </c>
+      <c r="AN268">
+        <v>1.38</v>
+      </c>
+      <c r="AO268">
+        <v>2.81</v>
+      </c>
+      <c r="AP268">
+        <v>1.29</v>
+      </c>
+      <c r="AQ268">
+        <v>2.82</v>
+      </c>
+      <c r="AR268">
+        <v>1.88</v>
+      </c>
+      <c r="AS268">
+        <v>2.26</v>
+      </c>
+      <c r="AT268">
+        <v>4.14</v>
+      </c>
+      <c r="AU268">
+        <v>3</v>
+      </c>
+      <c r="AV268">
+        <v>10</v>
+      </c>
+      <c r="AW268">
+        <v>4</v>
+      </c>
+      <c r="AX268">
+        <v>8</v>
+      </c>
+      <c r="AY268">
+        <v>7</v>
+      </c>
+      <c r="AZ268">
+        <v>18</v>
+      </c>
+      <c r="BA268">
+        <v>2</v>
+      </c>
+      <c r="BB268">
+        <v>7</v>
+      </c>
+      <c r="BC268">
+        <v>9</v>
+      </c>
+      <c r="BD268">
+        <v>2.9</v>
+      </c>
+      <c r="BE268">
+        <v>8</v>
+      </c>
+      <c r="BF268">
+        <v>1.59</v>
+      </c>
+      <c r="BG268">
+        <v>1.36</v>
+      </c>
+      <c r="BH268">
+        <v>2.87</v>
+      </c>
+      <c r="BI268">
+        <v>1.63</v>
+      </c>
+      <c r="BJ268">
+        <v>2.2</v>
+      </c>
+      <c r="BK268">
+        <v>2.02</v>
+      </c>
+      <c r="BL268">
+        <v>1.74</v>
+      </c>
+      <c r="BM268">
+        <v>2.55</v>
+      </c>
+      <c r="BN268">
+        <v>1.45</v>
+      </c>
+      <c r="BO268">
+        <v>3.38</v>
+      </c>
+      <c r="BP268">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="269" spans="1:68">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>7881239</v>
+      </c>
+      <c r="C269" t="s">
+        <v>68</v>
+      </c>
+      <c r="D269" t="s">
+        <v>69</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45780.625</v>
+      </c>
+      <c r="F269">
+        <v>4</v>
+      </c>
+      <c r="G269" t="s">
+        <v>80</v>
+      </c>
+      <c r="H269" t="s">
+        <v>76</v>
+      </c>
+      <c r="I269">
+        <v>1</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>1</v>
+      </c>
+      <c r="L269">
+        <v>1</v>
+      </c>
+      <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269">
+        <v>1</v>
+      </c>
+      <c r="O269" t="s">
+        <v>260</v>
+      </c>
+      <c r="P269" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q269">
+        <v>2.2</v>
+      </c>
+      <c r="R269">
+        <v>2.3</v>
+      </c>
+      <c r="S269">
+        <v>4.5</v>
+      </c>
+      <c r="T269">
+        <v>1.33</v>
+      </c>
+      <c r="U269">
+        <v>3.25</v>
+      </c>
+      <c r="V269">
+        <v>2.5</v>
+      </c>
+      <c r="W269">
+        <v>1.5</v>
+      </c>
+      <c r="X269">
+        <v>5.5</v>
+      </c>
+      <c r="Y269">
+        <v>1.13</v>
+      </c>
+      <c r="Z269">
+        <v>1.8</v>
+      </c>
+      <c r="AA269">
+        <v>3.29</v>
+      </c>
+      <c r="AB269">
+        <v>3.86</v>
+      </c>
+      <c r="AC269">
+        <v>1.04</v>
+      </c>
+      <c r="AD269">
+        <v>11</v>
+      </c>
+      <c r="AE269">
+        <v>1.2</v>
+      </c>
+      <c r="AF269">
+        <v>4.33</v>
+      </c>
+      <c r="AG269">
+        <v>1.76</v>
+      </c>
+      <c r="AH269">
+        <v>1.94</v>
+      </c>
+      <c r="AI269">
+        <v>1.73</v>
+      </c>
+      <c r="AJ269">
+        <v>2</v>
+      </c>
+      <c r="AK269">
+        <v>1.15</v>
+      </c>
+      <c r="AL269">
+        <v>1.19</v>
+      </c>
+      <c r="AM269">
+        <v>2.14</v>
+      </c>
+      <c r="AN269">
+        <v>1.38</v>
+      </c>
+      <c r="AO269">
+        <v>1</v>
+      </c>
+      <c r="AP269">
+        <v>1.47</v>
+      </c>
+      <c r="AQ269">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR269">
+        <v>1.59</v>
+      </c>
+      <c r="AS269">
+        <v>1.22</v>
+      </c>
+      <c r="AT269">
+        <v>2.81</v>
+      </c>
+      <c r="AU269">
+        <v>9</v>
+      </c>
+      <c r="AV269">
+        <v>5</v>
+      </c>
+      <c r="AW269">
+        <v>3</v>
+      </c>
+      <c r="AX269">
+        <v>0</v>
+      </c>
+      <c r="AY269">
+        <v>12</v>
+      </c>
+      <c r="AZ269">
+        <v>5</v>
+      </c>
+      <c r="BA269">
+        <v>3</v>
+      </c>
+      <c r="BB269">
+        <v>6</v>
+      </c>
+      <c r="BC269">
+        <v>9</v>
+      </c>
+      <c r="BD269">
+        <v>1.7</v>
+      </c>
+      <c r="BE269">
+        <v>6.5</v>
+      </c>
+      <c r="BF269">
+        <v>2.87</v>
+      </c>
+      <c r="BG269">
+        <v>1.48</v>
+      </c>
+      <c r="BH269">
+        <v>2.48</v>
+      </c>
+      <c r="BI269">
+        <v>1.82</v>
+      </c>
+      <c r="BJ269">
+        <v>1.93</v>
+      </c>
+      <c r="BK269">
+        <v>2.31</v>
+      </c>
+      <c r="BL269">
+        <v>1.57</v>
+      </c>
+      <c r="BM269">
+        <v>2.97</v>
+      </c>
+      <c r="BN269">
+        <v>1.34</v>
+      </c>
+      <c r="BO269">
+        <v>4.05</v>
+      </c>
+      <c r="BP269">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="381">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -799,6 +799,12 @@
     <t>['15']</t>
   </si>
   <si>
+    <t>['45+1', '50']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -1052,9 +1058,6 @@
   </si>
   <si>
     <t>['56', '74']</t>
-  </si>
-  <si>
-    <t>['68']</t>
   </si>
   <si>
     <t>['82']</t>
@@ -1515,7 +1518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP269"/>
+  <dimension ref="A1:BP273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1774,7 +1777,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1852,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ2">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2061,7 +2064,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ3">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2392,7 +2395,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2804,7 +2807,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2882,10 +2885,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3010,7 +3013,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -3422,7 +3425,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3500,10 +3503,10 @@
         <v>3</v>
       </c>
       <c r="AP10">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ10">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3628,7 +3631,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3834,7 +3837,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3915,7 +3918,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ12">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR12">
         <v>2.33</v>
@@ -4942,7 +4945,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ17">
         <v>1.47</v>
@@ -5276,7 +5279,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5563,7 +5566,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR20">
         <v>1.78</v>
@@ -5975,7 +5978,7 @@
         <v>2</v>
       </c>
       <c r="AQ22">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -6178,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ23">
         <v>0.88</v>
@@ -6306,7 +6309,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -7130,7 +7133,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -7414,10 +7417,10 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ29">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR29">
         <v>0.53</v>
@@ -7620,10 +7623,10 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ30">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7748,7 +7751,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7954,7 +7957,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -8444,10 +8447,10 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ34">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR34">
         <v>1.89</v>
@@ -8859,7 +8862,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR36">
         <v>1.22</v>
@@ -9190,7 +9193,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9268,7 +9271,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ38">
         <v>1.88</v>
@@ -9602,7 +9605,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9889,7 +9892,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ41">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR41">
         <v>1.91</v>
@@ -10014,7 +10017,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10092,7 +10095,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ42">
         <v>1.13</v>
@@ -10220,7 +10223,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10426,7 +10429,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10632,7 +10635,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10710,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ45">
         <v>0.88</v>
@@ -11122,7 +11125,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ47">
         <v>0.24</v>
@@ -11331,7 +11334,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR48">
         <v>1.36</v>
@@ -11456,7 +11459,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11662,7 +11665,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11743,7 +11746,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ50">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR50">
         <v>1.81</v>
@@ -11946,7 +11949,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ51">
         <v>2.82</v>
@@ -12567,7 +12570,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ54">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR54">
         <v>1.46</v>
@@ -13104,7 +13107,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -13182,7 +13185,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ57">
         <v>1.35</v>
@@ -13310,7 +13313,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -13516,7 +13519,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13597,7 +13600,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ59">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR59">
         <v>1.68</v>
@@ -13722,7 +13725,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13800,7 +13803,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ60">
         <v>0.88</v>
@@ -13928,7 +13931,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -14006,7 +14009,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ61">
         <v>1.12</v>
@@ -14340,7 +14343,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14546,7 +14549,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14627,7 +14630,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ64">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR64">
         <v>1.12</v>
@@ -14752,7 +14755,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14830,7 +14833,7 @@
         <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ65">
         <v>1.88</v>
@@ -14958,7 +14961,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15039,7 +15042,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR66">
         <v>1.91</v>
@@ -15448,7 +15451,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ68">
         <v>0.9399999999999999</v>
@@ -15576,7 +15579,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15863,7 +15866,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ70">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR70">
         <v>2.49</v>
@@ -15988,7 +15991,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -16272,7 +16275,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ72">
         <v>1.12</v>
@@ -16400,7 +16403,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16606,7 +16609,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -17018,7 +17021,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -17099,7 +17102,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ76">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR76">
         <v>0</v>
@@ -17302,10 +17305,10 @@
         <v>0.2</v>
       </c>
       <c r="AP77">
+        <v>1.06</v>
+      </c>
+      <c r="AQ77">
         <v>0.9399999999999999</v>
-      </c>
-      <c r="AQ77">
-        <v>1</v>
       </c>
       <c r="AR77">
         <v>0.96</v>
@@ -17430,7 +17433,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17636,7 +17639,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17920,7 +17923,7 @@
         <v>1.25</v>
       </c>
       <c r="AP80">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ80">
         <v>1.35</v>
@@ -18048,7 +18051,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -18129,7 +18132,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ81">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR81">
         <v>1.32</v>
@@ -18254,7 +18257,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -18460,7 +18463,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18666,7 +18669,7 @@
         <v>87</v>
       </c>
       <c r="P84" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18872,7 +18875,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -18950,7 +18953,7 @@
         <v>3</v>
       </c>
       <c r="AP85">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ85">
         <v>2.82</v>
@@ -19284,7 +19287,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -19696,7 +19699,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19983,7 +19986,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR90">
         <v>1.6</v>
@@ -20108,7 +20111,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -20189,7 +20192,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ91">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR91">
         <v>1.18</v>
@@ -20392,7 +20395,7 @@
         <v>1.83</v>
       </c>
       <c r="AP92">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ92">
         <v>1.88</v>
@@ -20726,7 +20729,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20804,10 +20807,10 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ94">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR94">
         <v>1.84</v>
@@ -21010,7 +21013,7 @@
         <v>0.6</v>
       </c>
       <c r="AP95">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ95">
         <v>0.9399999999999999</v>
@@ -21216,7 +21219,7 @@
         <v>0.17</v>
       </c>
       <c r="AP96">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ96">
         <v>0.24</v>
@@ -21550,7 +21553,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q98">
         <v>13</v>
@@ -21962,7 +21965,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -22168,7 +22171,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -22374,7 +22377,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22455,7 +22458,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ102">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR102">
         <v>1.61</v>
@@ -22580,7 +22583,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22864,7 +22867,7 @@
         <v>0.57</v>
       </c>
       <c r="AP104">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ104">
         <v>1.13</v>
@@ -23276,7 +23279,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ106">
         <v>0.88</v>
@@ -23404,7 +23407,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23485,7 +23488,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ107">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR107">
         <v>1.95</v>
@@ -23691,7 +23694,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ108">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR108">
         <v>0.6899999999999999</v>
@@ -23816,7 +23819,7 @@
         <v>87</v>
       </c>
       <c r="P109" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -23894,7 +23897,7 @@
         <v>2</v>
       </c>
       <c r="AP109">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ109">
         <v>1.47</v>
@@ -24103,7 +24106,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ110">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR110">
         <v>1.53</v>
@@ -24228,7 +24231,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -24434,7 +24437,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24512,7 +24515,7 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ112">
         <v>1.35</v>
@@ -24927,7 +24930,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ114">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR114">
         <v>1.72</v>
@@ -25258,7 +25261,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -25464,7 +25467,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25670,7 +25673,7 @@
         <v>87</v>
       </c>
       <c r="P118" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -25876,7 +25879,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -26082,7 +26085,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q120">
         <v>3.15</v>
@@ -26575,7 +26578,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ122">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR122">
         <v>1.45</v>
@@ -26906,7 +26909,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27112,7 +27115,7 @@
         <v>87</v>
       </c>
       <c r="P125" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q125">
         <v>3.85</v>
@@ -27190,7 +27193,7 @@
         <v>1.5</v>
       </c>
       <c r="AP125">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ125">
         <v>1.88</v>
@@ -27318,7 +27321,7 @@
         <v>110</v>
       </c>
       <c r="P126" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q126">
         <v>1.77</v>
@@ -27399,7 +27402,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ126">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR126">
         <v>1.56</v>
@@ -27730,7 +27733,7 @@
         <v>119</v>
       </c>
       <c r="P128" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27811,7 +27814,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ128">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR128">
         <v>1.28</v>
@@ -27936,7 +27939,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -28014,7 +28017,7 @@
         <v>0.5</v>
       </c>
       <c r="AP129">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ129">
         <v>1.13</v>
@@ -28348,7 +28351,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -29378,7 +29381,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -29456,10 +29459,10 @@
         <v>2</v>
       </c>
       <c r="AP136">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ136">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR136">
         <v>1.2</v>
@@ -29996,7 +29999,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q139">
         <v>5.5</v>
@@ -30077,7 +30080,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ139">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR139">
         <v>1.32</v>
@@ -30408,7 +30411,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30486,7 +30489,7 @@
         <v>0.88</v>
       </c>
       <c r="AP141">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ141">
         <v>0.88</v>
@@ -30614,7 +30617,7 @@
         <v>148</v>
       </c>
       <c r="P142" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30820,7 +30823,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -30901,7 +30904,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ143">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR143">
         <v>1.05</v>
@@ -31107,7 +31110,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ144">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR144">
         <v>1.18</v>
@@ -31438,7 +31441,7 @@
         <v>188</v>
       </c>
       <c r="P146" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31644,7 +31647,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31850,7 +31853,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q148">
         <v>8.5</v>
@@ -31928,7 +31931,7 @@
         <v>3</v>
       </c>
       <c r="AP148">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ148">
         <v>2.82</v>
@@ -32056,7 +32059,7 @@
         <v>190</v>
       </c>
       <c r="P149" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32340,10 +32343,10 @@
         <v>0.67</v>
       </c>
       <c r="AP150">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ150">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR150">
         <v>1.62</v>
@@ -32468,7 +32471,7 @@
         <v>192</v>
       </c>
       <c r="P151" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q151">
         <v>1.83</v>
@@ -32674,7 +32677,7 @@
         <v>87</v>
       </c>
       <c r="P152" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q152">
         <v>13</v>
@@ -32752,7 +32755,7 @@
         <v>3</v>
       </c>
       <c r="AP152">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ152">
         <v>2.82</v>
@@ -32880,7 +32883,7 @@
         <v>92</v>
       </c>
       <c r="P153" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -33164,10 +33167,10 @@
         <v>1.33</v>
       </c>
       <c r="AP154">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ154">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR154">
         <v>1.27</v>
@@ -33292,7 +33295,7 @@
         <v>194</v>
       </c>
       <c r="P155" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q155">
         <v>2.38</v>
@@ -33579,7 +33582,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ156">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR156">
         <v>1.72</v>
@@ -33782,7 +33785,7 @@
         <v>0.44</v>
       </c>
       <c r="AP157">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ157">
         <v>0.9399999999999999</v>
@@ -33910,7 +33913,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q158">
         <v>1.53</v>
@@ -34116,7 +34119,7 @@
         <v>87</v>
       </c>
       <c r="P159" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34322,7 +34325,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q160">
         <v>3.25</v>
@@ -34528,7 +34531,7 @@
         <v>87</v>
       </c>
       <c r="P161" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34606,7 +34609,7 @@
         <v>1.33</v>
       </c>
       <c r="AP161">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ161">
         <v>1.29</v>
@@ -35021,7 +35024,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ163">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR163">
         <v>1.69</v>
@@ -35146,7 +35149,7 @@
         <v>199</v>
       </c>
       <c r="P164" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q164">
         <v>2.1</v>
@@ -35224,7 +35227,7 @@
         <v>0.4</v>
       </c>
       <c r="AP164">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ164">
         <v>0.9399999999999999</v>
@@ -35352,7 +35355,7 @@
         <v>200</v>
       </c>
       <c r="P165" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q165">
         <v>1.8</v>
@@ -35433,7 +35436,7 @@
         <v>2</v>
       </c>
       <c r="AQ165">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR165">
         <v>1.65</v>
@@ -35636,7 +35639,7 @@
         <v>0.1</v>
       </c>
       <c r="AP166">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ166">
         <v>0.24</v>
@@ -35764,7 +35767,7 @@
         <v>97</v>
       </c>
       <c r="P167" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q167">
         <v>6.5</v>
@@ -36254,7 +36257,7 @@
         <v>2</v>
       </c>
       <c r="AP169">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ169">
         <v>1.47</v>
@@ -36382,7 +36385,7 @@
         <v>87</v>
       </c>
       <c r="P170" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -37081,7 +37084,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ173">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR173">
         <v>1.77</v>
@@ -37206,7 +37209,7 @@
         <v>87</v>
       </c>
       <c r="P174" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37284,7 +37287,7 @@
         <v>1.1</v>
       </c>
       <c r="AP174">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ174">
         <v>1.18</v>
@@ -37412,7 +37415,7 @@
         <v>87</v>
       </c>
       <c r="P175" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q175">
         <v>2.38</v>
@@ -37905,7 +37908,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ177">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR177">
         <v>1.08</v>
@@ -38030,7 +38033,7 @@
         <v>206</v>
       </c>
       <c r="P178" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38108,10 +38111,10 @@
         <v>0.64</v>
       </c>
       <c r="AP178">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ178">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR178">
         <v>1.43</v>
@@ -38442,7 +38445,7 @@
         <v>87</v>
       </c>
       <c r="P180" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q180">
         <v>13</v>
@@ -38726,10 +38729,10 @@
         <v>1.82</v>
       </c>
       <c r="AP181">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ181">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR181">
         <v>1.62</v>
@@ -38854,7 +38857,7 @@
         <v>89</v>
       </c>
       <c r="P182" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q182">
         <v>1.83</v>
@@ -39060,7 +39063,7 @@
         <v>107</v>
       </c>
       <c r="P183" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q183">
         <v>1.91</v>
@@ -39266,7 +39269,7 @@
         <v>189</v>
       </c>
       <c r="P184" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q184">
         <v>2.3</v>
@@ -39678,7 +39681,7 @@
         <v>208</v>
       </c>
       <c r="P186" t="s">
-        <v>346</v>
+        <v>262</v>
       </c>
       <c r="Q186">
         <v>2.88</v>
@@ -39884,7 +39887,7 @@
         <v>87</v>
       </c>
       <c r="P187" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q187">
         <v>4.75</v>
@@ -40090,7 +40093,7 @@
         <v>87</v>
       </c>
       <c r="P188" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q188">
         <v>2</v>
@@ -40296,7 +40299,7 @@
         <v>209</v>
       </c>
       <c r="P189" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q189">
         <v>1.73</v>
@@ -40377,7 +40380,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ189">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR189">
         <v>2.16</v>
@@ -40786,7 +40789,7 @@
         <v>1.27</v>
       </c>
       <c r="AP191">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ191">
         <v>1.35</v>
@@ -40992,7 +40995,7 @@
         <v>1.36</v>
       </c>
       <c r="AP192">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ192">
         <v>1.29</v>
@@ -41326,7 +41329,7 @@
         <v>212</v>
       </c>
       <c r="P194" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q194">
         <v>9.4</v>
@@ -41613,7 +41616,7 @@
         <v>2</v>
       </c>
       <c r="AQ195">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR195">
         <v>1.71</v>
@@ -41738,7 +41741,7 @@
         <v>214</v>
       </c>
       <c r="P196" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q196">
         <v>3.85</v>
@@ -41944,7 +41947,7 @@
         <v>173</v>
       </c>
       <c r="P197" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q197">
         <v>3.25</v>
@@ -42022,7 +42025,7 @@
         <v>1.67</v>
       </c>
       <c r="AP197">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ197">
         <v>1.47</v>
@@ -42434,7 +42437,7 @@
         <v>1.25</v>
       </c>
       <c r="AP199">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ199">
         <v>1.18</v>
@@ -42974,7 +42977,7 @@
         <v>119</v>
       </c>
       <c r="P202" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q202">
         <v>7</v>
@@ -43055,7 +43058,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ202">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR202">
         <v>1.22</v>
@@ -43386,7 +43389,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q204">
         <v>1.85</v>
@@ -43467,7 +43470,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ204">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR204">
         <v>1.77</v>
@@ -43592,7 +43595,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>346</v>
+        <v>262</v>
       </c>
       <c r="Q205">
         <v>5.5</v>
@@ -43670,7 +43673,7 @@
         <v>1.25</v>
       </c>
       <c r="AP205">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ205">
         <v>1.29</v>
@@ -43876,7 +43879,7 @@
         <v>1.08</v>
       </c>
       <c r="AP206">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ206">
         <v>0.88</v>
@@ -44004,7 +44007,7 @@
         <v>152</v>
       </c>
       <c r="P207" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -44085,7 +44088,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ207">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR207">
         <v>1.13</v>
@@ -45034,7 +45037,7 @@
         <v>87</v>
       </c>
       <c r="P212" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q212">
         <v>9.5</v>
@@ -45240,7 +45243,7 @@
         <v>225</v>
       </c>
       <c r="P213" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q213">
         <v>1.8</v>
@@ -45446,7 +45449,7 @@
         <v>226</v>
       </c>
       <c r="P214" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q214">
         <v>2.63</v>
@@ -45524,7 +45527,7 @@
         <v>1.15</v>
       </c>
       <c r="AP214">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ214">
         <v>1.29</v>
@@ -45730,10 +45733,10 @@
         <v>1.54</v>
       </c>
       <c r="AP215">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ215">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR215">
         <v>1.47</v>
@@ -46064,7 +46067,7 @@
         <v>189</v>
       </c>
       <c r="P217" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -46145,7 +46148,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ217">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR217">
         <v>1.61</v>
@@ -46270,7 +46273,7 @@
         <v>229</v>
       </c>
       <c r="P218" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q218">
         <v>4.33</v>
@@ -46348,7 +46351,7 @@
         <v>1.38</v>
       </c>
       <c r="AP218">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ218">
         <v>1.12</v>
@@ -46476,7 +46479,7 @@
         <v>230</v>
       </c>
       <c r="P219" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q219">
         <v>6</v>
@@ -46682,7 +46685,7 @@
         <v>231</v>
       </c>
       <c r="P220" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q220">
         <v>2.1</v>
@@ -46969,7 +46972,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ221">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR221">
         <v>2.2</v>
@@ -47094,7 +47097,7 @@
         <v>233</v>
       </c>
       <c r="P222" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q222">
         <v>4.5</v>
@@ -47300,7 +47303,7 @@
         <v>87</v>
       </c>
       <c r="P223" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q223">
         <v>3.5</v>
@@ -47381,7 +47384,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ223">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR223">
         <v>1.65</v>
@@ -47712,7 +47715,7 @@
         <v>234</v>
       </c>
       <c r="P225" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q225">
         <v>2.6</v>
@@ -47790,10 +47793,10 @@
         <v>1.38</v>
       </c>
       <c r="AP225">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ225">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR225">
         <v>1.67</v>
@@ -47996,7 +47999,7 @@
         <v>1.07</v>
       </c>
       <c r="AP226">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ226">
         <v>1.18</v>
@@ -48124,7 +48127,7 @@
         <v>235</v>
       </c>
       <c r="P227" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q227">
         <v>2.6</v>
@@ -48536,7 +48539,7 @@
         <v>236</v>
       </c>
       <c r="P229" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q229">
         <v>8</v>
@@ -49235,7 +49238,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ232">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR232">
         <v>1.19</v>
@@ -49360,7 +49363,7 @@
         <v>182</v>
       </c>
       <c r="P233" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49647,7 +49650,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ234">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR234">
         <v>1.19</v>
@@ -49772,7 +49775,7 @@
         <v>87</v>
       </c>
       <c r="P235" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q235">
         <v>3.24</v>
@@ -49850,10 +49853,10 @@
         <v>2.14</v>
       </c>
       <c r="AP235">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ235">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR235">
         <v>1.59</v>
@@ -49978,7 +49981,7 @@
         <v>239</v>
       </c>
       <c r="P236" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q236">
         <v>1.43</v>
@@ -50262,7 +50265,7 @@
         <v>0.93</v>
       </c>
       <c r="AP237">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ237">
         <v>0.88</v>
@@ -50471,7 +50474,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ238">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR238">
         <v>1.92</v>
@@ -50596,7 +50599,7 @@
         <v>226</v>
       </c>
       <c r="P239" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -50802,7 +50805,7 @@
         <v>241</v>
       </c>
       <c r="P240" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q240">
         <v>2.6</v>
@@ -50880,7 +50883,7 @@
         <v>0.71</v>
       </c>
       <c r="AP240">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ240">
         <v>0.88</v>
@@ -51008,7 +51011,7 @@
         <v>87</v>
       </c>
       <c r="P241" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -51501,7 +51504,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ243">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR243">
         <v>2.26</v>
@@ -51626,7 +51629,7 @@
         <v>244</v>
       </c>
       <c r="P244" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q244">
         <v>2.1</v>
@@ -51832,7 +51835,7 @@
         <v>240</v>
       </c>
       <c r="P245" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q245">
         <v>2.2</v>
@@ -52038,7 +52041,7 @@
         <v>245</v>
       </c>
       <c r="P246" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q246">
         <v>0</v>
@@ -52119,7 +52122,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ246">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR246">
         <v>1.7</v>
@@ -52244,7 +52247,7 @@
         <v>246</v>
       </c>
       <c r="P247" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q247">
         <v>2.3</v>
@@ -52322,10 +52325,10 @@
         <v>0.87</v>
       </c>
       <c r="AP247">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ247">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR247">
         <v>1.48</v>
@@ -52450,7 +52453,7 @@
         <v>87</v>
       </c>
       <c r="P248" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q248">
         <v>2.6</v>
@@ -53149,7 +53152,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ251">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR251">
         <v>1.24</v>
@@ -53352,7 +53355,7 @@
         <v>1.73</v>
       </c>
       <c r="AP252">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ252">
         <v>1.88</v>
@@ -53686,7 +53689,7 @@
         <v>250</v>
       </c>
       <c r="P254" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q254">
         <v>1.95</v>
@@ -53892,7 +53895,7 @@
         <v>251</v>
       </c>
       <c r="P255" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q255">
         <v>5.5</v>
@@ -53970,7 +53973,7 @@
         <v>3</v>
       </c>
       <c r="AP255">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ255">
         <v>2.82</v>
@@ -54382,7 +54385,7 @@
         <v>1.33</v>
       </c>
       <c r="AP257">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ257">
         <v>1.35</v>
@@ -54510,7 +54513,7 @@
         <v>254</v>
       </c>
       <c r="P258" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q258">
         <v>1.95</v>
@@ -54588,7 +54591,7 @@
         <v>1.06</v>
       </c>
       <c r="AP258">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ258">
         <v>0.9399999999999999</v>
@@ -54716,7 +54719,7 @@
         <v>255</v>
       </c>
       <c r="P259" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q259">
         <v>1.57</v>
@@ -54922,7 +54925,7 @@
         <v>256</v>
       </c>
       <c r="P260" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q260">
         <v>2.3</v>
@@ -55128,7 +55131,7 @@
         <v>87</v>
       </c>
       <c r="P261" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q261">
         <v>2.6</v>
@@ -55621,7 +55624,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ263">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR263">
         <v>1.66</v>
@@ -55952,7 +55955,7 @@
         <v>258</v>
       </c>
       <c r="P265" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q265">
         <v>2.75</v>
@@ -56158,7 +56161,7 @@
         <v>259</v>
       </c>
       <c r="P266" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q266">
         <v>3</v>
@@ -56570,7 +56573,7 @@
         <v>235</v>
       </c>
       <c r="P268" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q268">
         <v>5</v>
@@ -56933,6 +56936,830 @@
       </c>
       <c r="BP269">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="270" spans="1:68">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>7881241</v>
+      </c>
+      <c r="C270" t="s">
+        <v>68</v>
+      </c>
+      <c r="D270" t="s">
+        <v>69</v>
+      </c>
+      <c r="E270" s="2">
+        <v>45781.41666666666</v>
+      </c>
+      <c r="F270">
+        <v>4</v>
+      </c>
+      <c r="G270" t="s">
+        <v>84</v>
+      </c>
+      <c r="H270" t="s">
+        <v>79</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>0</v>
+      </c>
+      <c r="L270">
+        <v>0</v>
+      </c>
+      <c r="M270">
+        <v>1</v>
+      </c>
+      <c r="N270">
+        <v>1</v>
+      </c>
+      <c r="O270" t="s">
+        <v>87</v>
+      </c>
+      <c r="P270" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q270">
+        <v>2.71</v>
+      </c>
+      <c r="R270">
+        <v>2.08</v>
+      </c>
+      <c r="S270">
+        <v>3.92</v>
+      </c>
+      <c r="T270">
+        <v>1.36</v>
+      </c>
+      <c r="U270">
+        <v>3</v>
+      </c>
+      <c r="V270">
+        <v>2.75</v>
+      </c>
+      <c r="W270">
+        <v>1.4</v>
+      </c>
+      <c r="X270">
+        <v>6.5</v>
+      </c>
+      <c r="Y270">
+        <v>1.1</v>
+      </c>
+      <c r="Z270">
+        <v>2.25</v>
+      </c>
+      <c r="AA270">
+        <v>3.16</v>
+      </c>
+      <c r="AB270">
+        <v>2.8</v>
+      </c>
+      <c r="AC270">
+        <v>1.05</v>
+      </c>
+      <c r="AD270">
+        <v>9</v>
+      </c>
+      <c r="AE270">
+        <v>1.29</v>
+      </c>
+      <c r="AF270">
+        <v>3.5</v>
+      </c>
+      <c r="AG270">
+        <v>1.85</v>
+      </c>
+      <c r="AH270">
+        <v>1.85</v>
+      </c>
+      <c r="AI270">
+        <v>1.73</v>
+      </c>
+      <c r="AJ270">
+        <v>2</v>
+      </c>
+      <c r="AK270">
+        <v>1.3</v>
+      </c>
+      <c r="AL270">
+        <v>1.28</v>
+      </c>
+      <c r="AM270">
+        <v>1.62</v>
+      </c>
+      <c r="AN270">
+        <v>1.35</v>
+      </c>
+      <c r="AO270">
+        <v>1.31</v>
+      </c>
+      <c r="AP270">
+        <v>1.28</v>
+      </c>
+      <c r="AQ270">
+        <v>1.41</v>
+      </c>
+      <c r="AR270">
+        <v>1.53</v>
+      </c>
+      <c r="AS270">
+        <v>1.18</v>
+      </c>
+      <c r="AT270">
+        <v>2.71</v>
+      </c>
+      <c r="AU270">
+        <v>5</v>
+      </c>
+      <c r="AV270">
+        <v>3</v>
+      </c>
+      <c r="AW270">
+        <v>9</v>
+      </c>
+      <c r="AX270">
+        <v>7</v>
+      </c>
+      <c r="AY270">
+        <v>14</v>
+      </c>
+      <c r="AZ270">
+        <v>10</v>
+      </c>
+      <c r="BA270">
+        <v>4</v>
+      </c>
+      <c r="BB270">
+        <v>5</v>
+      </c>
+      <c r="BC270">
+        <v>9</v>
+      </c>
+      <c r="BD270">
+        <v>1.69</v>
+      </c>
+      <c r="BE270">
+        <v>8</v>
+      </c>
+      <c r="BF270">
+        <v>2.65</v>
+      </c>
+      <c r="BG270">
+        <v>1.43</v>
+      </c>
+      <c r="BH270">
+        <v>2.62</v>
+      </c>
+      <c r="BI270">
+        <v>1.73</v>
+      </c>
+      <c r="BJ270">
+        <v>2.03</v>
+      </c>
+      <c r="BK270">
+        <v>2.19</v>
+      </c>
+      <c r="BL270">
+        <v>1.63</v>
+      </c>
+      <c r="BM270">
+        <v>2.8</v>
+      </c>
+      <c r="BN270">
+        <v>1.38</v>
+      </c>
+      <c r="BO270">
+        <v>3.78</v>
+      </c>
+      <c r="BP270">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="271" spans="1:68">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>7881242</v>
+      </c>
+      <c r="C271" t="s">
+        <v>68</v>
+      </c>
+      <c r="D271" t="s">
+        <v>69</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45781.47916666666</v>
+      </c>
+      <c r="F271">
+        <v>4</v>
+      </c>
+      <c r="G271" t="s">
+        <v>78</v>
+      </c>
+      <c r="H271" t="s">
+        <v>81</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <v>1</v>
+      </c>
+      <c r="M271">
+        <v>0</v>
+      </c>
+      <c r="N271">
+        <v>1</v>
+      </c>
+      <c r="O271" t="s">
+        <v>161</v>
+      </c>
+      <c r="P271" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q271">
+        <v>4.33</v>
+      </c>
+      <c r="R271">
+        <v>2.1</v>
+      </c>
+      <c r="S271">
+        <v>2.5</v>
+      </c>
+      <c r="T271">
+        <v>1.4</v>
+      </c>
+      <c r="U271">
+        <v>2.75</v>
+      </c>
+      <c r="V271">
+        <v>2.75</v>
+      </c>
+      <c r="W271">
+        <v>1.4</v>
+      </c>
+      <c r="X271">
+        <v>7</v>
+      </c>
+      <c r="Y271">
+        <v>1.08</v>
+      </c>
+      <c r="Z271">
+        <v>3.81</v>
+      </c>
+      <c r="AA271">
+        <v>3.23</v>
+      </c>
+      <c r="AB271">
+        <v>1.82</v>
+      </c>
+      <c r="AC271">
+        <v>1.06</v>
+      </c>
+      <c r="AD271">
+        <v>8.5</v>
+      </c>
+      <c r="AE271">
+        <v>1.3</v>
+      </c>
+      <c r="AF271">
+        <v>3.4</v>
+      </c>
+      <c r="AG271">
+        <v>1.94</v>
+      </c>
+      <c r="AH271">
+        <v>1.76</v>
+      </c>
+      <c r="AI271">
+        <v>1.83</v>
+      </c>
+      <c r="AJ271">
+        <v>1.83</v>
+      </c>
+      <c r="AK271">
+        <v>1.85</v>
+      </c>
+      <c r="AL271">
+        <v>1.27</v>
+      </c>
+      <c r="AM271">
+        <v>1.18</v>
+      </c>
+      <c r="AN271">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO271">
+        <v>1</v>
+      </c>
+      <c r="AP271">
+        <v>1.06</v>
+      </c>
+      <c r="AQ271">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR271">
+        <v>1.34</v>
+      </c>
+      <c r="AS271">
+        <v>1.33</v>
+      </c>
+      <c r="AT271">
+        <v>2.67</v>
+      </c>
+      <c r="AU271">
+        <v>8</v>
+      </c>
+      <c r="AV271">
+        <v>4</v>
+      </c>
+      <c r="AW271">
+        <v>4</v>
+      </c>
+      <c r="AX271">
+        <v>6</v>
+      </c>
+      <c r="AY271">
+        <v>12</v>
+      </c>
+      <c r="AZ271">
+        <v>10</v>
+      </c>
+      <c r="BA271">
+        <v>8</v>
+      </c>
+      <c r="BB271">
+        <v>3</v>
+      </c>
+      <c r="BC271">
+        <v>11</v>
+      </c>
+      <c r="BD271">
+        <v>2.65</v>
+      </c>
+      <c r="BE271">
+        <v>8</v>
+      </c>
+      <c r="BF271">
+        <v>1.69</v>
+      </c>
+      <c r="BG271">
+        <v>1.43</v>
+      </c>
+      <c r="BH271">
+        <v>2.62</v>
+      </c>
+      <c r="BI271">
+        <v>1.73</v>
+      </c>
+      <c r="BJ271">
+        <v>2.03</v>
+      </c>
+      <c r="BK271">
+        <v>2.19</v>
+      </c>
+      <c r="BL271">
+        <v>1.63</v>
+      </c>
+      <c r="BM271">
+        <v>2.8</v>
+      </c>
+      <c r="BN271">
+        <v>1.38</v>
+      </c>
+      <c r="BO271">
+        <v>3.78</v>
+      </c>
+      <c r="BP271">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="272" spans="1:68">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>7881237</v>
+      </c>
+      <c r="C272" t="s">
+        <v>68</v>
+      </c>
+      <c r="D272" t="s">
+        <v>69</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45781.5</v>
+      </c>
+      <c r="F272">
+        <v>4</v>
+      </c>
+      <c r="G272" t="s">
+        <v>75</v>
+      </c>
+      <c r="H272" t="s">
+        <v>83</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>1</v>
+      </c>
+      <c r="L272">
+        <v>2</v>
+      </c>
+      <c r="M272">
+        <v>1</v>
+      </c>
+      <c r="N272">
+        <v>3</v>
+      </c>
+      <c r="O272" t="s">
+        <v>261</v>
+      </c>
+      <c r="P272" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q272">
+        <v>3.75</v>
+      </c>
+      <c r="R272">
+        <v>2.25</v>
+      </c>
+      <c r="S272">
+        <v>2.5</v>
+      </c>
+      <c r="T272">
+        <v>1.33</v>
+      </c>
+      <c r="U272">
+        <v>3.25</v>
+      </c>
+      <c r="V272">
+        <v>2.5</v>
+      </c>
+      <c r="W272">
+        <v>1.5</v>
+      </c>
+      <c r="X272">
+        <v>5.5</v>
+      </c>
+      <c r="Y272">
+        <v>1.13</v>
+      </c>
+      <c r="Z272">
+        <v>3.2</v>
+      </c>
+      <c r="AA272">
+        <v>3.4</v>
+      </c>
+      <c r="AB272">
+        <v>2.05</v>
+      </c>
+      <c r="AC272">
+        <v>1.04</v>
+      </c>
+      <c r="AD272">
+        <v>11</v>
+      </c>
+      <c r="AE272">
+        <v>1.2</v>
+      </c>
+      <c r="AF272">
+        <v>4.33</v>
+      </c>
+      <c r="AG272">
+        <v>1.67</v>
+      </c>
+      <c r="AH272">
+        <v>2</v>
+      </c>
+      <c r="AI272">
+        <v>1.62</v>
+      </c>
+      <c r="AJ272">
+        <v>2.2</v>
+      </c>
+      <c r="AK272">
+        <v>1.71</v>
+      </c>
+      <c r="AL272">
+        <v>1.27</v>
+      </c>
+      <c r="AM272">
+        <v>1.26</v>
+      </c>
+      <c r="AN272">
+        <v>1.5</v>
+      </c>
+      <c r="AO272">
+        <v>2.06</v>
+      </c>
+      <c r="AP272">
+        <v>1.59</v>
+      </c>
+      <c r="AQ272">
+        <v>1.94</v>
+      </c>
+      <c r="AR272">
+        <v>1.76</v>
+      </c>
+      <c r="AS272">
+        <v>1.25</v>
+      </c>
+      <c r="AT272">
+        <v>3.01</v>
+      </c>
+      <c r="AU272">
+        <v>4</v>
+      </c>
+      <c r="AV272">
+        <v>8</v>
+      </c>
+      <c r="AW272">
+        <v>9</v>
+      </c>
+      <c r="AX272">
+        <v>3</v>
+      </c>
+      <c r="AY272">
+        <v>13</v>
+      </c>
+      <c r="AZ272">
+        <v>11</v>
+      </c>
+      <c r="BA272">
+        <v>3</v>
+      </c>
+      <c r="BB272">
+        <v>2</v>
+      </c>
+      <c r="BC272">
+        <v>5</v>
+      </c>
+      <c r="BD272">
+        <v>2.05</v>
+      </c>
+      <c r="BE272">
+        <v>7.5</v>
+      </c>
+      <c r="BF272">
+        <v>2</v>
+      </c>
+      <c r="BG272">
+        <v>1.4</v>
+      </c>
+      <c r="BH272">
+        <v>2.75</v>
+      </c>
+      <c r="BI272">
+        <v>1.68</v>
+      </c>
+      <c r="BJ272">
+        <v>2.11</v>
+      </c>
+      <c r="BK272">
+        <v>2.1</v>
+      </c>
+      <c r="BL272">
+        <v>1.68</v>
+      </c>
+      <c r="BM272">
+        <v>2.67</v>
+      </c>
+      <c r="BN272">
+        <v>1.42</v>
+      </c>
+      <c r="BO272">
+        <v>3.58</v>
+      </c>
+      <c r="BP272">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="273" spans="1:68">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>7881238</v>
+      </c>
+      <c r="C273" t="s">
+        <v>68</v>
+      </c>
+      <c r="D273" t="s">
+        <v>69</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45781.625</v>
+      </c>
+      <c r="F273">
+        <v>4</v>
+      </c>
+      <c r="G273" t="s">
+        <v>70</v>
+      </c>
+      <c r="H273" t="s">
+        <v>73</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>0</v>
+      </c>
+      <c r="L273">
+        <v>1</v>
+      </c>
+      <c r="M273">
+        <v>1</v>
+      </c>
+      <c r="N273">
+        <v>2</v>
+      </c>
+      <c r="O273" t="s">
+        <v>262</v>
+      </c>
+      <c r="P273" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q273">
+        <v>0</v>
+      </c>
+      <c r="R273">
+        <v>0</v>
+      </c>
+      <c r="S273">
+        <v>0</v>
+      </c>
+      <c r="T273">
+        <v>0</v>
+      </c>
+      <c r="U273">
+        <v>0</v>
+      </c>
+      <c r="V273">
+        <v>0</v>
+      </c>
+      <c r="W273">
+        <v>0</v>
+      </c>
+      <c r="X273">
+        <v>0</v>
+      </c>
+      <c r="Y273">
+        <v>0</v>
+      </c>
+      <c r="Z273">
+        <v>1.54</v>
+      </c>
+      <c r="AA273">
+        <v>3.95</v>
+      </c>
+      <c r="AB273">
+        <v>4.6</v>
+      </c>
+      <c r="AC273">
+        <v>0</v>
+      </c>
+      <c r="AD273">
+        <v>0</v>
+      </c>
+      <c r="AE273">
+        <v>0</v>
+      </c>
+      <c r="AF273">
+        <v>0</v>
+      </c>
+      <c r="AG273">
+        <v>1.76</v>
+      </c>
+      <c r="AH273">
+        <v>1.94</v>
+      </c>
+      <c r="AI273">
+        <v>0</v>
+      </c>
+      <c r="AJ273">
+        <v>0</v>
+      </c>
+      <c r="AK273">
+        <v>0</v>
+      </c>
+      <c r="AL273">
+        <v>0</v>
+      </c>
+      <c r="AM273">
+        <v>0</v>
+      </c>
+      <c r="AN273">
+        <v>1.81</v>
+      </c>
+      <c r="AO273">
+        <v>1.31</v>
+      </c>
+      <c r="AP273">
+        <v>1.76</v>
+      </c>
+      <c r="AQ273">
+        <v>1.29</v>
+      </c>
+      <c r="AR273">
+        <v>1.65</v>
+      </c>
+      <c r="AS273">
+        <v>0.76</v>
+      </c>
+      <c r="AT273">
+        <v>2.41</v>
+      </c>
+      <c r="AU273">
+        <v>-1</v>
+      </c>
+      <c r="AV273">
+        <v>-1</v>
+      </c>
+      <c r="AW273">
+        <v>-1</v>
+      </c>
+      <c r="AX273">
+        <v>-1</v>
+      </c>
+      <c r="AY273">
+        <v>-1</v>
+      </c>
+      <c r="AZ273">
+        <v>-1</v>
+      </c>
+      <c r="BA273">
+        <v>-1</v>
+      </c>
+      <c r="BB273">
+        <v>-1</v>
+      </c>
+      <c r="BC273">
+        <v>-1</v>
+      </c>
+      <c r="BD273">
+        <v>0</v>
+      </c>
+      <c r="BE273">
+        <v>0</v>
+      </c>
+      <c r="BF273">
+        <v>0</v>
+      </c>
+      <c r="BG273">
+        <v>0</v>
+      </c>
+      <c r="BH273">
+        <v>0</v>
+      </c>
+      <c r="BI273">
+        <v>0</v>
+      </c>
+      <c r="BJ273">
+        <v>0</v>
+      </c>
+      <c r="BK273">
+        <v>0</v>
+      </c>
+      <c r="BL273">
+        <v>0</v>
+      </c>
+      <c r="BM273">
+        <v>0</v>
+      </c>
+      <c r="BN273">
+        <v>0</v>
+      </c>
+      <c r="BO273">
+        <v>0</v>
+      </c>
+      <c r="BP273">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
@@ -57696,31 +57696,31 @@
         <v>2.41</v>
       </c>
       <c r="AU273">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV273">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW273">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AX273">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY273">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="AZ273">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA273">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BB273">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BC273">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD273">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="385">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -805,6 +805,12 @@
     <t>['68']</t>
   </si>
   <si>
+    <t>['3', '62']</t>
+  </si>
+  <si>
+    <t>['17', '78']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -1157,6 +1163,12 @@
   </si>
   <si>
     <t>['76', '90+2']</t>
+  </si>
+  <si>
+    <t>['21', '61', '73']</t>
+  </si>
+  <si>
+    <t>['42', '45', '52']</t>
   </si>
 </sst>
 </file>
@@ -1518,7 +1530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP273"/>
+  <dimension ref="A1:BP275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1777,7 +1789,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1855,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ2">
         <v>1.41</v>
@@ -2270,7 +2282,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ4">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2395,7 +2407,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2807,7 +2819,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3013,7 +3025,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -3091,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
         <v>1.88</v>
@@ -3425,7 +3437,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3631,7 +3643,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3837,7 +3849,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -5154,7 +5166,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ18">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5279,7 +5291,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5357,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>2.82</v>
@@ -6181,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ23">
         <v>0.88</v>
@@ -6309,7 +6321,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -7008,7 +7020,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ27">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR27">
         <v>2.33</v>
@@ -7133,7 +7145,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -7751,7 +7763,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7957,7 +7969,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -8653,10 +8665,10 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="AR35">
         <v>1.01</v>
@@ -9193,7 +9205,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9271,7 +9283,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ38">
         <v>1.88</v>
@@ -9605,7 +9617,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9683,10 +9695,10 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR40">
         <v>1.05</v>
@@ -10017,7 +10029,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10223,7 +10235,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10429,7 +10441,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10635,7 +10647,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -11128,7 +11140,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ47">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="AR47">
         <v>1.89</v>
@@ -11459,7 +11471,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11665,7 +11677,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11949,7 +11961,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ51">
         <v>2.82</v>
@@ -13107,7 +13119,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -13313,7 +13325,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -13391,7 +13403,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
         <v>1.29</v>
@@ -13519,7 +13531,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13725,7 +13737,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13931,7 +13943,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -14218,7 +14230,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ62">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="AR62">
         <v>1.13</v>
@@ -14343,7 +14355,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14424,7 +14436,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ63">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR63">
         <v>1.81</v>
@@ -14549,7 +14561,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14755,7 +14767,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14961,7 +14973,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15451,7 +15463,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ68">
         <v>0.9399999999999999</v>
@@ -15579,7 +15591,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15991,7 +16003,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -16403,7 +16415,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16609,7 +16621,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16893,7 +16905,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ75">
         <v>0.88</v>
@@ -17021,7 +17033,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -17433,7 +17445,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17514,7 +17526,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ78">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR78">
         <v>1.57</v>
@@ -17639,7 +17651,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17923,7 +17935,7 @@
         <v>1.25</v>
       </c>
       <c r="AP80">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ80">
         <v>1.35</v>
@@ -18051,7 +18063,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -18257,7 +18269,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -18463,7 +18475,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18544,7 +18556,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ83">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR83">
         <v>1.12</v>
@@ -18669,7 +18681,7 @@
         <v>87</v>
       </c>
       <c r="P84" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18875,7 +18887,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -19162,7 +19174,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ86">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="AR86">
         <v>1.93</v>
@@ -19287,7 +19299,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -19699,7 +19711,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -20111,7 +20123,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -20189,7 +20201,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ91">
         <v>1.41</v>
@@ -20729,7 +20741,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -21219,10 +21231,10 @@
         <v>0.17</v>
       </c>
       <c r="AP96">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ96">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="AR96">
         <v>1.54</v>
@@ -21553,7 +21565,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q98">
         <v>13</v>
@@ -21840,7 +21852,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ99">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR99">
         <v>1.32</v>
@@ -21965,7 +21977,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -22171,7 +22183,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -22377,7 +22389,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22583,7 +22595,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22661,7 +22673,7 @@
         <v>0.67</v>
       </c>
       <c r="AP103">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ103">
         <v>0.88</v>
@@ -23279,7 +23291,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ106">
         <v>0.88</v>
@@ -23407,7 +23419,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23819,7 +23831,7 @@
         <v>87</v>
       </c>
       <c r="P109" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -24231,7 +24243,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -24312,7 +24324,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ111">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR111">
         <v>1.71</v>
@@ -24437,7 +24449,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -25136,7 +25148,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ115">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="AR115">
         <v>1.12</v>
@@ -25261,7 +25273,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -25467,7 +25479,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25673,7 +25685,7 @@
         <v>87</v>
       </c>
       <c r="P118" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -25879,7 +25891,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -26085,7 +26097,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q120">
         <v>3.15</v>
@@ -26166,7 +26178,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ120">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR120">
         <v>1.05</v>
@@ -26909,7 +26921,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27115,7 +27127,7 @@
         <v>87</v>
       </c>
       <c r="P125" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q125">
         <v>3.85</v>
@@ -27321,7 +27333,7 @@
         <v>110</v>
       </c>
       <c r="P126" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q126">
         <v>1.77</v>
@@ -27605,7 +27617,7 @@
         <v>2.13</v>
       </c>
       <c r="AP127">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ127">
         <v>1.47</v>
@@ -27733,7 +27745,7 @@
         <v>119</v>
       </c>
       <c r="P128" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27939,7 +27951,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -28017,7 +28029,7 @@
         <v>0.5</v>
       </c>
       <c r="AP129">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ129">
         <v>1.13</v>
@@ -28226,7 +28238,7 @@
         <v>2</v>
       </c>
       <c r="AQ130">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="AR130">
         <v>1.5</v>
@@ -28351,7 +28363,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -29381,7 +29393,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -29999,7 +30011,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q139">
         <v>5.5</v>
@@ -30286,7 +30298,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ140">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR140">
         <v>1.53</v>
@@ -30411,7 +30423,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30617,7 +30629,7 @@
         <v>148</v>
       </c>
       <c r="P142" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30823,7 +30835,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -31107,7 +31119,7 @@
         <v>2.11</v>
       </c>
       <c r="AP144">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ144">
         <v>1.29</v>
@@ -31316,7 +31328,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ145">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="AR145">
         <v>1.37</v>
@@ -31441,7 +31453,7 @@
         <v>188</v>
       </c>
       <c r="P146" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31647,7 +31659,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31853,7 +31865,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q148">
         <v>8.5</v>
@@ -32059,7 +32071,7 @@
         <v>190</v>
       </c>
       <c r="P149" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32343,7 +32355,7 @@
         <v>0.67</v>
       </c>
       <c r="AP150">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ150">
         <v>0.9399999999999999</v>
@@ -32471,7 +32483,7 @@
         <v>192</v>
       </c>
       <c r="P151" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q151">
         <v>1.83</v>
@@ -32677,7 +32689,7 @@
         <v>87</v>
       </c>
       <c r="P152" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q152">
         <v>13</v>
@@ -32883,7 +32895,7 @@
         <v>92</v>
       </c>
       <c r="P153" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -32964,7 +32976,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ153">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR153">
         <v>1.01</v>
@@ -33295,7 +33307,7 @@
         <v>194</v>
       </c>
       <c r="P155" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q155">
         <v>2.38</v>
@@ -33913,7 +33925,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q158">
         <v>1.53</v>
@@ -34119,7 +34131,7 @@
         <v>87</v>
       </c>
       <c r="P159" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34325,7 +34337,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q160">
         <v>3.25</v>
@@ -34531,7 +34543,7 @@
         <v>87</v>
       </c>
       <c r="P161" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -35149,7 +35161,7 @@
         <v>199</v>
       </c>
       <c r="P164" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q164">
         <v>2.1</v>
@@ -35355,7 +35367,7 @@
         <v>200</v>
       </c>
       <c r="P165" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q165">
         <v>1.8</v>
@@ -35642,7 +35654,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ166">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="AR166">
         <v>1.38</v>
@@ -35767,7 +35779,7 @@
         <v>97</v>
       </c>
       <c r="P167" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q167">
         <v>6.5</v>
@@ -36257,7 +36269,7 @@
         <v>2</v>
       </c>
       <c r="AP169">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ169">
         <v>1.47</v>
@@ -36385,7 +36397,7 @@
         <v>87</v>
       </c>
       <c r="P170" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -36463,7 +36475,7 @@
         <v>1.1</v>
       </c>
       <c r="AP170">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ170">
         <v>1.35</v>
@@ -37209,7 +37221,7 @@
         <v>87</v>
       </c>
       <c r="P174" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37290,7 +37302,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ174">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR174">
         <v>1.18</v>
@@ -37415,7 +37427,7 @@
         <v>87</v>
       </c>
       <c r="P175" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q175">
         <v>2.38</v>
@@ -38033,7 +38045,7 @@
         <v>206</v>
       </c>
       <c r="P178" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38445,7 +38457,7 @@
         <v>87</v>
       </c>
       <c r="P180" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q180">
         <v>13</v>
@@ -38729,7 +38741,7 @@
         <v>1.82</v>
       </c>
       <c r="AP181">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ181">
         <v>1.29</v>
@@ -38857,7 +38869,7 @@
         <v>89</v>
       </c>
       <c r="P182" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q182">
         <v>1.83</v>
@@ -38938,7 +38950,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ182">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="AR182">
         <v>1.76</v>
@@ -39063,7 +39075,7 @@
         <v>107</v>
       </c>
       <c r="P183" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q183">
         <v>1.91</v>
@@ -39269,7 +39281,7 @@
         <v>189</v>
       </c>
       <c r="P184" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q184">
         <v>2.3</v>
@@ -39350,7 +39362,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ184">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR184">
         <v>1.73</v>
@@ -39887,7 +39899,7 @@
         <v>87</v>
       </c>
       <c r="P187" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q187">
         <v>4.75</v>
@@ -39965,7 +39977,7 @@
         <v>1.27</v>
       </c>
       <c r="AP187">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ187">
         <v>1.12</v>
@@ -40093,7 +40105,7 @@
         <v>87</v>
       </c>
       <c r="P188" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q188">
         <v>2</v>
@@ -40299,7 +40311,7 @@
         <v>209</v>
       </c>
       <c r="P189" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q189">
         <v>1.73</v>
@@ -41204,7 +41216,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ193">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="AR193">
         <v>1.1</v>
@@ -41329,7 +41341,7 @@
         <v>212</v>
       </c>
       <c r="P194" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q194">
         <v>9.4</v>
@@ -41741,7 +41753,7 @@
         <v>214</v>
       </c>
       <c r="P196" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q196">
         <v>3.85</v>
@@ -41947,7 +41959,7 @@
         <v>173</v>
       </c>
       <c r="P197" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q197">
         <v>3.25</v>
@@ -42437,10 +42449,10 @@
         <v>1.25</v>
       </c>
       <c r="AP199">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ199">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR199">
         <v>1.64</v>
@@ -42977,7 +42989,7 @@
         <v>119</v>
       </c>
       <c r="P202" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q202">
         <v>7</v>
@@ -43055,7 +43067,7 @@
         <v>2</v>
       </c>
       <c r="AP202">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ202">
         <v>1.94</v>
@@ -43389,7 +43401,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q204">
         <v>1.85</v>
@@ -44007,7 +44019,7 @@
         <v>152</v>
       </c>
       <c r="P207" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -45037,7 +45049,7 @@
         <v>87</v>
       </c>
       <c r="P212" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q212">
         <v>9.5</v>
@@ -45243,7 +45255,7 @@
         <v>225</v>
       </c>
       <c r="P213" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q213">
         <v>1.8</v>
@@ -45324,7 +45336,7 @@
         <v>2</v>
       </c>
       <c r="AQ213">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR213">
         <v>1.85</v>
@@ -45449,7 +45461,7 @@
         <v>226</v>
       </c>
       <c r="P214" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q214">
         <v>2.63</v>
@@ -45527,7 +45539,7 @@
         <v>1.15</v>
       </c>
       <c r="AP214">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ214">
         <v>1.29</v>
@@ -45942,7 +45954,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ216">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="AR216">
         <v>1.76</v>
@@ -46067,7 +46079,7 @@
         <v>189</v>
       </c>
       <c r="P217" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -46273,7 +46285,7 @@
         <v>229</v>
       </c>
       <c r="P218" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q218">
         <v>4.33</v>
@@ -46479,7 +46491,7 @@
         <v>230</v>
       </c>
       <c r="P219" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q219">
         <v>6</v>
@@ -46557,7 +46569,7 @@
         <v>0.85</v>
       </c>
       <c r="AP219">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ219">
         <v>1.13</v>
@@ -46685,7 +46697,7 @@
         <v>231</v>
       </c>
       <c r="P220" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q220">
         <v>2.1</v>
@@ -47097,7 +47109,7 @@
         <v>233</v>
       </c>
       <c r="P222" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q222">
         <v>4.5</v>
@@ -47303,7 +47315,7 @@
         <v>87</v>
       </c>
       <c r="P223" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q223">
         <v>3.5</v>
@@ -47715,7 +47727,7 @@
         <v>234</v>
       </c>
       <c r="P225" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q225">
         <v>2.6</v>
@@ -48002,7 +48014,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ226">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR226">
         <v>1.47</v>
@@ -48127,7 +48139,7 @@
         <v>235</v>
       </c>
       <c r="P227" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q227">
         <v>2.6</v>
@@ -48539,7 +48551,7 @@
         <v>236</v>
       </c>
       <c r="P229" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q229">
         <v>8</v>
@@ -49032,7 +49044,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ231">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="AR231">
         <v>1.62</v>
@@ -49363,7 +49375,7 @@
         <v>182</v>
       </c>
       <c r="P233" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49647,7 +49659,7 @@
         <v>0.93</v>
       </c>
       <c r="AP234">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ234">
         <v>0.9399999999999999</v>
@@ -49775,7 +49787,7 @@
         <v>87</v>
       </c>
       <c r="P235" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q235">
         <v>3.24</v>
@@ -49853,7 +49865,7 @@
         <v>2.14</v>
       </c>
       <c r="AP235">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ235">
         <v>1.94</v>
@@ -49981,7 +49993,7 @@
         <v>239</v>
       </c>
       <c r="P236" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q236">
         <v>1.43</v>
@@ -50599,7 +50611,7 @@
         <v>226</v>
       </c>
       <c r="P239" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -50805,7 +50817,7 @@
         <v>241</v>
       </c>
       <c r="P240" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q240">
         <v>2.6</v>
@@ -51011,7 +51023,7 @@
         <v>87</v>
       </c>
       <c r="P241" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -51629,7 +51641,7 @@
         <v>244</v>
       </c>
       <c r="P244" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q244">
         <v>2.1</v>
@@ -51835,7 +51847,7 @@
         <v>240</v>
       </c>
       <c r="P245" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q245">
         <v>2.2</v>
@@ -51916,7 +51928,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ245">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR245">
         <v>1.89</v>
@@ -52041,7 +52053,7 @@
         <v>245</v>
       </c>
       <c r="P246" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q246">
         <v>0</v>
@@ -52247,7 +52259,7 @@
         <v>246</v>
       </c>
       <c r="P247" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q247">
         <v>2.3</v>
@@ -52453,7 +52465,7 @@
         <v>87</v>
       </c>
       <c r="P248" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q248">
         <v>2.6</v>
@@ -52740,7 +52752,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ249">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="AR249">
         <v>1.48</v>
@@ -53149,7 +53161,7 @@
         <v>1.2</v>
       </c>
       <c r="AP251">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ251">
         <v>1.41</v>
@@ -53689,7 +53701,7 @@
         <v>250</v>
       </c>
       <c r="P254" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q254">
         <v>1.95</v>
@@ -53895,7 +53907,7 @@
         <v>251</v>
       </c>
       <c r="P255" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q255">
         <v>5.5</v>
@@ -53973,7 +53985,7 @@
         <v>3</v>
       </c>
       <c r="AP255">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ255">
         <v>2.82</v>
@@ -54513,7 +54525,7 @@
         <v>254</v>
       </c>
       <c r="P258" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q258">
         <v>1.95</v>
@@ -54719,7 +54731,7 @@
         <v>255</v>
       </c>
       <c r="P259" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q259">
         <v>1.57</v>
@@ -54925,7 +54937,7 @@
         <v>256</v>
       </c>
       <c r="P260" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q260">
         <v>2.3</v>
@@ -55131,7 +55143,7 @@
         <v>87</v>
       </c>
       <c r="P261" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q261">
         <v>2.6</v>
@@ -55418,7 +55430,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ262">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="AR262">
         <v>1.37</v>
@@ -55830,7 +55842,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ264">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR264">
         <v>1.22</v>
@@ -55955,7 +55967,7 @@
         <v>258</v>
       </c>
       <c r="P265" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q265">
         <v>2.75</v>
@@ -56161,7 +56173,7 @@
         <v>259</v>
       </c>
       <c r="P266" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q266">
         <v>3</v>
@@ -56573,7 +56585,7 @@
         <v>235</v>
       </c>
       <c r="P268" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q268">
         <v>5</v>
@@ -57603,7 +57615,7 @@
         <v>262</v>
       </c>
       <c r="P273" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q273">
         <v>0</v>
@@ -57681,7 +57693,7 @@
         <v>1.31</v>
       </c>
       <c r="AP273">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ273">
         <v>1.29</v>
@@ -57759,6 +57771,418 @@
         <v>0</v>
       </c>
       <c r="BP273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:68">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>7881249</v>
+      </c>
+      <c r="C274" t="s">
+        <v>68</v>
+      </c>
+      <c r="D274" t="s">
+        <v>69</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45787.54166666666</v>
+      </c>
+      <c r="F274">
+        <v>5</v>
+      </c>
+      <c r="G274" t="s">
+        <v>76</v>
+      </c>
+      <c r="H274" t="s">
+        <v>78</v>
+      </c>
+      <c r="I274">
+        <v>1</v>
+      </c>
+      <c r="J274">
+        <v>1</v>
+      </c>
+      <c r="K274">
+        <v>2</v>
+      </c>
+      <c r="L274">
+        <v>2</v>
+      </c>
+      <c r="M274">
+        <v>3</v>
+      </c>
+      <c r="N274">
+        <v>5</v>
+      </c>
+      <c r="O274" t="s">
+        <v>263</v>
+      </c>
+      <c r="P274" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q274">
+        <v>2.1</v>
+      </c>
+      <c r="R274">
+        <v>2.2</v>
+      </c>
+      <c r="S274">
+        <v>6</v>
+      </c>
+      <c r="T274">
+        <v>1.4</v>
+      </c>
+      <c r="U274">
+        <v>2.7</v>
+      </c>
+      <c r="V274">
+        <v>2.95</v>
+      </c>
+      <c r="W274">
+        <v>1.35</v>
+      </c>
+      <c r="X274">
+        <v>8.1</v>
+      </c>
+      <c r="Y274">
+        <v>1.02</v>
+      </c>
+      <c r="Z274">
+        <v>1.59</v>
+      </c>
+      <c r="AA274">
+        <v>3.58</v>
+      </c>
+      <c r="AB274">
+        <v>5.2</v>
+      </c>
+      <c r="AC274">
+        <v>1.06</v>
+      </c>
+      <c r="AD274">
+        <v>8</v>
+      </c>
+      <c r="AE274">
+        <v>1.36</v>
+      </c>
+      <c r="AF274">
+        <v>3</v>
+      </c>
+      <c r="AG274">
+        <v>1.95</v>
+      </c>
+      <c r="AH274">
+        <v>1.7</v>
+      </c>
+      <c r="AI274">
+        <v>2.05</v>
+      </c>
+      <c r="AJ274">
+        <v>1.65</v>
+      </c>
+      <c r="AK274">
+        <v>1.15</v>
+      </c>
+      <c r="AL274">
+        <v>1.22</v>
+      </c>
+      <c r="AM274">
+        <v>2.2</v>
+      </c>
+      <c r="AN274">
+        <v>1.06</v>
+      </c>
+      <c r="AO274">
+        <v>0.24</v>
+      </c>
+      <c r="AP274">
+        <v>1</v>
+      </c>
+      <c r="AQ274">
+        <v>0.39</v>
+      </c>
+      <c r="AR274">
+        <v>1.29</v>
+      </c>
+      <c r="AS274">
+        <v>1.17</v>
+      </c>
+      <c r="AT274">
+        <v>2.46</v>
+      </c>
+      <c r="AU274">
+        <v>12</v>
+      </c>
+      <c r="AV274">
+        <v>10</v>
+      </c>
+      <c r="AW274">
+        <v>7</v>
+      </c>
+      <c r="AX274">
+        <v>5</v>
+      </c>
+      <c r="AY274">
+        <v>19</v>
+      </c>
+      <c r="AZ274">
+        <v>15</v>
+      </c>
+      <c r="BA274">
+        <v>5</v>
+      </c>
+      <c r="BB274">
+        <v>0</v>
+      </c>
+      <c r="BC274">
+        <v>5</v>
+      </c>
+      <c r="BD274">
+        <v>0</v>
+      </c>
+      <c r="BE274">
+        <v>0</v>
+      </c>
+      <c r="BF274">
+        <v>0</v>
+      </c>
+      <c r="BG274">
+        <v>0</v>
+      </c>
+      <c r="BH274">
+        <v>0</v>
+      </c>
+      <c r="BI274">
+        <v>0</v>
+      </c>
+      <c r="BJ274">
+        <v>0</v>
+      </c>
+      <c r="BK274">
+        <v>0</v>
+      </c>
+      <c r="BL274">
+        <v>0</v>
+      </c>
+      <c r="BM274">
+        <v>0</v>
+      </c>
+      <c r="BN274">
+        <v>0</v>
+      </c>
+      <c r="BO274">
+        <v>0</v>
+      </c>
+      <c r="BP274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:68">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>7881244</v>
+      </c>
+      <c r="C275" t="s">
+        <v>68</v>
+      </c>
+      <c r="D275" t="s">
+        <v>69</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45787.625</v>
+      </c>
+      <c r="F275">
+        <v>5</v>
+      </c>
+      <c r="G275" t="s">
+        <v>70</v>
+      </c>
+      <c r="H275" t="s">
+        <v>75</v>
+      </c>
+      <c r="I275">
+        <v>1</v>
+      </c>
+      <c r="J275">
+        <v>2</v>
+      </c>
+      <c r="K275">
+        <v>3</v>
+      </c>
+      <c r="L275">
+        <v>2</v>
+      </c>
+      <c r="M275">
+        <v>3</v>
+      </c>
+      <c r="N275">
+        <v>5</v>
+      </c>
+      <c r="O275" t="s">
+        <v>264</v>
+      </c>
+      <c r="P275" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q275">
+        <v>2.6</v>
+      </c>
+      <c r="R275">
+        <v>2.25</v>
+      </c>
+      <c r="S275">
+        <v>3.6</v>
+      </c>
+      <c r="T275">
+        <v>1.33</v>
+      </c>
+      <c r="U275">
+        <v>3.25</v>
+      </c>
+      <c r="V275">
+        <v>2.63</v>
+      </c>
+      <c r="W275">
+        <v>1.44</v>
+      </c>
+      <c r="X275">
+        <v>6</v>
+      </c>
+      <c r="Y275">
+        <v>1.11</v>
+      </c>
+      <c r="Z275">
+        <v>1.99</v>
+      </c>
+      <c r="AA275">
+        <v>3.47</v>
+      </c>
+      <c r="AB275">
+        <v>3.23</v>
+      </c>
+      <c r="AC275">
+        <v>1.04</v>
+      </c>
+      <c r="AD275">
+        <v>9</v>
+      </c>
+      <c r="AE275">
+        <v>1.25</v>
+      </c>
+      <c r="AF275">
+        <v>3.7</v>
+      </c>
+      <c r="AG275">
+        <v>1.7</v>
+      </c>
+      <c r="AH275">
+        <v>1.95</v>
+      </c>
+      <c r="AI275">
+        <v>1.67</v>
+      </c>
+      <c r="AJ275">
+        <v>2.1</v>
+      </c>
+      <c r="AK275">
+        <v>1.33</v>
+      </c>
+      <c r="AL275">
+        <v>1.22</v>
+      </c>
+      <c r="AM275">
+        <v>1.73</v>
+      </c>
+      <c r="AN275">
+        <v>1.76</v>
+      </c>
+      <c r="AO275">
+        <v>1.18</v>
+      </c>
+      <c r="AP275">
+        <v>1.67</v>
+      </c>
+      <c r="AQ275">
+        <v>1.28</v>
+      </c>
+      <c r="AR275">
+        <v>1.71</v>
+      </c>
+      <c r="AS275">
+        <v>1.3</v>
+      </c>
+      <c r="AT275">
+        <v>3.01</v>
+      </c>
+      <c r="AU275">
+        <v>6</v>
+      </c>
+      <c r="AV275">
+        <v>5</v>
+      </c>
+      <c r="AW275">
+        <v>9</v>
+      </c>
+      <c r="AX275">
+        <v>3</v>
+      </c>
+      <c r="AY275">
+        <v>16</v>
+      </c>
+      <c r="AZ275">
+        <v>8</v>
+      </c>
+      <c r="BA275">
+        <v>9</v>
+      </c>
+      <c r="BB275">
+        <v>4</v>
+      </c>
+      <c r="BC275">
+        <v>13</v>
+      </c>
+      <c r="BD275">
+        <v>0</v>
+      </c>
+      <c r="BE275">
+        <v>0</v>
+      </c>
+      <c r="BF275">
+        <v>0</v>
+      </c>
+      <c r="BG275">
+        <v>0</v>
+      </c>
+      <c r="BH275">
+        <v>0</v>
+      </c>
+      <c r="BI275">
+        <v>0</v>
+      </c>
+      <c r="BJ275">
+        <v>0</v>
+      </c>
+      <c r="BK275">
+        <v>0</v>
+      </c>
+      <c r="BL275">
+        <v>0</v>
+      </c>
+      <c r="BM275">
+        <v>0</v>
+      </c>
+      <c r="BN275">
+        <v>0</v>
+      </c>
+      <c r="BO275">
+        <v>0</v>
+      </c>
+      <c r="BP275">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="385">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -811,6 +811,9 @@
     <t>['17', '78']</t>
   </si>
   <si>
+    <t>['63']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -1001,9 +1004,6 @@
   </si>
   <si>
     <t>['17']</t>
-  </si>
-  <si>
-    <t>['63']</t>
   </si>
   <si>
     <t>['6', '11', '15', '18', '48', '71', '90']</t>
@@ -1530,7 +1530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP275"/>
+  <dimension ref="A1:BP277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1789,7 +1789,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2407,7 +2407,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2694,7 +2694,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ6">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2819,7 +2819,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3025,7 +3025,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -3437,7 +3437,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3643,7 +3643,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3849,7 +3849,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3930,7 +3930,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ12">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR12">
         <v>2.33</v>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ14">
         <v>1.35</v>
@@ -4545,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ15">
         <v>0.9399999999999999</v>
@@ -5291,7 +5291,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -6196,7 +6196,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ23">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR23">
         <v>1.76</v>
@@ -6321,7 +6321,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6399,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ24">
         <v>1.35</v>
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ26">
         <v>1.12</v>
@@ -7145,7 +7145,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -7763,7 +7763,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7969,7 +7969,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -8462,7 +8462,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ34">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR34">
         <v>1.89</v>
@@ -9205,7 +9205,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9617,7 +9617,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -10029,7 +10029,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10235,7 +10235,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10313,7 +10313,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ43">
         <v>1.12</v>
@@ -10441,7 +10441,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10647,7 +10647,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10728,7 +10728,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ45">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR45">
         <v>1.22</v>
@@ -11471,7 +11471,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11677,7 +11677,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11758,7 +11758,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ50">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR50">
         <v>1.81</v>
@@ -12373,7 +12373,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ53">
         <v>1.13</v>
@@ -13119,7 +13119,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -13325,7 +13325,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -13531,7 +13531,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13609,7 +13609,7 @@
         <v>2.33</v>
       </c>
       <c r="AP59">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ59">
         <v>1.94</v>
@@ -13737,7 +13737,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13818,7 +13818,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ60">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR60">
         <v>0.73</v>
@@ -13943,7 +13943,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -14355,7 +14355,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14561,7 +14561,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14642,7 +14642,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ64">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR64">
         <v>1.12</v>
@@ -14767,7 +14767,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14973,7 +14973,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15591,7 +15591,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -16003,7 +16003,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -16081,7 +16081,7 @@
         <v>0.8</v>
       </c>
       <c r="AP71">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ71">
         <v>1.13</v>
@@ -16415,7 +16415,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16621,7 +16621,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16702,7 +16702,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ74">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR74">
         <v>1.34</v>
@@ -17033,7 +17033,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -17445,7 +17445,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17651,7 +17651,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -18063,7 +18063,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -18144,7 +18144,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ81">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR81">
         <v>1.32</v>
@@ -18269,7 +18269,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -18475,7 +18475,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18681,7 +18681,7 @@
         <v>87</v>
       </c>
       <c r="P84" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18759,7 +18759,7 @@
         <v>1.6</v>
       </c>
       <c r="AP84">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ84">
         <v>1.88</v>
@@ -18887,7 +18887,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -19299,7 +19299,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -19380,7 +19380,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ87">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR87">
         <v>2.4</v>
@@ -19711,7 +19711,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19995,7 +19995,7 @@
         <v>0.17</v>
       </c>
       <c r="AP90">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ90">
         <v>0.9399999999999999</v>
@@ -20123,7 +20123,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -20741,7 +20741,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -21565,7 +21565,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q98">
         <v>13</v>
@@ -21643,7 +21643,7 @@
         <v>3</v>
       </c>
       <c r="AP98">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ98">
         <v>2.82</v>
@@ -21977,7 +21977,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -22183,7 +22183,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -22389,7 +22389,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22470,7 +22470,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ102">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR102">
         <v>1.61</v>
@@ -22595,7 +22595,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22676,7 +22676,7 @@
         <v>1</v>
       </c>
       <c r="AQ103">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR103">
         <v>1.2</v>
@@ -23419,7 +23419,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23831,7 +23831,7 @@
         <v>87</v>
       </c>
       <c r="P109" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -24243,7 +24243,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -24449,7 +24449,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24733,7 +24733,7 @@
         <v>0.5</v>
       </c>
       <c r="AP113">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ113">
         <v>0.9399999999999999</v>
@@ -24942,7 +24942,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ114">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR114">
         <v>1.72</v>
@@ -25273,7 +25273,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -25479,7 +25479,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25685,7 +25685,7 @@
         <v>87</v>
       </c>
       <c r="P118" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -25763,7 +25763,7 @@
         <v>3</v>
       </c>
       <c r="AP118">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ118">
         <v>2.82</v>
@@ -25891,7 +25891,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -26097,7 +26097,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q120">
         <v>3.15</v>
@@ -26175,7 +26175,7 @@
         <v>0.86</v>
       </c>
       <c r="AP120">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ120">
         <v>1.28</v>
@@ -26587,10 +26587,10 @@
         <v>2.14</v>
       </c>
       <c r="AP122">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ122">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR122">
         <v>1.45</v>
@@ -26921,7 +26921,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27127,7 +27127,7 @@
         <v>87</v>
       </c>
       <c r="P125" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q125">
         <v>3.85</v>
@@ -27333,7 +27333,7 @@
         <v>110</v>
       </c>
       <c r="P126" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q126">
         <v>1.77</v>
@@ -27745,7 +27745,7 @@
         <v>119</v>
       </c>
       <c r="P128" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27951,7 +27951,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -28363,7 +28363,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -28650,7 +28650,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ132">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR132">
         <v>1.95</v>
@@ -28856,7 +28856,7 @@
         <v>2</v>
       </c>
       <c r="AQ133">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR133">
         <v>1.68</v>
@@ -29393,7 +29393,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -29474,7 +29474,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ136">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR136">
         <v>1.2</v>
@@ -29883,7 +29883,7 @@
         <v>1.43</v>
       </c>
       <c r="AP138">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ138">
         <v>1.29</v>
@@ -30011,7 +30011,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q139">
         <v>5.5</v>
@@ -30295,7 +30295,7 @@
         <v>0.88</v>
       </c>
       <c r="AP140">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ140">
         <v>1.28</v>
@@ -30423,7 +30423,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30629,7 +30629,7 @@
         <v>148</v>
       </c>
       <c r="P142" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30835,7 +30835,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -30913,7 +30913,7 @@
         <v>2.38</v>
       </c>
       <c r="AP143">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ143">
         <v>1.94</v>
@@ -31122,7 +31122,7 @@
         <v>1</v>
       </c>
       <c r="AQ144">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR144">
         <v>1.18</v>
@@ -31453,7 +31453,7 @@
         <v>188</v>
       </c>
       <c r="P146" t="s">
-        <v>329</v>
+        <v>265</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31534,7 +31534,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ146">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR146">
         <v>1.33</v>
@@ -31659,7 +31659,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -34209,7 +34209,7 @@
         <v>0.78</v>
       </c>
       <c r="AP159">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ159">
         <v>0.88</v>
@@ -34415,7 +34415,7 @@
         <v>1.38</v>
       </c>
       <c r="AP160">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ160">
         <v>1.29</v>
@@ -35036,7 +35036,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ163">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR163">
         <v>1.69</v>
@@ -36066,7 +36066,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ168">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR168">
         <v>1.49</v>
@@ -37505,7 +37505,7 @@
         <v>1</v>
       </c>
       <c r="AP175">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ175">
         <v>0.88</v>
@@ -37917,7 +37917,7 @@
         <v>1.3</v>
       </c>
       <c r="AP177">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ177">
         <v>1.41</v>
@@ -38744,7 +38744,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ181">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR181">
         <v>1.62</v>
@@ -39281,7 +39281,7 @@
         <v>189</v>
       </c>
       <c r="P184" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q184">
         <v>2.3</v>
@@ -39771,10 +39771,10 @@
         <v>0.73</v>
       </c>
       <c r="AP186">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ186">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR186">
         <v>1.05</v>
@@ -41213,7 +41213,7 @@
         <v>0.33</v>
       </c>
       <c r="AP193">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ193">
         <v>0.39</v>
@@ -41628,7 +41628,7 @@
         <v>2</v>
       </c>
       <c r="AQ195">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR195">
         <v>1.71</v>
@@ -42861,10 +42861,10 @@
         <v>0.75</v>
       </c>
       <c r="AP201">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ201">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR201">
         <v>1.57</v>
@@ -44509,7 +44509,7 @@
         <v>1.62</v>
       </c>
       <c r="AP209">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ209">
         <v>1.47</v>
@@ -45748,7 +45748,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ215">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR215">
         <v>1.47</v>
@@ -46157,7 +46157,7 @@
         <v>1.25</v>
       </c>
       <c r="AP217">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ217">
         <v>1.41</v>
@@ -46697,7 +46697,7 @@
         <v>231</v>
       </c>
       <c r="P220" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q220">
         <v>2.1</v>
@@ -47109,7 +47109,7 @@
         <v>233</v>
       </c>
       <c r="P222" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q222">
         <v>4.5</v>
@@ -47187,7 +47187,7 @@
         <v>1.77</v>
       </c>
       <c r="AP222">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ222">
         <v>1.88</v>
@@ -47315,7 +47315,7 @@
         <v>87</v>
       </c>
       <c r="P223" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q223">
         <v>3.5</v>
@@ -47602,7 +47602,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ224">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR224">
         <v>1.16</v>
@@ -49041,7 +49041,7 @@
         <v>0.29</v>
       </c>
       <c r="AP231">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ231">
         <v>0.39</v>
@@ -49247,10 +49247,10 @@
         <v>1.43</v>
       </c>
       <c r="AP232">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ232">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR232">
         <v>1.19</v>
@@ -50898,7 +50898,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ240">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR240">
         <v>1.76</v>
@@ -51307,7 +51307,7 @@
         <v>1.27</v>
       </c>
       <c r="AP242">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ242">
         <v>1.12</v>
@@ -51722,7 +51722,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ244">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR244">
         <v>1.63</v>
@@ -52053,7 +52053,7 @@
         <v>245</v>
       </c>
       <c r="P246" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q246">
         <v>0</v>
@@ -52134,7 +52134,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ246">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR246">
         <v>1.7</v>
@@ -52465,7 +52465,7 @@
         <v>87</v>
       </c>
       <c r="P248" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q248">
         <v>2.6</v>
@@ -53907,7 +53907,7 @@
         <v>251</v>
       </c>
       <c r="P255" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q255">
         <v>5.5</v>
@@ -54191,7 +54191,7 @@
         <v>0.93</v>
       </c>
       <c r="AP256">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ256">
         <v>0.88</v>
@@ -54525,7 +54525,7 @@
         <v>254</v>
       </c>
       <c r="P258" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q258">
         <v>1.95</v>
@@ -56048,7 +56048,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ265">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR265">
         <v>1.53</v>
@@ -56251,7 +56251,7 @@
         <v>1.81</v>
       </c>
       <c r="AP266">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ266">
         <v>1.88</v>
@@ -57696,7 +57696,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ273">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR273">
         <v>1.65</v>
@@ -58183,6 +58183,418 @@
         <v>0</v>
       </c>
       <c r="BP275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:68">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>7881246</v>
+      </c>
+      <c r="C276" t="s">
+        <v>68</v>
+      </c>
+      <c r="D276" t="s">
+        <v>69</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45788.47916666666</v>
+      </c>
+      <c r="F276">
+        <v>5</v>
+      </c>
+      <c r="G276" t="s">
+        <v>82</v>
+      </c>
+      <c r="H276" t="s">
+        <v>73</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
+      <c r="L276">
+        <v>1</v>
+      </c>
+      <c r="M276">
+        <v>0</v>
+      </c>
+      <c r="N276">
+        <v>1</v>
+      </c>
+      <c r="O276" t="s">
+        <v>265</v>
+      </c>
+      <c r="P276" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q276">
+        <v>0</v>
+      </c>
+      <c r="R276">
+        <v>0</v>
+      </c>
+      <c r="S276">
+        <v>0</v>
+      </c>
+      <c r="T276">
+        <v>0</v>
+      </c>
+      <c r="U276">
+        <v>0</v>
+      </c>
+      <c r="V276">
+        <v>0</v>
+      </c>
+      <c r="W276">
+        <v>0</v>
+      </c>
+      <c r="X276">
+        <v>0</v>
+      </c>
+      <c r="Y276">
+        <v>0</v>
+      </c>
+      <c r="Z276">
+        <v>1.52</v>
+      </c>
+      <c r="AA276">
+        <v>3.82</v>
+      </c>
+      <c r="AB276">
+        <v>5.5</v>
+      </c>
+      <c r="AC276">
+        <v>0</v>
+      </c>
+      <c r="AD276">
+        <v>0</v>
+      </c>
+      <c r="AE276">
+        <v>0</v>
+      </c>
+      <c r="AF276">
+        <v>0</v>
+      </c>
+      <c r="AG276">
+        <v>1.82</v>
+      </c>
+      <c r="AH276">
+        <v>1.88</v>
+      </c>
+      <c r="AI276">
+        <v>0</v>
+      </c>
+      <c r="AJ276">
+        <v>0</v>
+      </c>
+      <c r="AK276">
+        <v>0</v>
+      </c>
+      <c r="AL276">
+        <v>0</v>
+      </c>
+      <c r="AM276">
+        <v>0</v>
+      </c>
+      <c r="AN276">
+        <v>1.47</v>
+      </c>
+      <c r="AO276">
+        <v>1.29</v>
+      </c>
+      <c r="AP276">
+        <v>1.56</v>
+      </c>
+      <c r="AQ276">
+        <v>1.22</v>
+      </c>
+      <c r="AR276">
+        <v>1.69</v>
+      </c>
+      <c r="AS276">
+        <v>0.79</v>
+      </c>
+      <c r="AT276">
+        <v>2.48</v>
+      </c>
+      <c r="AU276">
+        <v>-1</v>
+      </c>
+      <c r="AV276">
+        <v>-1</v>
+      </c>
+      <c r="AW276">
+        <v>-1</v>
+      </c>
+      <c r="AX276">
+        <v>-1</v>
+      </c>
+      <c r="AY276">
+        <v>-1</v>
+      </c>
+      <c r="AZ276">
+        <v>-1</v>
+      </c>
+      <c r="BA276">
+        <v>-1</v>
+      </c>
+      <c r="BB276">
+        <v>-1</v>
+      </c>
+      <c r="BC276">
+        <v>-1</v>
+      </c>
+      <c r="BD276">
+        <v>0</v>
+      </c>
+      <c r="BE276">
+        <v>0</v>
+      </c>
+      <c r="BF276">
+        <v>0</v>
+      </c>
+      <c r="BG276">
+        <v>0</v>
+      </c>
+      <c r="BH276">
+        <v>0</v>
+      </c>
+      <c r="BI276">
+        <v>0</v>
+      </c>
+      <c r="BJ276">
+        <v>0</v>
+      </c>
+      <c r="BK276">
+        <v>0</v>
+      </c>
+      <c r="BL276">
+        <v>0</v>
+      </c>
+      <c r="BM276">
+        <v>0</v>
+      </c>
+      <c r="BN276">
+        <v>0</v>
+      </c>
+      <c r="BO276">
+        <v>0</v>
+      </c>
+      <c r="BP276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:68">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>7881248</v>
+      </c>
+      <c r="C277" t="s">
+        <v>68</v>
+      </c>
+      <c r="D277" t="s">
+        <v>69</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45788.5</v>
+      </c>
+      <c r="F277">
+        <v>5</v>
+      </c>
+      <c r="G277" t="s">
+        <v>81</v>
+      </c>
+      <c r="H277" t="s">
+        <v>80</v>
+      </c>
+      <c r="I277">
+        <v>1</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <v>1</v>
+      </c>
+      <c r="L277">
+        <v>1</v>
+      </c>
+      <c r="M277">
+        <v>0</v>
+      </c>
+      <c r="N277">
+        <v>1</v>
+      </c>
+      <c r="O277" t="s">
+        <v>153</v>
+      </c>
+      <c r="P277" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q277">
+        <v>2.88</v>
+      </c>
+      <c r="R277">
+        <v>2.05</v>
+      </c>
+      <c r="S277">
+        <v>3.5</v>
+      </c>
+      <c r="T277">
+        <v>1.44</v>
+      </c>
+      <c r="U277">
+        <v>2.63</v>
+      </c>
+      <c r="V277">
+        <v>3</v>
+      </c>
+      <c r="W277">
+        <v>1.36</v>
+      </c>
+      <c r="X277">
+        <v>7.5</v>
+      </c>
+      <c r="Y277">
+        <v>1.07</v>
+      </c>
+      <c r="Z277">
+        <v>2.24</v>
+      </c>
+      <c r="AA277">
+        <v>3.09</v>
+      </c>
+      <c r="AB277">
+        <v>3.02</v>
+      </c>
+      <c r="AC277">
+        <v>1.06</v>
+      </c>
+      <c r="AD277">
+        <v>8</v>
+      </c>
+      <c r="AE277">
+        <v>1.31</v>
+      </c>
+      <c r="AF277">
+        <v>3</v>
+      </c>
+      <c r="AG277">
+        <v>1.95</v>
+      </c>
+      <c r="AH277">
+        <v>1.7</v>
+      </c>
+      <c r="AI277">
+        <v>1.83</v>
+      </c>
+      <c r="AJ277">
+        <v>1.83</v>
+      </c>
+      <c r="AK277">
+        <v>1.36</v>
+      </c>
+      <c r="AL277">
+        <v>1.28</v>
+      </c>
+      <c r="AM277">
+        <v>1.57</v>
+      </c>
+      <c r="AN277">
+        <v>1.5</v>
+      </c>
+      <c r="AO277">
+        <v>0.88</v>
+      </c>
+      <c r="AP277">
+        <v>1.59</v>
+      </c>
+      <c r="AQ277">
+        <v>0.83</v>
+      </c>
+      <c r="AR277">
+        <v>1.24</v>
+      </c>
+      <c r="AS277">
+        <v>1.48</v>
+      </c>
+      <c r="AT277">
+        <v>2.72</v>
+      </c>
+      <c r="AU277">
+        <v>4</v>
+      </c>
+      <c r="AV277">
+        <v>4</v>
+      </c>
+      <c r="AW277">
+        <v>2</v>
+      </c>
+      <c r="AX277">
+        <v>8</v>
+      </c>
+      <c r="AY277">
+        <v>6</v>
+      </c>
+      <c r="AZ277">
+        <v>12</v>
+      </c>
+      <c r="BA277">
+        <v>2</v>
+      </c>
+      <c r="BB277">
+        <v>5</v>
+      </c>
+      <c r="BC277">
+        <v>7</v>
+      </c>
+      <c r="BD277">
+        <v>0</v>
+      </c>
+      <c r="BE277">
+        <v>0</v>
+      </c>
+      <c r="BF277">
+        <v>0</v>
+      </c>
+      <c r="BG277">
+        <v>0</v>
+      </c>
+      <c r="BH277">
+        <v>0</v>
+      </c>
+      <c r="BI277">
+        <v>1.82</v>
+      </c>
+      <c r="BJ277">
+        <v>1.98</v>
+      </c>
+      <c r="BK277">
+        <v>0</v>
+      </c>
+      <c r="BL277">
+        <v>0</v>
+      </c>
+      <c r="BM277">
+        <v>0</v>
+      </c>
+      <c r="BN277">
+        <v>0</v>
+      </c>
+      <c r="BO277">
+        <v>0</v>
+      </c>
+      <c r="BP277">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="386">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1170,6 +1170,9 @@
   <si>
     <t>['42', '45', '52']</t>
   </si>
+  <si>
+    <t>['64', '81']</t>
+  </si>
 </sst>
 </file>
 
@@ -1530,7 +1533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP277"/>
+  <dimension ref="A1:BP279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2279,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.76</v>
+        <v>2.67</v>
       </c>
       <c r="AQ4">
         <v>0.39</v>
@@ -3106,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3927,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.76</v>
+        <v>2.67</v>
       </c>
       <c r="AQ12">
         <v>1.22</v>
@@ -4136,7 +4139,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ13">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -5784,7 +5787,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ21">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5987,7 +5990,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ22">
         <v>1.41</v>
@@ -7017,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.76</v>
+        <v>2.67</v>
       </c>
       <c r="AQ27">
         <v>1.28</v>
@@ -7844,7 +7847,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ31">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -9286,7 +9289,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ38">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR38">
         <v>1.63</v>
@@ -12167,10 +12170,10 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ52">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR52">
         <v>1.32</v>
@@ -12785,7 +12788,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>2.76</v>
+        <v>2.67</v>
       </c>
       <c r="AQ55">
         <v>0.88</v>
@@ -13406,7 +13409,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR58">
         <v>1.22</v>
@@ -14848,7 +14851,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ65">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR65">
         <v>1.31</v>
@@ -15669,7 +15672,7 @@
         <v>3</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ69">
         <v>2.82</v>
@@ -15875,7 +15878,7 @@
         <v>1.2</v>
       </c>
       <c r="AP70">
-        <v>2.76</v>
+        <v>2.67</v>
       </c>
       <c r="AQ70">
         <v>1.41</v>
@@ -16496,7 +16499,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ73">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR73">
         <v>1.46</v>
@@ -18347,7 +18350,7 @@
         <v>0.75</v>
       </c>
       <c r="AP82">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ82">
         <v>0.9399999999999999</v>
@@ -18762,7 +18765,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ84">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR84">
         <v>1.12</v>
@@ -19377,7 +19380,7 @@
         <v>0.8</v>
       </c>
       <c r="AP87">
-        <v>2.76</v>
+        <v>2.67</v>
       </c>
       <c r="AQ87">
         <v>0.83</v>
@@ -20410,7 +20413,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ92">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR92">
         <v>1.11</v>
@@ -21437,7 +21440,7 @@
         <v>1.2</v>
       </c>
       <c r="AP97">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ97">
         <v>1.35</v>
@@ -22264,7 +22267,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ101">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR101">
         <v>1.12</v>
@@ -23085,10 +23088,10 @@
         <v>1.71</v>
       </c>
       <c r="AP105">
-        <v>2.76</v>
+        <v>2.67</v>
       </c>
       <c r="AQ105">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR105">
         <v>2.08</v>
@@ -25354,7 +25357,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ116">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR116">
         <v>1.31</v>
@@ -25557,7 +25560,7 @@
         <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ117">
         <v>1.12</v>
@@ -26793,7 +26796,7 @@
         <v>0.86</v>
       </c>
       <c r="AP123">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ123">
         <v>0.88</v>
@@ -27208,7 +27211,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ125">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR125">
         <v>1.76</v>
@@ -28235,7 +28238,7 @@
         <v>0.13</v>
       </c>
       <c r="AP130">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ130">
         <v>0.39</v>
@@ -28853,7 +28856,7 @@
         <v>0.88</v>
       </c>
       <c r="AP133">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ133">
         <v>0.83</v>
@@ -29059,10 +29062,10 @@
         <v>1.67</v>
       </c>
       <c r="AP134">
-        <v>2.76</v>
+        <v>2.67</v>
       </c>
       <c r="AQ134">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR134">
         <v>2.03</v>
@@ -29265,7 +29268,7 @@
         <v>0.5</v>
       </c>
       <c r="AP135">
-        <v>2.76</v>
+        <v>2.67</v>
       </c>
       <c r="AQ135">
         <v>0.9399999999999999</v>
@@ -29886,7 +29889,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ138">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR138">
         <v>1.06</v>
@@ -32152,7 +32155,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ149">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR149">
         <v>2.02</v>
@@ -32561,7 +32564,7 @@
         <v>0.78</v>
       </c>
       <c r="AP151">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ151">
         <v>1.13</v>
@@ -34003,7 +34006,7 @@
         <v>1.22</v>
       </c>
       <c r="AP158">
-        <v>2.76</v>
+        <v>2.67</v>
       </c>
       <c r="AQ158">
         <v>1.35</v>
@@ -34418,7 +34421,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ160">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR160">
         <v>1.53</v>
@@ -34624,7 +34627,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ161">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR161">
         <v>1.42</v>
@@ -34830,7 +34833,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ162">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR162">
         <v>1.35</v>
@@ -35445,7 +35448,7 @@
         <v>0.6</v>
       </c>
       <c r="AP165">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ165">
         <v>0.9399999999999999</v>
@@ -36684,7 +36687,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ171">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR171">
         <v>1.13</v>
@@ -36887,7 +36890,7 @@
         <v>1.4</v>
       </c>
       <c r="AP172">
-        <v>2.76</v>
+        <v>2.67</v>
       </c>
       <c r="AQ172">
         <v>1.12</v>
@@ -38329,7 +38332,7 @@
         <v>1.82</v>
       </c>
       <c r="AP179">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ179">
         <v>1.47</v>
@@ -39568,7 +39571,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ185">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR185">
         <v>1.44</v>
@@ -40389,7 +40392,7 @@
         <v>2.09</v>
       </c>
       <c r="AP189">
-        <v>2.76</v>
+        <v>2.67</v>
       </c>
       <c r="AQ189">
         <v>1.94</v>
@@ -41010,7 +41013,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ192">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR192">
         <v>1.69</v>
@@ -41625,7 +41628,7 @@
         <v>1.67</v>
       </c>
       <c r="AP195">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ195">
         <v>1.22</v>
@@ -41834,7 +41837,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ196">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR196">
         <v>1.72</v>
@@ -43273,7 +43276,7 @@
         <v>0.92</v>
       </c>
       <c r="AP203">
-        <v>2.76</v>
+        <v>2.67</v>
       </c>
       <c r="AQ203">
         <v>1.13</v>
@@ -43688,7 +43691,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ205">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR205">
         <v>1.17</v>
@@ -45333,7 +45336,7 @@
         <v>1.15</v>
       </c>
       <c r="AP213">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ213">
         <v>1.28</v>
@@ -45542,7 +45545,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ214">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR214">
         <v>1.63</v>
@@ -46981,7 +46984,7 @@
         <v>1</v>
       </c>
       <c r="AP221">
-        <v>2.76</v>
+        <v>2.67</v>
       </c>
       <c r="AQ221">
         <v>0.9399999999999999</v>
@@ -47190,7 +47193,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ222">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR222">
         <v>1.65</v>
@@ -48423,10 +48426,10 @@
         <v>1.29</v>
       </c>
       <c r="AP228">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ228">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR228">
         <v>1.81</v>
@@ -50071,7 +50074,7 @@
         <v>1.71</v>
       </c>
       <c r="AP236">
-        <v>2.76</v>
+        <v>2.67</v>
       </c>
       <c r="AQ236">
         <v>1.47</v>
@@ -50692,7 +50695,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ239">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR239">
         <v>1.14</v>
@@ -51513,7 +51516,7 @@
         <v>2.2</v>
       </c>
       <c r="AP243">
-        <v>2.76</v>
+        <v>2.67</v>
       </c>
       <c r="AQ243">
         <v>1.94</v>
@@ -53370,7 +53373,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ252">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR252">
         <v>1.75</v>
@@ -53576,7 +53579,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ253">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR253">
         <v>1.17</v>
@@ -53779,7 +53782,7 @@
         <v>1.6</v>
       </c>
       <c r="AP254">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ254">
         <v>1.47</v>
@@ -54809,7 +54812,7 @@
         <v>1.56</v>
       </c>
       <c r="AP259">
-        <v>2.76</v>
+        <v>2.67</v>
       </c>
       <c r="AQ259">
         <v>1.47</v>
@@ -55015,7 +55018,7 @@
         <v>1.19</v>
       </c>
       <c r="AP260">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ260">
         <v>1.12</v>
@@ -55224,7 +55227,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ261">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR261">
         <v>1.71</v>
@@ -56254,7 +56257,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ266">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR266">
         <v>1.68</v>
@@ -58595,6 +58598,418 @@
         <v>0</v>
       </c>
       <c r="BP277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:68">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>7881243</v>
+      </c>
+      <c r="C278" t="s">
+        <v>68</v>
+      </c>
+      <c r="D278" t="s">
+        <v>69</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45788.58333333334</v>
+      </c>
+      <c r="F278">
+        <v>5</v>
+      </c>
+      <c r="G278" t="s">
+        <v>72</v>
+      </c>
+      <c r="H278" t="s">
+        <v>85</v>
+      </c>
+      <c r="I278">
+        <v>1</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>1</v>
+      </c>
+      <c r="L278">
+        <v>1</v>
+      </c>
+      <c r="M278">
+        <v>1</v>
+      </c>
+      <c r="N278">
+        <v>2</v>
+      </c>
+      <c r="O278" t="s">
+        <v>105</v>
+      </c>
+      <c r="P278" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q278">
+        <v>1.73</v>
+      </c>
+      <c r="R278">
+        <v>2.75</v>
+      </c>
+      <c r="S278">
+        <v>6</v>
+      </c>
+      <c r="T278">
+        <v>1.2</v>
+      </c>
+      <c r="U278">
+        <v>4</v>
+      </c>
+      <c r="V278">
+        <v>2</v>
+      </c>
+      <c r="W278">
+        <v>1.73</v>
+      </c>
+      <c r="X278">
+        <v>4.3</v>
+      </c>
+      <c r="Y278">
+        <v>1.16</v>
+      </c>
+      <c r="Z278">
+        <v>1.33</v>
+      </c>
+      <c r="AA278">
+        <v>4.91</v>
+      </c>
+      <c r="AB278">
+        <v>6.94</v>
+      </c>
+      <c r="AC278">
+        <v>1.01</v>
+      </c>
+      <c r="AD278">
+        <v>14.9</v>
+      </c>
+      <c r="AE278">
+        <v>1.1</v>
+      </c>
+      <c r="AF278">
+        <v>6.25</v>
+      </c>
+      <c r="AG278">
+        <v>1.4</v>
+      </c>
+      <c r="AH278">
+        <v>2.75</v>
+      </c>
+      <c r="AI278">
+        <v>1.57</v>
+      </c>
+      <c r="AJ278">
+        <v>2.15</v>
+      </c>
+      <c r="AK278">
+        <v>1.05</v>
+      </c>
+      <c r="AL278">
+        <v>1.11</v>
+      </c>
+      <c r="AM278">
+        <v>3.1</v>
+      </c>
+      <c r="AN278">
+        <v>2.76</v>
+      </c>
+      <c r="AO278">
+        <v>1.88</v>
+      </c>
+      <c r="AP278">
+        <v>2.67</v>
+      </c>
+      <c r="AQ278">
+        <v>1.83</v>
+      </c>
+      <c r="AR278">
+        <v>2.24</v>
+      </c>
+      <c r="AS278">
+        <v>1.78</v>
+      </c>
+      <c r="AT278">
+        <v>4.02</v>
+      </c>
+      <c r="AU278">
+        <v>6</v>
+      </c>
+      <c r="AV278">
+        <v>2</v>
+      </c>
+      <c r="AW278">
+        <v>11</v>
+      </c>
+      <c r="AX278">
+        <v>6</v>
+      </c>
+      <c r="AY278">
+        <v>17</v>
+      </c>
+      <c r="AZ278">
+        <v>8</v>
+      </c>
+      <c r="BA278">
+        <v>5</v>
+      </c>
+      <c r="BB278">
+        <v>3</v>
+      </c>
+      <c r="BC278">
+        <v>8</v>
+      </c>
+      <c r="BD278">
+        <v>0</v>
+      </c>
+      <c r="BE278">
+        <v>0</v>
+      </c>
+      <c r="BF278">
+        <v>0</v>
+      </c>
+      <c r="BG278">
+        <v>0</v>
+      </c>
+      <c r="BH278">
+        <v>0</v>
+      </c>
+      <c r="BI278">
+        <v>0</v>
+      </c>
+      <c r="BJ278">
+        <v>0</v>
+      </c>
+      <c r="BK278">
+        <v>1.92</v>
+      </c>
+      <c r="BL278">
+        <v>1.88</v>
+      </c>
+      <c r="BM278">
+        <v>0</v>
+      </c>
+      <c r="BN278">
+        <v>0</v>
+      </c>
+      <c r="BO278">
+        <v>0</v>
+      </c>
+      <c r="BP278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:68">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>7881245</v>
+      </c>
+      <c r="C279" t="s">
+        <v>68</v>
+      </c>
+      <c r="D279" t="s">
+        <v>69</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45788.625</v>
+      </c>
+      <c r="F279">
+        <v>5</v>
+      </c>
+      <c r="G279" t="s">
+        <v>83</v>
+      </c>
+      <c r="H279" t="s">
+        <v>77</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>0</v>
+      </c>
+      <c r="L279">
+        <v>1</v>
+      </c>
+      <c r="M279">
+        <v>2</v>
+      </c>
+      <c r="N279">
+        <v>3</v>
+      </c>
+      <c r="O279" t="s">
+        <v>89</v>
+      </c>
+      <c r="P279" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q279">
+        <v>2.75</v>
+      </c>
+      <c r="R279">
+        <v>2.1</v>
+      </c>
+      <c r="S279">
+        <v>3.55</v>
+      </c>
+      <c r="T279">
+        <v>1.36</v>
+      </c>
+      <c r="U279">
+        <v>2.88</v>
+      </c>
+      <c r="V279">
+        <v>2.62</v>
+      </c>
+      <c r="W279">
+        <v>1.42</v>
+      </c>
+      <c r="X279">
+        <v>5.95</v>
+      </c>
+      <c r="Y279">
+        <v>1.07</v>
+      </c>
+      <c r="Z279">
+        <v>1.96</v>
+      </c>
+      <c r="AA279">
+        <v>3.33</v>
+      </c>
+      <c r="AB279">
+        <v>3.45</v>
+      </c>
+      <c r="AC279">
+        <v>1.05</v>
+      </c>
+      <c r="AD279">
+        <v>8.5</v>
+      </c>
+      <c r="AE279">
+        <v>1.25</v>
+      </c>
+      <c r="AF279">
+        <v>3.6</v>
+      </c>
+      <c r="AG279">
+        <v>1.76</v>
+      </c>
+      <c r="AH279">
+        <v>1.94</v>
+      </c>
+      <c r="AI279">
+        <v>1.62</v>
+      </c>
+      <c r="AJ279">
+        <v>2.1</v>
+      </c>
+      <c r="AK279">
+        <v>1.33</v>
+      </c>
+      <c r="AL279">
+        <v>1.25</v>
+      </c>
+      <c r="AM279">
+        <v>1.65</v>
+      </c>
+      <c r="AN279">
+        <v>2</v>
+      </c>
+      <c r="AO279">
+        <v>1.29</v>
+      </c>
+      <c r="AP279">
+        <v>1.89</v>
+      </c>
+      <c r="AQ279">
+        <v>1.39</v>
+      </c>
+      <c r="AR279">
+        <v>1.74</v>
+      </c>
+      <c r="AS279">
+        <v>1.63</v>
+      </c>
+      <c r="AT279">
+        <v>3.37</v>
+      </c>
+      <c r="AU279">
+        <v>8</v>
+      </c>
+      <c r="AV279">
+        <v>4</v>
+      </c>
+      <c r="AW279">
+        <v>5</v>
+      </c>
+      <c r="AX279">
+        <v>5</v>
+      </c>
+      <c r="AY279">
+        <v>13</v>
+      </c>
+      <c r="AZ279">
+        <v>9</v>
+      </c>
+      <c r="BA279">
+        <v>4</v>
+      </c>
+      <c r="BB279">
+        <v>4</v>
+      </c>
+      <c r="BC279">
+        <v>8</v>
+      </c>
+      <c r="BD279">
+        <v>0</v>
+      </c>
+      <c r="BE279">
+        <v>0</v>
+      </c>
+      <c r="BF279">
+        <v>0</v>
+      </c>
+      <c r="BG279">
+        <v>0</v>
+      </c>
+      <c r="BH279">
+        <v>0</v>
+      </c>
+      <c r="BI279">
+        <v>1.7</v>
+      </c>
+      <c r="BJ279">
+        <v>2.05</v>
+      </c>
+      <c r="BK279">
+        <v>0</v>
+      </c>
+      <c r="BL279">
+        <v>0</v>
+      </c>
+      <c r="BM279">
+        <v>0</v>
+      </c>
+      <c r="BN279">
+        <v>0</v>
+      </c>
+      <c r="BO279">
+        <v>0</v>
+      </c>
+      <c r="BP279">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="387">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1173,6 +1173,9 @@
   <si>
     <t>['64', '81']</t>
   </si>
+  <si>
+    <t>['25']</t>
+  </si>
 </sst>
 </file>
 
@@ -1533,7 +1536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP279"/>
+  <dimension ref="A1:BP280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2694,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ6">
         <v>0.83</v>
@@ -3315,7 +3318,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ9">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -4757,7 +4760,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ16">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR16">
         <v>1.02</v>
@@ -5784,7 +5787,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ21">
         <v>1.83</v>
@@ -8050,7 +8053,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ32">
         <v>2.82</v>
@@ -9083,7 +9086,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ37">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR37">
         <v>1.6</v>
@@ -10113,7 +10116,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ42">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR42">
         <v>0.6</v>
@@ -10934,7 +10937,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ46">
         <v>0.9399999999999999</v>
@@ -12379,7 +12382,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ53">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR53">
         <v>1.1</v>
@@ -14230,7 +14233,7 @@
         <v>0.25</v>
       </c>
       <c r="AP62">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ62">
         <v>0.39</v>
@@ -16087,7 +16090,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ71">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR71">
         <v>1.63</v>
@@ -16496,7 +16499,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ73">
         <v>1.39</v>
@@ -19586,7 +19589,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ88">
         <v>0.88</v>
@@ -20619,7 +20622,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ93">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR93">
         <v>0</v>
@@ -22885,7 +22888,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ104">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR104">
         <v>1.79</v>
@@ -24118,7 +24121,7 @@
         <v>1.29</v>
       </c>
       <c r="AP110">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ110">
         <v>1.41</v>
@@ -27414,7 +27417,7 @@
         <v>0.38</v>
       </c>
       <c r="AP126">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ126">
         <v>0.9399999999999999</v>
@@ -28035,7 +28038,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ129">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR129">
         <v>1.62</v>
@@ -31740,7 +31743,7 @@
         <v>1.89</v>
       </c>
       <c r="AP147">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ147">
         <v>1.47</v>
@@ -32567,7 +32570,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ151">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR151">
         <v>1.68</v>
@@ -35036,7 +35039,7 @@
         <v>1.9</v>
       </c>
       <c r="AP163">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ163">
         <v>1.22</v>
@@ -37717,7 +37720,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ176">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR176">
         <v>1.74</v>
@@ -39362,7 +39365,7 @@
         <v>1.27</v>
       </c>
       <c r="AP184">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ184">
         <v>1.28</v>
@@ -40189,7 +40192,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ188">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR188">
         <v>1.79</v>
@@ -43279,7 +43282,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ203">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR203">
         <v>2.16</v>
@@ -44306,7 +44309,7 @@
         <v>1.42</v>
       </c>
       <c r="AP208">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ208">
         <v>1.12</v>
@@ -46575,7 +46578,7 @@
         <v>1</v>
       </c>
       <c r="AQ219">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR219">
         <v>1.23</v>
@@ -47396,7 +47399,7 @@
         <v>2.08</v>
       </c>
       <c r="AP223">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ223">
         <v>1.94</v>
@@ -51104,10 +51107,10 @@
         <v>1</v>
       </c>
       <c r="AP241">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ241">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR241">
         <v>1.63</v>
@@ -51722,7 +51725,7 @@
         <v>0.73</v>
       </c>
       <c r="AP244">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ244">
         <v>0.83</v>
@@ -52961,7 +52964,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ250">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR250">
         <v>1.61</v>
@@ -55636,7 +55639,7 @@
         <v>1</v>
       </c>
       <c r="AP263">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ263">
         <v>0.9399999999999999</v>
@@ -59011,6 +59014,212 @@
       </c>
       <c r="BP279">
         <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:68">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>7881250</v>
+      </c>
+      <c r="C280" t="s">
+        <v>68</v>
+      </c>
+      <c r="D280" t="s">
+        <v>69</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45789.54166666666</v>
+      </c>
+      <c r="F280">
+        <v>5</v>
+      </c>
+      <c r="G280" t="s">
+        <v>74</v>
+      </c>
+      <c r="H280" t="s">
+        <v>84</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>1</v>
+      </c>
+      <c r="K280">
+        <v>1</v>
+      </c>
+      <c r="L280">
+        <v>1</v>
+      </c>
+      <c r="M280">
+        <v>1</v>
+      </c>
+      <c r="N280">
+        <v>2</v>
+      </c>
+      <c r="O280" t="s">
+        <v>168</v>
+      </c>
+      <c r="P280" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q280">
+        <v>2.4</v>
+      </c>
+      <c r="R280">
+        <v>2.1</v>
+      </c>
+      <c r="S280">
+        <v>4.33</v>
+      </c>
+      <c r="T280">
+        <v>1.38</v>
+      </c>
+      <c r="U280">
+        <v>2.8</v>
+      </c>
+      <c r="V280">
+        <v>2.75</v>
+      </c>
+      <c r="W280">
+        <v>1.4</v>
+      </c>
+      <c r="X280">
+        <v>7</v>
+      </c>
+      <c r="Y280">
+        <v>1.1</v>
+      </c>
+      <c r="Z280">
+        <v>1.82</v>
+      </c>
+      <c r="AA280">
+        <v>3.26</v>
+      </c>
+      <c r="AB280">
+        <v>4.1</v>
+      </c>
+      <c r="AC280">
+        <v>1.05</v>
+      </c>
+      <c r="AD280">
+        <v>8.5</v>
+      </c>
+      <c r="AE280">
+        <v>1.3</v>
+      </c>
+      <c r="AF280">
+        <v>3.35</v>
+      </c>
+      <c r="AG280">
+        <v>1.85</v>
+      </c>
+      <c r="AH280">
+        <v>1.85</v>
+      </c>
+      <c r="AI280">
+        <v>1.73</v>
+      </c>
+      <c r="AJ280">
+        <v>1.93</v>
+      </c>
+      <c r="AK280">
+        <v>1.18</v>
+      </c>
+      <c r="AL280">
+        <v>1.25</v>
+      </c>
+      <c r="AM280">
+        <v>1.85</v>
+      </c>
+      <c r="AN280">
+        <v>1.24</v>
+      </c>
+      <c r="AO280">
+        <v>1.13</v>
+      </c>
+      <c r="AP280">
+        <v>1.22</v>
+      </c>
+      <c r="AQ280">
+        <v>1.12</v>
+      </c>
+      <c r="AR280">
+        <v>1.69</v>
+      </c>
+      <c r="AS280">
+        <v>1.52</v>
+      </c>
+      <c r="AT280">
+        <v>3.21</v>
+      </c>
+      <c r="AU280">
+        <v>0</v>
+      </c>
+      <c r="AV280">
+        <v>5</v>
+      </c>
+      <c r="AW280">
+        <v>8</v>
+      </c>
+      <c r="AX280">
+        <v>6</v>
+      </c>
+      <c r="AY280">
+        <v>8</v>
+      </c>
+      <c r="AZ280">
+        <v>11</v>
+      </c>
+      <c r="BA280">
+        <v>5</v>
+      </c>
+      <c r="BB280">
+        <v>2</v>
+      </c>
+      <c r="BC280">
+        <v>7</v>
+      </c>
+      <c r="BD280">
+        <v>1.83</v>
+      </c>
+      <c r="BE280">
+        <v>6.05</v>
+      </c>
+      <c r="BF280">
+        <v>2.46</v>
+      </c>
+      <c r="BG280">
+        <v>1.48</v>
+      </c>
+      <c r="BH280">
+        <v>2.47</v>
+      </c>
+      <c r="BI280">
+        <v>1.82</v>
+      </c>
+      <c r="BJ280">
+        <v>1.98</v>
+      </c>
+      <c r="BK280">
+        <v>2.32</v>
+      </c>
+      <c r="BL280">
+        <v>1.57</v>
+      </c>
+      <c r="BM280">
+        <v>2.98</v>
+      </c>
+      <c r="BN280">
+        <v>1.34</v>
+      </c>
+      <c r="BO280">
+        <v>4.1</v>
+      </c>
+      <c r="BP280">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="388">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -814,6 +814,9 @@
     <t>['63']</t>
   </si>
   <si>
+    <t>['62']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -1536,7 +1539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP280"/>
+  <dimension ref="A1:BP281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1795,7 +1798,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2413,7 +2416,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2825,7 +2828,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3031,7 +3034,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -3443,7 +3446,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3649,7 +3652,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3727,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ11">
         <v>0.88</v>
@@ -3855,7 +3858,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -5297,7 +5300,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -6327,7 +6330,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -7151,7 +7154,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -7769,7 +7772,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7975,7 +7978,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -9083,7 +9086,7 @@
         <v>0.5</v>
       </c>
       <c r="AP37">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ37">
         <v>1.12</v>
@@ -9211,7 +9214,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9623,7 +9626,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -10035,7 +10038,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10241,7 +10244,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10447,7 +10450,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10653,7 +10656,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -11349,7 +11352,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ48">
         <v>0.9399999999999999</v>
@@ -11477,7 +11480,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11683,7 +11686,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -13125,7 +13128,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -13331,7 +13334,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -13537,7 +13540,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13743,7 +13746,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13949,7 +13952,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -14361,7 +14364,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14567,7 +14570,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14773,7 +14776,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14979,7 +14982,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15263,7 +15266,7 @@
         <v>2.5</v>
       </c>
       <c r="AP67">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ67">
         <v>1.47</v>
@@ -15597,7 +15600,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -16009,7 +16012,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -16421,7 +16424,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16627,7 +16630,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -17039,7 +17042,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -17451,7 +17454,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17657,7 +17660,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -18069,7 +18072,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -18147,7 +18150,7 @@
         <v>2.5</v>
       </c>
       <c r="AP81">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ81">
         <v>1.22</v>
@@ -18275,7 +18278,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -18481,7 +18484,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18687,7 +18690,7 @@
         <v>87</v>
       </c>
       <c r="P84" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18893,7 +18896,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -19305,7 +19308,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -19717,7 +19720,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -20129,7 +20132,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -20747,7 +20750,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -21571,7 +21574,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q98">
         <v>13</v>
@@ -21855,7 +21858,7 @@
         <v>0.6</v>
       </c>
       <c r="AP99">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ99">
         <v>1.28</v>
@@ -21983,7 +21986,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -22189,7 +22192,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -22395,7 +22398,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22601,7 +22604,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -23425,7 +23428,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23837,7 +23840,7 @@
         <v>87</v>
       </c>
       <c r="P109" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -24249,7 +24252,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -24455,7 +24458,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -25279,7 +25282,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -25357,7 +25360,7 @@
         <v>1.8</v>
       </c>
       <c r="AP116">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ116">
         <v>1.39</v>
@@ -25485,7 +25488,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25691,7 +25694,7 @@
         <v>87</v>
       </c>
       <c r="P118" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -25897,7 +25900,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -26103,7 +26106,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q120">
         <v>3.15</v>
@@ -26927,7 +26930,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27005,7 +27008,7 @@
         <v>1.43</v>
       </c>
       <c r="AP124">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ124">
         <v>1.12</v>
@@ -27133,7 +27136,7 @@
         <v>87</v>
       </c>
       <c r="P125" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q125">
         <v>3.85</v>
@@ -27339,7 +27342,7 @@
         <v>110</v>
       </c>
       <c r="P126" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q126">
         <v>1.77</v>
@@ -27751,7 +27754,7 @@
         <v>119</v>
       </c>
       <c r="P128" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27957,7 +27960,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -28369,7 +28372,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -29399,7 +29402,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -30017,7 +30020,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q139">
         <v>5.5</v>
@@ -30095,7 +30098,7 @@
         <v>2.29</v>
       </c>
       <c r="AP139">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ139">
         <v>1.94</v>
@@ -30429,7 +30432,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30635,7 +30638,7 @@
         <v>148</v>
       </c>
       <c r="P142" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30841,7 +30844,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -31331,7 +31334,7 @@
         <v>0.11</v>
       </c>
       <c r="AP145">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ145">
         <v>0.39</v>
@@ -31665,7 +31668,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31871,7 +31874,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q148">
         <v>8.5</v>
@@ -32077,7 +32080,7 @@
         <v>190</v>
       </c>
       <c r="P149" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32489,7 +32492,7 @@
         <v>192</v>
       </c>
       <c r="P151" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q151">
         <v>1.83</v>
@@ -32695,7 +32698,7 @@
         <v>87</v>
       </c>
       <c r="P152" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q152">
         <v>13</v>
@@ -32901,7 +32904,7 @@
         <v>92</v>
       </c>
       <c r="P153" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -33313,7 +33316,7 @@
         <v>194</v>
       </c>
       <c r="P155" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q155">
         <v>2.38</v>
@@ -33931,7 +33934,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q158">
         <v>1.53</v>
@@ -34137,7 +34140,7 @@
         <v>87</v>
       </c>
       <c r="P159" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34343,7 +34346,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q160">
         <v>3.25</v>
@@ -34549,7 +34552,7 @@
         <v>87</v>
       </c>
       <c r="P161" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -35167,7 +35170,7 @@
         <v>199</v>
       </c>
       <c r="P164" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q164">
         <v>2.1</v>
@@ -35373,7 +35376,7 @@
         <v>200</v>
       </c>
       <c r="P165" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q165">
         <v>1.8</v>
@@ -35785,7 +35788,7 @@
         <v>97</v>
       </c>
       <c r="P167" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q167">
         <v>6.5</v>
@@ -36069,7 +36072,7 @@
         <v>0.7</v>
       </c>
       <c r="AP168">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ168">
         <v>0.83</v>
@@ -36403,7 +36406,7 @@
         <v>87</v>
       </c>
       <c r="P170" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -37227,7 +37230,7 @@
         <v>87</v>
       </c>
       <c r="P174" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37433,7 +37436,7 @@
         <v>87</v>
       </c>
       <c r="P175" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q175">
         <v>2.38</v>
@@ -38051,7 +38054,7 @@
         <v>206</v>
       </c>
       <c r="P178" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38463,7 +38466,7 @@
         <v>87</v>
       </c>
       <c r="P180" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q180">
         <v>13</v>
@@ -38875,7 +38878,7 @@
         <v>89</v>
       </c>
       <c r="P182" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q182">
         <v>1.83</v>
@@ -39081,7 +39084,7 @@
         <v>107</v>
       </c>
       <c r="P183" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q183">
         <v>1.91</v>
@@ -39287,7 +39290,7 @@
         <v>189</v>
       </c>
       <c r="P184" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q184">
         <v>2.3</v>
@@ -39571,7 +39574,7 @@
         <v>1.73</v>
       </c>
       <c r="AP185">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ185">
         <v>1.83</v>
@@ -39905,7 +39908,7 @@
         <v>87</v>
       </c>
       <c r="P187" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q187">
         <v>4.75</v>
@@ -40111,7 +40114,7 @@
         <v>87</v>
       </c>
       <c r="P188" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q188">
         <v>2</v>
@@ -40317,7 +40320,7 @@
         <v>209</v>
       </c>
       <c r="P189" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q189">
         <v>1.73</v>
@@ -41347,7 +41350,7 @@
         <v>212</v>
       </c>
       <c r="P194" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q194">
         <v>9.4</v>
@@ -41425,7 +41428,7 @@
         <v>3</v>
       </c>
       <c r="AP194">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ194">
         <v>2.82</v>
@@ -41759,7 +41762,7 @@
         <v>214</v>
       </c>
       <c r="P196" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q196">
         <v>3.85</v>
@@ -41965,7 +41968,7 @@
         <v>173</v>
       </c>
       <c r="P197" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q197">
         <v>3.25</v>
@@ -42995,7 +42998,7 @@
         <v>119</v>
       </c>
       <c r="P202" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q202">
         <v>7</v>
@@ -43407,7 +43410,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q204">
         <v>1.85</v>
@@ -44025,7 +44028,7 @@
         <v>152</v>
       </c>
       <c r="P207" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -44721,7 +44724,7 @@
         <v>0.85</v>
       </c>
       <c r="AP210">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ210">
         <v>0.9399999999999999</v>
@@ -45055,7 +45058,7 @@
         <v>87</v>
       </c>
       <c r="P212" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q212">
         <v>9.5</v>
@@ -45261,7 +45264,7 @@
         <v>225</v>
       </c>
       <c r="P213" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q213">
         <v>1.8</v>
@@ -45467,7 +45470,7 @@
         <v>226</v>
       </c>
       <c r="P214" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q214">
         <v>2.63</v>
@@ -46085,7 +46088,7 @@
         <v>189</v>
       </c>
       <c r="P217" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -46291,7 +46294,7 @@
         <v>229</v>
       </c>
       <c r="P218" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q218">
         <v>4.33</v>
@@ -46497,7 +46500,7 @@
         <v>230</v>
       </c>
       <c r="P219" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q219">
         <v>6</v>
@@ -46703,7 +46706,7 @@
         <v>231</v>
       </c>
       <c r="P220" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q220">
         <v>2.1</v>
@@ -47115,7 +47118,7 @@
         <v>233</v>
       </c>
       <c r="P222" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q222">
         <v>4.5</v>
@@ -47321,7 +47324,7 @@
         <v>87</v>
       </c>
       <c r="P223" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q223">
         <v>3.5</v>
@@ -47733,7 +47736,7 @@
         <v>234</v>
       </c>
       <c r="P225" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q225">
         <v>2.6</v>
@@ -48145,7 +48148,7 @@
         <v>235</v>
       </c>
       <c r="P227" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q227">
         <v>2.6</v>
@@ -48557,7 +48560,7 @@
         <v>236</v>
       </c>
       <c r="P229" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q229">
         <v>8</v>
@@ -49381,7 +49384,7 @@
         <v>182</v>
       </c>
       <c r="P233" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49459,7 +49462,7 @@
         <v>1.21</v>
       </c>
       <c r="AP233">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ233">
         <v>1.35</v>
@@ -49793,7 +49796,7 @@
         <v>87</v>
       </c>
       <c r="P235" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q235">
         <v>3.24</v>
@@ -49999,7 +50002,7 @@
         <v>239</v>
       </c>
       <c r="P236" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q236">
         <v>1.43</v>
@@ -50617,7 +50620,7 @@
         <v>226</v>
       </c>
       <c r="P239" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -50823,7 +50826,7 @@
         <v>241</v>
       </c>
       <c r="P240" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q240">
         <v>2.6</v>
@@ -51029,7 +51032,7 @@
         <v>87</v>
       </c>
       <c r="P241" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -51647,7 +51650,7 @@
         <v>244</v>
       </c>
       <c r="P244" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q244">
         <v>2.1</v>
@@ -51853,7 +51856,7 @@
         <v>240</v>
       </c>
       <c r="P245" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q245">
         <v>2.2</v>
@@ -52059,7 +52062,7 @@
         <v>245</v>
       </c>
       <c r="P246" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q246">
         <v>0</v>
@@ -52265,7 +52268,7 @@
         <v>246</v>
       </c>
       <c r="P247" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q247">
         <v>2.3</v>
@@ -52471,7 +52474,7 @@
         <v>87</v>
       </c>
       <c r="P248" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q248">
         <v>2.6</v>
@@ -52755,7 +52758,7 @@
         <v>0.27</v>
       </c>
       <c r="AP249">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ249">
         <v>0.39</v>
@@ -53707,7 +53710,7 @@
         <v>250</v>
       </c>
       <c r="P254" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q254">
         <v>1.95</v>
@@ -53913,7 +53916,7 @@
         <v>251</v>
       </c>
       <c r="P255" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q255">
         <v>5.5</v>
@@ -54531,7 +54534,7 @@
         <v>254</v>
       </c>
       <c r="P258" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q258">
         <v>1.95</v>
@@ -54737,7 +54740,7 @@
         <v>255</v>
       </c>
       <c r="P259" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q259">
         <v>1.57</v>
@@ -54943,7 +54946,7 @@
         <v>256</v>
       </c>
       <c r="P260" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q260">
         <v>2.3</v>
@@ -55149,7 +55152,7 @@
         <v>87</v>
       </c>
       <c r="P261" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q261">
         <v>2.6</v>
@@ -55973,7 +55976,7 @@
         <v>258</v>
       </c>
       <c r="P265" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q265">
         <v>2.75</v>
@@ -56051,7 +56054,7 @@
         <v>0.75</v>
       </c>
       <c r="AP265">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ265">
         <v>0.83</v>
@@ -56179,7 +56182,7 @@
         <v>259</v>
       </c>
       <c r="P266" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q266">
         <v>3</v>
@@ -56591,7 +56594,7 @@
         <v>235</v>
       </c>
       <c r="P268" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q268">
         <v>5</v>
@@ -57621,7 +57624,7 @@
         <v>262</v>
       </c>
       <c r="P273" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q273">
         <v>0</v>
@@ -57827,7 +57830,7 @@
         <v>263</v>
       </c>
       <c r="P274" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q274">
         <v>2.1</v>
@@ -58033,7 +58036,7 @@
         <v>264</v>
       </c>
       <c r="P275" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q275">
         <v>2.6</v>
@@ -58857,7 +58860,7 @@
         <v>89</v>
       </c>
       <c r="P279" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q279">
         <v>2.75</v>
@@ -59063,7 +59066,7 @@
         <v>168</v>
       </c>
       <c r="P280" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q280">
         <v>2.4</v>
@@ -59220,6 +59223,212 @@
       </c>
       <c r="BP280">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="281" spans="1:68">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>7881247</v>
+      </c>
+      <c r="C281" t="s">
+        <v>68</v>
+      </c>
+      <c r="D281" t="s">
+        <v>69</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45789.625</v>
+      </c>
+      <c r="F281">
+        <v>5</v>
+      </c>
+      <c r="G281" t="s">
+        <v>79</v>
+      </c>
+      <c r="H281" t="s">
+        <v>71</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
+      <c r="L281">
+        <v>1</v>
+      </c>
+      <c r="M281">
+        <v>1</v>
+      </c>
+      <c r="N281">
+        <v>2</v>
+      </c>
+      <c r="O281" t="s">
+        <v>266</v>
+      </c>
+      <c r="P281" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q281">
+        <v>2.7</v>
+      </c>
+      <c r="R281">
+        <v>2</v>
+      </c>
+      <c r="S281">
+        <v>4</v>
+      </c>
+      <c r="T281">
+        <v>1.44</v>
+      </c>
+      <c r="U281">
+        <v>2.6</v>
+      </c>
+      <c r="V281">
+        <v>2.95</v>
+      </c>
+      <c r="W281">
+        <v>1.35</v>
+      </c>
+      <c r="X281">
+        <v>8.5</v>
+      </c>
+      <c r="Y281">
+        <v>1.07</v>
+      </c>
+      <c r="Z281">
+        <v>1.97</v>
+      </c>
+      <c r="AA281">
+        <v>3.05</v>
+      </c>
+      <c r="AB281">
+        <v>3.77</v>
+      </c>
+      <c r="AC281">
+        <v>1.07</v>
+      </c>
+      <c r="AD281">
+        <v>7.5</v>
+      </c>
+      <c r="AE281">
+        <v>1.4</v>
+      </c>
+      <c r="AF281">
+        <v>2.8</v>
+      </c>
+      <c r="AG281">
+        <v>2.1</v>
+      </c>
+      <c r="AH281">
+        <v>1.6</v>
+      </c>
+      <c r="AI281">
+        <v>1.85</v>
+      </c>
+      <c r="AJ281">
+        <v>1.8</v>
+      </c>
+      <c r="AK281">
+        <v>1.28</v>
+      </c>
+      <c r="AL281">
+        <v>1.3</v>
+      </c>
+      <c r="AM281">
+        <v>1.7</v>
+      </c>
+      <c r="AN281">
+        <v>1.18</v>
+      </c>
+      <c r="AO281">
+        <v>0.88</v>
+      </c>
+      <c r="AP281">
+        <v>1.17</v>
+      </c>
+      <c r="AQ281">
+        <v>0.88</v>
+      </c>
+      <c r="AR281">
+        <v>1.58</v>
+      </c>
+      <c r="AS281">
+        <v>1.22</v>
+      </c>
+      <c r="AT281">
+        <v>2.8</v>
+      </c>
+      <c r="AU281">
+        <v>2</v>
+      </c>
+      <c r="AV281">
+        <v>7</v>
+      </c>
+      <c r="AW281">
+        <v>2</v>
+      </c>
+      <c r="AX281">
+        <v>13</v>
+      </c>
+      <c r="AY281">
+        <v>4</v>
+      </c>
+      <c r="AZ281">
+        <v>20</v>
+      </c>
+      <c r="BA281">
+        <v>4</v>
+      </c>
+      <c r="BB281">
+        <v>4</v>
+      </c>
+      <c r="BC281">
+        <v>8</v>
+      </c>
+      <c r="BD281">
+        <v>1.7</v>
+      </c>
+      <c r="BE281">
+        <v>7.3</v>
+      </c>
+      <c r="BF281">
+        <v>2.55</v>
+      </c>
+      <c r="BG281">
+        <v>1.75</v>
+      </c>
+      <c r="BH281">
+        <v>2.01</v>
+      </c>
+      <c r="BI281">
+        <v>2.24</v>
+      </c>
+      <c r="BJ281">
+        <v>1.6</v>
+      </c>
+      <c r="BK281">
+        <v>2.9</v>
+      </c>
+      <c r="BL281">
+        <v>1.36</v>
+      </c>
+      <c r="BM281">
+        <v>4.05</v>
+      </c>
+      <c r="BN281">
+        <v>1.18</v>
+      </c>
+      <c r="BO281">
+        <v>5.65</v>
+      </c>
+      <c r="BP281">
+        <v>1.09</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
@@ -58335,31 +58335,31 @@
         <v>2.48</v>
       </c>
       <c r="AU276">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV276">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW276">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="AX276">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AY276">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="AZ276">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BA276">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB276">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC276">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD276">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="393">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -817,6 +817,12 @@
     <t>['62']</t>
   </si>
   <si>
+    <t>['44', '60', '87']</t>
+  </si>
+  <si>
+    <t>['41', '45+4', '47']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -1179,6 +1185,15 @@
   <si>
     <t>['25']</t>
   </si>
+  <si>
+    <t>['20', '46', '58']</t>
+  </si>
+  <si>
+    <t>['6', '35']</t>
+  </si>
+  <si>
+    <t>['13', '44', '58', '78']</t>
+  </si>
 </sst>
 </file>
 
@@ -1539,7 +1554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP281"/>
+  <dimension ref="A1:BP285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1798,7 +1813,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2085,7 +2100,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ3">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2416,7 +2431,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2494,10 +2509,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ5">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2828,7 +2843,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2906,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ7">
         <v>0.9399999999999999</v>
@@ -3034,7 +3049,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -3318,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ9">
         <v>1.12</v>
@@ -3446,7 +3461,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3527,7 +3542,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ10">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3652,7 +3667,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3858,7 +3873,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -4966,10 +4981,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ17">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR17">
         <v>1.59</v>
@@ -5172,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ18">
         <v>0.39</v>
@@ -5300,7 +5315,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5381,7 +5396,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="AR19">
         <v>1.24</v>
@@ -5584,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ20">
         <v>0.9399999999999999</v>
@@ -6330,7 +6345,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6823,7 +6838,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ26">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR26">
         <v>0.95</v>
@@ -7154,7 +7169,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -7232,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ28">
         <v>0.9399999999999999</v>
@@ -7647,7 +7662,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ30">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7772,7 +7787,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7850,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ31">
         <v>1.39</v>
@@ -7978,7 +7993,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -8059,7 +8074,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ32">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="AR32">
         <v>1</v>
@@ -8262,10 +8277,10 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ33">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR33">
         <v>1.82</v>
@@ -8468,7 +8483,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ34">
         <v>1.22</v>
@@ -9214,7 +9229,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9498,7 +9513,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ39">
         <v>1.35</v>
@@ -9626,7 +9641,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -10038,7 +10053,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10244,7 +10259,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10325,7 +10340,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ43">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR43">
         <v>1.47</v>
@@ -10450,7 +10465,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10528,7 +10543,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ44">
         <v>0.88</v>
@@ -10656,7 +10671,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -11146,7 +11161,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ47">
         <v>0.39</v>
@@ -11480,7 +11495,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11561,7 +11576,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ49">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR49">
         <v>1.07</v>
@@ -11686,7 +11701,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11764,7 +11779,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ50">
         <v>1.22</v>
@@ -11973,7 +11988,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ51">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="AR51">
         <v>1.93</v>
@@ -12588,7 +12603,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ54">
         <v>1.41</v>
@@ -13000,10 +13015,10 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ56">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR56">
         <v>0</v>
@@ -13128,7 +13143,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -13206,7 +13221,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ57">
         <v>1.35</v>
@@ -13334,7 +13349,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -13540,7 +13555,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13621,7 +13636,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ59">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR59">
         <v>1.68</v>
@@ -13746,7 +13761,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13952,7 +13967,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -14033,7 +14048,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ61">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR61">
         <v>1.36</v>
@@ -14364,7 +14379,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14442,7 +14457,7 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ63">
         <v>1.28</v>
@@ -14570,7 +14585,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14776,7 +14791,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14982,7 +14997,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15269,7 +15284,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ67">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR67">
         <v>1.33</v>
@@ -15600,7 +15615,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15681,7 +15696,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ69">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="AR69">
         <v>1.36</v>
@@ -16012,7 +16027,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -16296,10 +16311,10 @@
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ72">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR72">
         <v>1.97</v>
@@ -16424,7 +16439,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16630,7 +16645,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16708,7 +16723,7 @@
         <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ74">
         <v>0.83</v>
@@ -17042,7 +17057,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -17120,10 +17135,10 @@
         <v>1.75</v>
       </c>
       <c r="AP76">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ76">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR76">
         <v>0</v>
@@ -17454,7 +17469,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17532,7 +17547,7 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ78">
         <v>1.28</v>
@@ -17660,7 +17675,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17741,7 +17756,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ79">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR79">
         <v>1.64</v>
@@ -18072,7 +18087,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -18278,7 +18293,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -18484,7 +18499,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18690,7 +18705,7 @@
         <v>87</v>
       </c>
       <c r="P84" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18896,7 +18911,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -18977,7 +18992,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ85">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="AR85">
         <v>1.2</v>
@@ -19180,7 +19195,7 @@
         <v>0.2</v>
       </c>
       <c r="AP86">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ86">
         <v>0.39</v>
@@ -19308,7 +19323,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -19720,7 +19735,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19798,10 +19813,10 @@
         <v>1.2</v>
       </c>
       <c r="AP89">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ89">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR89">
         <v>1.92</v>
@@ -20132,7 +20147,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -20622,7 +20637,7 @@
         <v>0.67</v>
       </c>
       <c r="AP93">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ93">
         <v>1.12</v>
@@ -20750,7 +20765,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20828,10 +20843,10 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ94">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR94">
         <v>1.84</v>
@@ -21574,7 +21589,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q98">
         <v>13</v>
@@ -21655,7 +21670,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ98">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="AR98">
         <v>1.07</v>
@@ -21986,7 +22001,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -22064,10 +22079,10 @@
         <v>2.33</v>
       </c>
       <c r="AP100">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ100">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR100">
         <v>1.66</v>
@@ -22192,7 +22207,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -22398,7 +22413,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22604,7 +22619,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22888,7 +22903,7 @@
         <v>0.57</v>
       </c>
       <c r="AP104">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ104">
         <v>1.12</v>
@@ -23428,7 +23443,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23506,10 +23521,10 @@
         <v>2.17</v>
       </c>
       <c r="AP107">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ107">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR107">
         <v>1.95</v>
@@ -23712,7 +23727,7 @@
         <v>0.29</v>
       </c>
       <c r="AP108">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ108">
         <v>0.9399999999999999</v>
@@ -23840,7 +23855,7 @@
         <v>87</v>
       </c>
       <c r="P109" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -23921,7 +23936,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ109">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR109">
         <v>1.11</v>
@@ -24252,7 +24267,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -24458,7 +24473,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24948,7 +24963,7 @@
         <v>2.33</v>
       </c>
       <c r="AP114">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ114">
         <v>1.22</v>
@@ -25282,7 +25297,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -25488,7 +25503,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25569,7 +25584,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ117">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR117">
         <v>1.39</v>
@@ -25694,7 +25709,7 @@
         <v>87</v>
       </c>
       <c r="P118" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -25775,7 +25790,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ118">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="AR118">
         <v>1.51</v>
@@ -25900,7 +25915,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -26106,7 +26121,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q120">
         <v>3.15</v>
@@ -26390,7 +26405,7 @@
         <v>0.43</v>
       </c>
       <c r="AP121">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ121">
         <v>0.9399999999999999</v>
@@ -26930,7 +26945,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27011,7 +27026,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ124">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR124">
         <v>1.33</v>
@@ -27136,7 +27151,7 @@
         <v>87</v>
       </c>
       <c r="P125" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q125">
         <v>3.85</v>
@@ -27214,7 +27229,7 @@
         <v>1.5</v>
       </c>
       <c r="AP125">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ125">
         <v>1.83</v>
@@ -27342,7 +27357,7 @@
         <v>110</v>
       </c>
       <c r="P126" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q126">
         <v>1.77</v>
@@ -27629,7 +27644,7 @@
         <v>1</v>
       </c>
       <c r="AQ127">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR127">
         <v>1.18</v>
@@ -27754,7 +27769,7 @@
         <v>119</v>
       </c>
       <c r="P128" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27960,7 +27975,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -28372,7 +28387,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -28450,10 +28465,10 @@
         <v>3</v>
       </c>
       <c r="AP131">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ131">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="AR131">
         <v>1.03</v>
@@ -28656,7 +28671,7 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ132">
         <v>0.83</v>
@@ -29402,7 +29417,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -29686,7 +29701,7 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ137">
         <v>1.35</v>
@@ -30020,7 +30035,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q139">
         <v>5.5</v>
@@ -30101,7 +30116,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ139">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR139">
         <v>1.32</v>
@@ -30432,7 +30447,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30638,7 +30653,7 @@
         <v>148</v>
       </c>
       <c r="P142" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30719,7 +30734,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ142">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR142">
         <v>1.78</v>
@@ -30844,7 +30859,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -30925,7 +30940,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ143">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR143">
         <v>1.05</v>
@@ -31668,7 +31683,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31749,7 +31764,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ147">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR147">
         <v>1.6</v>
@@ -31874,7 +31889,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q148">
         <v>8.5</v>
@@ -31952,10 +31967,10 @@
         <v>3</v>
       </c>
       <c r="AP148">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ148">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="AR148">
         <v>1.72</v>
@@ -32080,7 +32095,7 @@
         <v>190</v>
       </c>
       <c r="P149" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32158,7 +32173,7 @@
         <v>1.67</v>
       </c>
       <c r="AP149">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ149">
         <v>1.83</v>
@@ -32492,7 +32507,7 @@
         <v>192</v>
       </c>
       <c r="P151" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q151">
         <v>1.83</v>
@@ -32698,7 +32713,7 @@
         <v>87</v>
       </c>
       <c r="P152" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q152">
         <v>13</v>
@@ -32779,7 +32794,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ152">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="AR152">
         <v>1.2</v>
@@ -32904,7 +32919,7 @@
         <v>92</v>
       </c>
       <c r="P153" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -32982,7 +32997,7 @@
         <v>0.89</v>
       </c>
       <c r="AP153">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ153">
         <v>1.28</v>
@@ -33316,7 +33331,7 @@
         <v>194</v>
       </c>
       <c r="P155" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q155">
         <v>2.38</v>
@@ -33394,10 +33409,10 @@
         <v>1.56</v>
       </c>
       <c r="AP155">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ155">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR155">
         <v>1.77</v>
@@ -33603,7 +33618,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ156">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR156">
         <v>1.72</v>
@@ -33934,7 +33949,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q158">
         <v>1.53</v>
@@ -34140,7 +34155,7 @@
         <v>87</v>
       </c>
       <c r="P159" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34346,7 +34361,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q160">
         <v>3.25</v>
@@ -34552,7 +34567,7 @@
         <v>87</v>
       </c>
       <c r="P161" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -35170,7 +35185,7 @@
         <v>199</v>
       </c>
       <c r="P164" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q164">
         <v>2.1</v>
@@ -35248,7 +35263,7 @@
         <v>0.4</v>
       </c>
       <c r="AP164">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ164">
         <v>0.9399999999999999</v>
@@ -35376,7 +35391,7 @@
         <v>200</v>
       </c>
       <c r="P165" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q165">
         <v>1.8</v>
@@ -35788,7 +35803,7 @@
         <v>97</v>
       </c>
       <c r="P167" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q167">
         <v>6.5</v>
@@ -35866,10 +35881,10 @@
         <v>3</v>
       </c>
       <c r="AP167">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ167">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="AR167">
         <v>2.02</v>
@@ -36281,7 +36296,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ169">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR169">
         <v>1.61</v>
@@ -36406,7 +36421,7 @@
         <v>87</v>
       </c>
       <c r="P170" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -36690,7 +36705,7 @@
         <v>1.5</v>
       </c>
       <c r="AP171">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ171">
         <v>1.39</v>
@@ -36899,7 +36914,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ172">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR172">
         <v>2.01</v>
@@ -37102,10 +37117,10 @@
         <v>2.2</v>
       </c>
       <c r="AP173">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ173">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR173">
         <v>1.77</v>
@@ -37230,7 +37245,7 @@
         <v>87</v>
       </c>
       <c r="P174" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37436,7 +37451,7 @@
         <v>87</v>
       </c>
       <c r="P175" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q175">
         <v>2.38</v>
@@ -38054,7 +38069,7 @@
         <v>206</v>
       </c>
       <c r="P178" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38341,7 +38356,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ179">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR179">
         <v>1.67</v>
@@ -38466,7 +38481,7 @@
         <v>87</v>
       </c>
       <c r="P180" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q180">
         <v>13</v>
@@ -38547,7 +38562,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ180">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="AR180">
         <v>1.34</v>
@@ -38878,7 +38893,7 @@
         <v>89</v>
       </c>
       <c r="P182" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q182">
         <v>1.83</v>
@@ -39084,7 +39099,7 @@
         <v>107</v>
       </c>
       <c r="P183" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q183">
         <v>1.91</v>
@@ -39162,7 +39177,7 @@
         <v>0.64</v>
       </c>
       <c r="AP183">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ183">
         <v>0.9399999999999999</v>
@@ -39290,7 +39305,7 @@
         <v>189</v>
       </c>
       <c r="P184" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q184">
         <v>2.3</v>
@@ -39908,7 +39923,7 @@
         <v>87</v>
       </c>
       <c r="P187" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q187">
         <v>4.75</v>
@@ -39989,7 +40004,7 @@
         <v>1</v>
       </c>
       <c r="AQ187">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR187">
         <v>1.22</v>
@@ -40114,7 +40129,7 @@
         <v>87</v>
       </c>
       <c r="P188" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q188">
         <v>2</v>
@@ -40192,7 +40207,7 @@
         <v>0.73</v>
       </c>
       <c r="AP188">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ188">
         <v>1.12</v>
@@ -40320,7 +40335,7 @@
         <v>209</v>
       </c>
       <c r="P189" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q189">
         <v>1.73</v>
@@ -40401,7 +40416,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ189">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR189">
         <v>2.16</v>
@@ -40604,7 +40619,7 @@
         <v>1.18</v>
       </c>
       <c r="AP190">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ190">
         <v>0.88</v>
@@ -41016,7 +41031,7 @@
         <v>1.36</v>
       </c>
       <c r="AP192">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ192">
         <v>1.39</v>
@@ -41350,7 +41365,7 @@
         <v>212</v>
       </c>
       <c r="P194" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q194">
         <v>9.4</v>
@@ -41431,7 +41446,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ194">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="AR194">
         <v>1.48</v>
@@ -41762,7 +41777,7 @@
         <v>214</v>
       </c>
       <c r="P196" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q196">
         <v>3.85</v>
@@ -41968,7 +41983,7 @@
         <v>173</v>
       </c>
       <c r="P197" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q197">
         <v>3.25</v>
@@ -42049,7 +42064,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ197">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR197">
         <v>1.49</v>
@@ -42664,7 +42679,7 @@
         <v>1.42</v>
       </c>
       <c r="AP200">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ200">
         <v>1.35</v>
@@ -42998,7 +43013,7 @@
         <v>119</v>
       </c>
       <c r="P202" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q202">
         <v>7</v>
@@ -43079,7 +43094,7 @@
         <v>1</v>
       </c>
       <c r="AQ202">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR202">
         <v>1.22</v>
@@ -43410,7 +43425,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q204">
         <v>1.85</v>
@@ -43488,7 +43503,7 @@
         <v>0.83</v>
       </c>
       <c r="AP204">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ204">
         <v>0.9399999999999999</v>
@@ -43900,7 +43915,7 @@
         <v>1.08</v>
       </c>
       <c r="AP206">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ206">
         <v>0.88</v>
@@ -44028,7 +44043,7 @@
         <v>152</v>
       </c>
       <c r="P207" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -44106,7 +44121,7 @@
         <v>1.27</v>
       </c>
       <c r="AP207">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ207">
         <v>1.41</v>
@@ -44315,7 +44330,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ208">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR208">
         <v>1.69</v>
@@ -44521,7 +44536,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ209">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR209">
         <v>1.19</v>
@@ -45058,7 +45073,7 @@
         <v>87</v>
       </c>
       <c r="P212" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q212">
         <v>9.5</v>
@@ -45139,7 +45154,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ212">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="AR212">
         <v>1.64</v>
@@ -45264,7 +45279,7 @@
         <v>225</v>
       </c>
       <c r="P213" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q213">
         <v>1.8</v>
@@ -45470,7 +45485,7 @@
         <v>226</v>
       </c>
       <c r="P214" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q214">
         <v>2.63</v>
@@ -45960,7 +45975,7 @@
         <v>0.31</v>
       </c>
       <c r="AP216">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ216">
         <v>0.39</v>
@@ -46088,7 +46103,7 @@
         <v>189</v>
       </c>
       <c r="P217" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -46294,7 +46309,7 @@
         <v>229</v>
       </c>
       <c r="P218" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q218">
         <v>4.33</v>
@@ -46375,7 +46390,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ218">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR218">
         <v>1.22</v>
@@ -46500,7 +46515,7 @@
         <v>230</v>
       </c>
       <c r="P219" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q219">
         <v>6</v>
@@ -46706,7 +46721,7 @@
         <v>231</v>
       </c>
       <c r="P220" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q220">
         <v>2.1</v>
@@ -46784,7 +46799,7 @@
         <v>1</v>
       </c>
       <c r="AP220">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ220">
         <v>0.88</v>
@@ -47118,7 +47133,7 @@
         <v>233</v>
       </c>
       <c r="P222" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q222">
         <v>4.5</v>
@@ -47324,7 +47339,7 @@
         <v>87</v>
       </c>
       <c r="P223" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q223">
         <v>3.5</v>
@@ -47405,7 +47420,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ223">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR223">
         <v>1.65</v>
@@ -47608,7 +47623,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP224">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ224">
         <v>0.83</v>
@@ -47736,7 +47751,7 @@
         <v>234</v>
       </c>
       <c r="P225" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q225">
         <v>2.6</v>
@@ -47814,7 +47829,7 @@
         <v>1.38</v>
       </c>
       <c r="AP225">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ225">
         <v>1.41</v>
@@ -48148,7 +48163,7 @@
         <v>235</v>
       </c>
       <c r="P227" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q227">
         <v>2.6</v>
@@ -48560,7 +48575,7 @@
         <v>236</v>
       </c>
       <c r="P229" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q229">
         <v>8</v>
@@ -48638,10 +48653,10 @@
         <v>3</v>
       </c>
       <c r="AP229">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ229">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="AR229">
         <v>1.73</v>
@@ -48847,7 +48862,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ230">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR230">
         <v>1.39</v>
@@ -49384,7 +49399,7 @@
         <v>182</v>
       </c>
       <c r="P233" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49796,7 +49811,7 @@
         <v>87</v>
       </c>
       <c r="P235" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q235">
         <v>3.24</v>
@@ -49877,7 +49892,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ235">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR235">
         <v>1.59</v>
@@ -50002,7 +50017,7 @@
         <v>239</v>
       </c>
       <c r="P236" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q236">
         <v>1.43</v>
@@ -50083,7 +50098,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ236">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR236">
         <v>2.21</v>
@@ -50492,7 +50507,7 @@
         <v>1.29</v>
       </c>
       <c r="AP238">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ238">
         <v>1.41</v>
@@ -50620,7 +50635,7 @@
         <v>226</v>
       </c>
       <c r="P239" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -50698,7 +50713,7 @@
         <v>1.64</v>
       </c>
       <c r="AP239">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ239">
         <v>1.83</v>
@@ -50826,7 +50841,7 @@
         <v>241</v>
       </c>
       <c r="P240" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q240">
         <v>2.6</v>
@@ -50904,7 +50919,7 @@
         <v>0.71</v>
       </c>
       <c r="AP240">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ240">
         <v>0.83</v>
@@ -51032,7 +51047,7 @@
         <v>87</v>
       </c>
       <c r="P241" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -51319,7 +51334,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ242">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR242">
         <v>1.65</v>
@@ -51525,7 +51540,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ243">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR243">
         <v>2.26</v>
@@ -51650,7 +51665,7 @@
         <v>244</v>
       </c>
       <c r="P244" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q244">
         <v>2.1</v>
@@ -51856,7 +51871,7 @@
         <v>240</v>
       </c>
       <c r="P245" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q245">
         <v>2.2</v>
@@ -51934,7 +51949,7 @@
         <v>1.07</v>
       </c>
       <c r="AP245">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ245">
         <v>1.28</v>
@@ -52062,7 +52077,7 @@
         <v>245</v>
       </c>
       <c r="P246" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q246">
         <v>0</v>
@@ -52140,7 +52155,7 @@
         <v>1.4</v>
       </c>
       <c r="AP246">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ246">
         <v>1.22</v>
@@ -52268,7 +52283,7 @@
         <v>246</v>
       </c>
       <c r="P247" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q247">
         <v>2.3</v>
@@ -52474,7 +52489,7 @@
         <v>87</v>
       </c>
       <c r="P248" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q248">
         <v>2.6</v>
@@ -53376,7 +53391,7 @@
         <v>1.73</v>
       </c>
       <c r="AP252">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ252">
         <v>1.83</v>
@@ -53582,7 +53597,7 @@
         <v>1.27</v>
       </c>
       <c r="AP253">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ253">
         <v>1.39</v>
@@ -53710,7 +53725,7 @@
         <v>250</v>
       </c>
       <c r="P254" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q254">
         <v>1.95</v>
@@ -53791,7 +53806,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ254">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR254">
         <v>1.78</v>
@@ -53916,7 +53931,7 @@
         <v>251</v>
       </c>
       <c r="P255" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q255">
         <v>5.5</v>
@@ -53997,7 +54012,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ255">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="AR255">
         <v>1.61</v>
@@ -54534,7 +54549,7 @@
         <v>254</v>
       </c>
       <c r="P258" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q258">
         <v>1.95</v>
@@ -54740,7 +54755,7 @@
         <v>255</v>
       </c>
       <c r="P259" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q259">
         <v>1.57</v>
@@ -54821,7 +54836,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ259">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR259">
         <v>2.23</v>
@@ -54946,7 +54961,7 @@
         <v>256</v>
       </c>
       <c r="P260" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q260">
         <v>2.3</v>
@@ -55027,7 +55042,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ260">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR260">
         <v>1.75</v>
@@ -55152,7 +55167,7 @@
         <v>87</v>
       </c>
       <c r="P261" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q261">
         <v>2.6</v>
@@ -55230,7 +55245,7 @@
         <v>1.19</v>
       </c>
       <c r="AP261">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ261">
         <v>1.39</v>
@@ -55848,7 +55863,7 @@
         <v>1.19</v>
       </c>
       <c r="AP264">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ264">
         <v>1.28</v>
@@ -55976,7 +55991,7 @@
         <v>258</v>
       </c>
       <c r="P265" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q265">
         <v>2.75</v>
@@ -56182,7 +56197,7 @@
         <v>259</v>
       </c>
       <c r="P266" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q266">
         <v>3</v>
@@ -56594,7 +56609,7 @@
         <v>235</v>
       </c>
       <c r="P268" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q268">
         <v>5</v>
@@ -56672,10 +56687,10 @@
         <v>2.81</v>
       </c>
       <c r="AP268">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ268">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="AR268">
         <v>1.88</v>
@@ -57496,10 +57511,10 @@
         <v>2.06</v>
       </c>
       <c r="AP272">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ272">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR272">
         <v>1.76</v>
@@ -57624,7 +57639,7 @@
         <v>262</v>
       </c>
       <c r="P273" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q273">
         <v>0</v>
@@ -57830,7 +57845,7 @@
         <v>263</v>
       </c>
       <c r="P274" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q274">
         <v>2.1</v>
@@ -58036,7 +58051,7 @@
         <v>264</v>
       </c>
       <c r="P275" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q275">
         <v>2.6</v>
@@ -58860,7 +58875,7 @@
         <v>89</v>
       </c>
       <c r="P279" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q279">
         <v>2.75</v>
@@ -59066,7 +59081,7 @@
         <v>168</v>
       </c>
       <c r="P280" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q280">
         <v>2.4</v>
@@ -59272,7 +59287,7 @@
         <v>266</v>
       </c>
       <c r="P281" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q281">
         <v>2.7</v>
@@ -59429,6 +59444,830 @@
       </c>
       <c r="BP281">
         <v>1.09</v>
+      </c>
+    </row>
+    <row r="282" spans="1:68">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>7881251</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" t="s">
+        <v>69</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45794.5625</v>
+      </c>
+      <c r="F282">
+        <v>6</v>
+      </c>
+      <c r="G282" t="s">
+        <v>75</v>
+      </c>
+      <c r="H282" t="s">
+        <v>72</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282">
+        <v>1</v>
+      </c>
+      <c r="K282">
+        <v>2</v>
+      </c>
+      <c r="L282">
+        <v>3</v>
+      </c>
+      <c r="M282">
+        <v>3</v>
+      </c>
+      <c r="N282">
+        <v>6</v>
+      </c>
+      <c r="O282" t="s">
+        <v>267</v>
+      </c>
+      <c r="P282" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q282">
+        <v>5.5</v>
+      </c>
+      <c r="R282">
+        <v>2.6</v>
+      </c>
+      <c r="S282">
+        <v>1.83</v>
+      </c>
+      <c r="T282">
+        <v>1.25</v>
+      </c>
+      <c r="U282">
+        <v>3.75</v>
+      </c>
+      <c r="V282">
+        <v>2.2</v>
+      </c>
+      <c r="W282">
+        <v>1.62</v>
+      </c>
+      <c r="X282">
+        <v>4.5</v>
+      </c>
+      <c r="Y282">
+        <v>1.17</v>
+      </c>
+      <c r="Z282">
+        <v>5.9</v>
+      </c>
+      <c r="AA282">
+        <v>4.3</v>
+      </c>
+      <c r="AB282">
+        <v>1.39</v>
+      </c>
+      <c r="AC282">
+        <v>1.01</v>
+      </c>
+      <c r="AD282">
+        <v>17</v>
+      </c>
+      <c r="AE282">
+        <v>1.17</v>
+      </c>
+      <c r="AF282">
+        <v>4.75</v>
+      </c>
+      <c r="AG282">
+        <v>1.42</v>
+      </c>
+      <c r="AH282">
+        <v>2.65</v>
+      </c>
+      <c r="AI282">
+        <v>1.73</v>
+      </c>
+      <c r="AJ282">
+        <v>2</v>
+      </c>
+      <c r="AK282">
+        <v>2.8</v>
+      </c>
+      <c r="AL282">
+        <v>1.14</v>
+      </c>
+      <c r="AM282">
+        <v>1.06</v>
+      </c>
+      <c r="AN282">
+        <v>1.59</v>
+      </c>
+      <c r="AO282">
+        <v>2.82</v>
+      </c>
+      <c r="AP282">
+        <v>1.56</v>
+      </c>
+      <c r="AQ282">
+        <v>2.72</v>
+      </c>
+      <c r="AR282">
+        <v>1.74</v>
+      </c>
+      <c r="AS282">
+        <v>2.25</v>
+      </c>
+      <c r="AT282">
+        <v>3.99</v>
+      </c>
+      <c r="AU282">
+        <v>7</v>
+      </c>
+      <c r="AV282">
+        <v>5</v>
+      </c>
+      <c r="AW282">
+        <v>5</v>
+      </c>
+      <c r="AX282">
+        <v>8</v>
+      </c>
+      <c r="AY282">
+        <v>12</v>
+      </c>
+      <c r="AZ282">
+        <v>13</v>
+      </c>
+      <c r="BA282">
+        <v>2</v>
+      </c>
+      <c r="BB282">
+        <v>3</v>
+      </c>
+      <c r="BC282">
+        <v>5</v>
+      </c>
+      <c r="BD282">
+        <v>4.07</v>
+      </c>
+      <c r="BE282">
+        <v>9.5</v>
+      </c>
+      <c r="BF282">
+        <v>1.34</v>
+      </c>
+      <c r="BG282">
+        <v>1.32</v>
+      </c>
+      <c r="BH282">
+        <v>3.12</v>
+      </c>
+      <c r="BI282">
+        <v>1.57</v>
+      </c>
+      <c r="BJ282">
+        <v>2.31</v>
+      </c>
+      <c r="BK282">
+        <v>1.92</v>
+      </c>
+      <c r="BL282">
+        <v>1.82</v>
+      </c>
+      <c r="BM282">
+        <v>2.41</v>
+      </c>
+      <c r="BN282">
+        <v>1.5</v>
+      </c>
+      <c r="BO282">
+        <v>3.15</v>
+      </c>
+      <c r="BP282">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="283" spans="1:68">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>7881252</v>
+      </c>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>69</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45794.5625</v>
+      </c>
+      <c r="F283">
+        <v>6</v>
+      </c>
+      <c r="G283" t="s">
+        <v>77</v>
+      </c>
+      <c r="H283" t="s">
+        <v>82</v>
+      </c>
+      <c r="I283">
+        <v>2</v>
+      </c>
+      <c r="J283">
+        <v>2</v>
+      </c>
+      <c r="K283">
+        <v>4</v>
+      </c>
+      <c r="L283">
+        <v>3</v>
+      </c>
+      <c r="M283">
+        <v>2</v>
+      </c>
+      <c r="N283">
+        <v>5</v>
+      </c>
+      <c r="O283" t="s">
+        <v>268</v>
+      </c>
+      <c r="P283" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q283">
+        <v>2.63</v>
+      </c>
+      <c r="R283">
+        <v>2.3</v>
+      </c>
+      <c r="S283">
+        <v>3.4</v>
+      </c>
+      <c r="T283">
+        <v>1.3</v>
+      </c>
+      <c r="U283">
+        <v>3.4</v>
+      </c>
+      <c r="V283">
+        <v>2.5</v>
+      </c>
+      <c r="W283">
+        <v>1.5</v>
+      </c>
+      <c r="X283">
+        <v>5.5</v>
+      </c>
+      <c r="Y283">
+        <v>1.13</v>
+      </c>
+      <c r="Z283">
+        <v>2.09</v>
+      </c>
+      <c r="AA283">
+        <v>3.57</v>
+      </c>
+      <c r="AB283">
+        <v>2.78</v>
+      </c>
+      <c r="AC283">
+        <v>1.03</v>
+      </c>
+      <c r="AD283">
+        <v>10</v>
+      </c>
+      <c r="AE283">
+        <v>1.2</v>
+      </c>
+      <c r="AF283">
+        <v>4.2</v>
+      </c>
+      <c r="AG283">
+        <v>1.55</v>
+      </c>
+      <c r="AH283">
+        <v>2.2</v>
+      </c>
+      <c r="AI283">
+        <v>1.62</v>
+      </c>
+      <c r="AJ283">
+        <v>2.2</v>
+      </c>
+      <c r="AK283">
+        <v>1.38</v>
+      </c>
+      <c r="AL283">
+        <v>1.22</v>
+      </c>
+      <c r="AM283">
+        <v>1.67</v>
+      </c>
+      <c r="AN283">
+        <v>1.29</v>
+      </c>
+      <c r="AO283">
+        <v>1.47</v>
+      </c>
+      <c r="AP283">
+        <v>1.39</v>
+      </c>
+      <c r="AQ283">
+        <v>1.39</v>
+      </c>
+      <c r="AR283">
+        <v>1.81</v>
+      </c>
+      <c r="AS283">
+        <v>1.46</v>
+      </c>
+      <c r="AT283">
+        <v>3.27</v>
+      </c>
+      <c r="AU283">
+        <v>8</v>
+      </c>
+      <c r="AV283">
+        <v>5</v>
+      </c>
+      <c r="AW283">
+        <v>3</v>
+      </c>
+      <c r="AX283">
+        <v>5</v>
+      </c>
+      <c r="AY283">
+        <v>11</v>
+      </c>
+      <c r="AZ283">
+        <v>10</v>
+      </c>
+      <c r="BA283">
+        <v>3</v>
+      </c>
+      <c r="BB283">
+        <v>5</v>
+      </c>
+      <c r="BC283">
+        <v>8</v>
+      </c>
+      <c r="BD283">
+        <v>1.75</v>
+      </c>
+      <c r="BE283">
+        <v>8</v>
+      </c>
+      <c r="BF283">
+        <v>2.52</v>
+      </c>
+      <c r="BG283">
+        <v>1.36</v>
+      </c>
+      <c r="BH283">
+        <v>2.87</v>
+      </c>
+      <c r="BI283">
+        <v>1.63</v>
+      </c>
+      <c r="BJ283">
+        <v>2.2</v>
+      </c>
+      <c r="BK283">
+        <v>2.02</v>
+      </c>
+      <c r="BL283">
+        <v>1.74</v>
+      </c>
+      <c r="BM283">
+        <v>2.55</v>
+      </c>
+      <c r="BN283">
+        <v>1.45</v>
+      </c>
+      <c r="BO283">
+        <v>3.38</v>
+      </c>
+      <c r="BP283">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="284" spans="1:68">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>7881253</v>
+      </c>
+      <c r="C284" t="s">
+        <v>68</v>
+      </c>
+      <c r="D284" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45794.5625</v>
+      </c>
+      <c r="F284">
+        <v>6</v>
+      </c>
+      <c r="G284" t="s">
+        <v>73</v>
+      </c>
+      <c r="H284" t="s">
+        <v>83</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>2</v>
+      </c>
+      <c r="K284">
+        <v>2</v>
+      </c>
+      <c r="L284">
+        <v>0</v>
+      </c>
+      <c r="M284">
+        <v>4</v>
+      </c>
+      <c r="N284">
+        <v>4</v>
+      </c>
+      <c r="O284" t="s">
+        <v>87</v>
+      </c>
+      <c r="P284" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q284">
+        <v>0</v>
+      </c>
+      <c r="R284">
+        <v>0</v>
+      </c>
+      <c r="S284">
+        <v>0</v>
+      </c>
+      <c r="T284">
+        <v>0</v>
+      </c>
+      <c r="U284">
+        <v>0</v>
+      </c>
+      <c r="V284">
+        <v>0</v>
+      </c>
+      <c r="W284">
+        <v>0</v>
+      </c>
+      <c r="X284">
+        <v>0</v>
+      </c>
+      <c r="Y284">
+        <v>0</v>
+      </c>
+      <c r="Z284">
+        <v>3.47</v>
+      </c>
+      <c r="AA284">
+        <v>3.47</v>
+      </c>
+      <c r="AB284">
+        <v>1.84</v>
+      </c>
+      <c r="AC284">
+        <v>0</v>
+      </c>
+      <c r="AD284">
+        <v>0</v>
+      </c>
+      <c r="AE284">
+        <v>0</v>
+      </c>
+      <c r="AF284">
+        <v>0</v>
+      </c>
+      <c r="AG284">
+        <v>1.75</v>
+      </c>
+      <c r="AH284">
+        <v>1.95</v>
+      </c>
+      <c r="AI284">
+        <v>0</v>
+      </c>
+      <c r="AJ284">
+        <v>0</v>
+      </c>
+      <c r="AK284">
+        <v>0</v>
+      </c>
+      <c r="AL284">
+        <v>0</v>
+      </c>
+      <c r="AM284">
+        <v>0</v>
+      </c>
+      <c r="AN284">
+        <v>1.47</v>
+      </c>
+      <c r="AO284">
+        <v>1.94</v>
+      </c>
+      <c r="AP284">
+        <v>1.39</v>
+      </c>
+      <c r="AQ284">
+        <v>2</v>
+      </c>
+      <c r="AR284">
+        <v>1.21</v>
+      </c>
+      <c r="AS284">
+        <v>1.27</v>
+      </c>
+      <c r="AT284">
+        <v>2.48</v>
+      </c>
+      <c r="AU284">
+        <v>-1</v>
+      </c>
+      <c r="AV284">
+        <v>-1</v>
+      </c>
+      <c r="AW284">
+        <v>-1</v>
+      </c>
+      <c r="AX284">
+        <v>-1</v>
+      </c>
+      <c r="AY284">
+        <v>-1</v>
+      </c>
+      <c r="AZ284">
+        <v>-1</v>
+      </c>
+      <c r="BA284">
+        <v>-1</v>
+      </c>
+      <c r="BB284">
+        <v>-1</v>
+      </c>
+      <c r="BC284">
+        <v>-1</v>
+      </c>
+      <c r="BD284">
+        <v>0</v>
+      </c>
+      <c r="BE284">
+        <v>0</v>
+      </c>
+      <c r="BF284">
+        <v>0</v>
+      </c>
+      <c r="BG284">
+        <v>0</v>
+      </c>
+      <c r="BH284">
+        <v>0</v>
+      </c>
+      <c r="BI284">
+        <v>0</v>
+      </c>
+      <c r="BJ284">
+        <v>0</v>
+      </c>
+      <c r="BK284">
+        <v>0</v>
+      </c>
+      <c r="BL284">
+        <v>0</v>
+      </c>
+      <c r="BM284">
+        <v>0</v>
+      </c>
+      <c r="BN284">
+        <v>0</v>
+      </c>
+      <c r="BO284">
+        <v>0</v>
+      </c>
+      <c r="BP284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:68">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>7881254</v>
+      </c>
+      <c r="C285" t="s">
+        <v>68</v>
+      </c>
+      <c r="D285" t="s">
+        <v>69</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45794.5625</v>
+      </c>
+      <c r="F285">
+        <v>6</v>
+      </c>
+      <c r="G285" t="s">
+        <v>85</v>
+      </c>
+      <c r="H285" t="s">
+        <v>70</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>0</v>
+      </c>
+      <c r="M285">
+        <v>0</v>
+      </c>
+      <c r="N285">
+        <v>0</v>
+      </c>
+      <c r="O285" t="s">
+        <v>87</v>
+      </c>
+      <c r="P285" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q285">
+        <v>2.2</v>
+      </c>
+      <c r="R285">
+        <v>2.3</v>
+      </c>
+      <c r="S285">
+        <v>4.5</v>
+      </c>
+      <c r="T285">
+        <v>1.33</v>
+      </c>
+      <c r="U285">
+        <v>3.25</v>
+      </c>
+      <c r="V285">
+        <v>2.5</v>
+      </c>
+      <c r="W285">
+        <v>1.5</v>
+      </c>
+      <c r="X285">
+        <v>5.5</v>
+      </c>
+      <c r="Y285">
+        <v>1.13</v>
+      </c>
+      <c r="Z285">
+        <v>1.64</v>
+      </c>
+      <c r="AA285">
+        <v>3.68</v>
+      </c>
+      <c r="AB285">
+        <v>4.2</v>
+      </c>
+      <c r="AC285">
+        <v>1.04</v>
+      </c>
+      <c r="AD285">
+        <v>9</v>
+      </c>
+      <c r="AE285">
+        <v>1.22</v>
+      </c>
+      <c r="AF285">
+        <v>3.9</v>
+      </c>
+      <c r="AG285">
+        <v>1.77</v>
+      </c>
+      <c r="AH285">
+        <v>1.93</v>
+      </c>
+      <c r="AI285">
+        <v>1.73</v>
+      </c>
+      <c r="AJ285">
+        <v>2</v>
+      </c>
+      <c r="AK285">
+        <v>1.15</v>
+      </c>
+      <c r="AL285">
+        <v>1.2</v>
+      </c>
+      <c r="AM285">
+        <v>2.1</v>
+      </c>
+      <c r="AN285">
+        <v>1.12</v>
+      </c>
+      <c r="AO285">
+        <v>1.12</v>
+      </c>
+      <c r="AP285">
+        <v>1.11</v>
+      </c>
+      <c r="AQ285">
+        <v>1.11</v>
+      </c>
+      <c r="AR285">
+        <v>1.68</v>
+      </c>
+      <c r="AS285">
+        <v>1.77</v>
+      </c>
+      <c r="AT285">
+        <v>3.45</v>
+      </c>
+      <c r="AU285">
+        <v>4</v>
+      </c>
+      <c r="AV285">
+        <v>3</v>
+      </c>
+      <c r="AW285">
+        <v>7</v>
+      </c>
+      <c r="AX285">
+        <v>11</v>
+      </c>
+      <c r="AY285">
+        <v>11</v>
+      </c>
+      <c r="AZ285">
+        <v>14</v>
+      </c>
+      <c r="BA285">
+        <v>2</v>
+      </c>
+      <c r="BB285">
+        <v>7</v>
+      </c>
+      <c r="BC285">
+        <v>9</v>
+      </c>
+      <c r="BD285">
+        <v>1.64</v>
+      </c>
+      <c r="BE285">
+        <v>8</v>
+      </c>
+      <c r="BF285">
+        <v>2.77</v>
+      </c>
+      <c r="BG285">
+        <v>1.48</v>
+      </c>
+      <c r="BH285">
+        <v>2.48</v>
+      </c>
+      <c r="BI285">
+        <v>1.82</v>
+      </c>
+      <c r="BJ285">
+        <v>1.93</v>
+      </c>
+      <c r="BK285">
+        <v>2.31</v>
+      </c>
+      <c r="BL285">
+        <v>1.57</v>
+      </c>
+      <c r="BM285">
+        <v>2.97</v>
+      </c>
+      <c r="BN285">
+        <v>1.34</v>
+      </c>
+      <c r="BO285">
+        <v>4.05</v>
+      </c>
+      <c r="BP285">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="397">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -823,6 +823,12 @@
     <t>['41', '45+4', '47']</t>
   </si>
   <si>
+    <t>['2', '63']</t>
+  </si>
+  <si>
+    <t>['40', '65', '90+1']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -1194,6 +1200,12 @@
   <si>
     <t>['13', '44', '58', '78']</t>
   </si>
+  <si>
+    <t>['12', '41', '90']</t>
+  </si>
+  <si>
+    <t>['31', '34', '88']</t>
+  </si>
 </sst>
 </file>
 
@@ -1554,7 +1566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP285"/>
+  <dimension ref="A1:BP289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1813,7 +1825,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2097,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ3">
         <v>2</v>
@@ -2431,7 +2443,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2718,7 +2730,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ6">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2843,7 +2855,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2924,7 +2936,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ7">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3049,7 +3061,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -3127,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ8">
         <v>1.83</v>
@@ -3336,7 +3348,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ9">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3461,7 +3473,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3539,7 +3551,7 @@
         <v>3</v>
       </c>
       <c r="AP10">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>2</v>
@@ -3667,7 +3679,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3745,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ11">
         <v>0.88</v>
@@ -3873,7 +3885,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -4366,7 +4378,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ14">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4775,10 +4787,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ16">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR16">
         <v>1.02</v>
@@ -5315,7 +5327,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5393,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ19">
         <v>2.72</v>
@@ -5602,7 +5614,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ20">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR20">
         <v>1.78</v>
@@ -6220,7 +6232,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ23">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR23">
         <v>1.76</v>
@@ -6345,7 +6357,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6426,7 +6438,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ24">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR24">
         <v>0.98</v>
@@ -7169,7 +7181,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -7453,7 +7465,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
         <v>1.41</v>
@@ -7787,7 +7799,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7993,7 +8005,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -8689,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ35">
         <v>0.39</v>
@@ -8895,10 +8907,10 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ36">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR36">
         <v>1.22</v>
@@ -9101,10 +9113,10 @@
         <v>0.5</v>
       </c>
       <c r="AP37">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ37">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR37">
         <v>1.6</v>
@@ -9229,7 +9241,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9516,7 +9528,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ39">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR39">
         <v>0</v>
@@ -9641,7 +9653,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9719,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ40">
         <v>1.28</v>
@@ -10053,7 +10065,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10131,10 +10143,10 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ42">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR42">
         <v>0.6</v>
@@ -10259,7 +10271,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10465,7 +10477,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10671,7 +10683,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10752,7 +10764,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ45">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR45">
         <v>1.22</v>
@@ -11367,10 +11379,10 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ48">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR48">
         <v>1.36</v>
@@ -11495,7 +11507,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11573,7 +11585,7 @@
         <v>2.33</v>
       </c>
       <c r="AP49">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ49">
         <v>1.39</v>
@@ -11701,7 +11713,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -12400,7 +12412,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ53">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR53">
         <v>1.1</v>
@@ -13143,7 +13155,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -13224,7 +13236,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ57">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR57">
         <v>1.94</v>
@@ -13349,7 +13361,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -13427,7 +13439,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ58">
         <v>1.39</v>
@@ -13555,7 +13567,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13761,7 +13773,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13839,10 +13851,10 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR60">
         <v>0.73</v>
@@ -13967,7 +13979,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -14379,7 +14391,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14585,7 +14597,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14663,7 +14675,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ64">
         <v>1.22</v>
@@ -14791,7 +14803,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14997,7 +15009,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15078,7 +15090,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ66">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR66">
         <v>1.91</v>
@@ -15281,7 +15293,7 @@
         <v>2.5</v>
       </c>
       <c r="AP67">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ67">
         <v>1.39</v>
@@ -15615,7 +15627,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -16027,7 +16039,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -16108,7 +16120,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ71">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR71">
         <v>1.63</v>
@@ -16439,7 +16451,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16645,7 +16657,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16726,7 +16738,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ74">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR74">
         <v>1.34</v>
@@ -16929,7 +16941,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ75">
         <v>0.88</v>
@@ -17057,7 +17069,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -17341,10 +17353,10 @@
         <v>0.2</v>
       </c>
       <c r="AP77">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ77">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR77">
         <v>0.96</v>
@@ -17469,7 +17481,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17675,7 +17687,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17962,7 +17974,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ80">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR80">
         <v>1.56</v>
@@ -18087,7 +18099,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -18165,7 +18177,7 @@
         <v>2.5</v>
       </c>
       <c r="AP81">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ81">
         <v>1.22</v>
@@ -18293,7 +18305,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -18499,7 +18511,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18577,7 +18589,7 @@
         <v>0.75</v>
       </c>
       <c r="AP83">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ83">
         <v>1.28</v>
@@ -18705,7 +18717,7 @@
         <v>87</v>
       </c>
       <c r="P84" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18911,7 +18923,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -19323,7 +19335,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -19404,7 +19416,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ87">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR87">
         <v>2.4</v>
@@ -19735,7 +19747,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -20022,7 +20034,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ90">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR90">
         <v>1.6</v>
@@ -20147,7 +20159,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -20225,7 +20237,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ91">
         <v>1.41</v>
@@ -20431,7 +20443,7 @@
         <v>1.83</v>
       </c>
       <c r="AP92">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ92">
         <v>1.83</v>
@@ -20640,7 +20652,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ93">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR93">
         <v>0</v>
@@ -20765,7 +20777,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -21464,7 +21476,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ97">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR97">
         <v>1.33</v>
@@ -21589,7 +21601,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q98">
         <v>13</v>
@@ -21873,7 +21885,7 @@
         <v>0.6</v>
       </c>
       <c r="AP99">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ99">
         <v>1.28</v>
@@ -22001,7 +22013,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -22207,7 +22219,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -22285,7 +22297,7 @@
         <v>1.5</v>
       </c>
       <c r="AP101">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ101">
         <v>1.39</v>
@@ -22413,7 +22425,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22619,7 +22631,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22697,10 +22709,10 @@
         <v>0.67</v>
       </c>
       <c r="AP103">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ103">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR103">
         <v>1.2</v>
@@ -22906,7 +22918,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ104">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR104">
         <v>1.79</v>
@@ -23443,7 +23455,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23730,7 +23742,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ108">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR108">
         <v>0.6899999999999999</v>
@@ -23855,7 +23867,7 @@
         <v>87</v>
       </c>
       <c r="P109" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -23933,7 +23945,7 @@
         <v>2</v>
       </c>
       <c r="AP109">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ109">
         <v>1.39</v>
@@ -24267,7 +24279,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -24473,7 +24485,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24554,7 +24566,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ112">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR112">
         <v>1.19</v>
@@ -25169,7 +25181,7 @@
         <v>0.14</v>
       </c>
       <c r="AP115">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ115">
         <v>0.39</v>
@@ -25297,7 +25309,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -25375,7 +25387,7 @@
         <v>1.8</v>
       </c>
       <c r="AP116">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ116">
         <v>1.39</v>
@@ -25503,7 +25515,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25709,7 +25721,7 @@
         <v>87</v>
       </c>
       <c r="P118" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -25915,7 +25927,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25996,7 +26008,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ119">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR119">
         <v>1.78</v>
@@ -26121,7 +26133,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q120">
         <v>3.15</v>
@@ -26945,7 +26957,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27023,7 +27035,7 @@
         <v>1.43</v>
       </c>
       <c r="AP124">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ124">
         <v>1.11</v>
@@ -27151,7 +27163,7 @@
         <v>87</v>
       </c>
       <c r="P125" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q125">
         <v>3.85</v>
@@ -27357,7 +27369,7 @@
         <v>110</v>
       </c>
       <c r="P126" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q126">
         <v>1.77</v>
@@ -27438,7 +27450,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ126">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR126">
         <v>1.56</v>
@@ -27641,7 +27653,7 @@
         <v>2.13</v>
       </c>
       <c r="AP127">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ127">
         <v>1.39</v>
@@ -27769,7 +27781,7 @@
         <v>119</v>
       </c>
       <c r="P128" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27847,7 +27859,7 @@
         <v>1.13</v>
       </c>
       <c r="AP128">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ128">
         <v>1.41</v>
@@ -27975,7 +27987,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -28056,7 +28068,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ129">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR129">
         <v>1.62</v>
@@ -28387,7 +28399,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -28674,7 +28686,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ132">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR132">
         <v>1.95</v>
@@ -28880,7 +28892,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ133">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR133">
         <v>1.68</v>
@@ -29417,7 +29429,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -29495,7 +29507,7 @@
         <v>2</v>
       </c>
       <c r="AP136">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ136">
         <v>1.22</v>
@@ -29704,7 +29716,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ137">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR137">
         <v>1.8</v>
@@ -30035,7 +30047,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q139">
         <v>5.5</v>
@@ -30113,7 +30125,7 @@
         <v>2.29</v>
       </c>
       <c r="AP139">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ139">
         <v>2</v>
@@ -30447,7 +30459,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30653,7 +30665,7 @@
         <v>148</v>
       </c>
       <c r="P142" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30859,7 +30871,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -31143,7 +31155,7 @@
         <v>2.11</v>
       </c>
       <c r="AP144">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ144">
         <v>1.22</v>
@@ -31349,7 +31361,7 @@
         <v>0.11</v>
       </c>
       <c r="AP145">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ145">
         <v>0.39</v>
@@ -31555,10 +31567,10 @@
         <v>0.78</v>
       </c>
       <c r="AP146">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ146">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR146">
         <v>1.33</v>
@@ -31683,7 +31695,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31889,7 +31901,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q148">
         <v>8.5</v>
@@ -32095,7 +32107,7 @@
         <v>190</v>
       </c>
       <c r="P149" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32382,7 +32394,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ150">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR150">
         <v>1.62</v>
@@ -32507,7 +32519,7 @@
         <v>192</v>
       </c>
       <c r="P151" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q151">
         <v>1.83</v>
@@ -32588,7 +32600,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ151">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR151">
         <v>1.68</v>
@@ -32713,7 +32725,7 @@
         <v>87</v>
       </c>
       <c r="P152" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q152">
         <v>13</v>
@@ -32791,7 +32803,7 @@
         <v>3</v>
       </c>
       <c r="AP152">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ152">
         <v>2.72</v>
@@ -32919,7 +32931,7 @@
         <v>92</v>
       </c>
       <c r="P153" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -33331,7 +33343,7 @@
         <v>194</v>
       </c>
       <c r="P155" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q155">
         <v>2.38</v>
@@ -33821,7 +33833,7 @@
         <v>0.44</v>
       </c>
       <c r="AP157">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ157">
         <v>0.9399999999999999</v>
@@ -33949,7 +33961,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q158">
         <v>1.53</v>
@@ -34030,7 +34042,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ158">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR158">
         <v>2</v>
@@ -34155,7 +34167,7 @@
         <v>87</v>
       </c>
       <c r="P159" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34361,7 +34373,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q160">
         <v>3.25</v>
@@ -34567,7 +34579,7 @@
         <v>87</v>
       </c>
       <c r="P161" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34851,7 +34863,7 @@
         <v>1.8</v>
       </c>
       <c r="AP162">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ162">
         <v>1.83</v>
@@ -35185,7 +35197,7 @@
         <v>199</v>
       </c>
       <c r="P164" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q164">
         <v>2.1</v>
@@ -35391,7 +35403,7 @@
         <v>200</v>
       </c>
       <c r="P165" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q165">
         <v>1.8</v>
@@ -35472,7 +35484,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ165">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR165">
         <v>1.65</v>
@@ -35803,7 +35815,7 @@
         <v>97</v>
       </c>
       <c r="P167" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q167">
         <v>6.5</v>
@@ -36087,10 +36099,10 @@
         <v>0.7</v>
       </c>
       <c r="AP168">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ168">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR168">
         <v>1.49</v>
@@ -36421,7 +36433,7 @@
         <v>87</v>
       </c>
       <c r="P170" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -36499,10 +36511,10 @@
         <v>1.1</v>
       </c>
       <c r="AP170">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ170">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR170">
         <v>1.25</v>
@@ -37245,7 +37257,7 @@
         <v>87</v>
       </c>
       <c r="P174" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37323,7 +37335,7 @@
         <v>1.1</v>
       </c>
       <c r="AP174">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ174">
         <v>1.28</v>
@@ -37451,7 +37463,7 @@
         <v>87</v>
       </c>
       <c r="P175" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q175">
         <v>2.38</v>
@@ -37738,7 +37750,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ176">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR176">
         <v>1.74</v>
@@ -38069,7 +38081,7 @@
         <v>206</v>
       </c>
       <c r="P178" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38150,7 +38162,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ178">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR178">
         <v>1.43</v>
@@ -38481,7 +38493,7 @@
         <v>87</v>
       </c>
       <c r="P180" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q180">
         <v>13</v>
@@ -38559,7 +38571,7 @@
         <v>3</v>
       </c>
       <c r="AP180">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ180">
         <v>2.72</v>
@@ -38893,7 +38905,7 @@
         <v>89</v>
       </c>
       <c r="P182" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q182">
         <v>1.83</v>
@@ -39099,7 +39111,7 @@
         <v>107</v>
       </c>
       <c r="P183" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q183">
         <v>1.91</v>
@@ -39305,7 +39317,7 @@
         <v>189</v>
       </c>
       <c r="P184" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q184">
         <v>2.3</v>
@@ -39589,7 +39601,7 @@
         <v>1.73</v>
       </c>
       <c r="AP185">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ185">
         <v>1.83</v>
@@ -39798,7 +39810,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ186">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR186">
         <v>1.05</v>
@@ -39923,7 +39935,7 @@
         <v>87</v>
       </c>
       <c r="P187" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q187">
         <v>4.75</v>
@@ -40001,7 +40013,7 @@
         <v>1.27</v>
       </c>
       <c r="AP187">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ187">
         <v>1.11</v>
@@ -40129,7 +40141,7 @@
         <v>87</v>
       </c>
       <c r="P188" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q188">
         <v>2</v>
@@ -40210,7 +40222,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ188">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR188">
         <v>1.79</v>
@@ -40335,7 +40347,7 @@
         <v>209</v>
       </c>
       <c r="P189" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q189">
         <v>1.73</v>
@@ -40825,10 +40837,10 @@
         <v>1.27</v>
       </c>
       <c r="AP191">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ191">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR191">
         <v>1.17</v>
@@ -41365,7 +41377,7 @@
         <v>212</v>
       </c>
       <c r="P194" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q194">
         <v>9.4</v>
@@ -41443,7 +41455,7 @@
         <v>3</v>
       </c>
       <c r="AP194">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ194">
         <v>2.72</v>
@@ -41777,7 +41789,7 @@
         <v>214</v>
       </c>
       <c r="P196" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q196">
         <v>3.85</v>
@@ -41983,7 +41995,7 @@
         <v>173</v>
       </c>
       <c r="P197" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q197">
         <v>3.25</v>
@@ -42267,7 +42279,7 @@
         <v>0.83</v>
       </c>
       <c r="AP198">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ198">
         <v>0.9399999999999999</v>
@@ -42682,7 +42694,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ200">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR200">
         <v>1.97</v>
@@ -42888,7 +42900,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ201">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR201">
         <v>1.57</v>
@@ -43013,7 +43025,7 @@
         <v>119</v>
       </c>
       <c r="P202" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q202">
         <v>7</v>
@@ -43091,7 +43103,7 @@
         <v>2</v>
       </c>
       <c r="AP202">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ202">
         <v>2</v>
@@ -43300,7 +43312,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ203">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR203">
         <v>2.16</v>
@@ -43425,7 +43437,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q204">
         <v>1.85</v>
@@ -43506,7 +43518,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ204">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR204">
         <v>1.77</v>
@@ -43709,7 +43721,7 @@
         <v>1.25</v>
       </c>
       <c r="AP205">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ205">
         <v>1.39</v>
@@ -44043,7 +44055,7 @@
         <v>152</v>
       </c>
       <c r="P207" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -44739,7 +44751,7 @@
         <v>0.85</v>
       </c>
       <c r="AP210">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ210">
         <v>0.9399999999999999</v>
@@ -44945,10 +44957,10 @@
         <v>1.31</v>
       </c>
       <c r="AP211">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ211">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR211">
         <v>1.42</v>
@@ -45073,7 +45085,7 @@
         <v>87</v>
       </c>
       <c r="P212" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q212">
         <v>9.5</v>
@@ -45279,7 +45291,7 @@
         <v>225</v>
       </c>
       <c r="P213" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q213">
         <v>1.8</v>
@@ -45485,7 +45497,7 @@
         <v>226</v>
       </c>
       <c r="P214" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q214">
         <v>2.63</v>
@@ -46103,7 +46115,7 @@
         <v>189</v>
       </c>
       <c r="P217" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -46309,7 +46321,7 @@
         <v>229</v>
       </c>
       <c r="P218" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q218">
         <v>4.33</v>
@@ -46387,7 +46399,7 @@
         <v>1.38</v>
       </c>
       <c r="AP218">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ218">
         <v>1.11</v>
@@ -46515,7 +46527,7 @@
         <v>230</v>
       </c>
       <c r="P219" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q219">
         <v>6</v>
@@ -46593,10 +46605,10 @@
         <v>0.85</v>
       </c>
       <c r="AP219">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ219">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR219">
         <v>1.23</v>
@@ -46721,7 +46733,7 @@
         <v>231</v>
       </c>
       <c r="P220" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q220">
         <v>2.1</v>
@@ -47008,7 +47020,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ221">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR221">
         <v>2.2</v>
@@ -47133,7 +47145,7 @@
         <v>233</v>
       </c>
       <c r="P222" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q222">
         <v>4.5</v>
@@ -47339,7 +47351,7 @@
         <v>87</v>
       </c>
       <c r="P223" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q223">
         <v>3.5</v>
@@ -47626,7 +47638,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ224">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR224">
         <v>1.16</v>
@@ -47751,7 +47763,7 @@
         <v>234</v>
       </c>
       <c r="P225" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q225">
         <v>2.6</v>
@@ -48163,7 +48175,7 @@
         <v>235</v>
       </c>
       <c r="P227" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q227">
         <v>2.6</v>
@@ -48575,7 +48587,7 @@
         <v>236</v>
       </c>
       <c r="P229" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q229">
         <v>8</v>
@@ -48859,7 +48871,7 @@
         <v>1.36</v>
       </c>
       <c r="AP230">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ230">
         <v>1.11</v>
@@ -49399,7 +49411,7 @@
         <v>182</v>
       </c>
       <c r="P233" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49477,10 +49489,10 @@
         <v>1.21</v>
       </c>
       <c r="AP233">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ233">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR233">
         <v>1.44</v>
@@ -49683,10 +49695,10 @@
         <v>0.93</v>
       </c>
       <c r="AP234">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ234">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR234">
         <v>1.19</v>
@@ -49811,7 +49823,7 @@
         <v>87</v>
       </c>
       <c r="P235" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q235">
         <v>3.24</v>
@@ -50017,7 +50029,7 @@
         <v>239</v>
       </c>
       <c r="P236" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q236">
         <v>1.43</v>
@@ -50301,7 +50313,7 @@
         <v>0.93</v>
       </c>
       <c r="AP237">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ237">
         <v>0.88</v>
@@ -50635,7 +50647,7 @@
         <v>226</v>
       </c>
       <c r="P239" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -50841,7 +50853,7 @@
         <v>241</v>
       </c>
       <c r="P240" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q240">
         <v>2.6</v>
@@ -50922,7 +50934,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ240">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR240">
         <v>1.76</v>
@@ -51047,7 +51059,7 @@
         <v>87</v>
       </c>
       <c r="P241" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -51128,7 +51140,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ241">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR241">
         <v>1.63</v>
@@ -51665,7 +51677,7 @@
         <v>244</v>
       </c>
       <c r="P244" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q244">
         <v>2.1</v>
@@ -51746,7 +51758,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ244">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR244">
         <v>1.63</v>
@@ -51871,7 +51883,7 @@
         <v>240</v>
       </c>
       <c r="P245" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q245">
         <v>2.2</v>
@@ -52077,7 +52089,7 @@
         <v>245</v>
       </c>
       <c r="P246" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q246">
         <v>0</v>
@@ -52283,7 +52295,7 @@
         <v>246</v>
       </c>
       <c r="P247" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q247">
         <v>2.3</v>
@@ -52364,7 +52376,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ247">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR247">
         <v>1.48</v>
@@ -52489,7 +52501,7 @@
         <v>87</v>
       </c>
       <c r="P248" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q248">
         <v>2.6</v>
@@ -52567,7 +52579,7 @@
         <v>0.93</v>
       </c>
       <c r="AP248">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ248">
         <v>0.9399999999999999</v>
@@ -52773,7 +52785,7 @@
         <v>0.27</v>
       </c>
       <c r="AP249">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ249">
         <v>0.39</v>
@@ -52982,7 +52994,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ250">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR250">
         <v>1.61</v>
@@ -53185,7 +53197,7 @@
         <v>1.2</v>
       </c>
       <c r="AP251">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ251">
         <v>1.41</v>
@@ -53725,7 +53737,7 @@
         <v>250</v>
       </c>
       <c r="P254" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q254">
         <v>1.95</v>
@@ -53931,7 +53943,7 @@
         <v>251</v>
       </c>
       <c r="P255" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q255">
         <v>5.5</v>
@@ -54421,10 +54433,10 @@
         <v>1.33</v>
       </c>
       <c r="AP257">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ257">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR257">
         <v>1.29</v>
@@ -54549,7 +54561,7 @@
         <v>254</v>
       </c>
       <c r="P258" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q258">
         <v>1.95</v>
@@ -54755,7 +54767,7 @@
         <v>255</v>
       </c>
       <c r="P259" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q259">
         <v>1.57</v>
@@ -54961,7 +54973,7 @@
         <v>256</v>
       </c>
       <c r="P260" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q260">
         <v>2.3</v>
@@ -55167,7 +55179,7 @@
         <v>87</v>
       </c>
       <c r="P261" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q261">
         <v>2.6</v>
@@ -55451,7 +55463,7 @@
         <v>0.25</v>
       </c>
       <c r="AP262">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ262">
         <v>0.39</v>
@@ -55660,7 +55672,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ263">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR263">
         <v>1.66</v>
@@ -55991,7 +56003,7 @@
         <v>258</v>
       </c>
       <c r="P265" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q265">
         <v>2.75</v>
@@ -56069,10 +56081,10 @@
         <v>0.75</v>
       </c>
       <c r="AP265">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ265">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR265">
         <v>1.53</v>
@@ -56197,7 +56209,7 @@
         <v>259</v>
       </c>
       <c r="P266" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q266">
         <v>3</v>
@@ -56481,10 +56493,10 @@
         <v>1.25</v>
       </c>
       <c r="AP267">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ267">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR267">
         <v>1.4</v>
@@ -56609,7 +56621,7 @@
         <v>235</v>
       </c>
       <c r="P268" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q268">
         <v>5</v>
@@ -57305,10 +57317,10 @@
         <v>1</v>
       </c>
       <c r="AP271">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ271">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR271">
         <v>1.34</v>
@@ -57639,7 +57651,7 @@
         <v>262</v>
       </c>
       <c r="P273" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q273">
         <v>0</v>
@@ -57845,7 +57857,7 @@
         <v>263</v>
       </c>
       <c r="P274" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q274">
         <v>2.1</v>
@@ -57923,7 +57935,7 @@
         <v>0.24</v>
       </c>
       <c r="AP274">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ274">
         <v>0.39</v>
@@ -58051,7 +58063,7 @@
         <v>264</v>
       </c>
       <c r="P275" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q275">
         <v>2.6</v>
@@ -58544,7 +58556,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ277">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR277">
         <v>1.24</v>
@@ -58875,7 +58887,7 @@
         <v>89</v>
       </c>
       <c r="P279" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q279">
         <v>2.75</v>
@@ -59081,7 +59093,7 @@
         <v>168</v>
       </c>
       <c r="P280" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q280">
         <v>2.4</v>
@@ -59162,7 +59174,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ280">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR280">
         <v>1.69</v>
@@ -59287,7 +59299,7 @@
         <v>266</v>
       </c>
       <c r="P281" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q281">
         <v>2.7</v>
@@ -59365,7 +59377,7 @@
         <v>0.88</v>
       </c>
       <c r="AP281">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ281">
         <v>0.88</v>
@@ -59493,7 +59505,7 @@
         <v>267</v>
       </c>
       <c r="P282" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q282">
         <v>5.5</v>
@@ -59699,7 +59711,7 @@
         <v>268</v>
       </c>
       <c r="P283" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q283">
         <v>2.63</v>
@@ -59905,7 +59917,7 @@
         <v>87</v>
       </c>
       <c r="P284" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q284">
         <v>0</v>
@@ -60268,6 +60280,830 @@
       </c>
       <c r="BP285">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="286" spans="1:68">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>7881258</v>
+      </c>
+      <c r="C286" t="s">
+        <v>68</v>
+      </c>
+      <c r="D286" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45795.5</v>
+      </c>
+      <c r="F286">
+        <v>6</v>
+      </c>
+      <c r="G286" t="s">
+        <v>71</v>
+      </c>
+      <c r="H286" t="s">
+        <v>80</v>
+      </c>
+      <c r="I286">
+        <v>1</v>
+      </c>
+      <c r="J286">
+        <v>1</v>
+      </c>
+      <c r="K286">
+        <v>2</v>
+      </c>
+      <c r="L286">
+        <v>2</v>
+      </c>
+      <c r="M286">
+        <v>1</v>
+      </c>
+      <c r="N286">
+        <v>3</v>
+      </c>
+      <c r="O286" t="s">
+        <v>269</v>
+      </c>
+      <c r="P286" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q286">
+        <v>3</v>
+      </c>
+      <c r="R286">
+        <v>2</v>
+      </c>
+      <c r="S286">
+        <v>3.5</v>
+      </c>
+      <c r="T286">
+        <v>1.44</v>
+      </c>
+      <c r="U286">
+        <v>2.63</v>
+      </c>
+      <c r="V286">
+        <v>3.25</v>
+      </c>
+      <c r="W286">
+        <v>1.33</v>
+      </c>
+      <c r="X286">
+        <v>7.5</v>
+      </c>
+      <c r="Y286">
+        <v>1.07</v>
+      </c>
+      <c r="Z286">
+        <v>2.25</v>
+      </c>
+      <c r="AA286">
+        <v>3.31</v>
+      </c>
+      <c r="AB286">
+        <v>2.68</v>
+      </c>
+      <c r="AC286">
+        <v>1.06</v>
+      </c>
+      <c r="AD286">
+        <v>8</v>
+      </c>
+      <c r="AE286">
+        <v>1.38</v>
+      </c>
+      <c r="AF286">
+        <v>2.88</v>
+      </c>
+      <c r="AG286">
+        <v>2.05</v>
+      </c>
+      <c r="AH286">
+        <v>1.61</v>
+      </c>
+      <c r="AI286">
+        <v>2</v>
+      </c>
+      <c r="AJ286">
+        <v>1.73</v>
+      </c>
+      <c r="AK286">
+        <v>1.4</v>
+      </c>
+      <c r="AL286">
+        <v>1.25</v>
+      </c>
+      <c r="AM286">
+        <v>1.55</v>
+      </c>
+      <c r="AN286">
+        <v>1.33</v>
+      </c>
+      <c r="AO286">
+        <v>0.83</v>
+      </c>
+      <c r="AP286">
+        <v>1.42</v>
+      </c>
+      <c r="AQ286">
+        <v>0.79</v>
+      </c>
+      <c r="AR286">
+        <v>1.41</v>
+      </c>
+      <c r="AS286">
+        <v>1.48</v>
+      </c>
+      <c r="AT286">
+        <v>2.89</v>
+      </c>
+      <c r="AU286">
+        <v>-1</v>
+      </c>
+      <c r="AV286">
+        <v>-1</v>
+      </c>
+      <c r="AW286">
+        <v>-1</v>
+      </c>
+      <c r="AX286">
+        <v>-1</v>
+      </c>
+      <c r="AY286">
+        <v>-1</v>
+      </c>
+      <c r="AZ286">
+        <v>-1</v>
+      </c>
+      <c r="BA286">
+        <v>-1</v>
+      </c>
+      <c r="BB286">
+        <v>-1</v>
+      </c>
+      <c r="BC286">
+        <v>-1</v>
+      </c>
+      <c r="BD286">
+        <v>2.05</v>
+      </c>
+      <c r="BE286">
+        <v>7.5</v>
+      </c>
+      <c r="BF286">
+        <v>2</v>
+      </c>
+      <c r="BG286">
+        <v>1.48</v>
+      </c>
+      <c r="BH286">
+        <v>2.48</v>
+      </c>
+      <c r="BI286">
+        <v>1.82</v>
+      </c>
+      <c r="BJ286">
+        <v>1.93</v>
+      </c>
+      <c r="BK286">
+        <v>2.31</v>
+      </c>
+      <c r="BL286">
+        <v>1.57</v>
+      </c>
+      <c r="BM286">
+        <v>2.97</v>
+      </c>
+      <c r="BN286">
+        <v>1.34</v>
+      </c>
+      <c r="BO286">
+        <v>4.05</v>
+      </c>
+      <c r="BP286">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="287" spans="1:68">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>7881257</v>
+      </c>
+      <c r="C287" t="s">
+        <v>68</v>
+      </c>
+      <c r="D287" t="s">
+        <v>69</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45795.5</v>
+      </c>
+      <c r="F287">
+        <v>6</v>
+      </c>
+      <c r="G287" t="s">
+        <v>78</v>
+      </c>
+      <c r="H287" t="s">
+        <v>84</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>2</v>
+      </c>
+      <c r="K287">
+        <v>2</v>
+      </c>
+      <c r="L287">
+        <v>0</v>
+      </c>
+      <c r="M287">
+        <v>3</v>
+      </c>
+      <c r="N287">
+        <v>3</v>
+      </c>
+      <c r="O287" t="s">
+        <v>87</v>
+      </c>
+      <c r="P287" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q287">
+        <v>4.33</v>
+      </c>
+      <c r="R287">
+        <v>2.25</v>
+      </c>
+      <c r="S287">
+        <v>2.3</v>
+      </c>
+      <c r="T287">
+        <v>1.33</v>
+      </c>
+      <c r="U287">
+        <v>3.25</v>
+      </c>
+      <c r="V287">
+        <v>2.63</v>
+      </c>
+      <c r="W287">
+        <v>1.44</v>
+      </c>
+      <c r="X287">
+        <v>6</v>
+      </c>
+      <c r="Y287">
+        <v>1.11</v>
+      </c>
+      <c r="Z287">
+        <v>3.98</v>
+      </c>
+      <c r="AA287">
+        <v>3.47</v>
+      </c>
+      <c r="AB287">
+        <v>1.72</v>
+      </c>
+      <c r="AC287">
+        <v>1.04</v>
+      </c>
+      <c r="AD287">
+        <v>9</v>
+      </c>
+      <c r="AE287">
+        <v>1.25</v>
+      </c>
+      <c r="AF287">
+        <v>3.65</v>
+      </c>
+      <c r="AG287">
+        <v>1.76</v>
+      </c>
+      <c r="AH287">
+        <v>1.94</v>
+      </c>
+      <c r="AI287">
+        <v>1.73</v>
+      </c>
+      <c r="AJ287">
+        <v>2</v>
+      </c>
+      <c r="AK287">
+        <v>2</v>
+      </c>
+      <c r="AL287">
+        <v>1.22</v>
+      </c>
+      <c r="AM287">
+        <v>1.17</v>
+      </c>
+      <c r="AN287">
+        <v>1.06</v>
+      </c>
+      <c r="AO287">
+        <v>1.12</v>
+      </c>
+      <c r="AP287">
+        <v>1</v>
+      </c>
+      <c r="AQ287">
+        <v>1.22</v>
+      </c>
+      <c r="AR287">
+        <v>1.37</v>
+      </c>
+      <c r="AS287">
+        <v>1.51</v>
+      </c>
+      <c r="AT287">
+        <v>2.88</v>
+      </c>
+      <c r="AU287">
+        <v>-1</v>
+      </c>
+      <c r="AV287">
+        <v>-1</v>
+      </c>
+      <c r="AW287">
+        <v>-1</v>
+      </c>
+      <c r="AX287">
+        <v>-1</v>
+      </c>
+      <c r="AY287">
+        <v>-1</v>
+      </c>
+      <c r="AZ287">
+        <v>-1</v>
+      </c>
+      <c r="BA287">
+        <v>-1</v>
+      </c>
+      <c r="BB287">
+        <v>-1</v>
+      </c>
+      <c r="BC287">
+        <v>-1</v>
+      </c>
+      <c r="BD287">
+        <v>3.33</v>
+      </c>
+      <c r="BE287">
+        <v>8.5</v>
+      </c>
+      <c r="BF287">
+        <v>1.45</v>
+      </c>
+      <c r="BG287">
+        <v>1.4</v>
+      </c>
+      <c r="BH287">
+        <v>2.73</v>
+      </c>
+      <c r="BI287">
+        <v>1.69</v>
+      </c>
+      <c r="BJ287">
+        <v>2.1</v>
+      </c>
+      <c r="BK287">
+        <v>2.11</v>
+      </c>
+      <c r="BL287">
+        <v>1.68</v>
+      </c>
+      <c r="BM287">
+        <v>2.68</v>
+      </c>
+      <c r="BN287">
+        <v>1.41</v>
+      </c>
+      <c r="BO287">
+        <v>3.58</v>
+      </c>
+      <c r="BP287">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="288" spans="1:68">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>7881255</v>
+      </c>
+      <c r="C288" t="s">
+        <v>68</v>
+      </c>
+      <c r="D288" t="s">
+        <v>69</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45795.5</v>
+      </c>
+      <c r="F288">
+        <v>6</v>
+      </c>
+      <c r="G288" t="s">
+        <v>79</v>
+      </c>
+      <c r="H288" t="s">
+        <v>81</v>
+      </c>
+      <c r="I288">
+        <v>1</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>1</v>
+      </c>
+      <c r="L288">
+        <v>3</v>
+      </c>
+      <c r="M288">
+        <v>0</v>
+      </c>
+      <c r="N288">
+        <v>3</v>
+      </c>
+      <c r="O288" t="s">
+        <v>270</v>
+      </c>
+      <c r="P288" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q288">
+        <v>3.2</v>
+      </c>
+      <c r="R288">
+        <v>1.91</v>
+      </c>
+      <c r="S288">
+        <v>3.75</v>
+      </c>
+      <c r="T288">
+        <v>1.57</v>
+      </c>
+      <c r="U288">
+        <v>2.25</v>
+      </c>
+      <c r="V288">
+        <v>3.75</v>
+      </c>
+      <c r="W288">
+        <v>1.25</v>
+      </c>
+      <c r="X288">
+        <v>9</v>
+      </c>
+      <c r="Y288">
+        <v>1.04</v>
+      </c>
+      <c r="Z288">
+        <v>2.38</v>
+      </c>
+      <c r="AA288">
+        <v>2.48</v>
+      </c>
+      <c r="AB288">
+        <v>3.37</v>
+      </c>
+      <c r="AC288">
+        <v>1.12</v>
+      </c>
+      <c r="AD288">
+        <v>5.5</v>
+      </c>
+      <c r="AE288">
+        <v>1.65</v>
+      </c>
+      <c r="AF288">
+        <v>2.12</v>
+      </c>
+      <c r="AG288">
+        <v>2.3</v>
+      </c>
+      <c r="AH288">
+        <v>1.5</v>
+      </c>
+      <c r="AI288">
+        <v>2.2</v>
+      </c>
+      <c r="AJ288">
+        <v>1.62</v>
+      </c>
+      <c r="AK288">
+        <v>1.3</v>
+      </c>
+      <c r="AL288">
+        <v>1.4</v>
+      </c>
+      <c r="AM288">
+        <v>1.5</v>
+      </c>
+      <c r="AN288">
+        <v>1.17</v>
+      </c>
+      <c r="AO288">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP288">
+        <v>1.26</v>
+      </c>
+      <c r="AQ288">
+        <v>0.89</v>
+      </c>
+      <c r="AR288">
+        <v>1.53</v>
+      </c>
+      <c r="AS288">
+        <v>1.33</v>
+      </c>
+      <c r="AT288">
+        <v>2.86</v>
+      </c>
+      <c r="AU288">
+        <v>-1</v>
+      </c>
+      <c r="AV288">
+        <v>-1</v>
+      </c>
+      <c r="AW288">
+        <v>-1</v>
+      </c>
+      <c r="AX288">
+        <v>-1</v>
+      </c>
+      <c r="AY288">
+        <v>-1</v>
+      </c>
+      <c r="AZ288">
+        <v>-1</v>
+      </c>
+      <c r="BA288">
+        <v>-1</v>
+      </c>
+      <c r="BB288">
+        <v>-1</v>
+      </c>
+      <c r="BC288">
+        <v>-1</v>
+      </c>
+      <c r="BD288">
+        <v>1.91</v>
+      </c>
+      <c r="BE288">
+        <v>7.5</v>
+      </c>
+      <c r="BF288">
+        <v>2.25</v>
+      </c>
+      <c r="BG288">
+        <v>1.55</v>
+      </c>
+      <c r="BH288">
+        <v>2.35</v>
+      </c>
+      <c r="BI288">
+        <v>1.93</v>
+      </c>
+      <c r="BJ288">
+        <v>1.82</v>
+      </c>
+      <c r="BK288">
+        <v>2.45</v>
+      </c>
+      <c r="BL288">
+        <v>1.49</v>
+      </c>
+      <c r="BM288">
+        <v>3.27</v>
+      </c>
+      <c r="BN288">
+        <v>1.27</v>
+      </c>
+      <c r="BO288">
+        <v>4.5</v>
+      </c>
+      <c r="BP288">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="289" spans="1:68">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>7881256</v>
+      </c>
+      <c r="C289" t="s">
+        <v>68</v>
+      </c>
+      <c r="D289" t="s">
+        <v>69</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45795.5</v>
+      </c>
+      <c r="F289">
+        <v>6</v>
+      </c>
+      <c r="G289" t="s">
+        <v>76</v>
+      </c>
+      <c r="H289" t="s">
+        <v>74</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>2</v>
+      </c>
+      <c r="K289">
+        <v>2</v>
+      </c>
+      <c r="L289">
+        <v>0</v>
+      </c>
+      <c r="M289">
+        <v>3</v>
+      </c>
+      <c r="N289">
+        <v>3</v>
+      </c>
+      <c r="O289" t="s">
+        <v>87</v>
+      </c>
+      <c r="P289" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q289">
+        <v>5</v>
+      </c>
+      <c r="R289">
+        <v>2.2</v>
+      </c>
+      <c r="S289">
+        <v>2.2</v>
+      </c>
+      <c r="T289">
+        <v>1.36</v>
+      </c>
+      <c r="U289">
+        <v>3</v>
+      </c>
+      <c r="V289">
+        <v>2.75</v>
+      </c>
+      <c r="W289">
+        <v>1.4</v>
+      </c>
+      <c r="X289">
+        <v>6.5</v>
+      </c>
+      <c r="Y289">
+        <v>1.1</v>
+      </c>
+      <c r="Z289">
+        <v>5.5</v>
+      </c>
+      <c r="AA289">
+        <v>3.18</v>
+      </c>
+      <c r="AB289">
+        <v>1.61</v>
+      </c>
+      <c r="AC289">
+        <v>1.06</v>
+      </c>
+      <c r="AD289">
+        <v>8</v>
+      </c>
+      <c r="AE289">
+        <v>1.3</v>
+      </c>
+      <c r="AF289">
+        <v>3.3</v>
+      </c>
+      <c r="AG289">
+        <v>1.9</v>
+      </c>
+      <c r="AH289">
+        <v>1.8</v>
+      </c>
+      <c r="AI289">
+        <v>1.83</v>
+      </c>
+      <c r="AJ289">
+        <v>1.83</v>
+      </c>
+      <c r="AK289">
+        <v>2.15</v>
+      </c>
+      <c r="AL289">
+        <v>1.25</v>
+      </c>
+      <c r="AM289">
+        <v>1.1</v>
+      </c>
+      <c r="AN289">
+        <v>1</v>
+      </c>
+      <c r="AO289">
+        <v>1.35</v>
+      </c>
+      <c r="AP289">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ289">
+        <v>1.44</v>
+      </c>
+      <c r="AR289">
+        <v>1.36</v>
+      </c>
+      <c r="AS289">
+        <v>1.44</v>
+      </c>
+      <c r="AT289">
+        <v>2.8</v>
+      </c>
+      <c r="AU289">
+        <v>-1</v>
+      </c>
+      <c r="AV289">
+        <v>-1</v>
+      </c>
+      <c r="AW289">
+        <v>-1</v>
+      </c>
+      <c r="AX289">
+        <v>-1</v>
+      </c>
+      <c r="AY289">
+        <v>-1</v>
+      </c>
+      <c r="AZ289">
+        <v>-1</v>
+      </c>
+      <c r="BA289">
+        <v>-1</v>
+      </c>
+      <c r="BB289">
+        <v>-1</v>
+      </c>
+      <c r="BC289">
+        <v>-1</v>
+      </c>
+      <c r="BD289">
+        <v>3.08</v>
+      </c>
+      <c r="BE289">
+        <v>8</v>
+      </c>
+      <c r="BF289">
+        <v>1.51</v>
+      </c>
+      <c r="BG289">
+        <v>1.51</v>
+      </c>
+      <c r="BH289">
+        <v>2.39</v>
+      </c>
+      <c r="BI289">
+        <v>1.87</v>
+      </c>
+      <c r="BJ289">
+        <v>1.87</v>
+      </c>
+      <c r="BK289">
+        <v>2.4</v>
+      </c>
+      <c r="BL289">
+        <v>1.53</v>
+      </c>
+      <c r="BM289">
+        <v>3.2</v>
+      </c>
+      <c r="BN289">
+        <v>1.3</v>
+      </c>
+      <c r="BO289">
+        <v>4.25</v>
+      </c>
+      <c r="BP289">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
@@ -60010,31 +60010,31 @@
         <v>2.48</v>
       </c>
       <c r="AU284">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV284">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AW284">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AX284">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY284">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ284">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BA284">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB284">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC284">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD284">
         <v>0</v>
@@ -60422,31 +60422,31 @@
         <v>2.89</v>
       </c>
       <c r="AU286">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV286">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW286">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX286">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AY286">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ286">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BA286">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB286">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BC286">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BD286">
         <v>2.05</v>
@@ -60628,31 +60628,31 @@
         <v>2.88</v>
       </c>
       <c r="AU287">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV287">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW287">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX287">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY287">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ287">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA287">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB287">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC287">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD287">
         <v>3.33</v>
@@ -60834,31 +60834,31 @@
         <v>2.86</v>
       </c>
       <c r="AU288">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AV288">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW288">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX288">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY288">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ288">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA288">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB288">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BC288">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD288">
         <v>1.91</v>
@@ -61040,31 +61040,31 @@
         <v>2.8</v>
       </c>
       <c r="AU289">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV289">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AW289">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX289">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY289">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ289">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BA289">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BB289">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC289">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BD289">
         <v>3.08</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="410">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -829,6 +829,30 @@
     <t>['40', '65', '90+1']</t>
   </si>
   <si>
+    <t>['42', '66']</t>
+  </si>
+  <si>
+    <t>['54', '90+5']</t>
+  </si>
+  <si>
+    <t>['30', '62']</t>
+  </si>
+  <si>
+    <t>['6', '26', '82']</t>
+  </si>
+  <si>
+    <t>['44', '45+2', '90+1']</t>
+  </si>
+  <si>
+    <t>['34', '45+1', '52', '88', '90+5']</t>
+  </si>
+  <si>
+    <t>['13', '26', '71']</t>
+  </si>
+  <si>
+    <t>['36', '58']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -1206,6 +1230,21 @@
   <si>
     <t>['31', '34', '88']</t>
   </si>
+  <si>
+    <t>['22', '31']</t>
+  </si>
+  <si>
+    <t>['8', '14', '21', '83']</t>
+  </si>
+  <si>
+    <t>['68', '70']</t>
+  </si>
+  <si>
+    <t>['56', '81']</t>
+  </si>
+  <si>
+    <t>['5', '73', '86']</t>
+  </si>
 </sst>
 </file>
 
@@ -1566,7 +1605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP289"/>
+  <dimension ref="A1:BP297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1825,7 +1864,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1903,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ2">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2315,10 +2354,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AQ4">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2443,7 +2482,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2727,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ6">
         <v>0.79</v>
@@ -2855,7 +2894,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3061,7 +3100,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -3142,7 +3181,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ8">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3473,7 +3512,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3679,7 +3718,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3760,7 +3799,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ11">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3885,7 +3924,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3963,10 +4002,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AQ12">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR12">
         <v>2.33</v>
@@ -4169,10 +4208,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ13">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4375,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
         <v>1.44</v>
@@ -4581,10 +4620,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ15">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5202,7 +5241,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ18">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5327,7 +5366,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5817,10 +5856,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ21">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -6023,10 +6062,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ22">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -6229,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ23">
         <v>0.79</v>
@@ -6357,7 +6396,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6435,7 +6474,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ24">
         <v>1.44</v>
@@ -6641,10 +6680,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ25">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR25">
         <v>1.68</v>
@@ -6847,7 +6886,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26">
         <v>1.11</v>
@@ -7053,10 +7092,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AQ27">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR27">
         <v>2.33</v>
@@ -7181,7 +7220,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -7262,7 +7301,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ28">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7468,7 +7507,7 @@
         <v>1</v>
       </c>
       <c r="AQ29">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR29">
         <v>0.53</v>
@@ -7671,7 +7710,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ30">
         <v>2</v>
@@ -7799,7 +7838,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7880,7 +7919,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ31">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -8005,7 +8044,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -8083,7 +8122,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ32">
         <v>2.72</v>
@@ -8498,7 +8537,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ34">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR34">
         <v>1.89</v>
@@ -8704,7 +8743,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ35">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR35">
         <v>1.01</v>
@@ -9241,7 +9280,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9319,10 +9358,10 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ38">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR38">
         <v>1.63</v>
@@ -9653,7 +9692,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9734,7 +9773,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ40">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR40">
         <v>1.05</v>
@@ -9937,10 +9976,10 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ41">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR41">
         <v>1.91</v>
@@ -10065,7 +10104,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10271,7 +10310,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10349,7 +10388,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ43">
         <v>1.11</v>
@@ -10477,7 +10516,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10558,7 +10597,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ44">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR44">
         <v>1.19</v>
@@ -10683,7 +10722,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10761,7 +10800,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ45">
         <v>0.79</v>
@@ -10967,10 +11006,10 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ46">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR46">
         <v>0.99</v>
@@ -11176,7 +11215,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ47">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR47">
         <v>1.89</v>
@@ -11507,7 +11546,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="Q49">
         <v>3.2</v>
@@ -11713,7 +11752,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11794,7 +11833,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ50">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR50">
         <v>1.81</v>
@@ -11997,7 +12036,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ51">
         <v>2.72</v>
@@ -12203,10 +12242,10 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ52">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR52">
         <v>1.32</v>
@@ -12409,7 +12448,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
         <v>1.22</v>
@@ -12618,7 +12657,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ54">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR54">
         <v>1.46</v>
@@ -12821,10 +12860,10 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AQ55">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR55">
         <v>2.35</v>
@@ -13155,7 +13194,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -13361,7 +13400,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -13442,7 +13481,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ58">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR58">
         <v>1.22</v>
@@ -13567,7 +13606,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13645,7 +13684,7 @@
         <v>2.33</v>
       </c>
       <c r="AP59">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ59">
         <v>2</v>
@@ -13773,7 +13812,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13979,7 +14018,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -14057,7 +14096,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ61">
         <v>1.11</v>
@@ -14263,10 +14302,10 @@
         <v>0.25</v>
       </c>
       <c r="AP62">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ62">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR62">
         <v>1.13</v>
@@ -14391,7 +14430,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14472,7 +14511,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ63">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR63">
         <v>1.81</v>
@@ -14597,7 +14636,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14678,7 +14717,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ64">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR64">
         <v>1.12</v>
@@ -14803,7 +14842,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14881,10 +14920,10 @@
         <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ65">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR65">
         <v>1.31</v>
@@ -15009,7 +15048,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15087,7 +15126,7 @@
         <v>0.25</v>
       </c>
       <c r="AP66">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ66">
         <v>0.89</v>
@@ -15499,10 +15538,10 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ68">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR68">
         <v>1.54</v>
@@ -15627,7 +15666,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15705,7 +15744,7 @@
         <v>3</v>
       </c>
       <c r="AP69">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ69">
         <v>2.72</v>
@@ -15911,10 +15950,10 @@
         <v>1.2</v>
       </c>
       <c r="AP70">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AQ70">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR70">
         <v>2.49</v>
@@ -16039,7 +16078,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -16117,7 +16156,7 @@
         <v>0.8</v>
       </c>
       <c r="AP71">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ71">
         <v>1.22</v>
@@ -16451,7 +16490,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16529,10 +16568,10 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ73">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR73">
         <v>1.46</v>
@@ -16657,7 +16696,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16944,7 +16983,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ75">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR75">
         <v>1.22</v>
@@ -17069,7 +17108,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -17481,7 +17520,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17562,7 +17601,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ78">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR78">
         <v>1.57</v>
@@ -17687,7 +17726,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17765,7 +17804,7 @@
         <v>2.6</v>
       </c>
       <c r="AP79">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ79">
         <v>1.39</v>
@@ -17971,7 +18010,7 @@
         <v>1.25</v>
       </c>
       <c r="AP80">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ80">
         <v>1.44</v>
@@ -18099,7 +18138,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -18180,7 +18219,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ81">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR81">
         <v>1.32</v>
@@ -18305,7 +18344,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -18383,10 +18422,10 @@
         <v>0.75</v>
       </c>
       <c r="AP82">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ82">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR82">
         <v>1.24</v>
@@ -18511,7 +18550,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18592,7 +18631,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ83">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR83">
         <v>1.12</v>
@@ -18717,7 +18756,7 @@
         <v>87</v>
       </c>
       <c r="P84" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18795,10 +18834,10 @@
         <v>1.6</v>
       </c>
       <c r="AP84">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ84">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR84">
         <v>1.12</v>
@@ -18923,7 +18962,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -19001,7 +19040,7 @@
         <v>3</v>
       </c>
       <c r="AP85">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ85">
         <v>2.72</v>
@@ -19210,7 +19249,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ86">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR86">
         <v>1.93</v>
@@ -19335,7 +19374,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -19413,7 +19452,7 @@
         <v>0.8</v>
       </c>
       <c r="AP87">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AQ87">
         <v>0.79</v>
@@ -19619,10 +19658,10 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ88">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR88">
         <v>1.41</v>
@@ -19747,7 +19786,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -20031,7 +20070,7 @@
         <v>0.17</v>
       </c>
       <c r="AP90">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ90">
         <v>0.89</v>
@@ -20159,7 +20198,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -20240,7 +20279,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ91">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR91">
         <v>1.18</v>
@@ -20446,7 +20485,7 @@
         <v>1</v>
       </c>
       <c r="AQ92">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR92">
         <v>1.11</v>
@@ -20777,7 +20816,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -21061,10 +21100,10 @@
         <v>0.6</v>
       </c>
       <c r="AP95">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ95">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR95">
         <v>1.17</v>
@@ -21267,10 +21306,10 @@
         <v>0.17</v>
       </c>
       <c r="AP96">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ96">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR96">
         <v>1.54</v>
@@ -21473,7 +21512,7 @@
         <v>1.2</v>
       </c>
       <c r="AP97">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ97">
         <v>1.44</v>
@@ -21601,7 +21640,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="Q98">
         <v>13</v>
@@ -21679,7 +21718,7 @@
         <v>3</v>
       </c>
       <c r="AP98">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98">
         <v>2.72</v>
@@ -21888,7 +21927,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ99">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR99">
         <v>1.32</v>
@@ -22013,7 +22052,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -22219,7 +22258,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -22300,7 +22339,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ101">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR101">
         <v>1.12</v>
@@ -22425,7 +22464,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22503,10 +22542,10 @@
         <v>2.6</v>
       </c>
       <c r="AP102">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ102">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR102">
         <v>1.61</v>
@@ -22631,7 +22670,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -23121,10 +23160,10 @@
         <v>1.71</v>
       </c>
       <c r="AP105">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AQ105">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR105">
         <v>2.08</v>
@@ -23327,10 +23366,10 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ106">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR106">
         <v>1.53</v>
@@ -23455,7 +23494,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23867,7 +23906,7 @@
         <v>87</v>
       </c>
       <c r="P109" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -24151,10 +24190,10 @@
         <v>1.29</v>
       </c>
       <c r="AP110">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ110">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR110">
         <v>1.53</v>
@@ -24279,7 +24318,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -24357,10 +24396,10 @@
         <v>1</v>
       </c>
       <c r="AP111">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ111">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR111">
         <v>1.71</v>
@@ -24485,7 +24524,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24563,7 +24602,7 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ112">
         <v>1.44</v>
@@ -24769,10 +24808,10 @@
         <v>0.5</v>
       </c>
       <c r="AP113">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ113">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR113">
         <v>1.01</v>
@@ -24978,7 +25017,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ114">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR114">
         <v>1.72</v>
@@ -25184,7 +25223,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ115">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR115">
         <v>1.12</v>
@@ -25309,7 +25348,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -25390,7 +25429,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ116">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR116">
         <v>1.31</v>
@@ -25515,7 +25554,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25593,7 +25632,7 @@
         <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ117">
         <v>1.11</v>
@@ -25721,7 +25760,7 @@
         <v>87</v>
       </c>
       <c r="P118" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -25799,7 +25838,7 @@
         <v>3</v>
       </c>
       <c r="AP118">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ118">
         <v>2.72</v>
@@ -25927,7 +25966,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -26005,7 +26044,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ119">
         <v>1.44</v>
@@ -26133,7 +26172,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q120">
         <v>3.15</v>
@@ -26211,10 +26250,10 @@
         <v>0.86</v>
       </c>
       <c r="AP120">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ120">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR120">
         <v>1.05</v>
@@ -26420,7 +26459,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ121">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR121">
         <v>1.85</v>
@@ -26623,10 +26662,10 @@
         <v>2.14</v>
       </c>
       <c r="AP122">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ122">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR122">
         <v>1.45</v>
@@ -26829,10 +26868,10 @@
         <v>0.86</v>
       </c>
       <c r="AP123">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ123">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR123">
         <v>1.46</v>
@@ -26957,7 +26996,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -27163,7 +27202,7 @@
         <v>87</v>
       </c>
       <c r="P125" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Q125">
         <v>3.85</v>
@@ -27244,7 +27283,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ125">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR125">
         <v>1.76</v>
@@ -27369,7 +27408,7 @@
         <v>110</v>
       </c>
       <c r="P126" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="Q126">
         <v>1.77</v>
@@ -27447,7 +27486,7 @@
         <v>0.38</v>
       </c>
       <c r="AP126">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ126">
         <v>0.89</v>
@@ -27781,7 +27820,7 @@
         <v>119</v>
       </c>
       <c r="P128" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27862,7 +27901,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ128">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR128">
         <v>1.28</v>
@@ -27987,7 +28026,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -28065,7 +28104,7 @@
         <v>0.5</v>
       </c>
       <c r="AP129">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ129">
         <v>1.22</v>
@@ -28271,10 +28310,10 @@
         <v>0.13</v>
       </c>
       <c r="AP130">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ130">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR130">
         <v>1.5</v>
@@ -28399,7 +28438,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -28889,7 +28928,7 @@
         <v>0.88</v>
       </c>
       <c r="AP133">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ133">
         <v>0.79</v>
@@ -29095,10 +29134,10 @@
         <v>1.67</v>
       </c>
       <c r="AP134">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AQ134">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR134">
         <v>2.03</v>
@@ -29301,10 +29340,10 @@
         <v>0.5</v>
       </c>
       <c r="AP135">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AQ135">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR135">
         <v>1.93</v>
@@ -29429,7 +29468,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -29510,7 +29549,7 @@
         <v>1</v>
       </c>
       <c r="AQ136">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR136">
         <v>1.2</v>
@@ -29919,10 +29958,10 @@
         <v>1.43</v>
       </c>
       <c r="AP138">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ138">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR138">
         <v>1.06</v>
@@ -30047,7 +30086,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Q139">
         <v>5.5</v>
@@ -30331,10 +30370,10 @@
         <v>0.88</v>
       </c>
       <c r="AP140">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ140">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR140">
         <v>1.53</v>
@@ -30459,7 +30498,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30537,10 +30576,10 @@
         <v>0.88</v>
       </c>
       <c r="AP141">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ141">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR141">
         <v>1.19</v>
@@ -30665,7 +30704,7 @@
         <v>148</v>
       </c>
       <c r="P142" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30743,7 +30782,7 @@
         <v>1.38</v>
       </c>
       <c r="AP142">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ142">
         <v>1.11</v>
@@ -30871,7 +30910,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -30949,7 +30988,7 @@
         <v>2.38</v>
       </c>
       <c r="AP143">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ143">
         <v>2</v>
@@ -31158,7 +31197,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ144">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR144">
         <v>1.18</v>
@@ -31364,7 +31403,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ145">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR145">
         <v>1.37</v>
@@ -31695,7 +31734,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31773,7 +31812,7 @@
         <v>1.89</v>
       </c>
       <c r="AP147">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ147">
         <v>1.39</v>
@@ -31901,7 +31940,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Q148">
         <v>8.5</v>
@@ -32107,7 +32146,7 @@
         <v>190</v>
       </c>
       <c r="P149" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32188,7 +32227,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ149">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR149">
         <v>2.02</v>
@@ -32391,7 +32430,7 @@
         <v>0.67</v>
       </c>
       <c r="AP150">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ150">
         <v>0.89</v>
@@ -32519,7 +32558,7 @@
         <v>192</v>
       </c>
       <c r="P151" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="Q151">
         <v>1.83</v>
@@ -32597,7 +32636,7 @@
         <v>0.78</v>
       </c>
       <c r="AP151">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ151">
         <v>1.22</v>
@@ -32725,7 +32764,7 @@
         <v>87</v>
       </c>
       <c r="P152" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="Q152">
         <v>13</v>
@@ -32931,7 +32970,7 @@
         <v>92</v>
       </c>
       <c r="P153" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -33012,7 +33051,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ153">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR153">
         <v>1.01</v>
@@ -33215,10 +33254,10 @@
         <v>1.33</v>
       </c>
       <c r="AP154">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ154">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR154">
         <v>1.27</v>
@@ -33343,7 +33382,7 @@
         <v>194</v>
       </c>
       <c r="P155" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="Q155">
         <v>2.38</v>
@@ -33627,7 +33666,7 @@
         <v>2.11</v>
       </c>
       <c r="AP156">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ156">
         <v>2</v>
@@ -33836,7 +33875,7 @@
         <v>1</v>
       </c>
       <c r="AQ157">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR157">
         <v>1.13</v>
@@ -33961,7 +34000,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="Q158">
         <v>1.53</v>
@@ -34039,7 +34078,7 @@
         <v>1.22</v>
       </c>
       <c r="AP158">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AQ158">
         <v>1.44</v>
@@ -34167,7 +34206,7 @@
         <v>87</v>
       </c>
       <c r="P159" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34245,10 +34284,10 @@
         <v>0.78</v>
       </c>
       <c r="AP159">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ159">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR159">
         <v>1.07</v>
@@ -34373,7 +34412,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Q160">
         <v>3.25</v>
@@ -34451,10 +34490,10 @@
         <v>1.38</v>
       </c>
       <c r="AP160">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ160">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR160">
         <v>1.53</v>
@@ -34579,7 +34618,7 @@
         <v>87</v>
       </c>
       <c r="P161" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34657,10 +34696,10 @@
         <v>1.33</v>
       </c>
       <c r="AP161">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ161">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR161">
         <v>1.42</v>
@@ -34866,7 +34905,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ162">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR162">
         <v>1.35</v>
@@ -35069,10 +35108,10 @@
         <v>1.9</v>
       </c>
       <c r="AP163">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ163">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR163">
         <v>1.69</v>
@@ -35197,7 +35236,7 @@
         <v>199</v>
       </c>
       <c r="P164" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="Q164">
         <v>2.1</v>
@@ -35278,7 +35317,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ164">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR164">
         <v>1.67</v>
@@ -35403,7 +35442,7 @@
         <v>200</v>
       </c>
       <c r="P165" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="Q165">
         <v>1.8</v>
@@ -35481,7 +35520,7 @@
         <v>0.6</v>
       </c>
       <c r="AP165">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ165">
         <v>0.89</v>
@@ -35687,10 +35726,10 @@
         <v>0.1</v>
       </c>
       <c r="AP166">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ166">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR166">
         <v>1.38</v>
@@ -35815,7 +35854,7 @@
         <v>97</v>
       </c>
       <c r="P167" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="Q167">
         <v>6.5</v>
@@ -36305,7 +36344,7 @@
         <v>2</v>
       </c>
       <c r="AP169">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ169">
         <v>1.39</v>
@@ -36433,7 +36472,7 @@
         <v>87</v>
       </c>
       <c r="P170" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -36720,7 +36759,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ171">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR171">
         <v>1.13</v>
@@ -36923,7 +36962,7 @@
         <v>1.4</v>
       </c>
       <c r="AP172">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AQ172">
         <v>1.11</v>
@@ -37257,7 +37296,7 @@
         <v>87</v>
       </c>
       <c r="P174" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37338,7 +37377,7 @@
         <v>1</v>
       </c>
       <c r="AQ174">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR174">
         <v>1.18</v>
@@ -37463,7 +37502,7 @@
         <v>87</v>
       </c>
       <c r="P175" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="Q175">
         <v>2.38</v>
@@ -37541,10 +37580,10 @@
         <v>1</v>
       </c>
       <c r="AP175">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ175">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR175">
         <v>1.51</v>
@@ -37747,7 +37786,7 @@
         <v>0.8</v>
       </c>
       <c r="AP176">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ176">
         <v>1.22</v>
@@ -37953,10 +37992,10 @@
         <v>1.3</v>
       </c>
       <c r="AP177">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ177">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR177">
         <v>1.08</v>
@@ -38081,7 +38120,7 @@
         <v>206</v>
       </c>
       <c r="P178" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -38159,7 +38198,7 @@
         <v>0.64</v>
       </c>
       <c r="AP178">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ178">
         <v>0.89</v>
@@ -38365,7 +38404,7 @@
         <v>1.82</v>
       </c>
       <c r="AP179">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ179">
         <v>1.39</v>
@@ -38493,7 +38532,7 @@
         <v>87</v>
       </c>
       <c r="P180" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Q180">
         <v>13</v>
@@ -38777,10 +38816,10 @@
         <v>1.82</v>
       </c>
       <c r="AP181">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ181">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR181">
         <v>1.62</v>
@@ -38905,7 +38944,7 @@
         <v>89</v>
       </c>
       <c r="P182" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="Q182">
         <v>1.83</v>
@@ -38983,10 +39022,10 @@
         <v>0.09</v>
       </c>
       <c r="AP182">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ182">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR182">
         <v>1.76</v>
@@ -39111,7 +39150,7 @@
         <v>107</v>
       </c>
       <c r="P183" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="Q183">
         <v>1.91</v>
@@ -39192,7 +39231,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ183">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR183">
         <v>1.95</v>
@@ -39317,7 +39356,7 @@
         <v>189</v>
       </c>
       <c r="P184" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q184">
         <v>2.3</v>
@@ -39395,10 +39434,10 @@
         <v>1.27</v>
       </c>
       <c r="AP184">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ184">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR184">
         <v>1.73</v>
@@ -39604,7 +39643,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ185">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR185">
         <v>1.44</v>
@@ -39807,7 +39846,7 @@
         <v>0.73</v>
       </c>
       <c r="AP186">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ186">
         <v>0.79</v>
@@ -39935,7 +39974,7 @@
         <v>87</v>
       </c>
       <c r="P187" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="Q187">
         <v>4.75</v>
@@ -40141,7 +40180,7 @@
         <v>87</v>
       </c>
       <c r="P188" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="Q188">
         <v>2</v>
@@ -40347,7 +40386,7 @@
         <v>209</v>
       </c>
       <c r="P189" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="Q189">
         <v>1.73</v>
@@ -40425,7 +40464,7 @@
         <v>2.09</v>
       </c>
       <c r="AP189">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AQ189">
         <v>2</v>
@@ -40634,7 +40673,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ190">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR190">
         <v>1.16</v>
@@ -41046,7 +41085,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ192">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR192">
         <v>1.69</v>
@@ -41249,10 +41288,10 @@
         <v>0.33</v>
       </c>
       <c r="AP193">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ193">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR193">
         <v>1.1</v>
@@ -41377,7 +41416,7 @@
         <v>212</v>
       </c>
       <c r="P194" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="Q194">
         <v>9.4</v>
@@ -41661,10 +41700,10 @@
         <v>1.67</v>
       </c>
       <c r="AP195">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ195">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR195">
         <v>1.71</v>
@@ -41789,7 +41828,7 @@
         <v>214</v>
       </c>
       <c r="P196" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="Q196">
         <v>3.85</v>
@@ -41867,10 +41906,10 @@
         <v>1.67</v>
       </c>
       <c r="AP196">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ196">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR196">
         <v>1.72</v>
@@ -41995,7 +42034,7 @@
         <v>173</v>
       </c>
       <c r="P197" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="Q197">
         <v>3.25</v>
@@ -42073,7 +42112,7 @@
         <v>1.67</v>
       </c>
       <c r="AP197">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ197">
         <v>1.39</v>
@@ -42282,7 +42321,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ198">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR198">
         <v>1.34</v>
@@ -42485,10 +42524,10 @@
         <v>1.25</v>
       </c>
       <c r="AP199">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ199">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR199">
         <v>1.64</v>
@@ -42897,7 +42936,7 @@
         <v>0.75</v>
       </c>
       <c r="AP201">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ201">
         <v>0.79</v>
@@ -43025,7 +43064,7 @@
         <v>119</v>
       </c>
       <c r="P202" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="Q202">
         <v>7</v>
@@ -43309,7 +43348,7 @@
         <v>0.92</v>
       </c>
       <c r="AP203">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AQ203">
         <v>1.22</v>
@@ -43437,7 +43476,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="Q204">
         <v>1.85</v>
@@ -43724,7 +43763,7 @@
         <v>1</v>
       </c>
       <c r="AQ205">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR205">
         <v>1.17</v>
@@ -43930,7 +43969,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ206">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR206">
         <v>1.7</v>
@@ -44055,7 +44094,7 @@
         <v>152</v>
       </c>
       <c r="P207" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -44136,7 +44175,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ207">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR207">
         <v>1.13</v>
@@ -44339,7 +44378,7 @@
         <v>1.42</v>
       </c>
       <c r="AP208">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ208">
         <v>1.11</v>
@@ -44545,7 +44584,7 @@
         <v>1.62</v>
       </c>
       <c r="AP209">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ209">
         <v>1.39</v>
@@ -44754,7 +44793,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ210">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR210">
         <v>1.45</v>
@@ -45085,7 +45124,7 @@
         <v>87</v>
       </c>
       <c r="P212" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="Q212">
         <v>9.5</v>
@@ -45163,7 +45202,7 @@
         <v>3</v>
       </c>
       <c r="AP212">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ212">
         <v>2.72</v>
@@ -45291,7 +45330,7 @@
         <v>225</v>
       </c>
       <c r="P213" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="Q213">
         <v>1.8</v>
@@ -45369,10 +45408,10 @@
         <v>1.15</v>
       </c>
       <c r="AP213">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ213">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR213">
         <v>1.85</v>
@@ -45497,7 +45536,7 @@
         <v>226</v>
       </c>
       <c r="P214" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="Q214">
         <v>2.63</v>
@@ -45575,10 +45614,10 @@
         <v>1.15</v>
       </c>
       <c r="AP214">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ214">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR214">
         <v>1.63</v>
@@ -45781,10 +45820,10 @@
         <v>1.54</v>
       </c>
       <c r="AP215">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ215">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR215">
         <v>1.47</v>
@@ -45990,7 +46029,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ216">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR216">
         <v>1.76</v>
@@ -46115,7 +46154,7 @@
         <v>189</v>
       </c>
       <c r="P217" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -46193,10 +46232,10 @@
         <v>1.25</v>
       </c>
       <c r="AP217">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ217">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR217">
         <v>1.61</v>
@@ -46321,7 +46360,7 @@
         <v>229</v>
       </c>
       <c r="P218" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="Q218">
         <v>4.33</v>
@@ -46527,7 +46566,7 @@
         <v>230</v>
       </c>
       <c r="P219" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="Q219">
         <v>6</v>
@@ -46733,7 +46772,7 @@
         <v>231</v>
       </c>
       <c r="P220" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="Q220">
         <v>2.1</v>
@@ -46814,7 +46853,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ220">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR220">
         <v>1.95</v>
@@ -47017,7 +47056,7 @@
         <v>1</v>
       </c>
       <c r="AP221">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AQ221">
         <v>0.89</v>
@@ -47145,7 +47184,7 @@
         <v>233</v>
       </c>
       <c r="P222" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q222">
         <v>4.5</v>
@@ -47223,10 +47262,10 @@
         <v>1.77</v>
       </c>
       <c r="AP222">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ222">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR222">
         <v>1.65</v>
@@ -47351,7 +47390,7 @@
         <v>87</v>
       </c>
       <c r="P223" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q223">
         <v>3.5</v>
@@ -47429,7 +47468,7 @@
         <v>2.08</v>
       </c>
       <c r="AP223">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ223">
         <v>2</v>
@@ -47763,7 +47802,7 @@
         <v>234</v>
       </c>
       <c r="P225" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="Q225">
         <v>2.6</v>
@@ -47844,7 +47883,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ225">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR225">
         <v>1.67</v>
@@ -48047,10 +48086,10 @@
         <v>1.07</v>
       </c>
       <c r="AP226">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ226">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR226">
         <v>1.47</v>
@@ -48175,7 +48214,7 @@
         <v>235</v>
       </c>
       <c r="P227" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="Q227">
         <v>2.6</v>
@@ -48253,10 +48292,10 @@
         <v>0.79</v>
       </c>
       <c r="AP227">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ227">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR227">
         <v>1.6</v>
@@ -48459,10 +48498,10 @@
         <v>1.29</v>
       </c>
       <c r="AP228">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ228">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR228">
         <v>1.81</v>
@@ -48587,7 +48626,7 @@
         <v>236</v>
       </c>
       <c r="P229" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="Q229">
         <v>8</v>
@@ -49077,10 +49116,10 @@
         <v>0.29</v>
       </c>
       <c r="AP231">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ231">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR231">
         <v>1.62</v>
@@ -49283,10 +49322,10 @@
         <v>1.43</v>
       </c>
       <c r="AP232">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ232">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR232">
         <v>1.19</v>
@@ -49411,7 +49450,7 @@
         <v>182</v>
       </c>
       <c r="P233" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49823,7 +49862,7 @@
         <v>87</v>
       </c>
       <c r="P235" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="Q235">
         <v>3.24</v>
@@ -49901,7 +49940,7 @@
         <v>2.14</v>
       </c>
       <c r="AP235">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ235">
         <v>2</v>
@@ -50029,7 +50068,7 @@
         <v>239</v>
       </c>
       <c r="P236" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="Q236">
         <v>1.43</v>
@@ -50107,7 +50146,7 @@
         <v>1.71</v>
       </c>
       <c r="AP236">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AQ236">
         <v>1.39</v>
@@ -50316,7 +50355,7 @@
         <v>1</v>
       </c>
       <c r="AQ237">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR237">
         <v>1.27</v>
@@ -50522,7 +50561,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ238">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR238">
         <v>1.92</v>
@@ -50647,7 +50686,7 @@
         <v>226</v>
       </c>
       <c r="P239" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -50728,7 +50767,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ239">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR239">
         <v>1.14</v>
@@ -50853,7 +50892,7 @@
         <v>241</v>
       </c>
       <c r="P240" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="Q240">
         <v>2.6</v>
@@ -51059,7 +51098,7 @@
         <v>87</v>
       </c>
       <c r="P241" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -51137,7 +51176,7 @@
         <v>1</v>
       </c>
       <c r="AP241">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ241">
         <v>1.22</v>
@@ -51343,7 +51382,7 @@
         <v>1.27</v>
       </c>
       <c r="AP242">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ242">
         <v>1.11</v>
@@ -51549,7 +51588,7 @@
         <v>2.2</v>
       </c>
       <c r="AP243">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AQ243">
         <v>2</v>
@@ -51677,7 +51716,7 @@
         <v>244</v>
       </c>
       <c r="P244" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="Q244">
         <v>2.1</v>
@@ -51755,7 +51794,7 @@
         <v>0.73</v>
       </c>
       <c r="AP244">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ244">
         <v>0.79</v>
@@ -51883,7 +51922,7 @@
         <v>240</v>
       </c>
       <c r="P245" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="Q245">
         <v>2.2</v>
@@ -51964,7 +52003,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ245">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR245">
         <v>1.89</v>
@@ -52089,7 +52128,7 @@
         <v>245</v>
       </c>
       <c r="P246" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="Q246">
         <v>0</v>
@@ -52170,7 +52209,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ246">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR246">
         <v>1.7</v>
@@ -52295,7 +52334,7 @@
         <v>246</v>
       </c>
       <c r="P247" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="Q247">
         <v>2.3</v>
@@ -52373,7 +52412,7 @@
         <v>0.87</v>
       </c>
       <c r="AP247">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ247">
         <v>0.89</v>
@@ -52501,7 +52540,7 @@
         <v>87</v>
       </c>
       <c r="P248" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="Q248">
         <v>2.6</v>
@@ -52582,7 +52621,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ248">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR248">
         <v>1.39</v>
@@ -52788,7 +52827,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ249">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR249">
         <v>1.48</v>
@@ -52991,7 +53030,7 @@
         <v>1.13</v>
       </c>
       <c r="AP250">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ250">
         <v>1.22</v>
@@ -53200,7 +53239,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ251">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR251">
         <v>1.24</v>
@@ -53406,7 +53445,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ252">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR252">
         <v>1.75</v>
@@ -53612,7 +53651,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ253">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR253">
         <v>1.17</v>
@@ -53737,7 +53776,7 @@
         <v>250</v>
       </c>
       <c r="P254" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="Q254">
         <v>1.95</v>
@@ -53815,7 +53854,7 @@
         <v>1.6</v>
       </c>
       <c r="AP254">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ254">
         <v>1.39</v>
@@ -53943,7 +53982,7 @@
         <v>251</v>
       </c>
       <c r="P255" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Q255">
         <v>5.5</v>
@@ -54021,7 +54060,7 @@
         <v>3</v>
       </c>
       <c r="AP255">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ255">
         <v>2.72</v>
@@ -54227,10 +54266,10 @@
         <v>0.93</v>
       </c>
       <c r="AP256">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ256">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR256">
         <v>1.24</v>
@@ -54561,7 +54600,7 @@
         <v>254</v>
       </c>
       <c r="P258" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="Q258">
         <v>1.95</v>
@@ -54639,10 +54678,10 @@
         <v>1.06</v>
       </c>
       <c r="AP258">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ258">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR258">
         <v>1.5</v>
@@ -54767,7 +54806,7 @@
         <v>255</v>
       </c>
       <c r="P259" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="Q259">
         <v>1.57</v>
@@ -54845,7 +54884,7 @@
         <v>1.56</v>
       </c>
       <c r="AP259">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AQ259">
         <v>1.39</v>
@@ -54973,7 +55012,7 @@
         <v>256</v>
       </c>
       <c r="P260" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="Q260">
         <v>2.3</v>
@@ -55051,7 +55090,7 @@
         <v>1.19</v>
       </c>
       <c r="AP260">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ260">
         <v>1.11</v>
@@ -55179,7 +55218,7 @@
         <v>87</v>
       </c>
       <c r="P261" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="Q261">
         <v>2.6</v>
@@ -55260,7 +55299,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ261">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR261">
         <v>1.71</v>
@@ -55466,7 +55505,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ262">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR262">
         <v>1.37</v>
@@ -55669,7 +55708,7 @@
         <v>1</v>
       </c>
       <c r="AP263">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ263">
         <v>0.89</v>
@@ -55878,7 +55917,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ264">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR264">
         <v>1.22</v>
@@ -56003,7 +56042,7 @@
         <v>258</v>
       </c>
       <c r="P265" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="Q265">
         <v>2.75</v>
@@ -56209,7 +56248,7 @@
         <v>259</v>
       </c>
       <c r="P266" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="Q266">
         <v>3</v>
@@ -56287,10 +56326,10 @@
         <v>1.81</v>
       </c>
       <c r="AP266">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ266">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR266">
         <v>1.68</v>
@@ -56621,7 +56660,7 @@
         <v>235</v>
       </c>
       <c r="P268" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="Q268">
         <v>5</v>
@@ -56905,10 +56944,10 @@
         <v>1</v>
       </c>
       <c r="AP269">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ269">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR269">
         <v>1.59</v>
@@ -57111,10 +57150,10 @@
         <v>1.31</v>
       </c>
       <c r="AP270">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ270">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR270">
         <v>1.53</v>
@@ -57651,7 +57690,7 @@
         <v>262</v>
       </c>
       <c r="P273" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="Q273">
         <v>0</v>
@@ -57729,10 +57768,10 @@
         <v>1.31</v>
       </c>
       <c r="AP273">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ273">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR273">
         <v>1.65</v>
@@ -57857,7 +57896,7 @@
         <v>263</v>
       </c>
       <c r="P274" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="Q274">
         <v>2.1</v>
@@ -57938,7 +57977,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ274">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR274">
         <v>1.29</v>
@@ -58063,7 +58102,7 @@
         <v>264</v>
       </c>
       <c r="P275" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="Q275">
         <v>2.6</v>
@@ -58141,10 +58180,10 @@
         <v>1.18</v>
       </c>
       <c r="AP275">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ275">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR275">
         <v>1.71</v>
@@ -58347,10 +58386,10 @@
         <v>1.29</v>
       </c>
       <c r="AP276">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ276">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR276">
         <v>1.69</v>
@@ -58553,7 +58592,7 @@
         <v>0.88</v>
       </c>
       <c r="AP277">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ277">
         <v>0.79</v>
@@ -58759,10 +58798,10 @@
         <v>1.88</v>
       </c>
       <c r="AP278">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AQ278">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR278">
         <v>2.24</v>
@@ -58887,7 +58926,7 @@
         <v>89</v>
       </c>
       <c r="P279" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="Q279">
         <v>2.75</v>
@@ -58965,10 +59004,10 @@
         <v>1.29</v>
       </c>
       <c r="AP279">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ279">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR279">
         <v>1.74</v>
@@ -59093,7 +59132,7 @@
         <v>168</v>
       </c>
       <c r="P280" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="Q280">
         <v>2.4</v>
@@ -59171,7 +59210,7 @@
         <v>1.13</v>
       </c>
       <c r="AP280">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ280">
         <v>1.22</v>
@@ -59299,7 +59338,7 @@
         <v>266</v>
       </c>
       <c r="P281" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="Q281">
         <v>2.7</v>
@@ -59380,7 +59419,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ281">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR281">
         <v>1.58</v>
@@ -59505,7 +59544,7 @@
         <v>267</v>
       </c>
       <c r="P282" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="Q282">
         <v>5.5</v>
@@ -59711,7 +59750,7 @@
         <v>268</v>
       </c>
       <c r="P283" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="Q283">
         <v>2.63</v>
@@ -59917,7 +59956,7 @@
         <v>87</v>
       </c>
       <c r="P284" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="Q284">
         <v>0</v>
@@ -60329,7 +60368,7 @@
         <v>269</v>
       </c>
       <c r="P286" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="Q286">
         <v>3</v>
@@ -60535,7 +60574,7 @@
         <v>87</v>
       </c>
       <c r="P287" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="Q287">
         <v>4.33</v>
@@ -60947,7 +60986,7 @@
         <v>87</v>
       </c>
       <c r="P289" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="Q289">
         <v>5</v>
@@ -61104,6 +61143,1654 @@
       </c>
       <c r="BP289">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="290" spans="1:68">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>7881263</v>
+      </c>
+      <c r="C290" t="s">
+        <v>68</v>
+      </c>
+      <c r="D290" t="s">
+        <v>69</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45800.58333333334</v>
+      </c>
+      <c r="F290">
+        <v>7</v>
+      </c>
+      <c r="G290" t="s">
+        <v>74</v>
+      </c>
+      <c r="H290" t="s">
+        <v>79</v>
+      </c>
+      <c r="I290">
+        <v>1</v>
+      </c>
+      <c r="J290">
+        <v>2</v>
+      </c>
+      <c r="K290">
+        <v>3</v>
+      </c>
+      <c r="L290">
+        <v>2</v>
+      </c>
+      <c r="M290">
+        <v>2</v>
+      </c>
+      <c r="N290">
+        <v>4</v>
+      </c>
+      <c r="O290" t="s">
+        <v>271</v>
+      </c>
+      <c r="P290" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q290">
+        <v>2.4</v>
+      </c>
+      <c r="R290">
+        <v>2.2</v>
+      </c>
+      <c r="S290">
+        <v>4</v>
+      </c>
+      <c r="T290">
+        <v>1.36</v>
+      </c>
+      <c r="U290">
+        <v>2.88</v>
+      </c>
+      <c r="V290">
+        <v>2.75</v>
+      </c>
+      <c r="W290">
+        <v>1.4</v>
+      </c>
+      <c r="X290">
+        <v>7</v>
+      </c>
+      <c r="Y290">
+        <v>1.04</v>
+      </c>
+      <c r="Z290">
+        <v>1.84</v>
+      </c>
+      <c r="AA290">
+        <v>3.57</v>
+      </c>
+      <c r="AB290">
+        <v>3.37</v>
+      </c>
+      <c r="AC290">
+        <v>1.04</v>
+      </c>
+      <c r="AD290">
+        <v>9</v>
+      </c>
+      <c r="AE290">
+        <v>1.28</v>
+      </c>
+      <c r="AF290">
+        <v>3.55</v>
+      </c>
+      <c r="AG290">
+        <v>1.85</v>
+      </c>
+      <c r="AH290">
+        <v>1.85</v>
+      </c>
+      <c r="AI290">
+        <v>1.73</v>
+      </c>
+      <c r="AJ290">
+        <v>1.93</v>
+      </c>
+      <c r="AK290">
+        <v>1.22</v>
+      </c>
+      <c r="AL290">
+        <v>1.22</v>
+      </c>
+      <c r="AM290">
+        <v>1.85</v>
+      </c>
+      <c r="AN290">
+        <v>1.22</v>
+      </c>
+      <c r="AO290">
+        <v>1.41</v>
+      </c>
+      <c r="AP290">
+        <v>1.21</v>
+      </c>
+      <c r="AQ290">
+        <v>1.39</v>
+      </c>
+      <c r="AR290">
+        <v>1.65</v>
+      </c>
+      <c r="AS290">
+        <v>1.18</v>
+      </c>
+      <c r="AT290">
+        <v>2.83</v>
+      </c>
+      <c r="AU290">
+        <v>6</v>
+      </c>
+      <c r="AV290">
+        <v>4</v>
+      </c>
+      <c r="AW290">
+        <v>5</v>
+      </c>
+      <c r="AX290">
+        <v>4</v>
+      </c>
+      <c r="AY290">
+        <v>11</v>
+      </c>
+      <c r="AZ290">
+        <v>8</v>
+      </c>
+      <c r="BA290">
+        <v>3</v>
+      </c>
+      <c r="BB290">
+        <v>1</v>
+      </c>
+      <c r="BC290">
+        <v>4</v>
+      </c>
+      <c r="BD290">
+        <v>1.57</v>
+      </c>
+      <c r="BE290">
+        <v>6.3</v>
+      </c>
+      <c r="BF290">
+        <v>3.1</v>
+      </c>
+      <c r="BG290">
+        <v>1.45</v>
+      </c>
+      <c r="BH290">
+        <v>2.41</v>
+      </c>
+      <c r="BI290">
+        <v>1.83</v>
+      </c>
+      <c r="BJ290">
+        <v>1.83</v>
+      </c>
+      <c r="BK290">
+        <v>2.38</v>
+      </c>
+      <c r="BL290">
+        <v>1.46</v>
+      </c>
+      <c r="BM290">
+        <v>3.28</v>
+      </c>
+      <c r="BN290">
+        <v>1.25</v>
+      </c>
+      <c r="BO290">
+        <v>4.25</v>
+      </c>
+      <c r="BP290">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="291" spans="1:68">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>7881265</v>
+      </c>
+      <c r="C291" t="s">
+        <v>68</v>
+      </c>
+      <c r="D291" t="s">
+        <v>69</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45801.5</v>
+      </c>
+      <c r="F291">
+        <v>7</v>
+      </c>
+      <c r="G291" t="s">
+        <v>84</v>
+      </c>
+      <c r="H291" t="s">
+        <v>71</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>1</v>
+      </c>
+      <c r="K291">
+        <v>1</v>
+      </c>
+      <c r="L291">
+        <v>2</v>
+      </c>
+      <c r="M291">
+        <v>1</v>
+      </c>
+      <c r="N291">
+        <v>3</v>
+      </c>
+      <c r="O291" t="s">
+        <v>272</v>
+      </c>
+      <c r="P291" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q291">
+        <v>2.5</v>
+      </c>
+      <c r="R291">
+        <v>2.2</v>
+      </c>
+      <c r="S291">
+        <v>4</v>
+      </c>
+      <c r="T291">
+        <v>1.36</v>
+      </c>
+      <c r="U291">
+        <v>3</v>
+      </c>
+      <c r="V291">
+        <v>2.63</v>
+      </c>
+      <c r="W291">
+        <v>1.44</v>
+      </c>
+      <c r="X291">
+        <v>6.5</v>
+      </c>
+      <c r="Y291">
+        <v>1.1</v>
+      </c>
+      <c r="Z291">
+        <v>1.89</v>
+      </c>
+      <c r="AA291">
+        <v>3.37</v>
+      </c>
+      <c r="AB291">
+        <v>3.66</v>
+      </c>
+      <c r="AC291">
+        <v>1.05</v>
+      </c>
+      <c r="AD291">
+        <v>8.5</v>
+      </c>
+      <c r="AE291">
+        <v>1.28</v>
+      </c>
+      <c r="AF291">
+        <v>3.55</v>
+      </c>
+      <c r="AG291">
+        <v>1.8</v>
+      </c>
+      <c r="AH291">
+        <v>1.9</v>
+      </c>
+      <c r="AI291">
+        <v>1.73</v>
+      </c>
+      <c r="AJ291">
+        <v>2</v>
+      </c>
+      <c r="AK291">
+        <v>1.2</v>
+      </c>
+      <c r="AL291">
+        <v>1.25</v>
+      </c>
+      <c r="AM291">
+        <v>1.83</v>
+      </c>
+      <c r="AN291">
+        <v>1.28</v>
+      </c>
+      <c r="AO291">
+        <v>0.88</v>
+      </c>
+      <c r="AP291">
+        <v>1.37</v>
+      </c>
+      <c r="AQ291">
+        <v>0.83</v>
+      </c>
+      <c r="AR291">
+        <v>1.54</v>
+      </c>
+      <c r="AS291">
+        <v>1.28</v>
+      </c>
+      <c r="AT291">
+        <v>2.82</v>
+      </c>
+      <c r="AU291">
+        <v>4</v>
+      </c>
+      <c r="AV291">
+        <v>7</v>
+      </c>
+      <c r="AW291">
+        <v>6</v>
+      </c>
+      <c r="AX291">
+        <v>7</v>
+      </c>
+      <c r="AY291">
+        <v>10</v>
+      </c>
+      <c r="AZ291">
+        <v>14</v>
+      </c>
+      <c r="BA291">
+        <v>3</v>
+      </c>
+      <c r="BB291">
+        <v>6</v>
+      </c>
+      <c r="BC291">
+        <v>9</v>
+      </c>
+      <c r="BD291">
+        <v>1.46</v>
+      </c>
+      <c r="BE291">
+        <v>6.8</v>
+      </c>
+      <c r="BF291">
+        <v>3.5</v>
+      </c>
+      <c r="BG291">
+        <v>1.31</v>
+      </c>
+      <c r="BH291">
+        <v>2.92</v>
+      </c>
+      <c r="BI291">
+        <v>1.57</v>
+      </c>
+      <c r="BJ291">
+        <v>2.14</v>
+      </c>
+      <c r="BK291">
+        <v>2</v>
+      </c>
+      <c r="BL291">
+        <v>1.69</v>
+      </c>
+      <c r="BM291">
+        <v>2.62</v>
+      </c>
+      <c r="BN291">
+        <v>1.38</v>
+      </c>
+      <c r="BO291">
+        <v>3.58</v>
+      </c>
+      <c r="BP291">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="292" spans="1:68">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>7881264</v>
+      </c>
+      <c r="C292" t="s">
+        <v>68</v>
+      </c>
+      <c r="D292" t="s">
+        <v>69</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45801.5</v>
+      </c>
+      <c r="F292">
+        <v>7</v>
+      </c>
+      <c r="G292" t="s">
+        <v>81</v>
+      </c>
+      <c r="H292" t="s">
+        <v>76</v>
+      </c>
+      <c r="I292">
+        <v>1</v>
+      </c>
+      <c r="J292">
+        <v>3</v>
+      </c>
+      <c r="K292">
+        <v>4</v>
+      </c>
+      <c r="L292">
+        <v>2</v>
+      </c>
+      <c r="M292">
+        <v>4</v>
+      </c>
+      <c r="N292">
+        <v>6</v>
+      </c>
+      <c r="O292" t="s">
+        <v>273</v>
+      </c>
+      <c r="P292" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q292">
+        <v>1.67</v>
+      </c>
+      <c r="R292">
+        <v>2.63</v>
+      </c>
+      <c r="S292">
+        <v>8.5</v>
+      </c>
+      <c r="T292">
+        <v>1.25</v>
+      </c>
+      <c r="U292">
+        <v>3.5</v>
+      </c>
+      <c r="V292">
+        <v>2.25</v>
+      </c>
+      <c r="W292">
+        <v>1.57</v>
+      </c>
+      <c r="X292">
+        <v>5.05</v>
+      </c>
+      <c r="Y292">
+        <v>1.12</v>
+      </c>
+      <c r="Z292">
+        <v>1.28</v>
+      </c>
+      <c r="AA292">
+        <v>5.1</v>
+      </c>
+      <c r="AB292">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC292">
+        <v>1.03</v>
+      </c>
+      <c r="AD292">
+        <v>10</v>
+      </c>
+      <c r="AE292">
+        <v>1.17</v>
+      </c>
+      <c r="AF292">
+        <v>4.75</v>
+      </c>
+      <c r="AG292">
+        <v>1.53</v>
+      </c>
+      <c r="AH292">
+        <v>2.25</v>
+      </c>
+      <c r="AI292">
+        <v>1.95</v>
+      </c>
+      <c r="AJ292">
+        <v>1.7</v>
+      </c>
+      <c r="AK292">
+        <v>1.03</v>
+      </c>
+      <c r="AL292">
+        <v>1.13</v>
+      </c>
+      <c r="AM292">
+        <v>3.55</v>
+      </c>
+      <c r="AN292">
+        <v>1.59</v>
+      </c>
+      <c r="AO292">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP292">
+        <v>1.5</v>
+      </c>
+      <c r="AQ292">
+        <v>1.05</v>
+      </c>
+      <c r="AR292">
+        <v>1.22</v>
+      </c>
+      <c r="AS292">
+        <v>1.21</v>
+      </c>
+      <c r="AT292">
+        <v>2.43</v>
+      </c>
+      <c r="AU292">
+        <v>8</v>
+      </c>
+      <c r="AV292">
+        <v>6</v>
+      </c>
+      <c r="AW292">
+        <v>11</v>
+      </c>
+      <c r="AX292">
+        <v>2</v>
+      </c>
+      <c r="AY292">
+        <v>19</v>
+      </c>
+      <c r="AZ292">
+        <v>8</v>
+      </c>
+      <c r="BA292">
+        <v>10</v>
+      </c>
+      <c r="BB292">
+        <v>2</v>
+      </c>
+      <c r="BC292">
+        <v>12</v>
+      </c>
+      <c r="BD292">
+        <v>1.33</v>
+      </c>
+      <c r="BE292">
+        <v>8.4</v>
+      </c>
+      <c r="BF292">
+        <v>4.05</v>
+      </c>
+      <c r="BG292">
+        <v>1.66</v>
+      </c>
+      <c r="BH292">
+        <v>2.04</v>
+      </c>
+      <c r="BI292">
+        <v>2.12</v>
+      </c>
+      <c r="BJ292">
+        <v>1.58</v>
+      </c>
+      <c r="BK292">
+        <v>2.92</v>
+      </c>
+      <c r="BL292">
+        <v>1.31</v>
+      </c>
+      <c r="BM292">
+        <v>3.85</v>
+      </c>
+      <c r="BN292">
+        <v>1.2</v>
+      </c>
+      <c r="BO292">
+        <v>5.4</v>
+      </c>
+      <c r="BP292">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:68">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>7881266</v>
+      </c>
+      <c r="C293" t="s">
+        <v>68</v>
+      </c>
+      <c r="D293" t="s">
+        <v>69</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45801.5</v>
+      </c>
+      <c r="F293">
+        <v>7</v>
+      </c>
+      <c r="G293" t="s">
+        <v>80</v>
+      </c>
+      <c r="H293" t="s">
+        <v>78</v>
+      </c>
+      <c r="I293">
+        <v>2</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>2</v>
+      </c>
+      <c r="L293">
+        <v>3</v>
+      </c>
+      <c r="M293">
+        <v>1</v>
+      </c>
+      <c r="N293">
+        <v>4</v>
+      </c>
+      <c r="O293" t="s">
+        <v>274</v>
+      </c>
+      <c r="P293" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q293">
+        <v>1.83</v>
+      </c>
+      <c r="R293">
+        <v>2.5</v>
+      </c>
+      <c r="S293">
+        <v>6</v>
+      </c>
+      <c r="T293">
+        <v>1.28</v>
+      </c>
+      <c r="U293">
+        <v>3.35</v>
+      </c>
+      <c r="V293">
+        <v>2.25</v>
+      </c>
+      <c r="W293">
+        <v>1.57</v>
+      </c>
+      <c r="X293">
+        <v>4.95</v>
+      </c>
+      <c r="Y293">
+        <v>1.11</v>
+      </c>
+      <c r="Z293">
+        <v>1.42</v>
+      </c>
+      <c r="AA293">
+        <v>4.4</v>
+      </c>
+      <c r="AB293">
+        <v>5.8</v>
+      </c>
+      <c r="AC293">
+        <v>1.03</v>
+      </c>
+      <c r="AD293">
+        <v>10</v>
+      </c>
+      <c r="AE293">
+        <v>1.18</v>
+      </c>
+      <c r="AF293">
+        <v>4.5</v>
+      </c>
+      <c r="AG293">
+        <v>1.55</v>
+      </c>
+      <c r="AH293">
+        <v>2.2</v>
+      </c>
+      <c r="AI293">
+        <v>1.67</v>
+      </c>
+      <c r="AJ293">
+        <v>2</v>
+      </c>
+      <c r="AK293">
+        <v>1.07</v>
+      </c>
+      <c r="AL293">
+        <v>1.14</v>
+      </c>
+      <c r="AM293">
+        <v>2.7</v>
+      </c>
+      <c r="AN293">
+        <v>1.47</v>
+      </c>
+      <c r="AO293">
+        <v>0.39</v>
+      </c>
+      <c r="AP293">
+        <v>1.56</v>
+      </c>
+      <c r="AQ293">
+        <v>0.37</v>
+      </c>
+      <c r="AR293">
+        <v>1.6</v>
+      </c>
+      <c r="AS293">
+        <v>1.21</v>
+      </c>
+      <c r="AT293">
+        <v>2.81</v>
+      </c>
+      <c r="AU293">
+        <v>7</v>
+      </c>
+      <c r="AV293">
+        <v>8</v>
+      </c>
+      <c r="AW293">
+        <v>4</v>
+      </c>
+      <c r="AX293">
+        <v>13</v>
+      </c>
+      <c r="AY293">
+        <v>11</v>
+      </c>
+      <c r="AZ293">
+        <v>21</v>
+      </c>
+      <c r="BA293">
+        <v>2</v>
+      </c>
+      <c r="BB293">
+        <v>4</v>
+      </c>
+      <c r="BC293">
+        <v>6</v>
+      </c>
+      <c r="BD293">
+        <v>1.31</v>
+      </c>
+      <c r="BE293">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF293">
+        <v>4.15</v>
+      </c>
+      <c r="BG293">
+        <v>1.46</v>
+      </c>
+      <c r="BH293">
+        <v>2.52</v>
+      </c>
+      <c r="BI293">
+        <v>1.92</v>
+      </c>
+      <c r="BJ293">
+        <v>1.88</v>
+      </c>
+      <c r="BK293">
+        <v>2.47</v>
+      </c>
+      <c r="BL293">
+        <v>1.48</v>
+      </c>
+      <c r="BM293">
+        <v>3.34</v>
+      </c>
+      <c r="BN293">
+        <v>1.24</v>
+      </c>
+      <c r="BO293">
+        <v>4.3</v>
+      </c>
+      <c r="BP293">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="294" spans="1:68">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>7881260</v>
+      </c>
+      <c r="C294" t="s">
+        <v>68</v>
+      </c>
+      <c r="D294" t="s">
+        <v>69</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45801.60416666666</v>
+      </c>
+      <c r="F294">
+        <v>7</v>
+      </c>
+      <c r="G294" t="s">
+        <v>72</v>
+      </c>
+      <c r="H294" t="s">
+        <v>73</v>
+      </c>
+      <c r="I294">
+        <v>2</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>2</v>
+      </c>
+      <c r="L294">
+        <v>3</v>
+      </c>
+      <c r="M294">
+        <v>1</v>
+      </c>
+      <c r="N294">
+        <v>4</v>
+      </c>
+      <c r="O294" t="s">
+        <v>275</v>
+      </c>
+      <c r="P294" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q294">
+        <v>0</v>
+      </c>
+      <c r="R294">
+        <v>0</v>
+      </c>
+      <c r="S294">
+        <v>0</v>
+      </c>
+      <c r="T294">
+        <v>0</v>
+      </c>
+      <c r="U294">
+        <v>0</v>
+      </c>
+      <c r="V294">
+        <v>0</v>
+      </c>
+      <c r="W294">
+        <v>0</v>
+      </c>
+      <c r="X294">
+        <v>0</v>
+      </c>
+      <c r="Y294">
+        <v>0</v>
+      </c>
+      <c r="Z294">
+        <v>1.09</v>
+      </c>
+      <c r="AA294">
+        <v>8.9</v>
+      </c>
+      <c r="AB294">
+        <v>14</v>
+      </c>
+      <c r="AC294">
+        <v>0</v>
+      </c>
+      <c r="AD294">
+        <v>0</v>
+      </c>
+      <c r="AE294">
+        <v>0</v>
+      </c>
+      <c r="AF294">
+        <v>0</v>
+      </c>
+      <c r="AG294">
+        <v>1.19</v>
+      </c>
+      <c r="AH294">
+        <v>4.16</v>
+      </c>
+      <c r="AI294">
+        <v>0</v>
+      </c>
+      <c r="AJ294">
+        <v>0</v>
+      </c>
+      <c r="AK294">
+        <v>0</v>
+      </c>
+      <c r="AL294">
+        <v>0</v>
+      </c>
+      <c r="AM294">
+        <v>0</v>
+      </c>
+      <c r="AN294">
+        <v>2.67</v>
+      </c>
+      <c r="AO294">
+        <v>1.22</v>
+      </c>
+      <c r="AP294">
+        <v>2.68</v>
+      </c>
+      <c r="AQ294">
+        <v>1.16</v>
+      </c>
+      <c r="AR294">
+        <v>2.23</v>
+      </c>
+      <c r="AS294">
+        <v>0.86</v>
+      </c>
+      <c r="AT294">
+        <v>3.09</v>
+      </c>
+      <c r="AU294">
+        <v>8</v>
+      </c>
+      <c r="AV294">
+        <v>3</v>
+      </c>
+      <c r="AW294">
+        <v>21</v>
+      </c>
+      <c r="AX294">
+        <v>2</v>
+      </c>
+      <c r="AY294">
+        <v>29</v>
+      </c>
+      <c r="AZ294">
+        <v>5</v>
+      </c>
+      <c r="BA294">
+        <v>15</v>
+      </c>
+      <c r="BB294">
+        <v>2</v>
+      </c>
+      <c r="BC294">
+        <v>17</v>
+      </c>
+      <c r="BD294">
+        <v>0</v>
+      </c>
+      <c r="BE294">
+        <v>0</v>
+      </c>
+      <c r="BF294">
+        <v>0</v>
+      </c>
+      <c r="BG294">
+        <v>0</v>
+      </c>
+      <c r="BH294">
+        <v>0</v>
+      </c>
+      <c r="BI294">
+        <v>0</v>
+      </c>
+      <c r="BJ294">
+        <v>0</v>
+      </c>
+      <c r="BK294">
+        <v>0</v>
+      </c>
+      <c r="BL294">
+        <v>0</v>
+      </c>
+      <c r="BM294">
+        <v>0</v>
+      </c>
+      <c r="BN294">
+        <v>0</v>
+      </c>
+      <c r="BO294">
+        <v>0</v>
+      </c>
+      <c r="BP294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:68">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>7881259</v>
+      </c>
+      <c r="C295" t="s">
+        <v>68</v>
+      </c>
+      <c r="D295" t="s">
+        <v>69</v>
+      </c>
+      <c r="E295" s="2">
+        <v>45802.58333333334</v>
+      </c>
+      <c r="F295">
+        <v>7</v>
+      </c>
+      <c r="G295" t="s">
+        <v>70</v>
+      </c>
+      <c r="H295" t="s">
+        <v>77</v>
+      </c>
+      <c r="I295">
+        <v>2</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>2</v>
+      </c>
+      <c r="L295">
+        <v>5</v>
+      </c>
+      <c r="M295">
+        <v>2</v>
+      </c>
+      <c r="N295">
+        <v>7</v>
+      </c>
+      <c r="O295" t="s">
+        <v>276</v>
+      </c>
+      <c r="P295" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q295">
+        <v>2.63</v>
+      </c>
+      <c r="R295">
+        <v>2.3</v>
+      </c>
+      <c r="S295">
+        <v>3.25</v>
+      </c>
+      <c r="T295">
+        <v>1.3</v>
+      </c>
+      <c r="U295">
+        <v>3.4</v>
+      </c>
+      <c r="V295">
+        <v>2.38</v>
+      </c>
+      <c r="W295">
+        <v>1.53</v>
+      </c>
+      <c r="X295">
+        <v>5</v>
+      </c>
+      <c r="Y295">
+        <v>1.14</v>
+      </c>
+      <c r="Z295">
+        <v>2.09</v>
+      </c>
+      <c r="AA295">
+        <v>3.57</v>
+      </c>
+      <c r="AB295">
+        <v>2.78</v>
+      </c>
+      <c r="AC295">
+        <v>1.03</v>
+      </c>
+      <c r="AD295">
+        <v>10</v>
+      </c>
+      <c r="AE295">
+        <v>1.2</v>
+      </c>
+      <c r="AF295">
+        <v>4.33</v>
+      </c>
+      <c r="AG295">
+        <v>1.57</v>
+      </c>
+      <c r="AH295">
+        <v>2.2</v>
+      </c>
+      <c r="AI295">
+        <v>1.57</v>
+      </c>
+      <c r="AJ295">
+        <v>2.25</v>
+      </c>
+      <c r="AK295">
+        <v>1.38</v>
+      </c>
+      <c r="AL295">
+        <v>1.22</v>
+      </c>
+      <c r="AM295">
+        <v>1.65</v>
+      </c>
+      <c r="AN295">
+        <v>1.67</v>
+      </c>
+      <c r="AO295">
+        <v>1.39</v>
+      </c>
+      <c r="AP295">
+        <v>1.74</v>
+      </c>
+      <c r="AQ295">
+        <v>1.32</v>
+      </c>
+      <c r="AR295">
+        <v>1.73</v>
+      </c>
+      <c r="AS295">
+        <v>1.59</v>
+      </c>
+      <c r="AT295">
+        <v>3.32</v>
+      </c>
+      <c r="AU295">
+        <v>11</v>
+      </c>
+      <c r="AV295">
+        <v>6</v>
+      </c>
+      <c r="AW295">
+        <v>5</v>
+      </c>
+      <c r="AX295">
+        <v>0</v>
+      </c>
+      <c r="AY295">
+        <v>16</v>
+      </c>
+      <c r="AZ295">
+        <v>6</v>
+      </c>
+      <c r="BA295">
+        <v>6</v>
+      </c>
+      <c r="BB295">
+        <v>6</v>
+      </c>
+      <c r="BC295">
+        <v>12</v>
+      </c>
+      <c r="BD295">
+        <v>2.04</v>
+      </c>
+      <c r="BE295">
+        <v>6.15</v>
+      </c>
+      <c r="BF295">
+        <v>2.15</v>
+      </c>
+      <c r="BG295">
+        <v>1.3</v>
+      </c>
+      <c r="BH295">
+        <v>2.97</v>
+      </c>
+      <c r="BI295">
+        <v>1.56</v>
+      </c>
+      <c r="BJ295">
+        <v>2.16</v>
+      </c>
+      <c r="BK295">
+        <v>1.98</v>
+      </c>
+      <c r="BL295">
+        <v>1.7</v>
+      </c>
+      <c r="BM295">
+        <v>2.59</v>
+      </c>
+      <c r="BN295">
+        <v>1.39</v>
+      </c>
+      <c r="BO295">
+        <v>3.58</v>
+      </c>
+      <c r="BP295">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="296" spans="1:68">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>7881261</v>
+      </c>
+      <c r="C296" t="s">
+        <v>68</v>
+      </c>
+      <c r="D296" t="s">
+        <v>69</v>
+      </c>
+      <c r="E296" s="2">
+        <v>45802.58333333334</v>
+      </c>
+      <c r="F296">
+        <v>7</v>
+      </c>
+      <c r="G296" t="s">
+        <v>83</v>
+      </c>
+      <c r="H296" t="s">
+        <v>85</v>
+      </c>
+      <c r="I296">
+        <v>2</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>2</v>
+      </c>
+      <c r="L296">
+        <v>3</v>
+      </c>
+      <c r="M296">
+        <v>2</v>
+      </c>
+      <c r="N296">
+        <v>5</v>
+      </c>
+      <c r="O296" t="s">
+        <v>277</v>
+      </c>
+      <c r="P296" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q296">
+        <v>2.88</v>
+      </c>
+      <c r="R296">
+        <v>2.2</v>
+      </c>
+      <c r="S296">
+        <v>3.25</v>
+      </c>
+      <c r="T296">
+        <v>1.36</v>
+      </c>
+      <c r="U296">
+        <v>3</v>
+      </c>
+      <c r="V296">
+        <v>2.75</v>
+      </c>
+      <c r="W296">
+        <v>1.4</v>
+      </c>
+      <c r="X296">
+        <v>6.5</v>
+      </c>
+      <c r="Y296">
+        <v>1.1</v>
+      </c>
+      <c r="Z296">
+        <v>2.23</v>
+      </c>
+      <c r="AA296">
+        <v>2.98</v>
+      </c>
+      <c r="AB296">
+        <v>2.98</v>
+      </c>
+      <c r="AC296">
+        <v>1.06</v>
+      </c>
+      <c r="AD296">
+        <v>8</v>
+      </c>
+      <c r="AE296">
+        <v>1.28</v>
+      </c>
+      <c r="AF296">
+        <v>3.4</v>
+      </c>
+      <c r="AG296">
+        <v>1.85</v>
+      </c>
+      <c r="AH296">
+        <v>1.85</v>
+      </c>
+      <c r="AI296">
+        <v>1.67</v>
+      </c>
+      <c r="AJ296">
+        <v>2.1</v>
+      </c>
+      <c r="AK296">
+        <v>1.36</v>
+      </c>
+      <c r="AL296">
+        <v>1.33</v>
+      </c>
+      <c r="AM296">
+        <v>1.53</v>
+      </c>
+      <c r="AN296">
+        <v>1.89</v>
+      </c>
+      <c r="AO296">
+        <v>1.83</v>
+      </c>
+      <c r="AP296">
+        <v>1.95</v>
+      </c>
+      <c r="AQ296">
+        <v>1.74</v>
+      </c>
+      <c r="AR296">
+        <v>1.74</v>
+      </c>
+      <c r="AS296">
+        <v>1.73</v>
+      </c>
+      <c r="AT296">
+        <v>3.47</v>
+      </c>
+      <c r="AU296">
+        <v>11</v>
+      </c>
+      <c r="AV296">
+        <v>10</v>
+      </c>
+      <c r="AW296">
+        <v>0</v>
+      </c>
+      <c r="AX296">
+        <v>8</v>
+      </c>
+      <c r="AY296">
+        <v>11</v>
+      </c>
+      <c r="AZ296">
+        <v>20</v>
+      </c>
+      <c r="BA296">
+        <v>3</v>
+      </c>
+      <c r="BB296">
+        <v>5</v>
+      </c>
+      <c r="BC296">
+        <v>8</v>
+      </c>
+      <c r="BD296">
+        <v>2.02</v>
+      </c>
+      <c r="BE296">
+        <v>6.1</v>
+      </c>
+      <c r="BF296">
+        <v>2.18</v>
+      </c>
+      <c r="BG296">
+        <v>1.33</v>
+      </c>
+      <c r="BH296">
+        <v>2.83</v>
+      </c>
+      <c r="BI296">
+        <v>1.62</v>
+      </c>
+      <c r="BJ296">
+        <v>2.06</v>
+      </c>
+      <c r="BK296">
+        <v>2.09</v>
+      </c>
+      <c r="BL296">
+        <v>1.63</v>
+      </c>
+      <c r="BM296">
+        <v>2.74</v>
+      </c>
+      <c r="BN296">
+        <v>1.35</v>
+      </c>
+      <c r="BO296">
+        <v>3.85</v>
+      </c>
+      <c r="BP296">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="297" spans="1:68">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>7881262</v>
+      </c>
+      <c r="C297" t="s">
+        <v>68</v>
+      </c>
+      <c r="D297" t="s">
+        <v>69</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45802.58333333334</v>
+      </c>
+      <c r="F297">
+        <v>7</v>
+      </c>
+      <c r="G297" t="s">
+        <v>82</v>
+      </c>
+      <c r="H297" t="s">
+        <v>75</v>
+      </c>
+      <c r="I297">
+        <v>1</v>
+      </c>
+      <c r="J297">
+        <v>1</v>
+      </c>
+      <c r="K297">
+        <v>2</v>
+      </c>
+      <c r="L297">
+        <v>2</v>
+      </c>
+      <c r="M297">
+        <v>3</v>
+      </c>
+      <c r="N297">
+        <v>5</v>
+      </c>
+      <c r="O297" t="s">
+        <v>278</v>
+      </c>
+      <c r="P297" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q297">
+        <v>3.1</v>
+      </c>
+      <c r="R297">
+        <v>2.25</v>
+      </c>
+      <c r="S297">
+        <v>2.88</v>
+      </c>
+      <c r="T297">
+        <v>1.3</v>
+      </c>
+      <c r="U297">
+        <v>3.4</v>
+      </c>
+      <c r="V297">
+        <v>2.5</v>
+      </c>
+      <c r="W297">
+        <v>1.5</v>
+      </c>
+      <c r="X297">
+        <v>5.5</v>
+      </c>
+      <c r="Y297">
+        <v>1.13</v>
+      </c>
+      <c r="Z297">
+        <v>2.73</v>
+      </c>
+      <c r="AA297">
+        <v>3.37</v>
+      </c>
+      <c r="AB297">
+        <v>2.19</v>
+      </c>
+      <c r="AC297">
+        <v>1.04</v>
+      </c>
+      <c r="AD297">
+        <v>9</v>
+      </c>
+      <c r="AE297">
+        <v>1.22</v>
+      </c>
+      <c r="AF297">
+        <v>3.95</v>
+      </c>
+      <c r="AG297">
+        <v>1.65</v>
+      </c>
+      <c r="AH297">
+        <v>2</v>
+      </c>
+      <c r="AI297">
+        <v>1.62</v>
+      </c>
+      <c r="AJ297">
+        <v>2.2</v>
+      </c>
+      <c r="AK297">
+        <v>1.53</v>
+      </c>
+      <c r="AL297">
+        <v>1.25</v>
+      </c>
+      <c r="AM297">
+        <v>1.45</v>
+      </c>
+      <c r="AN297">
+        <v>1.56</v>
+      </c>
+      <c r="AO297">
+        <v>1.28</v>
+      </c>
+      <c r="AP297">
+        <v>1.47</v>
+      </c>
+      <c r="AQ297">
+        <v>1.37</v>
+      </c>
+      <c r="AR297">
+        <v>1.72</v>
+      </c>
+      <c r="AS297">
+        <v>1.29</v>
+      </c>
+      <c r="AT297">
+        <v>3.01</v>
+      </c>
+      <c r="AU297">
+        <v>4</v>
+      </c>
+      <c r="AV297">
+        <v>7</v>
+      </c>
+      <c r="AW297">
+        <v>10</v>
+      </c>
+      <c r="AX297">
+        <v>7</v>
+      </c>
+      <c r="AY297">
+        <v>14</v>
+      </c>
+      <c r="AZ297">
+        <v>14</v>
+      </c>
+      <c r="BA297">
+        <v>6</v>
+      </c>
+      <c r="BB297">
+        <v>8</v>
+      </c>
+      <c r="BC297">
+        <v>14</v>
+      </c>
+      <c r="BD297">
+        <v>1.85</v>
+      </c>
+      <c r="BE297">
+        <v>6.15</v>
+      </c>
+      <c r="BF297">
+        <v>2.41</v>
+      </c>
+      <c r="BG297">
+        <v>1.32</v>
+      </c>
+      <c r="BH297">
+        <v>2.88</v>
+      </c>
+      <c r="BI297">
+        <v>1.6</v>
+      </c>
+      <c r="BJ297">
+        <v>2.08</v>
+      </c>
+      <c r="BK297">
+        <v>2.05</v>
+      </c>
+      <c r="BL297">
+        <v>1.65</v>
+      </c>
+      <c r="BM297">
+        <v>2.7</v>
+      </c>
+      <c r="BN297">
+        <v>1.36</v>
+      </c>
+      <c r="BO297">
+        <v>3.8</v>
+      </c>
+      <c r="BP297">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>
